--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA370CCC-C84A-424F-8AA8-8CBA50FEF0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E633015C-3E34-4A44-97FE-6538AA12DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="29560" windowWidth="34560" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
+    <workbookView xWindow="8400" yWindow="29560" windowWidth="33000" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="REFACTORED" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="653">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -1503,9 +1503,6 @@
     <t>Is the ship vertical?</t>
   </si>
   <si>
-    <t>PLACESHIP</t>
-  </si>
-  <si>
     <t>Draw row:1, column: 20, character: "Num 10"</t>
   </si>
   <si>
@@ -1701,33 +1698,12 @@
     <t>Display "Player Locked In"</t>
   </si>
   <si>
-    <t>REM RENDER "1-10" BORDER</t>
-  </si>
-  <si>
-    <t>REM RENDER "A-J" BORDER</t>
-  </si>
-  <si>
     <t>FOR I=0 TO 8</t>
   </si>
   <si>
-    <t>CALL HCHAR(Y+I,X,96,10)</t>
-  </si>
-  <si>
-    <t>REM RENDER LARGE BOARD</t>
-  </si>
-  <si>
-    <t>REM RENDER SMALL BOARD</t>
-  </si>
-  <si>
-    <t>FOR I=2 TO 20 STEP 2</t>
-  </si>
-  <si>
     <t>FOR J=0 TO 18 STEP 2</t>
   </si>
   <si>
-    <t>DRAWBOARDS</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHIPS(0)=5 :: SHIPS(1)=4 :: SHIPS(2)=3 :: SHIPS(3)=3 :: SHIPS(4)=2 </t>
   </si>
   <si>
@@ -1752,21 +1728,9 @@
     <t>DIM COORDS(4) :: DIM COORDS$(4)</t>
   </si>
   <si>
-    <t>PLACESHIPS</t>
-  </si>
-  <si>
-    <t>PREPAREMENU</t>
-  </si>
-  <si>
-    <t>FOR CURRENTSHIP=0 TO 4</t>
-  </si>
-  <si>
     <t>NEXT CURRENTSHIP</t>
   </si>
   <si>
-    <t>PREPAREINPUT</t>
-  </si>
-  <si>
     <t>INPUTROW</t>
   </si>
   <si>
@@ -1779,15 +1743,6 @@
     <t>FOR I=0 TO SHIPS(CURRENTSHIP)-1</t>
   </si>
   <si>
-    <t>CALL CHAR(96,"3C4299A5A599423C") :: REM PEG HOLE</t>
-  </si>
-  <si>
-    <t>CALL CHAR(104,"003C7E7E7E7E3C00") :: REM PEG</t>
-  </si>
-  <si>
-    <t>CALL CHAR(112,"004FC949494949EF") :: REM "10"</t>
-  </si>
-  <si>
     <t>RENDERTEXT</t>
   </si>
   <si>
@@ -1824,27 +1779,12 @@
     <t>CALL RENDERTEXT("FOR YOUR",YMENU+2,XMENU)</t>
   </si>
   <si>
-    <t>CALL RENDERTEXT("POS"&amp;STR$(I)&amp;":    ",YMENU+4+I,XMENU)</t>
-  </si>
-  <si>
-    <t>CALL RENDERTEXT("        ",YMENU+4+I,XMENU)</t>
-  </si>
-  <si>
-    <t>BLANK</t>
-  </si>
-  <si>
-    <t>MENUDONE</t>
-  </si>
-  <si>
     <t>ON WARNING PRINT</t>
   </si>
   <si>
     <t>CALL RENDERTEXT("          ",YMENU+3,XMENU)</t>
   </si>
   <si>
-    <t>XLB=1 :: YLB=3 :: XSB=23 :: YSB=3 :: REM BOARD ORIGINS</t>
-  </si>
-  <si>
     <t>DISPLAY AT(1,9):"BATTLESHIP"</t>
   </si>
   <si>
@@ -1857,18 +1797,6 @@
     <t>INPUTCOL</t>
   </si>
   <si>
-    <t>CALL HCHAR(Y+I*2,X,64+I,1)</t>
-  </si>
-  <si>
-    <t>CALL HCHAR(Y,I*2+X+2,49+I,1)</t>
-  </si>
-  <si>
-    <t>CALL HCHAR(Y,X+20,112,1)</t>
-  </si>
-  <si>
-    <t>CALL HCHAR(Y+I,X+2+J,92,1)</t>
-  </si>
-  <si>
     <t>VALIDATESHIP</t>
   </si>
   <si>
@@ -1911,21 +1839,12 @@
     <t>HORIZONTAL=1</t>
   </si>
   <si>
-    <t>STARTSEQCHECK</t>
-  </si>
-  <si>
     <t>IF SHIPERR=1 THEN RETURN</t>
   </si>
   <si>
     <t>DIM SERIAL(4)</t>
   </si>
   <si>
-    <t>SERIAL(I)=COORDS(I)</t>
-  </si>
-  <si>
-    <t>SERIAL(I)=ASC(COORDS$(I))-64</t>
-  </si>
-  <si>
     <t>IF COORDS$(I-1)&lt;&gt;COORDS$(I) THEN RETURN</t>
   </si>
   <si>
@@ -1953,19 +1872,133 @@
     <t>LOC=(ASC(COORDS$(K))-64)*16+COORDS(K)</t>
   </si>
   <si>
-    <t>PLAYERLOCKEDIN</t>
-  </si>
-  <si>
-    <t>CALL RENDERTEXT("PLAYER",YMENU,XMENU)</t>
-  </si>
-  <si>
-    <t>CALL RENDERTEXT("LOCKED IN",YMENU+1,XMENU)</t>
-  </si>
-  <si>
     <t>CLEARMENU</t>
   </si>
   <si>
     <t>FOR I=0 TO 9 :: CALL HCHAR(YMENU+I,XMENU,32,10) :: NEXT I</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT(TEXT$,YMENU+4+I,XMENU)</t>
+  </si>
+  <si>
+    <t>IF I&gt;SHIPS(CURRENTSHIP) THEN TEXT$="        " ELSE TEXT$="POS"&amp;STR$(I)&amp;":    "</t>
+  </si>
+  <si>
+    <t>IF HORIZONTAL=1 THEN SERIAL(I)=COORDS(I) ELSE SERIAL(I)=ASC(COORDS$(I))-64</t>
+  </si>
+  <si>
+    <t>CALL COLOR(9,2,1) :: REM BLACK ON TRANSPARENT</t>
+  </si>
+  <si>
+    <t>CALL COLOR(10,2,12) :: REM BLACK ON LIGHT YELLOW</t>
+  </si>
+  <si>
+    <t>CALL COLOR(11,2,3) :: REM BLACK ON MED GREEN</t>
+  </si>
+  <si>
+    <t>CALL COLOR(13,2,16) :: REM BLACK ON WHITE</t>
+  </si>
+  <si>
+    <t>CALL COLOR(14,2,9) :: REM BLACK ON MED RED</t>
+  </si>
+  <si>
+    <t>HOLECHAR=96 :: CALL CHAR(HOLECHAR,"3C4299A5A599423C") :: REM SET 9</t>
+  </si>
+  <si>
+    <t>TENCHAR=97 :: CALL CHAR(TENCHAR,"004FC949494949EF") :: REM SET 9</t>
+  </si>
+  <si>
+    <t>HITCHAR=104 :: CALL CHAR(HITCHAR,"003C7E7E7E7E3C00") :: REM SET 10</t>
+  </si>
+  <si>
+    <t>SHIPCHAR=112 :: CALL CHAR(SHIPCHAR,"3C4299A5A599423C") :: REM SET 11</t>
+  </si>
+  <si>
+    <t>MISSCHAR=128 :: CALL CHAR(MISSCHAR,"3C4299A5A599423C") :: REM SET 13</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+I,X,HOLECHAR,10)</t>
+  </si>
+  <si>
+    <t>SUNKCHAR=136 :: CALL CHAR(SUNKCHAR,"3C4299A5A599423C") :: REM SET 14</t>
+  </si>
+  <si>
+    <t>DEPLOYMENU</t>
+  </si>
+  <si>
+    <t>DEPLOYINPUT</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("PLAYER'S",YMENU,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("SHIPS",YMENU+1,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("DEPLOYED",YMENU+2,XMENU)</t>
+  </si>
+  <si>
+    <t>PLAYERDEPLOYED</t>
+  </si>
+  <si>
+    <t>DEPLOYSHIPS</t>
+  </si>
+  <si>
+    <t>DEPLOYSHIP</t>
+  </si>
+  <si>
+    <t>RENDERSMBOARD</t>
+  </si>
+  <si>
+    <t>RENDERBOARDS</t>
+  </si>
+  <si>
+    <t>RENDERLGBOARD</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO 18 STEP 2</t>
+  </si>
+  <si>
+    <t>XLB=3 :: YLB=5 :: XSB=23 :: YSB=3 :: REM BOARD ORIGINS</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y-2+I*2,X-2,64+I,1)</t>
+  </si>
+  <si>
+    <t>REM RENDER Y-AXIS (LETTERS)</t>
+  </si>
+  <si>
+    <t>REM RENDER X-AXIS (NUMBERS)</t>
+  </si>
+  <si>
+    <t>RENDERLGAXES</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y-2,I*2+X,49+I,1)</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y-2,X+18,TENCHAR,1)</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+I,X+J,HOLECHAR,1)</t>
+  </si>
+  <si>
+    <t>RENDERSHIPLB</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(YLB+(ASC(COORDS$(I))-65)*2,XLB+(COORDS(I)-1)*2,SHIPCHAR,1)</t>
+  </si>
+  <si>
+    <t>RENDERSHIPSSMB</t>
+  </si>
+  <si>
+    <t>FOR CURRENTSHIP=0 TO NUMSHIPS-1</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO NUMSHIPS-1</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(YSB+ASC(P1COORDS$(I,J))-65,XSB+P1COORDS(I,J)-1,SHIPCHAR,1)</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2098,19 +2131,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2445,20 +2476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2511,10 +2542,10 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D5,A:A,0),0)," :: REM CALL ",D5,"")</f>
-        <v>GOSUB 340 :: REM CALL SETCOLORSCHEME</v>
+        <v>GOSUB 370 :: REM CALL SETCOLORSCHEME</v>
       </c>
       <c r="D5" t="str">
-        <f>A26</f>
+        <f>A29</f>
         <v>SETCOLORSCHEME</v>
       </c>
     </row>
@@ -2524,11 +2555,11 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D6,A:A,0),0)," :: REM CALL ",D6,"")</f>
-        <v>GOSUB 380 :: REM CALL DRAWBOARDS</v>
+        <v>GOSUB 440 :: REM CALL RENDERBOARDS</v>
       </c>
       <c r="D6" t="str">
-        <f>A30</f>
-        <v>DRAWBOARDS</v>
+        <f>A36</f>
+        <v>RENDERBOARDS</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,11 +2568,11 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D7,A:A,0),0)," :: REM CALL ",D7,"")</f>
-        <v>GOSUB 920 :: REM CALL PLACESHIPS</v>
+        <v>GOSUB 760 :: REM CALL DEPLOYSHIPS</v>
       </c>
       <c r="D7" t="str">
-        <f>A84</f>
-        <v>PLACESHIPS</v>
+        <f>A68</f>
+        <v>DEPLOYSHIPS</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2561,7 +2592,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B10">
@@ -2577,7 +2608,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2585,7 +2616,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2593,7 +2624,7 @@
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2601,7 +2632,7 @@
         <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,7 +2640,7 @@
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,7 +2648,7 @@
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2625,7 +2656,7 @@
         <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>600</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2633,7 +2664,7 @@
         <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2641,7 +2672,7 @@
         <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2653,7 +2684,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B21">
@@ -2669,7 +2700,7 @@
         <v>300</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>579</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2677,7 +2708,7 @@
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2685,27 +2716,23 @@
         <v>320</v>
       </c>
       <c r="C24" t="s">
-        <v>581</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>330</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
+      <c r="C25" s="5" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>13</v>
-      </c>
       <c r="B26">
         <v>340</v>
       </c>
-      <c r="C26" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A26,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      <c r="C26" s="5" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2713,7 +2740,7 @@
         <v>350</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2721,333 +2748,346 @@
         <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="B29">
         <v>370</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
+      <c r="C29" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A29,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>561</v>
-      </c>
       <c r="B30">
         <v>380</v>
       </c>
-      <c r="C30" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A30,"***")</f>
-        <v>REM SUBROUTINE ***DRAWBOARDS***</v>
+      <c r="C30" s="5" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>390</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
+      <c r="C31" s="5" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>400</v>
       </c>
-      <c r="C32" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>410</v>
       </c>
       <c r="C33" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>420</v>
       </c>
       <c r="C34" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>430</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>636</v>
+      </c>
       <c r="B36">
         <v>440</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A36,"***")</f>
+        <v>REM SUBROUTINE ***RENDERBOARDS***</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>450</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>460</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>470</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D39,A:A,0),0)," :: REM CALL ",D39,"")</f>
+        <v>GOSUB 510 :: REM CALL RENDERLGBOARD</v>
+      </c>
+      <c r="D39" t="str">
+        <f>A43</f>
+        <v>RENDERLGBOARD</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>480</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D40,A:A,0),0)," :: REM CALL ",D40,"")</f>
+        <v>GOSUB 590 :: REM CALL RENDERLGAXES</v>
+      </c>
+      <c r="D40" t="str">
+        <f>A51</f>
+        <v>RENDERLGAXES</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>490</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D41,A:A,0),0)," :: REM CALL ",D41,"")</f>
+        <v>GOSUB 700 :: REM CALL RENDERSMBOARD</v>
+      </c>
+      <c r="D41" t="str">
+        <f>A62</f>
+        <v>RENDERSMBOARD</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>500</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>637</v>
+      </c>
       <c r="B43">
         <v>510</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A43,"***")</f>
+        <v>REM SUBROUTINE ***RENDERLGBOARD***</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>520</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>530</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>540</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>550</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>560</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>570</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>580</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>643</v>
+      </c>
       <c r="B51">
         <v>590</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A51,"***")</f>
+        <v>REM SUBROUTINE ***RENDERLGAXES***</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>600</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>610</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>620</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>571</v>
-      </c>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>630</v>
       </c>
-      <c r="C55" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A55,"***")</f>
-        <v>REM SUBROUTINE ***PREPAREMENU***</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>640</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>650</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>660</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>670</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>680</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>690</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>635</v>
+      </c>
       <c r="B62">
         <v>700</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A62,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSMBOARD***</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>710</v>
       </c>
-      <c r="C63" s="5" t="str">
-        <f>_xlfn.CONCAT("IF I&gt;SHIPS(CURRENTSHIP) THEN ",INDEX(B:B,MATCH(D63,A:A,0),0)," :: REM CALL ",D63,"")</f>
-        <v>IF I&gt;SHIPS(CURRENTSHIP) THEN 740 :: REM CALL BLANK</v>
-      </c>
-      <c r="D63" t="str">
-        <f>A66</f>
-        <v>BLANK</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>720</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>594</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>730</v>
       </c>
-      <c r="C65" s="5" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D65,A:A,0),0)," :: REM GOTO ",D65,"")</f>
-        <v>GOTO 760 :: REM GOTO MENUDONE</v>
-      </c>
-      <c r="D65" t="str">
-        <f>A68</f>
-        <v>MENUDONE</v>
+      <c r="C65" s="5" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
-        <v>596</v>
-      </c>
       <c r="B66">
         <v>740</v>
       </c>
-      <c r="C66" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A66,"***")</f>
-        <v>REM LABEL ***BLANK***</v>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3055,27 +3095,32 @@
         <v>750</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>595</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
-        <v>597</v>
+      <c r="A68" s="17" t="s">
+        <v>633</v>
       </c>
       <c r="B68">
         <v>760</v>
       </c>
-      <c r="C68" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A68,"***")</f>
-        <v>REM LABEL ***MENUDONE***</v>
+      <c r="C68" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A68,"***")</f>
+        <v>REM SUBROUTINE ***DEPLOYSHIPS***</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>770</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>1</v>
+      <c r="C69" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D69,A:A,0),0)," :: REM CALL ",D69,"")</f>
+        <v>GOSUB 1790 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D69" t="str">
+        <f>A171</f>
+        <v>CLEARMENU</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3083,80 +3128,87 @@
         <v>780</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="B71">
         <v>790</v>
       </c>
-      <c r="C71" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A71,"***")</f>
-        <v>REM SUBROUTINE ***PREPAREINPUT***</v>
+      <c r="C71" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A71,"***")</f>
+        <v>REM LABEL ***DEPLOYSHIP***</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>800</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>25</v>
+      <c r="C72" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D72,A:A,0),0)," :: REM CALL ",D72,"")</f>
+        <v>GOSUB 930 :: REM CALL DEPLOYMENU</v>
+      </c>
+      <c r="D72" t="str">
+        <f>A85</f>
+        <v>DEPLOYMENU</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>810</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>578</v>
+      <c r="C73" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D73,A:A,0),0)," :: REM CALL ",D73,"")</f>
+        <v>GOSUB 1050 :: REM CALL DEPLOYINPUT</v>
+      </c>
+      <c r="D73" t="str">
+        <f>A97</f>
+        <v>DEPLOYINPUT</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>575</v>
-      </c>
       <c r="B74">
         <v>820</v>
       </c>
-      <c r="C74" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A74,"***")</f>
-        <v>REM LABEL ***INPUTROW***</v>
+      <c r="C74" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D74,A:A,0),0)," :: REM CALL ",D74,"")</f>
+        <v>GOSUB 1180 :: REM CALL VALIDATESHIP</v>
+      </c>
+      <c r="D74" t="str">
+        <f>A110</f>
+        <v>VALIDATESHIP</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>830</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>602</v>
+      <c r="C75" s="5" t="str">
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D75,A:A,0),0)," :: REM GOTO ",D75,"")</f>
+        <v>IF SHIPERR=1 THEN 790 :: REM GOTO DEPLOYSHIP</v>
+      </c>
+      <c r="D75" t="str">
+        <f>A71</f>
+        <v>DEPLOYSHIP</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>840</v>
       </c>
-      <c r="C76" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D76,A:A,0),0)," :: REM CALL ",D76,"")</f>
-        <v>IF COORDS$(I)="" THEN  820 :: REM CALL INPUTROW</v>
-      </c>
-      <c r="D76" t="str">
-        <f>A74</f>
-        <v>INPUTROW</v>
+      <c r="C76" s="5" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="21" t="s">
-        <v>604</v>
-      </c>
       <c r="B77">
         <v>850</v>
       </c>
-      <c r="C77" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A77,"***")</f>
-        <v>REM LABEL ***INPUTCOL***</v>
+      <c r="C77" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3164,82 +3216,87 @@
         <v>860</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>870</v>
       </c>
-      <c r="C79" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D79,A:A,0),0)," :: REM CALL ",D79,"")</f>
-        <v>IF COORDS(I)&gt;10 THEN  850 :: REM CALL INPUTCOL</v>
+      <c r="C79" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D79,A:A,0),0)," :: REM CALL ",D79,"")</f>
+        <v>GOSUB 1350 :: REM CALL RENDERSHIPLB</v>
       </c>
       <c r="D79" t="str">
-        <f>A77</f>
-        <v>INPUTCOL</v>
+        <f>A127</f>
+        <v>RENDERSHIPLB</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>880</v>
       </c>
-      <c r="C80" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D80,A:A,0),0)," :: REM CALL ",D80,"")</f>
-        <v>IF COORDS(I)&lt;1 THEN  850 :: REM CALL INPUTCOL</v>
-      </c>
-      <c r="D80" t="str">
-        <f>A77</f>
-        <v>INPUTCOL</v>
+      <c r="C80" s="5" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>890</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>1</v>
+      <c r="C81" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D81,A:A,0),0)," :: REM CALL ",D81,"")</f>
+        <v>GOSUB 1280 :: REM CALL RENDERSHIPSSMB</v>
+      </c>
+      <c r="D81" t="str">
+        <f>A120</f>
+        <v>RENDERSHIPSSMB</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>900</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>598</v>
+      <c r="C82" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D82,A:A,0),0)," :: REM CALL ",D82,"")</f>
+        <v>GOSUB 510 :: REM CALL RENDERLGBOARD</v>
+      </c>
+      <c r="D82" t="str">
+        <f>A43</f>
+        <v>RENDERLGBOARD</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>910</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>9</v>
+      <c r="C83" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D83,A:A,0),0)," :: REM CALL ",D83,"")</f>
+        <v>GOSUB 1400 :: REM CALL PLAYERDEPLOYED</v>
+      </c>
+      <c r="D83" t="str">
+        <f>A132</f>
+        <v>PLAYERDEPLOYED</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>570</v>
-      </c>
       <c r="B84">
         <v>920</v>
       </c>
-      <c r="C84" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A84,"***")</f>
-        <v>REM SUBROUTINE ***PLACESHIPS***</v>
+      <c r="C84" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>627</v>
+      </c>
       <c r="B85">
         <v>930</v>
       </c>
       <c r="C85" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D85,A:A,0),0)," :: REM CALL ",D85,"")</f>
-        <v>GOSUB 1610 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D85" t="str">
-        <f>A153</f>
-        <v>CLEARMENU</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A85,"***")</f>
+        <v>REM SUBROUTINE ***DEPLOYMENU***</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3247,71 +3304,47 @@
         <v>940</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="21" t="s">
-        <v>487</v>
-      </c>
       <c r="B87">
         <v>950</v>
       </c>
-      <c r="C87" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A87,"***")</f>
-        <v>REM LABEL ***PLACESHIP***</v>
+      <c r="C87" s="5" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>960</v>
       </c>
-      <c r="C88" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D88,A:A,0),0)," :: REM CALL ",D88,"")</f>
-        <v>GOSUB 630 :: REM CALL PREPAREMENU</v>
-      </c>
-      <c r="D88" t="str">
-        <f>A55</f>
-        <v>PREPAREMENU</v>
+      <c r="C88" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>970</v>
       </c>
-      <c r="C89" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D89,A:A,0),0)," :: REM CALL ",D89,"")</f>
-        <v>GOSUB 790 :: REM CALL PREPAREINPUT</v>
-      </c>
-      <c r="D89" t="str">
-        <f>A71</f>
-        <v>PREPAREINPUT</v>
+      <c r="C89" s="5" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>980</v>
       </c>
-      <c r="C90" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D90,A:A,0),0)," :: REM CALL ",D90,"")</f>
-        <v>GOSUB 1390 :: REM CALL VALIDATESHIP</v>
-      </c>
-      <c r="D90" t="str">
-        <f>A131</f>
-        <v>VALIDATESHIP</v>
+      <c r="C90" s="5" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>990</v>
       </c>
-      <c r="C91" s="5" t="str">
-        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D91,A:A,0),0)," :: REM CALL ",D91,"")</f>
-        <v>IF SHIPERR=1 THEN 950 :: REM CALL PLACESHIP</v>
-      </c>
-      <c r="D91" t="str">
-        <f>A87</f>
-        <v>PLACESHIP</v>
+      <c r="C91" s="5" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,7 +3352,7 @@
         <v>1000</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>578</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3327,7 +3360,7 @@
         <v>1010</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3335,7 +3368,7 @@
         <v>1020</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>1</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3343,288 +3376,325 @@
         <v>1030</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>1040</v>
       </c>
-      <c r="C96" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D96,A:A,0),0)," :: REM CALL ",D96,"")</f>
-        <v>GOSUB 1560 :: REM CALL PLAYERLOCKEDIN</v>
-      </c>
-      <c r="D96" t="str">
-        <f>A148</f>
-        <v>PLAYERLOCKEDIN</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>628</v>
+      </c>
       <c r="B97">
         <v>1050</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
-        <v>620</v>
-      </c>
+      <c r="C97" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A97,"***")</f>
+        <v>REM SUBROUTINE ***DEPLOYINPUT***</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1060</v>
       </c>
-      <c r="C98" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A98,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1070</v>
       </c>
-      <c r="C99" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>563</v>
+      </c>
       <c r="B100">
         <v>1080</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A100,"***")</f>
+        <v>REM LABEL ***INPUTROW***</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1090</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>1100</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D102,A:A,0),0)," :: REM GOTO ",D102,"")</f>
+        <v>IF COORDS$(I)="" THEN  1080 :: REM GOTO INPUTROW</v>
+      </c>
+      <c r="D102" t="str">
+        <f>A100</f>
+        <v>INPUTROW</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>584</v>
+      </c>
       <c r="B103">
         <v>1110</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C103" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A103,"***")</f>
+        <v>REM LABEL ***INPUTCOL***</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>1120</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
-        <v>629</v>
-      </c>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>1130</v>
       </c>
-      <c r="C105" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A105,"***")</f>
-        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C105" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D105,A:A,0),0)," :: REM GOTO ",D105,"")</f>
+        <v>IF COORDS(I)&gt;10 THEN  1110 :: REM GOTO INPUTCOL</v>
+      </c>
+      <c r="D105" t="str">
+        <f>A103</f>
+        <v>INPUTCOL</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>1140</v>
       </c>
-      <c r="C106" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C106" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D106,A:A,0),0)," :: REM GOTO ",D106,"")</f>
+        <v>IF COORDS(I)&lt;1 THEN  1110 :: REM GOTO INPUTCOL</v>
+      </c>
+      <c r="D106" t="str">
+        <f>A103</f>
+        <v>INPUTCOL</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>1150</v>
       </c>
-      <c r="C107" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C107" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>1160</v>
       </c>
-      <c r="C108" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C108" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>1170</v>
       </c>
-      <c r="C109" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C109" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>585</v>
+      </c>
       <c r="B110">
         <v>1180</v>
       </c>
-      <c r="C110" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A110,"***")</f>
+        <v>REM SUBROUTINE ***VALIDATESHIP***</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>1190</v>
       </c>
-      <c r="C111" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C111" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>1200</v>
       </c>
-      <c r="C112" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D112,A:A,0),0)," :: REM CALL ",D112,"")</f>
+        <v>GOSUB 1460 :: REM CALL CHECKHORIZONTAL</v>
+      </c>
+      <c r="D112" t="str">
+        <f>A138</f>
+        <v>CHECKHORIZONTAL</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>1210</v>
       </c>
-      <c r="C113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C113" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>1220</v>
       </c>
-      <c r="C114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C114" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>1230</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
-        <v>611</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A116,"***")</f>
-        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D116,A:A,0),0)," :: REM CALL ",D116,"")</f>
+        <v>GOSUB 1530 :: REM CALL CHECKSEQUENCE</v>
+      </c>
+      <c r="D116" t="str">
+        <f>A145</f>
+        <v>CHECKSEQUENCE</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>1250</v>
       </c>
       <c r="C117" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>1260</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D118,A:A,0),0)," :: REM CALL ",D118,"")</f>
+        <v>GOSUB 1680 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D118" t="str">
+        <f>A160</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>1270</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>649</v>
+      </c>
       <c r="B120">
         <v>1280</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A120,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIPSSMB***</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>1290</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>1300</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>1310</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>1320</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>1330</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>1340</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="17" t="s">
+        <v>647</v>
+      </c>
       <c r="B127">
         <v>1350</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C127" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A127,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIPLB***</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>1360</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>1</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3632,7 +3702,7 @@
         <v>1370</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3640,27 +3710,27 @@
         <v>1380</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
-        <v>609</v>
-      </c>
       <c r="B131">
         <v>1390</v>
       </c>
-      <c r="C131" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A131,"***")</f>
-        <v>REM SUBROUTINE ***VALIDATESHIP***</v>
+      <c r="C131" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="17" t="s">
+        <v>632</v>
+      </c>
       <c r="B132">
         <v>1400</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>610</v>
+      <c r="C132" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A132,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3669,24 +3739,19 @@
       </c>
       <c r="C133" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D133,A:A,0),0)," :: REM CALL ",D133,"")</f>
-        <v>GOSUB 1060 :: REM CALL CHECKHORIZONTAL</v>
+        <v>GOSUB 1790 :: REM CALL CLEARMENU</v>
       </c>
       <c r="D133" t="str">
-        <f>A98</f>
-        <v>CHECKHORIZONTAL</v>
+        <f>A171</f>
+        <v>CLEARMENU</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>1420</v>
       </c>
-      <c r="C134" s="5" t="str">
-        <f>_xlfn.CONCAT("IF HORIZONTAL&lt;&gt;1 THEN ",INDEX(B:B,MATCH(D134,A:A,0),0)," :: REM CALL ",D134,"")</f>
-        <v>IF HORIZONTAL&lt;&gt;1 THEN 1470 :: REM CALL VERTICAL</v>
-      </c>
-      <c r="D134" t="str">
-        <f>A139</f>
-        <v>VERTICAL</v>
+      <c r="C134" s="5" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3694,7 +3759,7 @@
         <v>1430</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3702,7 +3767,7 @@
         <v>1440</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3710,427 +3775,512 @@
         <v>1450</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="17" t="s">
+        <v>596</v>
+      </c>
       <c r="B138">
         <v>1460</v>
       </c>
-      <c r="C138" s="5" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D138,A:A,0),0)," :: REM GOTO ",D138,"")</f>
-        <v>GOTO 1510 :: REM GOTO STARTSEQCHECK</v>
-      </c>
-      <c r="D138" t="str">
-        <f>A143</f>
-        <v>STARTSEQCHECK</v>
+      <c r="C138" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A138,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="21" t="s">
-        <v>491</v>
-      </c>
       <c r="B139">
         <v>1470</v>
       </c>
-      <c r="C139" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A139,"***")</f>
-        <v>REM LABEL ***VERTICAL***</v>
+      <c r="C139" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>1480</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>578</v>
+      <c r="C140" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>1490</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>627</v>
+      <c r="C141" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>1500</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="21" t="s">
-        <v>623</v>
-      </c>
       <c r="B143">
         <v>1510</v>
       </c>
-      <c r="C143" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A143,"***")</f>
-        <v>REM LABEL ***STARTSEQCHECK***</v>
+      <c r="C143" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>1520</v>
       </c>
-      <c r="C144" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D144,A:A,0),0)," :: REM CALL ",D144,"")</f>
-        <v>GOSUB 1240 :: REM CALL CHECKSEQUENCE</v>
-      </c>
-      <c r="D144" t="str">
-        <f>A116</f>
-        <v>CHECKSEQUENCE</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C144" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>587</v>
+      </c>
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C145" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A145,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D146,A:A,0),0)," :: REM CALL ",D146,"")</f>
-        <v>GOSUB 1130 :: REM CALL CHECKOVERLAP</v>
-      </c>
-      <c r="D146" t="str">
-        <f>A105</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B147">
         <v>1550</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
-        <v>637</v>
-      </c>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>1560</v>
       </c>
-      <c r="C148" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A148,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERLOCKEDIN***</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C148" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>1570</v>
       </c>
-      <c r="C149" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D149,A:A,0),0)," :: REM CALL ",D149,"")</f>
-        <v>GOSUB 1610 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D149" t="str">
-        <f>A153</f>
-        <v>CLEARMENU</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>1580</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>1590</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>1600</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
-        <v>640</v>
-      </c>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B153">
         <v>1610</v>
       </c>
-      <c r="C153" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A153,"***")</f>
-        <v>REM SUBROUTINE ***CLEARMENU***</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C153" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>1620</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>1630</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="19" t="s">
-        <v>582</v>
-      </c>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>1640</v>
       </c>
-      <c r="C156" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A156,"***")</f>
-        <v>REM SUBROUTINE ***RENDERTEXT***</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>1650</v>
       </c>
-      <c r="C157" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>1660</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>1670</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>602</v>
+      </c>
       <c r="B160">
         <v>1680</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C160" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A160,"***")</f>
+        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>1690</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>1700</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>1710</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C165" s="5"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C166" s="5"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C168" s="5"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C170" s="5"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C172" s="5"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C174" s="5"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="5"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C176" s="5"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>1720</v>
+      </c>
+      <c r="C164" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>1730</v>
+      </c>
+      <c r="C165" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>1740</v>
+      </c>
+      <c r="C166" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>1750</v>
+      </c>
+      <c r="C167" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>1760</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>1770</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>1780</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B171">
+        <v>1790</v>
+      </c>
+      <c r="C171" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A171,"***")</f>
+        <v>REM SUBROUTINE ***CLEARMENU***</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>1800</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>1810</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B174">
+        <v>1820</v>
+      </c>
+      <c r="C174" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A174,"***")</f>
+        <v>REM SUBROUTINE ***RENDERTEXT***</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>1830</v>
+      </c>
+      <c r="C175" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>1840</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>1850</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>1860</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>1870</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>1880</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>1890</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C189" s="5"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C188" s="5"/>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C205" s="5"/>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C206" s="5"/>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C210" s="5"/>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C211" s="5"/>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C212" s="5"/>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C213" s="5"/>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C214" s="5"/>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C215" s="5"/>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C216" s="5"/>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="5"/>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C218" s="5"/>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C219" s="5"/>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C220" s="5"/>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C221" s="5"/>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C222" s="5"/>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="5"/>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="5"/>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C248" s="5"/>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C251" s="5"/>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C257" s="5"/>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C192" s="5"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="5"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="5"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" s="5"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" s="5"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" s="5"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" s="5"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" s="5"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" s="5"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C265" s="5"/>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="5"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="5"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
     </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="5"/>
+    </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C286" s="5"/>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="5"/>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C295" s="5"/>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C301" s="5"/>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C307" s="5"/>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C310" s="5"/>
-    </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C332" s="5"/>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C333" s="5"/>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="5"/>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="5"/>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C336" s="5"/>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C337" s="5"/>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C338" s="5"/>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="5"/>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C344" s="5"/>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C345" s="5"/>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C346" s="5"/>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C347" s="5"/>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C348" s="5"/>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="5"/>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="5"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="5"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="5"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" s="5"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" s="5"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" s="5"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" s="5"/>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C351" s="5"/>
@@ -4138,68 +4288,107 @@
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
     </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" s="5"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" s="5"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" s="5"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" s="5"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" s="5"/>
+    </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="1"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="1"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C368" s="1"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="1"/>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="1"/>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C373" s="1"/>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C374" s="1"/>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C376" s="1"/>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="1"/>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C382" s="1"/>
+      <c r="C369" s="5"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" s="5"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" s="1"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C386" s="1"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C388" s="1"/>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" s="1"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C389" s="1"/>
     </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="1"/>
+    </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="5"/>
+      <c r="C394" s="1"/>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" s="1"/>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" s="1"/>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C404" s="1"/>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C406" s="1"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C407" s="5"/>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C411" s="5"/>
+      <c r="C407" s="1"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C412" s="5"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C413" s="5"/>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C414" s="5"/>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C417" s="5"/>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" s="5"/>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C435" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4213,8 +4402,8 @@
   </sheetPr>
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166:C168"/>
+    <sheetView topLeftCell="A150" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4242,7 +4431,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -4259,7 +4448,7 @@
         <f>IFERROR(INDEX($A:$A,MATCH(_xlfn.NUMBERVALUE(D2),$B:$B,0)),"")</f>
         <v/>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4278,7 +4467,7 @@
         <f t="shared" ref="E3:E66" si="1">IFERROR(INDEX($A:$A,MATCH(_xlfn.NUMBERVALUE(D3),$B:$B,0)),"")</f>
         <v/>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4297,7 +4486,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4316,7 +4505,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4335,7 +4524,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4354,7 +4543,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4362,7 +4551,7 @@
       <c r="B8" s="2">
         <v>160</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="str">
@@ -4373,7 +4562,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4397,7 +4586,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -4414,7 +4603,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4433,7 +4622,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4533,8 +4722,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>529</v>
+      <c r="A17" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="B17" s="2">
         <v>250</v>
@@ -4801,7 +4990,7 @@
       <c r="B32" s="2">
         <v>400</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="5" t="str">
@@ -4812,7 +5001,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="9" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4867,7 +5056,7 @@
         <v/>
       </c>
       <c r="F35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4893,7 +5082,7 @@
       <c r="B37" s="2">
         <v>450</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="5"/>
@@ -4907,7 +5096,7 @@
       <c r="B38" s="2">
         <v>460</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="5"/>
@@ -4923,7 +5112,7 @@
       <c r="B39" s="2">
         <v>470</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="5"/>
@@ -4939,7 +5128,7 @@
       <c r="B40" s="2">
         <v>480</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="5"/>
@@ -4953,7 +5142,7 @@
       <c r="B41" s="2">
         <v>490</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="5"/>
@@ -4967,7 +5156,7 @@
       <c r="B42" s="2">
         <v>500</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="5"/>
@@ -4975,7 +5164,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>473</v>
       </c>
     </row>
@@ -4983,7 +5172,7 @@
       <c r="B43" s="2">
         <v>510</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="5"/>
@@ -4994,8 +5183,8 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>530</v>
+      <c r="A44" s="13" t="s">
+        <v>529</v>
       </c>
       <c r="B44" s="2">
         <v>520</v>
@@ -5042,7 +5231,7 @@
       <c r="B47" s="2">
         <v>550</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="5"/>
@@ -5050,8 +5239,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>565</v>
+      <c r="F47" s="10" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5072,12 +5261,12 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B49" s="2">
         <v>570</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="5"/>
@@ -5235,14 +5424,14 @@
         <v/>
       </c>
       <c r="F57" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>630</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="str">
@@ -5253,8 +5442,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>513</v>
+      <c r="F58" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5297,7 +5486,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B61" s="2">
         <v>670</v>
@@ -5314,7 +5503,7 @@
         <v/>
       </c>
       <c r="F61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5337,7 +5526,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
         <v>482</v>
       </c>
       <c r="B63" s="2">
@@ -5355,7 +5544,7 @@
         <v/>
       </c>
       <c r="F63" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5429,8 +5618,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>536</v>
+      <c r="A68" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="B68" s="2">
         <v>740</v>
@@ -5447,7 +5636,7 @@
         <v/>
       </c>
       <c r="F68" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5482,7 +5671,7 @@
         <v/>
       </c>
       <c r="F70" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -5517,14 +5706,14 @@
         <v>INPUTSHIP</v>
       </c>
       <c r="F72" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
         <v>790</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D73" s="5" t="str">
@@ -5536,7 +5725,7 @@
         <v/>
       </c>
       <c r="F73" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5571,7 +5760,7 @@
         <v/>
       </c>
       <c r="F75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -5622,7 +5811,7 @@
         <v/>
       </c>
       <c r="F78" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -5657,7 +5846,7 @@
         <v>INPUTSHIP</v>
       </c>
       <c r="F80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -5676,12 +5865,12 @@
         <v>RESTORECOLS</v>
       </c>
       <c r="F81" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2">
         <v>880</v>
@@ -5698,7 +5887,7 @@
         <v/>
       </c>
       <c r="F82" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5717,7 +5906,7 @@
         <v/>
       </c>
       <c r="F83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5736,7 +5925,7 @@
         <v/>
       </c>
       <c r="F84" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -5755,7 +5944,7 @@
         <v/>
       </c>
       <c r="F85" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5774,7 +5963,7 @@
         <v/>
       </c>
       <c r="F86" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5793,7 +5982,7 @@
         <v/>
       </c>
       <c r="F87" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5861,7 +6050,7 @@
         <v/>
       </c>
       <c r="F91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5899,12 +6088,12 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D94" s="5" t="str">
@@ -5915,8 +6104,8 @@
         <f t="shared" si="3"/>
         <v>SHIP2</v>
       </c>
-      <c r="F94" s="11" t="s">
-        <v>512</v>
+      <c r="F94" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5935,7 +6124,7 @@
         <v/>
       </c>
       <c r="F95" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5954,17 +6143,17 @@
         <v/>
       </c>
       <c r="F96" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B97" s="2">
         <v>1030</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D97" s="5" t="str">
@@ -5975,15 +6164,15 @@
         <f t="shared" si="3"/>
         <v>SHIP3</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>512</v>
+      <c r="F97" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>1040</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D98" s="5" t="str">
@@ -5995,14 +6184,14 @@
         <v/>
       </c>
       <c r="F98" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>1050</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D99" s="5" t="str">
@@ -6014,17 +6203,17 @@
         <v/>
       </c>
       <c r="F99" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B100" s="2">
         <v>1060</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D100" s="5" t="str">
@@ -6035,15 +6224,15 @@
         <f t="shared" si="3"/>
         <v>SHIP4</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>512</v>
+      <c r="F100" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>1070</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="5" t="str">
@@ -6055,14 +6244,14 @@
         <v/>
       </c>
       <c r="F101" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>1080</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="5" t="str">
@@ -6074,17 +6263,17 @@
         <v/>
       </c>
       <c r="F102" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B103" s="2">
         <v>1090</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D103" s="5" t="str">
@@ -6095,15 +6284,15 @@
         <f t="shared" si="3"/>
         <v>SHIP5</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>512</v>
+      <c r="F103" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>1100</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D104" s="5" t="str">
@@ -6115,14 +6304,14 @@
         <v/>
       </c>
       <c r="F104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
         <v>1110</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5" t="str">
@@ -6134,17 +6323,17 @@
         <v/>
       </c>
       <c r="F105" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B106" s="2">
         <v>1120</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D106" s="5" t="str">
@@ -6155,15 +6344,15 @@
         <f t="shared" si="3"/>
         <v>PLACED</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>512</v>
+      <c r="F106" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>1130</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D107" s="5" t="str">
@@ -6175,14 +6364,14 @@
         <v/>
       </c>
       <c r="F107" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
         <v>1140</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D108" s="5" t="str">
@@ -6194,12 +6383,12 @@
         <v/>
       </c>
       <c r="F108" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B109" s="2">
         <v>1150</v>
@@ -6248,7 +6437,7 @@
         <v/>
       </c>
       <c r="F111" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -6267,7 +6456,7 @@
         <v/>
       </c>
       <c r="F112" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -6286,7 +6475,7 @@
         <v/>
       </c>
       <c r="F113" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -6305,7 +6494,7 @@
         <v/>
       </c>
       <c r="F114" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -6324,7 +6513,7 @@
         <v/>
       </c>
       <c r="F115" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -6343,7 +6532,7 @@
         <v/>
       </c>
       <c r="F116" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -6362,7 +6551,7 @@
         <v/>
       </c>
       <c r="F117" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -6381,7 +6570,7 @@
         <v/>
       </c>
       <c r="F118" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -6400,7 +6589,7 @@
         <v/>
       </c>
       <c r="F119" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -6419,7 +6608,7 @@
         <v/>
       </c>
       <c r="F120" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -6440,7 +6629,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B122" s="2">
         <v>1280</v>
@@ -6457,7 +6646,7 @@
         <v/>
       </c>
       <c r="F122" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -6492,7 +6681,7 @@
         <v>INPUTSHIP</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -6527,7 +6716,7 @@
         <v/>
       </c>
       <c r="F126" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -6562,7 +6751,7 @@
         <v/>
       </c>
       <c r="F128" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -6597,7 +6786,7 @@
         <v/>
       </c>
       <c r="F130" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6796,7 +6985,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B143" s="2">
         <v>1490</v>
@@ -6813,7 +7002,7 @@
         <v/>
       </c>
       <c r="F143" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -6913,7 +7102,7 @@
         <v/>
       </c>
       <c r="F149" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -6948,7 +7137,7 @@
         <v/>
       </c>
       <c r="F151" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -6983,7 +7172,7 @@
         <v>NEXTDUPCHECK</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -7002,12 +7191,12 @@
         <v>CHECKROWDUP</v>
       </c>
       <c r="F154" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B155" s="2">
         <v>1610</v>
@@ -7056,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7077,7 +7266,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B159" s="2">
         <v>1650</v>
@@ -7094,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7113,7 +7302,7 @@
         <v>INPUTSHIPMENU</v>
       </c>
       <c r="F160" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7134,7 +7323,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B162" s="2">
         <v>1680</v>
@@ -7167,7 +7356,7 @@
         <v/>
       </c>
       <c r="F163" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7186,7 +7375,7 @@
         <v/>
       </c>
       <c r="F164" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7221,7 +7410,7 @@
         <v/>
       </c>
       <c r="F166" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7240,18 +7429,18 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
         <v>1740</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D168" s="10" t="str">
+      <c r="D168" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="E168" s="9" t="str">
+      <c r="E168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7260,7 +7449,7 @@
       <c r="B169" s="2">
         <v>1750</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" t="s">
         <v>141</v>
       </c>
       <c r="D169" s="5" t="str">
@@ -7276,7 +7465,7 @@
       <c r="B170" s="2">
         <v>1760</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" t="s">
         <v>142</v>
       </c>
       <c r="D170" s="5" t="str">
@@ -7292,7 +7481,7 @@
       <c r="B171" s="2">
         <v>1770</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" t="s">
         <v>125</v>
       </c>
       <c r="D171" s="5" t="str">
@@ -7308,7 +7497,7 @@
       <c r="B172" s="2">
         <v>1780</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" t="s">
         <v>143</v>
       </c>
       <c r="D172" s="5" t="str">
@@ -7324,7 +7513,7 @@
       <c r="B173" s="2">
         <v>1790</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" t="s">
         <v>144</v>
       </c>
       <c r="D173" s="5" t="str">
@@ -7340,7 +7529,7 @@
       <c r="B174" s="2">
         <v>1800</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" t="s">
         <v>40</v>
       </c>
       <c r="D174" s="5" t="str">
@@ -7356,7 +7545,7 @@
       <c r="B175" s="2">
         <v>1810</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" t="s">
         <v>145</v>
       </c>
       <c r="D175" s="5" t="str">
@@ -7372,7 +7561,7 @@
       <c r="B176" s="2">
         <v>1820</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="5" t="str">
@@ -7388,7 +7577,7 @@
       <c r="B177" s="2">
         <v>1830</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" t="s">
         <v>146</v>
       </c>
       <c r="D177" s="5" t="str">
@@ -7404,7 +7593,7 @@
       <c r="B178" s="2">
         <v>1840</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" t="s">
         <v>147</v>
       </c>
       <c r="D178" s="5" t="str">
@@ -7420,7 +7609,7 @@
       <c r="B179" s="2">
         <v>1850</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" t="s">
         <v>148</v>
       </c>
       <c r="D179" s="5" t="str">
@@ -7436,7 +7625,7 @@
       <c r="B180" s="2">
         <v>1860</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" t="s">
         <v>149</v>
       </c>
       <c r="D180" s="5" t="str">
@@ -7452,7 +7641,7 @@
       <c r="B181" s="2">
         <v>1870</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" t="s">
         <v>150</v>
       </c>
       <c r="D181" s="5" t="str">
@@ -7468,7 +7657,7 @@
       <c r="B182" s="2">
         <v>1880</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" t="s">
         <v>151</v>
       </c>
       <c r="D182" s="5" t="str">
@@ -7484,7 +7673,7 @@
       <c r="B183" s="2">
         <v>1890</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" t="s">
         <v>152</v>
       </c>
       <c r="D183" s="5" t="str">
@@ -7500,7 +7689,7 @@
       <c r="B184" s="2">
         <v>1900</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D184" s="5" t="str">
@@ -7516,7 +7705,7 @@
       <c r="B185" s="2">
         <v>1910</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="5" t="str">
@@ -7532,7 +7721,7 @@
       <c r="B186" s="2">
         <v>1920</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" t="s">
         <v>154</v>
       </c>
       <c r="D186" s="5" t="str">
@@ -7548,7 +7737,7 @@
       <c r="B187" s="2">
         <v>1930</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" t="s">
         <v>155</v>
       </c>
       <c r="D187" s="5" t="str">
@@ -7564,7 +7753,7 @@
       <c r="B188" s="2">
         <v>1940</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" t="s">
         <v>156</v>
       </c>
       <c r="D188" s="5" t="str">
@@ -7580,7 +7769,7 @@
       <c r="B189" s="2">
         <v>1950</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" t="s">
         <v>157</v>
       </c>
       <c r="D189" s="5" t="str">
@@ -7596,7 +7785,7 @@
       <c r="B190" s="2">
         <v>1960</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" t="s">
         <v>158</v>
       </c>
       <c r="D190" s="5" t="str">
@@ -7612,7 +7801,7 @@
       <c r="B191" s="2">
         <v>1970</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" t="s">
         <v>159</v>
       </c>
       <c r="D191" s="5" t="str">
@@ -7628,7 +7817,7 @@
       <c r="B192" s="2">
         <v>1980</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" t="s">
         <v>160</v>
       </c>
       <c r="D192" s="5" t="str">
@@ -7644,7 +7833,7 @@
       <c r="B193" s="2">
         <v>1990</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" t="s">
         <v>161</v>
       </c>
       <c r="D193" s="5" t="str">
@@ -7660,7 +7849,7 @@
       <c r="B194" s="2">
         <v>2000</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" t="s">
         <v>162</v>
       </c>
       <c r="D194" s="5" t="str">
@@ -7676,7 +7865,7 @@
       <c r="B195" s="2">
         <v>2010</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" t="s">
         <v>163</v>
       </c>
       <c r="D195" s="5" t="str">
@@ -7692,7 +7881,7 @@
       <c r="B196" s="2">
         <v>2020</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" t="s">
         <v>164</v>
       </c>
       <c r="D196" s="5" t="str">
@@ -7708,7 +7897,7 @@
       <c r="B197" s="2">
         <v>2030</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" t="s">
         <v>165</v>
       </c>
       <c r="D197" s="5" t="str">
@@ -7724,7 +7913,7 @@
       <c r="B198" s="2">
         <v>2040</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" t="s">
         <v>151</v>
       </c>
       <c r="D198" s="5" t="str">
@@ -7740,7 +7929,7 @@
       <c r="B199" s="2">
         <v>2050</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" t="s">
         <v>166</v>
       </c>
       <c r="D199" s="5" t="str">
@@ -7756,7 +7945,7 @@
       <c r="B200" s="2">
         <v>2060</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="5" t="str">
@@ -7772,7 +7961,7 @@
       <c r="B201" s="2">
         <v>2070</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" t="s">
         <v>167</v>
       </c>
       <c r="D201" s="5" t="str">
@@ -7788,7 +7977,7 @@
       <c r="B202" s="2">
         <v>2080</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" t="s">
         <v>168</v>
       </c>
       <c r="D202" s="5" t="str">
@@ -7804,7 +7993,7 @@
       <c r="B203" s="2">
         <v>2090</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" t="s">
         <v>169</v>
       </c>
       <c r="D203" s="5" t="str">
@@ -7820,7 +8009,7 @@
       <c r="B204" s="2">
         <v>2100</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" t="s">
         <v>170</v>
       </c>
       <c r="D204" s="5" t="str">
@@ -7836,7 +8025,7 @@
       <c r="B205" s="2">
         <v>2110</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" t="s">
         <v>171</v>
       </c>
       <c r="D205" s="5" t="str">
@@ -7852,7 +8041,7 @@
       <c r="B206" s="2">
         <v>2120</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" t="s">
         <v>172</v>
       </c>
       <c r="D206" s="5" t="str">
@@ -7868,7 +8057,7 @@
       <c r="B207" s="2">
         <v>2130</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" t="s">
         <v>173</v>
       </c>
       <c r="D207" s="5" t="str">
@@ -7884,7 +8073,7 @@
       <c r="B208" s="2">
         <v>2140</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" t="s">
         <v>174</v>
       </c>
       <c r="D208" s="5" t="str">
@@ -7900,7 +8089,7 @@
       <c r="B209" s="2">
         <v>2150</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" t="s">
         <v>175</v>
       </c>
       <c r="D209" s="5" t="str">
@@ -7916,7 +8105,7 @@
       <c r="B210" s="2">
         <v>2160</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" t="s">
         <v>40</v>
       </c>
       <c r="D210" s="5" t="str">
@@ -7932,7 +8121,7 @@
       <c r="B211" s="2">
         <v>2170</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" t="s">
         <v>176</v>
       </c>
       <c r="D211" s="5" t="str">
@@ -7948,7 +8137,7 @@
       <c r="B212" s="2">
         <v>2180</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" t="s">
         <v>177</v>
       </c>
       <c r="D212" s="5" t="str">
@@ -7964,7 +8153,7 @@
       <c r="B213" s="2">
         <v>2190</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" t="s">
         <v>151</v>
       </c>
       <c r="D213" s="5" t="str">
@@ -7980,7 +8169,7 @@
       <c r="B214" s="2">
         <v>2200</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" t="s">
         <v>178</v>
       </c>
       <c r="D214" s="5" t="str">
@@ -7996,7 +8185,7 @@
       <c r="B215" s="2">
         <v>2210</v>
       </c>
-      <c r="C215" s="9" t="s">
+      <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="5" t="str">
@@ -8012,7 +8201,7 @@
       <c r="B216" s="2">
         <v>2220</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C216" t="s">
         <v>179</v>
       </c>
       <c r="D216" s="5" t="str">
@@ -8028,7 +8217,7 @@
       <c r="B217" s="2">
         <v>2230</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" t="s">
         <v>180</v>
       </c>
       <c r="D217" s="5" t="str">
@@ -8044,7 +8233,7 @@
       <c r="B218" s="2">
         <v>2240</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" t="s">
         <v>181</v>
       </c>
       <c r="D218" s="5" t="str">
@@ -8060,7 +8249,7 @@
       <c r="B219" s="2">
         <v>2250</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" t="s">
         <v>182</v>
       </c>
       <c r="D219" s="5" t="str">
@@ -8076,7 +8265,7 @@
       <c r="B220" s="2">
         <v>2260</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C220" t="s">
         <v>183</v>
       </c>
       <c r="D220" s="5" t="str">
@@ -8092,7 +8281,7 @@
       <c r="B221" s="2">
         <v>2270</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" t="s">
         <v>184</v>
       </c>
       <c r="D221" s="5" t="str">
@@ -8108,7 +8297,7 @@
       <c r="B222" s="2">
         <v>2280</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" t="s">
         <v>185</v>
       </c>
       <c r="D222" s="5" t="str">
@@ -8124,7 +8313,7 @@
       <c r="B223" s="2">
         <v>2290</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C223" t="s">
         <v>186</v>
       </c>
       <c r="D223" s="5" t="str">
@@ -8140,7 +8329,7 @@
       <c r="B224" s="2">
         <v>2300</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" t="s">
         <v>187</v>
       </c>
       <c r="D224" s="5" t="str">
@@ -8156,7 +8345,7 @@
       <c r="B225" s="2">
         <v>2310</v>
       </c>
-      <c r="C225" s="9" t="s">
+      <c r="C225" t="s">
         <v>188</v>
       </c>
       <c r="D225" s="5" t="str">
@@ -8173,7 +8362,7 @@
       <c r="B226" s="2">
         <v>2320</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C226" t="s">
         <v>189</v>
       </c>
       <c r="D226" s="5" t="str">
@@ -8189,7 +8378,7 @@
       <c r="B227" s="2">
         <v>2330</v>
       </c>
-      <c r="C227" s="9" t="s">
+      <c r="C227" t="s">
         <v>190</v>
       </c>
       <c r="D227" s="5" t="str">
@@ -8205,7 +8394,7 @@
       <c r="B228" s="2">
         <v>2340</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" t="s">
         <v>191</v>
       </c>
       <c r="D228" s="5" t="str">
@@ -8221,7 +8410,7 @@
       <c r="B229" s="2">
         <v>2350</v>
       </c>
-      <c r="C229" s="9" t="s">
+      <c r="C229" t="s">
         <v>192</v>
       </c>
       <c r="D229" s="5" t="str">
@@ -8237,7 +8426,7 @@
       <c r="B230" s="2">
         <v>2360</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" t="s">
         <v>193</v>
       </c>
       <c r="D230" s="5" t="str">
@@ -8253,7 +8442,7 @@
       <c r="B231" s="2">
         <v>2370</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C231" t="s">
         <v>61</v>
       </c>
       <c r="D231" s="5" t="str">
@@ -8269,7 +8458,7 @@
       <c r="B232" s="2">
         <v>2380</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" t="s">
         <v>194</v>
       </c>
       <c r="D232" s="5" t="str">
@@ -8285,7 +8474,7 @@
       <c r="B233" s="2">
         <v>2390</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" t="s">
         <v>195</v>
       </c>
       <c r="D233" s="5" t="str">
@@ -8297,18 +8486,18 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="14">
+    <row r="234" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="12">
         <v>2400</v>
       </c>
-      <c r="C234" s="14" t="s">
+      <c r="C234" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D234" s="16" t="str">
+      <c r="D234" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E234" s="14" t="str">
+      <c r="E234" s="12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -8317,7 +8506,7 @@
       <c r="B235" s="2">
         <v>2410</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" t="s">
         <v>197</v>
       </c>
       <c r="D235" s="5" t="str">
@@ -8333,7 +8522,7 @@
       <c r="B236" s="2">
         <v>2420</v>
       </c>
-      <c r="C236" s="9" t="s">
+      <c r="C236" t="s">
         <v>198</v>
       </c>
       <c r="D236" s="5" t="str">
@@ -8349,7 +8538,7 @@
       <c r="B237" s="2">
         <v>2430</v>
       </c>
-      <c r="C237" s="9" t="s">
+      <c r="C237" t="s">
         <v>138</v>
       </c>
       <c r="D237" s="5" t="str">
@@ -8365,7 +8554,7 @@
       <c r="B238" s="2">
         <v>2440</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C238" t="s">
         <v>199</v>
       </c>
       <c r="D238" s="5" t="str">
@@ -8381,7 +8570,7 @@
       <c r="B239" s="2">
         <v>2450</v>
       </c>
-      <c r="C239" s="9" t="s">
+      <c r="C239" t="s">
         <v>200</v>
       </c>
       <c r="D239" s="5" t="str">
@@ -8397,7 +8586,7 @@
       <c r="B240" s="2">
         <v>2460</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" t="s">
         <v>201</v>
       </c>
       <c r="D240" s="5" t="str">
@@ -8413,7 +8602,7 @@
       <c r="B241" s="2">
         <v>2470</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C241" t="s">
         <v>202</v>
       </c>
       <c r="D241" s="5" t="str">
@@ -8429,7 +8618,7 @@
       <c r="B242" s="2">
         <v>2480</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" t="s">
         <v>203</v>
       </c>
       <c r="D242" s="5" t="str">
@@ -8445,7 +8634,7 @@
       <c r="B243" s="2">
         <v>2490</v>
       </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" t="s">
         <v>204</v>
       </c>
       <c r="D243" s="5" t="str">
@@ -8461,7 +8650,7 @@
       <c r="B244" s="2">
         <v>2500</v>
       </c>
-      <c r="C244" s="9" t="s">
+      <c r="C244" t="s">
         <v>205</v>
       </c>
       <c r="D244" s="5" t="str">
@@ -8477,7 +8666,7 @@
       <c r="B245" s="2">
         <v>2510</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" t="s">
         <v>206</v>
       </c>
       <c r="D245" s="5" t="str">
@@ -8493,7 +8682,7 @@
       <c r="B246" s="2">
         <v>2520</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" t="s">
         <v>207</v>
       </c>
       <c r="D246" s="5" t="str">
@@ -8509,7 +8698,7 @@
       <c r="B247" s="2">
         <v>2530</v>
       </c>
-      <c r="C247" s="9" t="s">
+      <c r="C247" t="s">
         <v>208</v>
       </c>
       <c r="D247" s="5" t="str">
@@ -8525,7 +8714,7 @@
       <c r="B248" s="2">
         <v>2540</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C248" t="s">
         <v>209</v>
       </c>
       <c r="D248" s="5" t="str">
@@ -8541,7 +8730,7 @@
       <c r="B249" s="2">
         <v>2550</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" t="s">
         <v>210</v>
       </c>
       <c r="D249" s="5" t="str">
@@ -8557,7 +8746,7 @@
       <c r="B250" s="2">
         <v>2560</v>
       </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" t="s">
         <v>14</v>
       </c>
       <c r="D250" s="5" t="str">
@@ -8573,7 +8762,7 @@
       <c r="B251" s="2">
         <v>2570</v>
       </c>
-      <c r="C251" s="9" t="s">
+      <c r="C251" t="s">
         <v>211</v>
       </c>
       <c r="D251" s="5" t="str">
@@ -8589,7 +8778,7 @@
       <c r="B252" s="2">
         <v>2580</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" t="s">
         <v>212</v>
       </c>
       <c r="D252" s="5" t="str">
@@ -8605,7 +8794,7 @@
       <c r="B253" s="2">
         <v>2590</v>
       </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" t="s">
         <v>125</v>
       </c>
       <c r="D253" s="5" t="str">
@@ -8621,7 +8810,7 @@
       <c r="B254" s="2">
         <v>2600</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" t="s">
         <v>213</v>
       </c>
       <c r="D254" s="5" t="str">
@@ -8637,7 +8826,7 @@
       <c r="B255" s="2">
         <v>2610</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="C255" t="s">
         <v>214</v>
       </c>
       <c r="D255" s="5" t="str">
@@ -8653,7 +8842,7 @@
       <c r="B256" s="2">
         <v>2620</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" t="s">
         <v>1</v>
       </c>
       <c r="D256" s="5" t="str">
@@ -8669,7 +8858,7 @@
       <c r="B257" s="2">
         <v>2630</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C257" t="s">
         <v>215</v>
       </c>
       <c r="D257" s="5" t="str">
@@ -8685,7 +8874,7 @@
       <c r="B258" s="2">
         <v>2640</v>
       </c>
-      <c r="C258" s="9" t="s">
+      <c r="C258" t="s">
         <v>216</v>
       </c>
       <c r="D258" s="5" t="str">
@@ -8701,7 +8890,7 @@
       <c r="B259" s="2">
         <v>2650</v>
       </c>
-      <c r="C259" s="9" t="s">
+      <c r="C259" t="s">
         <v>217</v>
       </c>
       <c r="D259" s="5" t="str">
@@ -8717,7 +8906,7 @@
       <c r="B260" s="2">
         <v>2660</v>
       </c>
-      <c r="C260" s="9" t="s">
+      <c r="C260" t="s">
         <v>218</v>
       </c>
       <c r="D260" s="5" t="str">
@@ -8733,7 +8922,7 @@
       <c r="B261" s="2">
         <v>2670</v>
       </c>
-      <c r="C261" s="9" t="s">
+      <c r="C261" t="s">
         <v>219</v>
       </c>
       <c r="D261" s="5" t="str">
@@ -8749,7 +8938,7 @@
       <c r="B262" s="2">
         <v>2680</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="C262" t="s">
         <v>220</v>
       </c>
       <c r="D262" s="5" t="str">
@@ -8765,7 +8954,7 @@
       <c r="B263" s="2">
         <v>2690</v>
       </c>
-      <c r="C263" s="9" t="s">
+      <c r="C263" t="s">
         <v>221</v>
       </c>
       <c r="D263" s="5" t="str">
@@ -8781,7 +8970,7 @@
       <c r="B264" s="2">
         <v>2700</v>
       </c>
-      <c r="C264" s="9" t="s">
+      <c r="C264" t="s">
         <v>222</v>
       </c>
       <c r="D264" s="5" t="str">
@@ -8797,7 +8986,7 @@
       <c r="B265" s="2">
         <v>2710</v>
       </c>
-      <c r="C265" s="9" t="s">
+      <c r="C265" t="s">
         <v>223</v>
       </c>
       <c r="D265" s="5" t="str">
@@ -8813,7 +9002,7 @@
       <c r="B266" s="2">
         <v>2720</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" t="s">
         <v>224</v>
       </c>
       <c r="D266" s="5" t="str">
@@ -8829,7 +9018,7 @@
       <c r="B267" s="2">
         <v>2730</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C267" t="s">
         <v>225</v>
       </c>
       <c r="D267" s="5" t="str">
@@ -8845,7 +9034,7 @@
       <c r="B268" s="2">
         <v>2740</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" t="s">
         <v>226</v>
       </c>
       <c r="D268" s="5" t="str">
@@ -8861,7 +9050,7 @@
       <c r="B269" s="2">
         <v>2750</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" t="s">
         <v>227</v>
       </c>
       <c r="D269" s="5" t="str">
@@ -8877,7 +9066,7 @@
       <c r="B270" s="2">
         <v>2760</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="5" t="str">
@@ -8893,7 +9082,7 @@
       <c r="B271" s="2">
         <v>2770</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C271" t="s">
         <v>228</v>
       </c>
       <c r="D271" s="5" t="str">
@@ -8909,7 +9098,7 @@
       <c r="B272" s="2">
         <v>2780</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C272" t="s">
         <v>229</v>
       </c>
       <c r="D272" s="5" t="str">

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E633015C-3E34-4A44-97FE-6538AA12DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEDE273-0A75-CB4F-AF94-062957878ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="29560" windowWidth="33000" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="REFACTORED" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="718">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -1542,9 +1542,6 @@
     <t>Are the ship row numbers consecutive (based on summation comparison)?</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Next ship type</t>
   </si>
   <si>
@@ -1704,27 +1701,12 @@
     <t>FOR J=0 TO 18 STEP 2</t>
   </si>
   <si>
-    <t xml:space="preserve">SHIPS(0)=5 :: SHIPS(1)=4 :: SHIPS(2)=3 :: SHIPS(3)=3 :: SHIPS(4)=2 </t>
-  </si>
-  <si>
     <t>NUMSHIPS=5</t>
   </si>
   <si>
-    <t>SHIPS$(0)="CARRIER" :: SHIPS$(1)="BATTLESHIP" :: SHIPS$(2)="CRUISER" :: SHIPS$(3)="SUBMARINE" :: SHIPS$(4)="DESTROYER"</t>
-  </si>
-  <si>
     <t>Draw row:15, column: 31, character: "N"; initialize T</t>
   </si>
   <si>
-    <t>X=XLB :: Y=YLB</t>
-  </si>
-  <si>
-    <t>X=XSB :: Y=YSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIM P1COORDS(4,4) :: DIM P2COORDS(4,4) :: DIM P1COORDS$(4,4) :: DIM P2COORDS$(4,4) </t>
-  </si>
-  <si>
     <t>DIM COORDS(4) :: DIM COORDS$(4)</t>
   </si>
   <si>
@@ -1734,15 +1716,6 @@
     <t>INPUTROW</t>
   </si>
   <si>
-    <t>XMENU=23 :: YMENU=14</t>
-  </si>
-  <si>
-    <t>DIM SHIPS(4) :: DIM SHIPS$(4)</t>
-  </si>
-  <si>
-    <t>FOR I=0 TO SHIPS(CURRENTSHIP)-1</t>
-  </si>
-  <si>
     <t>RENDERTEXT</t>
   </si>
   <si>
@@ -1761,9 +1734,6 @@
     <t>C$=SEG$(TEXT$,I+1,1)</t>
   </si>
   <si>
-    <t>CALL RENDERTEXT(SHIPS$(CURRENTSHIP),YMENU+3,XMENU)</t>
-  </si>
-  <si>
     <t>CALL RENDERTEXT("[IE. C3]:",YMENU+4,XMENU)</t>
   </si>
   <si>
@@ -1806,9 +1776,6 @@
     <t>CHECKSEQUENCE</t>
   </si>
   <si>
-    <t>FOR I=1 TO SHIPS(CURRENTSHIP)-1</t>
-  </si>
-  <si>
     <t>EXPSUM=MINCOORD</t>
   </si>
   <si>
@@ -1851,24 +1818,12 @@
     <t>CHECKOVERLAP</t>
   </si>
   <si>
-    <t>FOR K=0 TO SHIPS(CURRENTSHIP)-1</t>
-  </si>
-  <si>
-    <t>FOR J=0 TO SHIPS(I)-1</t>
-  </si>
-  <si>
     <t>IF LOC=STOREDLOC THEN SHIPERR=1 :: RETURN</t>
   </si>
   <si>
     <t>FOR I=0 TO CURRENTSHIP-1</t>
   </si>
   <si>
-    <t>P1COORDS(CURRENTSHIP,I)=COORDS(I) :: P1COORDS$(CURRENTSHIP,I)=COORDS$(I)</t>
-  </si>
-  <si>
-    <t>STOREDLOC=(ASC(P1COORDS$(I,J))-64)*16+P1COORDS(I,J)</t>
-  </si>
-  <si>
     <t>LOC=(ASC(COORDS$(K))-64)*16+COORDS(K)</t>
   </si>
   <si>
@@ -1881,9 +1836,6 @@
     <t>CALL RENDERTEXT(TEXT$,YMENU+4+I,XMENU)</t>
   </si>
   <si>
-    <t>IF I&gt;SHIPS(CURRENTSHIP) THEN TEXT$="        " ELSE TEXT$="POS"&amp;STR$(I)&amp;":    "</t>
-  </si>
-  <si>
     <t>IF HORIZONTAL=1 THEN SERIAL(I)=COORDS(I) ELSE SERIAL(I)=ASC(COORDS$(I))-64</t>
   </si>
   <si>
@@ -1923,45 +1875,27 @@
     <t>SUNKCHAR=136 :: CALL CHAR(SUNKCHAR,"3C4299A5A599423C") :: REM SET 14</t>
   </si>
   <si>
-    <t>DEPLOYMENU</t>
-  </si>
-  <si>
-    <t>DEPLOYINPUT</t>
-  </si>
-  <si>
     <t>CALL RENDERTEXT("PLAYER'S",YMENU,XMENU)</t>
   </si>
   <si>
     <t>CALL RENDERTEXT("SHIPS",YMENU+1,XMENU)</t>
   </si>
   <si>
-    <t>CALL RENDERTEXT("DEPLOYED",YMENU+2,XMENU)</t>
-  </si>
-  <si>
     <t>PLAYERDEPLOYED</t>
   </si>
   <si>
     <t>DEPLOYSHIPS</t>
   </si>
   <si>
-    <t>DEPLOYSHIP</t>
-  </si>
-  <si>
-    <t>RENDERSMBOARD</t>
+    <t>RENDERSHIP</t>
   </si>
   <si>
     <t>RENDERBOARDS</t>
   </si>
   <si>
-    <t>RENDERLGBOARD</t>
-  </si>
-  <si>
     <t>FOR I=0 TO 18 STEP 2</t>
   </si>
   <si>
-    <t>XLB=3 :: YLB=5 :: XSB=23 :: YSB=3 :: REM BOARD ORIGINS</t>
-  </si>
-  <si>
     <t>CALL HCHAR(Y-2+I*2,X-2,64+I,1)</t>
   </si>
   <si>
@@ -1971,9 +1905,6 @@
     <t>REM RENDER X-AXIS (NUMBERS)</t>
   </si>
   <si>
-    <t>RENDERLGAXES</t>
-  </si>
-  <si>
     <t>CALL HCHAR(Y-2,I*2+X,49+I,1)</t>
   </si>
   <si>
@@ -1983,29 +1914,293 @@
     <t>CALL HCHAR(Y+I,X+J,HOLECHAR,1)</t>
   </si>
   <si>
-    <t>RENDERSHIPLB</t>
-  </si>
-  <si>
-    <t>CALL HCHAR(YLB+(ASC(COORDS$(I))-65)*2,XLB+(COORDS(I)-1)*2,SHIPCHAR,1)</t>
-  </si>
-  <si>
-    <t>RENDERSHIPSSMB</t>
-  </si>
-  <si>
     <t>FOR CURRENTSHIP=0 TO NUMSHIPS-1</t>
   </si>
   <si>
     <t>FOR I=0 TO NUMSHIPS-1</t>
   </si>
   <si>
-    <t>CALL HCHAR(YSB+ASC(P1COORDS$(I,J))-65,XSB+P1COORDS(I,J)-1,SHIPCHAR,1)</t>
+    <t>Peg hole green</t>
+  </si>
+  <si>
+    <t>Set peg hole green</t>
+  </si>
+  <si>
+    <t>Render ships on small grid</t>
+  </si>
+  <si>
+    <t>Random number between 1 to 2 (1=horizontal, 2=vertical)</t>
+  </si>
+  <si>
+    <t>Random number between 1 to (10-ship length) (starting value for ship)</t>
+  </si>
+  <si>
+    <t>Set ships and offset</t>
+  </si>
+  <si>
+    <t>Choose a row (letter)</t>
+  </si>
+  <si>
+    <t>Convert letter to number</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Add consecutive columns (numbers) ship values from start</t>
+  </si>
+  <si>
+    <t>Add row ship value to all entries for the ship</t>
+  </si>
+  <si>
+    <t>SETOFFSETS</t>
+  </si>
+  <si>
+    <t>Increment offset</t>
+  </si>
+  <si>
+    <t>Set ship size</t>
+  </si>
+  <si>
+    <t>PICKSHIPLOC</t>
+  </si>
+  <si>
+    <t>DUPCHECK</t>
+  </si>
+  <si>
+    <t>DODUPCHECK</t>
+  </si>
+  <si>
+    <t>ROWDUPCHECK</t>
+  </si>
+  <si>
+    <t>ALTDUPCHECK</t>
+  </si>
+  <si>
+    <t>PICKALLSHIPLOCS</t>
+  </si>
+  <si>
+    <t>DUPLICATE</t>
+  </si>
+  <si>
+    <t>KEEPDUPCHECKING</t>
+  </si>
+  <si>
+    <t>Not in vertical mode (trick)</t>
+  </si>
+  <si>
+    <t>Vertical mode (trick)</t>
+  </si>
+  <si>
+    <t>VERTICALMODE</t>
+  </si>
+  <si>
+    <t>Dead code</t>
+  </si>
+  <si>
+    <t>COMPUTERDEPLOYED</t>
+  </si>
+  <si>
+    <t>COMPUTERDEPLOYED2</t>
+  </si>
+  <si>
+    <t>Increment GOT up from 0</t>
+  </si>
+  <si>
+    <t>Increment POST up from starting value</t>
+  </si>
+  <si>
+    <t>Always called</t>
+  </si>
+  <si>
+    <t>CONVERTNUM2LET</t>
+  </si>
+  <si>
+    <t>One loop</t>
+  </si>
+  <si>
+    <t>Store row</t>
+  </si>
+  <si>
+    <t>INCROW</t>
+  </si>
+  <si>
+    <t>STOREROW</t>
+  </si>
+  <si>
+    <t>Choose a random column</t>
+  </si>
+  <si>
+    <t>Add col ship value to all entries for the ship</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("AUTO",YMENU,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("DEPLOY",YMENU+1,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("YOUR",YMENU+2,XMENU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIPLENS(0)=5 :: SHIPLENS(1)=4 :: SHIPLENS(2)=3 :: SHIPLENS(3)=3 :: SHIPLENS(4)=2 </t>
+  </si>
+  <si>
+    <t>FOR I=0 TO SHIPLENS(CURRENTSHIP)-1</t>
+  </si>
+  <si>
+    <t>IF I&gt;SHIPLENS(CURRENTSHIP) THEN TEXT$="        " ELSE TEXT$="POS"&amp;STR$(I)&amp;":    "</t>
+  </si>
+  <si>
+    <t>FOR J=0 TO SHIPLENS(I)-1</t>
+  </si>
+  <si>
+    <t>FOR I=1 TO SHIPLENS(CURRENTSHIP)-1</t>
+  </si>
+  <si>
+    <t>FOR K=0 TO SHIPLENS(CURRENTSHIP)-1</t>
+  </si>
+  <si>
+    <t>DIM SHIPLENS(4) :: DIM SHIPNAMES$(4)</t>
+  </si>
+  <si>
+    <t>SHIPNAMES$(0)="CARRIER" :: SHIPNAMES$(1)="BATTLESHIP" :: SHIPNAMES$(2)="CRUISER" :: SHIPNAMES$(3)="SUBMARINE" :: SHIPNAMES$(4)="DESTROYER"</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT(SHIPNAMES$(CURRENTSHIP),YMENU+3,XMENU)</t>
+  </si>
+  <si>
+    <t>BCOORDS(0,I,J)=BCOORDS(1,I,J) :: BCOORDS$(0,I,J)=BCOORDS$(1,I,J)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("SHIPS?",YMENU+3,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("[Y/N]:",YMENU+4,XMENU)</t>
+  </si>
+  <si>
+    <t>ACCEPT AT(YMENU+4,XMENU+4)VALIDATE("YN")BEEP SIZE(1):AUTODEPLOY$</t>
+  </si>
+  <si>
+    <t>BCOORDS(0,CURRENTSHIP,I)=COORDS(I) :: BCOORDS$(0,CURRENTSHIP,I)=COORDS$(I)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("DEPLOYED.",YMENU+2,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("COMPUTER",YMENU+4,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("DEPLOYING",YMENU+5,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("SHIPS...",YMENU+6,XMENU)</t>
+  </si>
+  <si>
+    <t>PLAYERDELOY</t>
+  </si>
+  <si>
+    <t>PLAYERDEPLOYSHIPS</t>
+  </si>
+  <si>
+    <t>PLAYERDEPLOYSHIP</t>
+  </si>
+  <si>
+    <t>PLAYERRENDERSHIPS</t>
+  </si>
+  <si>
+    <t>COMPUTERDEPLOY</t>
+  </si>
+  <si>
+    <t>PLAYERDEPLOYMENU</t>
+  </si>
+  <si>
+    <t>PLAYERDEPLOYINPUT</t>
+  </si>
+  <si>
+    <t>RENDERBOARD</t>
+  </si>
+  <si>
+    <t>RENDERAXES</t>
+  </si>
+  <si>
+    <t>RENDERSHIPSAUX</t>
+  </si>
+  <si>
+    <t>X=XAUX :: Y=YAUX</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+ASC(BCOORDS$(0,I,J))-65,X+BCOORDS(0,I,J)-1,SHIPCHAR,1)</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+(ASC(COORDS$(I))-65)*2,X+(COORDS(I)-1)*2,SHIPCHAR,1)</t>
+  </si>
+  <si>
+    <t>X=XBOARD :: Y=YBOARD</t>
+  </si>
+  <si>
+    <t>RENDERAUX</t>
+  </si>
+  <si>
+    <t>XMENU=23 :: YMENU=14 :: REM MENU ORIGINS</t>
+  </si>
+  <si>
+    <t>XBOARD=3 :: YBOARD=5 :: REM BOARD ORIGINS</t>
+  </si>
+  <si>
+    <t>XAUX=23 :: YAUX=3 :: REM AUX BOARD ORIGINS</t>
+  </si>
+  <si>
+    <t>DIM BCOORDS(1,4,4) :: DIM BCOORDS$(1,4,4) :: REM BCOORDS[PLAYER,SHIP,POS], BCOORDS$[PLAYER,SHIP,POS]</t>
+  </si>
+  <si>
+    <t>HORIZONTAL=INT(RND*2)</t>
+  </si>
+  <si>
+    <t>STATIC=INT(RND*10)+1</t>
+  </si>
+  <si>
+    <t>IF HORIZONTAL=1 THEN COORDS$(I)=CHR$(64+STATIC) ELSE COORDS(I)=STATIC</t>
+  </si>
+  <si>
+    <t>COMPUTERDEPLOYSHIP</t>
+  </si>
+  <si>
+    <t>PLAYER=0</t>
+  </si>
+  <si>
+    <t>STOREDLOC=(ASC(BCOORDS$(PLAYER,I,J))-64)*16+BCOORDS(PLAYER,I,J)</t>
+  </si>
+  <si>
+    <t>PLAYER=1</t>
+  </si>
+  <si>
+    <t>SHIPBEGIN=INT(RND*(10-SHIPLENS(CURRENTSHIP)))+1</t>
+  </si>
+  <si>
+    <t>BCOORDS(1,CURRENTSHIP,I)=COORDS(I) :: BCOORDS$(1,CURRENTSHIP,I)=COORDS$(I)</t>
+  </si>
+  <si>
+    <t>IF HORIZONTAL=1 THEN COORDS(I)=SHIPBEGIN+I ELSE COORDS$(I)=CHR$(64+SHIPBEGIN+I)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("AUTO",YMENU+6,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("DEPLOYING",YMENU+7,XMENU)</t>
+  </si>
+  <si>
+    <t>CALL RENDERTEXT("SHIPS...",YMENU+8,XMENU)</t>
+  </si>
+  <si>
+    <t>DEBUG=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2070,6 +2265,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2121,7 +2323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2142,6 +2344,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2476,19 +2681,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -2502,15 +2707,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>_xlfn.IFNA(MATCH(D2,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>110</v>
       </c>
@@ -2522,76 +2731,104 @@
         <f>A10</f>
         <v>INIT</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>_xlfn.IFNA(MATCH(D3,A:A,0),"")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>120</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D4,A:A,0),0)," :: REM CALL ",D4,"")</f>
-        <v>GOSUB 290 :: REM CALL SETCHARS</v>
+        <v>GOSUB 320 :: REM CALL SETCHARS</v>
       </c>
       <c r="D4" t="str">
-        <f>A21</f>
+        <f>A24</f>
         <v>SETCHARS</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>_xlfn.IFNA(MATCH(D4,A:A,0),"")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>130</v>
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D5,A:A,0),0)," :: REM CALL ",D5,"")</f>
-        <v>GOSUB 370 :: REM CALL SETCOLORSCHEME</v>
+        <v>GOSUB 400 :: REM CALL SETCOLORSCHEME</v>
       </c>
       <c r="D5" t="str">
-        <f>A29</f>
+        <f>A32</f>
         <v>SETCOLORSCHEME</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>_xlfn.IFNA(MATCH(D5,A:A,0),"")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>140</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D6,A:A,0),0)," :: REM CALL ",D6,"")</f>
-        <v>GOSUB 440 :: REM CALL RENDERBOARDS</v>
+        <v>GOSUB 470 :: REM CALL RENDERBOARDS</v>
       </c>
       <c r="D6" t="str">
-        <f>A36</f>
+        <f>A39</f>
         <v>RENDERBOARDS</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>_xlfn.IFNA(MATCH(D6,A:A,0),"")</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>150</v>
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D7,A:A,0),0)," :: REM CALL ",D7,"")</f>
-        <v>GOSUB 760 :: REM CALL DEPLOYSHIPS</v>
+        <v>GOSUB 540 :: REM CALL DEPLOYSHIPS</v>
       </c>
       <c r="D7" t="str">
-        <f>A68</f>
+        <f>A46</f>
         <v>DEPLOYSHIPS</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f>_xlfn.IFNA(MATCH(D7,A:A,0),"")</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>160</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f>_xlfn.IFNA(MATCH(D8,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f>_xlfn.IFNA(MATCH(D9,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>5</v>
       </c>
@@ -2602,1793 +2839,3369 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A10,"***")</f>
         <v>REM SUBROUTINE ***INIT***</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f>_xlfn.IFNA(MATCH(D10,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.IFNA(MATCH(D11,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="E13" t="str">
+        <f>_xlfn.IFNA(MATCH(D13,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.IFNA(MATCH(D14,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.IFNA(MATCH(D15,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.IFNA(MATCH(D16,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+      <c r="E17" t="str">
+        <f>_xlfn.IFNA(MATCH(D17,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.IFNA(MATCH(D18,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.IFNA(MATCH(D19,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>10</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="E20" t="str">
+        <f>_xlfn.IFNA(MATCH(D20,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>290</v>
       </c>
-      <c r="C21" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A21,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.IFNA(MATCH(D21,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>300</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>589</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.IFNA(MATCH(D22,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.IFNA(MATCH(D23,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="B24">
         <v>320</v>
       </c>
-      <c r="C24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A24,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
+      </c>
+      <c r="E24" t="str">
+        <f>_xlfn.IFNA(MATCH(D24,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>330</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+      <c r="E25" t="str">
+        <f>_xlfn.IFNA(MATCH(D25,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>340</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>605</v>
+      </c>
+      <c r="E26" t="str">
+        <f>_xlfn.IFNA(MATCH(D26,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>350</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" t="str">
+        <f>_xlfn.IFNA(MATCH(D27,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>360</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="C28" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E28" t="str">
+        <f>_xlfn.IFNA(MATCH(D28,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>370</v>
       </c>
-      <c r="C29" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A29,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E29" t="str">
+        <f>_xlfn.IFNA(MATCH(D29,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>380</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+      <c r="E30" t="str">
+        <f>_xlfn.IFNA(MATCH(D30,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>390</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="str">
+        <f>_xlfn.IFNA(MATCH(D31,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="B32">
         <v>400</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A32,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.IFNA(MATCH(D32,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>410</v>
       </c>
-      <c r="C33" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="E33" t="str">
+        <f>_xlfn.IFNA(MATCH(D33,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>420</v>
       </c>
-      <c r="C34" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E34" t="str">
+        <f>_xlfn.IFNA(MATCH(D34,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>430</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>636</v>
-      </c>
+      <c r="C35" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E35" t="str">
+        <f>_xlfn.IFNA(MATCH(D35,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>440</v>
       </c>
-      <c r="C36" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A36,"***")</f>
-        <v>REM SUBROUTINE ***RENDERBOARDS***</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>602</v>
+      </c>
+      <c r="E36" t="str">
+        <f>_xlfn.IFNA(MATCH(D36,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>450</v>
       </c>
       <c r="C37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="E37" t="str">
+        <f>_xlfn.IFNA(MATCH(D37,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>460</v>
       </c>
       <c r="C38" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E38" t="str">
+        <f>_xlfn.IFNA(MATCH(D38,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>616</v>
+      </c>
       <c r="B39">
         <v>470</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D39,A:A,0),0)," :: REM CALL ",D39,"")</f>
-        <v>GOSUB 510 :: REM CALL RENDERLGBOARD</v>
-      </c>
-      <c r="D39" t="str">
-        <f>A43</f>
-        <v>RENDERLGBOARD</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A39,"***")</f>
+        <v>REM SUBROUTINE ***RENDERBOARDS***</v>
+      </c>
+      <c r="E39" t="str">
+        <f>_xlfn.IFNA(MATCH(D39,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>480</v>
       </c>
-      <c r="C40" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D40,A:A,0),0)," :: REM CALL ",D40,"")</f>
-        <v>GOSUB 590 :: REM CALL RENDERLGAXES</v>
-      </c>
-      <c r="D40" t="str">
-        <f>A51</f>
-        <v>RENDERLGAXES</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f>_xlfn.IFNA(MATCH(D40,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>490</v>
       </c>
-      <c r="C41" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D41,A:A,0),0)," :: REM CALL ",D41,"")</f>
-        <v>GOSUB 700 :: REM CALL RENDERSMBOARD</v>
-      </c>
-      <c r="D41" t="str">
-        <f>A62</f>
-        <v>RENDERSMBOARD</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>571</v>
+      </c>
+      <c r="E41" t="str">
+        <f>_xlfn.IFNA(MATCH(D41,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>500</v>
       </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>637</v>
-      </c>
+      <c r="C42" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D42,A:A,0),0)," :: REM CALL ",D42,"")</f>
+        <v>GOSUB 580 :: REM CALL RENDERBOARD</v>
+      </c>
+      <c r="D42" t="str">
+        <f>A50</f>
+        <v>RENDERBOARD</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.IFNA(MATCH(D42,A:A,0),"")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>510</v>
       </c>
       <c r="C43" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A43,"***")</f>
-        <v>REM SUBROUTINE ***RENDERLGBOARD***</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D43,A:A,0),0)," :: REM CALL ",D43,"")</f>
+        <v>GOSUB 660 :: REM CALL RENDERAXES</v>
+      </c>
+      <c r="D43" t="str">
+        <f>A58</f>
+        <v>RENDERAXES</v>
+      </c>
+      <c r="E43">
+        <f>_xlfn.IFNA(MATCH(D43,A:A,0),"")</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>520</v>
       </c>
-      <c r="C44" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D44,A:A,0),0)," :: REM CALL ",D44,"")</f>
+        <v>GOSUB 770 :: REM CALL RENDERAUX</v>
+      </c>
+      <c r="D44" t="str">
+        <f>A69</f>
+        <v>RENDERAUX</v>
+      </c>
+      <c r="E44">
+        <f>_xlfn.IFNA(MATCH(D44,A:A,0),"")</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>530</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="str">
+        <f>_xlfn.IFNA(MATCH(D45,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>614</v>
+      </c>
       <c r="B46">
         <v>540</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A46,"***")</f>
+        <v>REM SUBROUTINE ***DEPLOYSHIPS***</v>
+      </c>
+      <c r="E46" t="str">
+        <f>_xlfn.IFNA(MATCH(D46,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>550</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D47,A:A,0),0)," :: REM CALL ",D47,"")</f>
+        <v>GOSUB 830 :: REM CALL PLAYERDELOY</v>
+      </c>
+      <c r="D47" t="str">
+        <f>A75</f>
+        <v>PLAYERDELOY</v>
+      </c>
+      <c r="E47">
+        <f>_xlfn.IFNA(MATCH(D47,A:A,0),"")</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>560</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D48,A:A,0),0)," :: REM CALL ",D48,"")</f>
+        <v>GOSUB 1200 :: REM CALL COMPUTERDEPLOY</v>
+      </c>
+      <c r="D48" t="str">
+        <f>A112</f>
+        <v>COMPUTERDEPLOY</v>
+      </c>
+      <c r="E48">
+        <f>_xlfn.IFNA(MATCH(D48,A:A,0),"")</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>570</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E49" t="str">
+        <f>_xlfn.IFNA(MATCH(D49,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>692</v>
+      </c>
       <c r="B50">
         <v>580</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
-        <v>643</v>
-      </c>
+      <c r="C50" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A50,"***")</f>
+        <v>REM SUBROUTINE ***RENDERBOARD***</v>
+      </c>
+      <c r="E50" t="str">
+        <f>_xlfn.IFNA(MATCH(D50,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>590</v>
       </c>
-      <c r="C51" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A51,"***")</f>
-        <v>REM SUBROUTINE ***RENDERLGAXES***</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>698</v>
+      </c>
+      <c r="E51" t="str">
+        <f>_xlfn.IFNA(MATCH(D51,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>600</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="E52" t="str">
+        <f>_xlfn.IFNA(MATCH(D52,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>610</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f>_xlfn.IFNA(MATCH(D53,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>620</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+      <c r="E54" t="str">
+        <f>_xlfn.IFNA(MATCH(D54,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>630</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E55" t="str">
+        <f>_xlfn.IFNA(MATCH(D55,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>640</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <f>_xlfn.IFNA(MATCH(D56,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>650</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E57" t="str">
+        <f>_xlfn.IFNA(MATCH(D57,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>693</v>
+      </c>
       <c r="B58">
         <v>660</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A58,"***")</f>
+        <v>REM SUBROUTINE ***RENDERAXES***</v>
+      </c>
+      <c r="E58" t="str">
+        <f>_xlfn.IFNA(MATCH(D58,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>670</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+      <c r="E59" t="str">
+        <f>_xlfn.IFNA(MATCH(D59,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>680</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="E60" t="str">
+        <f>_xlfn.IFNA(MATCH(D60,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>690</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>635</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E61" t="str">
+        <f>_xlfn.IFNA(MATCH(D61,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>700</v>
       </c>
-      <c r="C62" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A62,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSMBOARD***</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f>_xlfn.IFNA(MATCH(D62,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>710</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="E63" t="str">
+        <f>_xlfn.IFNA(MATCH(D63,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>720</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+      <c r="E64" t="str">
+        <f>_xlfn.IFNA(MATCH(D64,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>730</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E65" t="str">
+        <f>_xlfn.IFNA(MATCH(D65,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>740</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="E66" t="str">
+        <f>_xlfn.IFNA(MATCH(D66,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>750</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>633</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <f>_xlfn.IFNA(MATCH(D67,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>760</v>
       </c>
-      <c r="C68" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A68,"***")</f>
-        <v>REM SUBROUTINE ***DEPLOYSHIPS***</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="str">
+        <f>_xlfn.IFNA(MATCH(D68,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>699</v>
+      </c>
       <c r="B69">
         <v>770</v>
       </c>
       <c r="C69" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D69,A:A,0),0)," :: REM CALL ",D69,"")</f>
-        <v>GOSUB 1790 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D69" t="str">
-        <f>A171</f>
-        <v>CLEARMENU</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A69,"***")</f>
+        <v>REM SUBROUTINE ***RENDERAUX***</v>
+      </c>
+      <c r="E69" t="str">
+        <f>_xlfn.IFNA(MATCH(D69,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>780</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
-        <v>634</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="E70" t="str">
+        <f>_xlfn.IFNA(MATCH(D70,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>790</v>
       </c>
-      <c r="C71" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A71,"***")</f>
-        <v>REM LABEL ***DEPLOYSHIP***</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="str">
+        <f>_xlfn.IFNA(MATCH(D71,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>800</v>
       </c>
-      <c r="C72" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D72,A:A,0),0)," :: REM CALL ",D72,"")</f>
-        <v>GOSUB 930 :: REM CALL DEPLOYMENU</v>
-      </c>
-      <c r="D72" t="str">
-        <f>A85</f>
-        <v>DEPLOYMENU</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E72" t="str">
+        <f>_xlfn.IFNA(MATCH(D72,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>810</v>
       </c>
-      <c r="C73" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D73,A:A,0),0)," :: REM CALL ",D73,"")</f>
-        <v>GOSUB 1050 :: REM CALL DEPLOYINPUT</v>
-      </c>
-      <c r="D73" t="str">
-        <f>A97</f>
-        <v>DEPLOYINPUT</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <f>_xlfn.IFNA(MATCH(D73,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>820</v>
       </c>
-      <c r="C74" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D74,A:A,0),0)," :: REM CALL ",D74,"")</f>
-        <v>GOSUB 1180 :: REM CALL VALIDATESHIP</v>
-      </c>
-      <c r="D74" t="str">
-        <f>A110</f>
-        <v>VALIDATESHIP</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="str">
+        <f>_xlfn.IFNA(MATCH(D74,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>685</v>
+      </c>
       <c r="B75">
         <v>830</v>
       </c>
-      <c r="C75" s="5" t="str">
-        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D75,A:A,0),0)," :: REM GOTO ",D75,"")</f>
-        <v>IF SHIPERR=1 THEN 790 :: REM GOTO DEPLOYSHIP</v>
-      </c>
-      <c r="D75" t="str">
-        <f>A71</f>
-        <v>DEPLOYSHIP</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C75" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A75,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDELOY***</v>
+      </c>
+      <c r="E75" t="str">
+        <f>_xlfn.IFNA(MATCH(D75,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>840</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D76,A:A,0),0)," :: REM CALL ",D76,"")</f>
+        <v>GOSUB 1400 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D76" t="str">
+        <f>A132</f>
+        <v>CLEARMENU</v>
+      </c>
+      <c r="E76">
+        <f>_xlfn.IFNA(MATCH(D76,A:A,0),"")</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>850</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+      <c r="E77" t="str">
+        <f>_xlfn.IFNA(MATCH(D77,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>860</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+      <c r="E78" t="str">
+        <f>_xlfn.IFNA(MATCH(D78,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>870</v>
       </c>
-      <c r="C79" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D79,A:A,0),0)," :: REM CALL ",D79,"")</f>
-        <v>GOSUB 1350 :: REM CALL RENDERSHIPLB</v>
-      </c>
-      <c r="D79" t="str">
-        <f>A127</f>
-        <v>RENDERSHIPLB</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E79" t="str">
+        <f>_xlfn.IFNA(MATCH(D79,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>880</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="E80" t="str">
+        <f>_xlfn.IFNA(MATCH(D80,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>890</v>
       </c>
-      <c r="C81" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D81,A:A,0),0)," :: REM CALL ",D81,"")</f>
-        <v>GOSUB 1280 :: REM CALL RENDERSHIPSSMB</v>
-      </c>
-      <c r="D81" t="str">
-        <f>A120</f>
-        <v>RENDERSHIPSSMB</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="E81" t="str">
+        <f>_xlfn.IFNA(MATCH(D81,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>900</v>
       </c>
-      <c r="C82" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D82,A:A,0),0)," :: REM CALL ",D82,"")</f>
-        <v>GOSUB 510 :: REM CALL RENDERLGBOARD</v>
-      </c>
-      <c r="D82" t="str">
-        <f>A43</f>
-        <v>RENDERLGBOARD</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E82" t="str">
+        <f>_xlfn.IFNA(MATCH(D82,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>910</v>
       </c>
-      <c r="C83" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D83,A:A,0),0)," :: REM CALL ",D83,"")</f>
-        <v>GOSUB 1400 :: REM CALL PLAYERDEPLOYED</v>
+      <c r="C83" s="5" t="str">
+        <f>_xlfn.CONCAT("IF AUTODEPLOY$=""N"" THEN ",INDEX(B:B,MATCH(D83,A:A,0),0)," :: REM GOTO ",D83,"")</f>
+        <v>IF AUTODEPLOY$="N" THEN 1020 :: REM GOTO PLAYERDEPLOYSHIPS</v>
       </c>
       <c r="D83" t="str">
-        <f>A132</f>
-        <v>PLAYERDEPLOYED</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <f>A94</f>
+        <v>PLAYERDEPLOYSHIPS</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>920</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>627</v>
-      </c>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>930</v>
       </c>
-      <c r="C85" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A85,"***")</f>
-        <v>REM SUBROUTINE ***DEPLOYMENU***</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>940</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>950</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C87" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D87,A:A,0),0)," :: REM CALL ",D87,"")</f>
+        <v>GOSUB 1200 :: REM CALL COMPUTERDEPLOY</v>
+      </c>
+      <c r="D87" t="str">
+        <f>A112</f>
+        <v>COMPUTERDEPLOY</v>
+      </c>
+      <c r="E87">
+        <f>_xlfn.IFNA(MATCH(D87,A:A,0),"")</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>960</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="E88" t="str">
+        <f>_xlfn.IFNA(MATCH(D88,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>970</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>670</v>
+      </c>
+      <c r="E89" t="str">
+        <f>_xlfn.IFNA(MATCH(D89,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>980</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+      <c r="E90" t="str">
+        <f>_xlfn.IFNA(MATCH(D90,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>990</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E91" t="str">
+        <f>_xlfn.IFNA(MATCH(D91,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>1000</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="E92" t="str">
+        <f>_xlfn.IFNA(MATCH(D92,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1010</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="5" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D93,A:A,0),0)," :: REM GOTO ",D93,"")</f>
+        <v>GOTO 1160 :: REM GOTO PLAYERRENDERSHIPS</v>
+      </c>
+      <c r="D93" t="str">
+        <f>A108</f>
+        <v>PLAYERRENDERSHIPS</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>686</v>
+      </c>
       <c r="B94">
         <v>1020</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A94,"***")</f>
+        <v>REM LABEL ***PLAYERDEPLOYSHIPS***</v>
+      </c>
+      <c r="E94" t="str">
+        <f>_xlfn.IFNA(MATCH(D94,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
       <c r="B95">
         <v>1030</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C95" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D95,A:A,0),0)," :: REM CALL ",D95,"")</f>
+        <v>GOSUB 1400 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D95" t="str">
+        <f>A132</f>
+        <v>CLEARMENU</v>
+      </c>
+      <c r="E95">
+        <f>_xlfn.IFNA(MATCH(D95,A:A,0),"")</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
       <c r="B96">
         <v>1040</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>628</v>
+        <v>624</v>
+      </c>
+      <c r="E96" t="str">
+        <f>_xlfn.IFNA(MATCH(D96,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>687</v>
       </c>
       <c r="B97">
         <v>1050</v>
       </c>
-      <c r="C97" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A97,"***")</f>
-        <v>REM SUBROUTINE ***DEPLOYINPUT***</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A97,"***")</f>
+        <v>REM LABEL ***PLAYERDEPLOYSHIP***</v>
+      </c>
+      <c r="E97" t="str">
+        <f>_xlfn.IFNA(MATCH(D97,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1060</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C98" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D98,A:A,0),0)," :: REM CALL ",D98,"")</f>
+        <v>GOSUB 1430 :: REM CALL PLAYERDEPLOYMENU</v>
+      </c>
+      <c r="D98" t="str">
+        <f>A135</f>
+        <v>PLAYERDEPLOYMENU</v>
+      </c>
+      <c r="E98">
+        <f>_xlfn.IFNA(MATCH(D98,A:A,0),"")</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1070</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
-        <v>563</v>
-      </c>
+      <c r="C99" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D99,A:A,0),0)," :: REM CALL ",D99,"")</f>
+        <v>GOSUB 1550 :: REM CALL PLAYERDEPLOYINPUT</v>
+      </c>
+      <c r="D99" t="str">
+        <f>A147</f>
+        <v>PLAYERDEPLOYINPUT</v>
+      </c>
+      <c r="E99">
+        <f>_xlfn.IFNA(MATCH(D99,A:A,0),"")</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>1080</v>
       </c>
-      <c r="C100" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A100,"***")</f>
-        <v>REM LABEL ***INPUTROW***</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" t="str">
+        <f>_xlfn.IFNA(MATCH(D100,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1090</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C101" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D101,A:A,0),0)," :: REM CALL ",D101,"")</f>
+        <v>GOSUB 1680 :: REM CALL VALIDATESHIP</v>
+      </c>
+      <c r="D101" t="str">
+        <f>A160</f>
+        <v>VALIDATESHIP</v>
+      </c>
+      <c r="E101">
+        <f>_xlfn.IFNA(MATCH(D101,A:A,0),"")</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>1100</v>
       </c>
       <c r="C102" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D102,A:A,0),0)," :: REM GOTO ",D102,"")</f>
-        <v>IF COORDS$(I)="" THEN  1080 :: REM GOTO INPUTROW</v>
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D102,A:A,0),0)," :: REM GOTO ",D102,"")</f>
+        <v>IF SHIPERR=1 THEN 1050 :: REM GOTO PLAYERDEPLOYSHIP</v>
       </c>
       <c r="D102" t="str">
-        <f>A100</f>
-        <v>INPUTROW</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
-        <v>584</v>
-      </c>
+        <f>A97</f>
+        <v>PLAYERDEPLOYSHIP</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>1110</v>
       </c>
-      <c r="C103" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A103,"***")</f>
-        <v>REM LABEL ***INPUTCOL***</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C103" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E103" t="str">
+        <f>_xlfn.IFNA(MATCH(D103,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>1120</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+      <c r="E104" t="str">
+        <f>_xlfn.IFNA(MATCH(D104,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>1130</v>
       </c>
-      <c r="C105" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D105,A:A,0),0)," :: REM GOTO ",D105,"")</f>
-        <v>IF COORDS(I)&gt;10 THEN  1110 :: REM GOTO INPUTCOL</v>
-      </c>
-      <c r="D105" t="str">
-        <f>A103</f>
-        <v>INPUTCOL</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <f>_xlfn.IFNA(MATCH(D105,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>1140</v>
       </c>
-      <c r="C106" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D106,A:A,0),0)," :: REM GOTO ",D106,"")</f>
-        <v>IF COORDS(I)&lt;1 THEN  1110 :: REM GOTO INPUTCOL</v>
+      <c r="C106" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D106,A:A,0),0)," :: REM CALL ",D106,"")</f>
+        <v>GOSUB 1780 :: REM CALL RENDERSHIP</v>
       </c>
       <c r="D106" t="str">
-        <f>A103</f>
-        <v>INPUTCOL</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <f>A170</f>
+        <v>RENDERSHIP</v>
+      </c>
+      <c r="E106">
+        <f>_xlfn.IFNA(MATCH(D106,A:A,0),"")</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>1150</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="E107" t="str">
+        <f>_xlfn.IFNA(MATCH(D107,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
+        <v>688</v>
+      </c>
       <c r="B108">
         <v>1160</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C108" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D108,A:A,0),0)," :: REM CALL ",D108,"")</f>
+        <v>GOSUB 1840 :: REM CALL RENDERSHIPSAUX</v>
+      </c>
+      <c r="D108" t="str">
+        <f>A176</f>
+        <v>RENDERSHIPSAUX</v>
+      </c>
+      <c r="E108">
+        <f>_xlfn.IFNA(MATCH(D108,A:A,0),"")</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>1170</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="17" t="s">
-        <v>585</v>
-      </c>
+      <c r="C109" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D109,A:A,0),0)," :: REM CALL ",D109,"")</f>
+        <v>GOSUB 580 :: REM CALL RENDERBOARD</v>
+      </c>
+      <c r="D109" t="str">
+        <f>A50</f>
+        <v>RENDERBOARD</v>
+      </c>
+      <c r="E109">
+        <f>_xlfn.IFNA(MATCH(D109,A:A,0),"")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>1180</v>
       </c>
       <c r="C110" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A110,"***")</f>
-        <v>REM SUBROUTINE ***VALIDATESHIP***</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D110,A:A,0),0)," :: REM CALL ",D110,"")</f>
+        <v>GOSUB 1920 :: REM CALL PLAYERDEPLOYED</v>
+      </c>
+      <c r="D110" t="str">
+        <f>A184</f>
+        <v>PLAYERDEPLOYED</v>
+      </c>
+      <c r="E110">
+        <f>_xlfn.IFNA(MATCH(D110,A:A,0),"")</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>1190</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E111" t="str">
+        <f>_xlfn.IFNA(MATCH(D111,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>689</v>
+      </c>
       <c r="B112">
         <v>1200</v>
       </c>
       <c r="C112" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D112,A:A,0),0)," :: REM CALL ",D112,"")</f>
-        <v>GOSUB 1460 :: REM CALL CHECKHORIZONTAL</v>
-      </c>
-      <c r="D112" t="str">
-        <f>A138</f>
-        <v>CHECKHORIZONTAL</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A112,"***")</f>
+        <v>REM SUBROUTINE ***COMPUTERDEPLOY***</v>
+      </c>
+      <c r="E112" t="str">
+        <f>_xlfn.IFNA(MATCH(D112,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>1210</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>624</v>
+      </c>
+      <c r="E113" t="str">
+        <f>_xlfn.IFNA(MATCH(D113,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
+        <v>707</v>
+      </c>
       <c r="B114">
         <v>1220</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C114" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A114,"***")</f>
+        <v>REM LABEL ***COMPUTERDEPLOYSHIP***</v>
+      </c>
+      <c r="E114" t="str">
+        <f>_xlfn.IFNA(MATCH(D114,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>1230</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>704</v>
+      </c>
+      <c r="E115" t="str">
+        <f>_xlfn.IFNA(MATCH(D115,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>1240</v>
       </c>
-      <c r="C116" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D116,A:A,0),0)," :: REM CALL ",D116,"")</f>
-        <v>GOSUB 1530 :: REM CALL CHECKSEQUENCE</v>
-      </c>
-      <c r="D116" t="str">
-        <f>A145</f>
-        <v>CHECKSEQUENCE</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>711</v>
+      </c>
+      <c r="E116" t="str">
+        <f>_xlfn.IFNA(MATCH(D116,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>1250</v>
       </c>
       <c r="C117" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+      <c r="E117" t="str">
+        <f>_xlfn.IFNA(MATCH(D117,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B118">
         <v>1260</v>
       </c>
-      <c r="C118" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D118,A:A,0),0)," :: REM CALL ",D118,"")</f>
-        <v>GOSUB 1680 :: REM CALL CHECKOVERLAP</v>
-      </c>
-      <c r="D118" t="str">
-        <f>A160</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>668</v>
+      </c>
+      <c r="E118" t="str">
+        <f>_xlfn.IFNA(MATCH(D118,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>1270</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="17" t="s">
-        <v>649</v>
-      </c>
+      <c r="C119" t="s">
+        <v>713</v>
+      </c>
+      <c r="E119" t="str">
+        <f>_xlfn.IFNA(MATCH(D119,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>1280</v>
       </c>
-      <c r="C120" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A120,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSHIPSSMB***</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>706</v>
+      </c>
+      <c r="E120" t="str">
+        <f>_xlfn.IFNA(MATCH(D120,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>1290</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" t="str">
+        <f>_xlfn.IFNA(MATCH(D121,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>1300</v>
       </c>
-      <c r="C122" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C122" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E122" t="str">
+        <f>_xlfn.IFNA(MATCH(D122,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>1310</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="E123" t="str">
+        <f>_xlfn.IFNA(MATCH(D123,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>1320</v>
       </c>
-      <c r="C124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C124" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D124,A:A,0),0)," :: REM CALL ",D124,"")</f>
+        <v>GOSUB 2010 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D124" t="str">
+        <f>A193</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E124">
+        <f>_xlfn.IFNA(MATCH(D124,A:A,0),"")</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>1330</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C125" t="str">
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D125,A:A,0),0)," :: REM GOTO ",D125,"")</f>
+        <v>IF SHIPERR=1 THEN 1220 :: REM GOTO COMPUTERDEPLOYSHIP</v>
+      </c>
+      <c r="D125" t="str">
+        <f>A114</f>
+        <v>COMPUTERDEPLOYSHIP</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>1340</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="17" t="s">
-        <v>647</v>
-      </c>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B127">
         <v>1350</v>
       </c>
-      <c r="C127" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A127,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSHIPLB***</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C127" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>1360</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>1370</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C129" t="str">
+        <f>_xlfn.CONCAT("IF DEBUG=1 THEN GOSUB ",INDEX(B:B,MATCH(D129,A:A,0),0)," :: REM CALL ",D129,"")</f>
+        <v>IF DEBUG=1 THEN GOSUB 1780 :: REM CALL RENDERSHIP</v>
+      </c>
+      <c r="D129" t="str">
+        <f>A170</f>
+        <v>RENDERSHIP</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>1380</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>556</v>
+      </c>
+      <c r="E130" t="str">
+        <f>_xlfn.IFNA(MATCH(D130,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>1390</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" t="str">
+        <f>_xlfn.IFNA(MATCH(D131,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="B132">
         <v>1400</v>
       </c>
       <c r="C132" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A132,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>REM SUBROUTINE ***CLEARMENU***</v>
+      </c>
+      <c r="E132" t="str">
+        <f>_xlfn.IFNA(MATCH(D132,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>1410</v>
       </c>
-      <c r="C133" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D133,A:A,0),0)," :: REM CALL ",D133,"")</f>
-        <v>GOSUB 1790 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D133" t="str">
-        <f>A171</f>
-        <v>CLEARMENU</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E133" t="str">
+        <f>_xlfn.IFNA(MATCH(D133,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>1420</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E134" t="str">
+        <f>_xlfn.IFNA(MATCH(D134,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
+        <v>690</v>
+      </c>
       <c r="B135">
         <v>1430</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C135" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A135,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYMENU***</v>
+      </c>
+      <c r="E135" t="str">
+        <f>_xlfn.IFNA(MATCH(D135,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>1440</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="E136" t="str">
+        <f>_xlfn.IFNA(MATCH(D136,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>1450</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
-        <v>596</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="E137" t="str">
+        <f>_xlfn.IFNA(MATCH(D137,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>1460</v>
       </c>
-      <c r="C138" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A138,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C138" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E138" t="str">
+        <f>_xlfn.IFNA(MATCH(D138,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>1470</v>
       </c>
-      <c r="C139" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C139" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E139" t="str">
+        <f>_xlfn.IFNA(MATCH(D139,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>1480</v>
       </c>
-      <c r="C140" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C140" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E140" t="str">
+        <f>_xlfn.IFNA(MATCH(D140,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>1490</v>
       </c>
-      <c r="C141" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C141" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E141" t="str">
+        <f>_xlfn.IFNA(MATCH(D141,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>1500</v>
       </c>
-      <c r="C142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C142" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="str">
+        <f>_xlfn.IFNA(MATCH(D142,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>1510</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+      <c r="E143" t="str">
+        <f>_xlfn.IFNA(MATCH(D143,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>1520</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
-        <v>587</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="E144" t="str">
+        <f>_xlfn.IFNA(MATCH(D144,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A145,"***")</f>
-        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="str">
+        <f>_xlfn.IFNA(MATCH(D145,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="str">
+        <f>_xlfn.IFNA(MATCH(D146,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="17" t="s">
+        <v>691</v>
+      </c>
       <c r="B147">
         <v>1550</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C147" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A147,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYINPUT***</v>
+      </c>
+      <c r="E147" t="str">
+        <f>_xlfn.IFNA(MATCH(D147,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>1560</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E148" t="str">
+        <f>_xlfn.IFNA(MATCH(D148,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B149">
         <v>1570</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+      <c r="E149" t="str">
+        <f>_xlfn.IFNA(MATCH(D149,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="B150">
         <v>1580</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A150,"***")</f>
+        <v>REM LABEL ***INPUTROW***</v>
+      </c>
+      <c r="E150" t="str">
+        <f>_xlfn.IFNA(MATCH(D150,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>1590</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="E151" t="str">
+        <f>_xlfn.IFNA(MATCH(D151,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B152">
         <v>1600</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D152,A:A,0),0)," :: REM GOTO ",D152,"")</f>
+        <v>IF COORDS$(I)="" THEN  1580 :: REM GOTO INPUTROW</v>
+      </c>
+      <c r="D152" t="str">
+        <f>A150</f>
+        <v>INPUTROW</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="19" t="s">
+        <v>574</v>
+      </c>
       <c r="B153">
         <v>1610</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A153,"***")</f>
+        <v>REM LABEL ***INPUTCOL***</v>
+      </c>
+      <c r="E153" t="str">
+        <f>_xlfn.IFNA(MATCH(D153,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B154">
         <v>1620</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="E154" t="str">
+        <f>_xlfn.IFNA(MATCH(D154,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B155">
         <v>1630</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D155,A:A,0),0)," :: REM GOTO ",D155,"")</f>
+        <v>IF COORDS(I)&gt;10 THEN  1610 :: REM GOTO INPUTCOL</v>
+      </c>
+      <c r="D155" t="str">
+        <f>A153</f>
+        <v>INPUTCOL</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>1640</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D156,A:A,0),0)," :: REM GOTO ",D156,"")</f>
+        <v>IF COORDS(I)&lt;1 THEN  1610 :: REM GOTO INPUTCOL</v>
+      </c>
+      <c r="D156" t="str">
+        <f>A153</f>
+        <v>INPUTCOL</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B157">
         <v>1650</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E157" t="str">
+        <f>_xlfn.IFNA(MATCH(D157,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B158">
         <v>1660</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="E158" t="str">
+        <f>_xlfn.IFNA(MATCH(D158,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>1670</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E159" t="str">
+        <f>_xlfn.IFNA(MATCH(D159,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="B160">
         <v>1680</v>
       </c>
       <c r="C160" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A160,"***")</f>
-        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>REM SUBROUTINE ***VALIDATESHIP***</v>
+      </c>
+      <c r="E160" t="str">
+        <f>_xlfn.IFNA(MATCH(D160,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>1690</v>
       </c>
-      <c r="C161" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C161" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E161" t="str">
+        <f>_xlfn.IFNA(MATCH(D161,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>1700</v>
       </c>
-      <c r="C162" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D162,A:A,0),0)," :: REM CALL ",D162,"")</f>
+        <v>GOSUB 2120 :: REM CALL CHECKHORIZONTAL</v>
+      </c>
+      <c r="D162" t="str">
+        <f>A204</f>
+        <v>CHECKHORIZONTAL</v>
+      </c>
+      <c r="E162">
+        <f>_xlfn.IFNA(MATCH(D162,A:A,0),"")</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>1710</v>
       </c>
-      <c r="C163" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C163" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E163" t="str">
+        <f>_xlfn.IFNA(MATCH(D163,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>1720</v>
       </c>
-      <c r="C164" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C164" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="E164" t="str">
+        <f>_xlfn.IFNA(MATCH(D164,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B165">
         <v>1730</v>
       </c>
-      <c r="C165" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" t="str">
+        <f>_xlfn.IFNA(MATCH(D165,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B166">
         <v>1740</v>
       </c>
-      <c r="C166" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C166" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D166,A:A,0),0)," :: REM CALL ",D166,"")</f>
+        <v>GOSUB 2190 :: REM CALL CHECKSEQUENCE</v>
+      </c>
+      <c r="D166" t="str">
+        <f>A211</f>
+        <v>CHECKSEQUENCE</v>
+      </c>
+      <c r="E166">
+        <f>_xlfn.IFNA(MATCH(D166,A:A,0),"")</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>1750</v>
       </c>
       <c r="C167" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="E167" t="str">
+        <f>_xlfn.IFNA(MATCH(D167,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>1760</v>
       </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C168" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM CALL ",D168,"")</f>
+        <v>GOSUB 2010 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D168" t="str">
+        <f>A193</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E168">
+        <f>_xlfn.IFNA(MATCH(D168,A:A,0),"")</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B169">
         <v>1770</v>
       </c>
-      <c r="C169" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" t="str">
+        <f>_xlfn.IFNA(MATCH(D169,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
+        <v>615</v>
+      </c>
       <c r="B170">
         <v>1780</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="17" t="s">
-        <v>610</v>
-      </c>
+      <c r="C170" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A170,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIP***</v>
+      </c>
+      <c r="E170" t="str">
+        <f>_xlfn.IFNA(MATCH(D170,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B171">
         <v>1790</v>
       </c>
-      <c r="C171" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A171,"***")</f>
-        <v>REM SUBROUTINE ***CLEARMENU***</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>698</v>
+      </c>
+      <c r="E171" t="str">
+        <f>_xlfn.IFNA(MATCH(D171,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B172">
         <v>1800</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+      <c r="E172" t="str">
+        <f>_xlfn.IFNA(MATCH(D172,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B173">
         <v>1810</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
-        <v>567</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="E173" t="str">
+        <f>_xlfn.IFNA(MATCH(D173,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>1820</v>
       </c>
-      <c r="C174" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A174,"***")</f>
-        <v>REM SUBROUTINE ***RENDERTEXT***</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C174" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E174" t="str">
+        <f>_xlfn.IFNA(MATCH(D174,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B175">
         <v>1830</v>
       </c>
-      <c r="C175" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" t="str">
+        <f>_xlfn.IFNA(MATCH(D175,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="17" t="s">
+        <v>694</v>
+      </c>
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C176" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A176,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIPSAUX***</v>
+      </c>
+      <c r="E176" t="str">
+        <f>_xlfn.IFNA(MATCH(D176,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B177">
         <v>1850</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+      <c r="E177" t="str">
+        <f>_xlfn.IFNA(MATCH(D177,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B178">
         <v>1860</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="E178" t="str">
+        <f>_xlfn.IFNA(MATCH(D178,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B179">
         <v>1870</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>670</v>
+      </c>
+      <c r="E179" t="str">
+        <f>_xlfn.IFNA(MATCH(D179,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B180">
         <v>1880</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+      <c r="E180" t="str">
+        <f>_xlfn.IFNA(MATCH(D180,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B181">
         <v>1890</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C182" s="5"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C183" s="5"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C184" s="5"/>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C186" s="5"/>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C188" s="5"/>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C190" s="5"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C192" s="5"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="5"/>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="5"/>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C201" s="5"/>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C202" s="5"/>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C207" s="5"/>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C208" s="5"/>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C223" s="5"/>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C224" s="5"/>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C228" s="5"/>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C229" s="5"/>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C230" s="5"/>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C231" s="5"/>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C233" s="5"/>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" t="str">
+        <f>_xlfn.IFNA(MATCH(D181,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>1900</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" t="str">
+        <f>_xlfn.IFNA(MATCH(D182,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>1910</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" t="str">
+        <f>_xlfn.IFNA(MATCH(D183,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B184">
+        <v>1920</v>
+      </c>
+      <c r="C184" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A184,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
+      </c>
+      <c r="E184" t="str">
+        <f>_xlfn.IFNA(MATCH(D184,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>1930</v>
+      </c>
+      <c r="C185" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D185,A:A,0),0)," :: REM CALL ",D185,"")</f>
+        <v>GOSUB 1400 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D185" t="str">
+        <f>A132</f>
+        <v>CLEARMENU</v>
+      </c>
+      <c r="E185">
+        <f>_xlfn.IFNA(MATCH(D185,A:A,0),"")</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>1940</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E186" t="str">
+        <f>_xlfn.IFNA(MATCH(D186,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>1950</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E187" t="str">
+        <f>_xlfn.IFNA(MATCH(D187,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>1960</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E188" t="str">
+        <f>_xlfn.IFNA(MATCH(D188,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>1970</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="E189" t="str">
+        <f>_xlfn.IFNA(MATCH(D189,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>1980</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="E190" t="str">
+        <f>_xlfn.IFNA(MATCH(D190,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>1990</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="E191" t="str">
+        <f>_xlfn.IFNA(MATCH(D191,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>2000</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="str">
+        <f>_xlfn.IFNA(MATCH(D192,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="B193">
+        <v>2010</v>
+      </c>
+      <c r="C193" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A193,"***")</f>
+        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
+      </c>
+      <c r="E193" t="str">
+        <f>_xlfn.IFNA(MATCH(D193,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>2020</v>
+      </c>
+      <c r="C194" t="s">
+        <v>593</v>
+      </c>
+      <c r="E194" t="str">
+        <f>_xlfn.IFNA(MATCH(D194,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>2030</v>
+      </c>
+      <c r="C195" t="s">
+        <v>670</v>
+      </c>
+      <c r="E195" t="str">
+        <f>_xlfn.IFNA(MATCH(D195,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>2040</v>
+      </c>
+      <c r="C196" t="s">
+        <v>709</v>
+      </c>
+      <c r="E196" t="str">
+        <f>_xlfn.IFNA(MATCH(D196,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>2050</v>
+      </c>
+      <c r="C197" t="s">
+        <v>672</v>
+      </c>
+      <c r="E197" t="str">
+        <f>_xlfn.IFNA(MATCH(D197,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>2060</v>
+      </c>
+      <c r="C198" t="s">
+        <v>594</v>
+      </c>
+      <c r="E198" t="str">
+        <f>_xlfn.IFNA(MATCH(D198,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>2070</v>
+      </c>
+      <c r="C199" t="s">
+        <v>592</v>
+      </c>
+      <c r="E199" t="str">
+        <f>_xlfn.IFNA(MATCH(D199,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>2080</v>
+      </c>
+      <c r="C200" t="s">
+        <v>87</v>
+      </c>
+      <c r="E200" t="str">
+        <f>_xlfn.IFNA(MATCH(D200,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>2090</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="str">
+        <f>_xlfn.IFNA(MATCH(D201,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>2100</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" t="str">
+        <f>_xlfn.IFNA(MATCH(D202,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>2110</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" t="str">
+        <f>_xlfn.IFNA(MATCH(D203,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="B204">
+        <v>2120</v>
+      </c>
+      <c r="C204" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A204,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
+      </c>
+      <c r="E204" t="str">
+        <f>_xlfn.IFNA(MATCH(D204,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>2130</v>
+      </c>
+      <c r="C205" t="s">
+        <v>586</v>
+      </c>
+      <c r="E205" t="str">
+        <f>_xlfn.IFNA(MATCH(D205,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>2140</v>
+      </c>
+      <c r="C206" t="s">
+        <v>671</v>
+      </c>
+      <c r="E206" t="str">
+        <f>_xlfn.IFNA(MATCH(D206,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>2150</v>
+      </c>
+      <c r="C207" t="s">
+        <v>590</v>
+      </c>
+      <c r="E207" t="str">
+        <f>_xlfn.IFNA(MATCH(D207,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>2160</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" t="str">
+        <f>_xlfn.IFNA(MATCH(D208,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>2170</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E209" t="str">
+        <f>_xlfn.IFNA(MATCH(D209,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>2180</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="str">
+        <f>_xlfn.IFNA(MATCH(D210,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="B211">
+        <v>2190</v>
+      </c>
+      <c r="C211" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A211,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
+      </c>
+      <c r="E211" t="str">
+        <f>_xlfn.IFNA(MATCH(D211,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>2200</v>
+      </c>
+      <c r="C212" t="s">
+        <v>580</v>
+      </c>
+      <c r="E212" t="str">
+        <f>_xlfn.IFNA(MATCH(D212,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>2210</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E213" t="str">
+        <f>_xlfn.IFNA(MATCH(D213,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>2220</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E214" t="str">
+        <f>_xlfn.IFNA(MATCH(D214,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>2230</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215" t="str">
+        <f>_xlfn.IFNA(MATCH(D215,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>2240</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E216" t="str">
+        <f>_xlfn.IFNA(MATCH(D216,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>2250</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E217" t="str">
+        <f>_xlfn.IFNA(MATCH(D217,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>2260</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E218" t="str">
+        <f>_xlfn.IFNA(MATCH(D218,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>2270</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E219" t="str">
+        <f>_xlfn.IFNA(MATCH(D219,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>2280</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E220" t="str">
+        <f>_xlfn.IFNA(MATCH(D220,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>2290</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E221" t="str">
+        <f>_xlfn.IFNA(MATCH(D221,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>2300</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E222" t="str">
+        <f>_xlfn.IFNA(MATCH(D222,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>2310</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E223" t="str">
+        <f>_xlfn.IFNA(MATCH(D223,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>2320</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="E224" t="str">
+        <f>_xlfn.IFNA(MATCH(D224,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>2330</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" t="str">
+        <f>_xlfn.IFNA(MATCH(D225,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B226">
+        <v>2340</v>
+      </c>
+      <c r="C226" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A226,"***")</f>
+        <v>REM SUBROUTINE ***RENDERTEXT***</v>
+      </c>
+      <c r="E226" t="str">
+        <f>_xlfn.IFNA(MATCH(D226,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>2350</v>
+      </c>
+      <c r="C227" t="s">
+        <v>561</v>
+      </c>
+      <c r="E227" t="str">
+        <f>_xlfn.IFNA(MATCH(D227,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>2360</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E228" t="str">
+        <f>_xlfn.IFNA(MATCH(D228,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>2370</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E229" t="str">
+        <f>_xlfn.IFNA(MATCH(D229,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>2380</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E230" t="str">
+        <f>_xlfn.IFNA(MATCH(D230,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>2390</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E231" t="str">
+        <f>_xlfn.IFNA(MATCH(D231,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>2400</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E232" t="str">
+        <f>_xlfn.IFNA(MATCH(D232,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>2410</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E233" t="str">
+        <f>_xlfn.IFNA(MATCH(D233,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E234" t="str">
+        <f>_xlfn.IFNA(MATCH(D234,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E235" t="str">
+        <f>_xlfn.IFNA(MATCH(D235,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C237" s="5"/>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E236" t="str">
+        <f>_xlfn.IFNA(MATCH(D236,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E237" t="str">
+        <f>_xlfn.IFNA(MATCH(D237,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C239" s="5"/>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E238" t="str">
+        <f>_xlfn.IFNA(MATCH(D238,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E239" t="str">
+        <f>_xlfn.IFNA(MATCH(D239,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C261" s="5"/>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C262" s="5"/>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C266" s="5"/>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C269" s="5"/>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E240" t="str">
+        <f>_xlfn.IFNA(MATCH(D240,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E241" t="str">
+        <f>_xlfn.IFNA(MATCH(D241,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C242" s="5"/>
+      <c r="E242" t="str">
+        <f>_xlfn.IFNA(MATCH(D242,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E243" t="str">
+        <f>_xlfn.IFNA(MATCH(D243,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C244" s="5"/>
+      <c r="E244" t="str">
+        <f>_xlfn.IFNA(MATCH(D244,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C245" s="5"/>
+      <c r="E245" t="str">
+        <f>_xlfn.IFNA(MATCH(D245,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C246" s="5"/>
+      <c r="E246" t="str">
+        <f>_xlfn.IFNA(MATCH(D246,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E247" t="str">
+        <f>_xlfn.IFNA(MATCH(D247,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E248" t="str">
+        <f>_xlfn.IFNA(MATCH(D248,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E249" t="str">
+        <f>_xlfn.IFNA(MATCH(D249,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E250" t="str">
+        <f>_xlfn.IFNA(MATCH(D250,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E251" t="str">
+        <f>_xlfn.IFNA(MATCH(D251,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E252" t="str">
+        <f>_xlfn.IFNA(MATCH(D252,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C253" s="5"/>
+      <c r="E253" t="str">
+        <f>_xlfn.IFNA(MATCH(D253,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C254" s="5"/>
+      <c r="E254" t="str">
+        <f>_xlfn.IFNA(MATCH(D254,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E255" t="str">
+        <f>_xlfn.IFNA(MATCH(D255,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E256" t="str">
+        <f>_xlfn.IFNA(MATCH(D256,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E257" t="str">
+        <f>_xlfn.IFNA(MATCH(D257,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E258" t="str">
+        <f>_xlfn.IFNA(MATCH(D258,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C259" s="5"/>
+      <c r="E259" t="str">
+        <f>_xlfn.IFNA(MATCH(D259,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C260" s="5"/>
+      <c r="E260" t="str">
+        <f>_xlfn.IFNA(MATCH(D260,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E261" t="str">
+        <f>_xlfn.IFNA(MATCH(D261,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E262" t="str">
+        <f>_xlfn.IFNA(MATCH(D262,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E263" t="str">
+        <f>_xlfn.IFNA(MATCH(D263,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E264" t="str">
+        <f>_xlfn.IFNA(MATCH(D264,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E265" t="str">
+        <f>_xlfn.IFNA(MATCH(D265,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E266" t="str">
+        <f>_xlfn.IFNA(MATCH(D266,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E267" t="str">
+        <f>_xlfn.IFNA(MATCH(D267,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E268" t="str">
+        <f>_xlfn.IFNA(MATCH(D268,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E269" t="str">
+        <f>_xlfn.IFNA(MATCH(D269,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E270" t="str">
+        <f>_xlfn.IFNA(MATCH(D270,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E271" t="str">
+        <f>_xlfn.IFNA(MATCH(D271,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E272" t="str">
+        <f>_xlfn.IFNA(MATCH(D272,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E273" t="str">
+        <f>_xlfn.IFNA(MATCH(D273,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E274" t="str">
+        <f>_xlfn.IFNA(MATCH(D274,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C279" s="5"/>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E275" t="str">
+        <f>_xlfn.IFNA(MATCH(D275,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C276" s="5"/>
+      <c r="E276" t="str">
+        <f>_xlfn.IFNA(MATCH(D276,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E277" t="str">
+        <f>_xlfn.IFNA(MATCH(D277,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E278" t="str">
+        <f>_xlfn.IFNA(MATCH(D278,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E279" t="str">
+        <f>_xlfn.IFNA(MATCH(D279,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C280" s="5"/>
+      <c r="E280" t="str">
+        <f>_xlfn.IFNA(MATCH(D280,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C281" s="5"/>
+      <c r="E281" t="str">
+        <f>_xlfn.IFNA(MATCH(D281,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C282" s="5"/>
+      <c r="E282" t="str">
+        <f>_xlfn.IFNA(MATCH(D282,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C297" s="5"/>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C304" s="5"/>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C308" s="5"/>
+    <row r="288" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="5"/>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C319" s="5"/>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C325" s="5"/>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C328" s="5"/>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C350" s="5"/>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C351" s="5"/>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C352" s="5"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C353" s="5"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C354" s="5"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C355" s="5"/>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="5"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="5"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="5"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" s="5"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" s="5"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" s="5"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" s="5"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C356" s="5"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C357" s="5"/>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="5"/>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C363" s="5"/>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C364" s="5"/>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" s="5"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C366" s="5"/>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C367" s="5"/>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="5"/>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C370" s="5"/>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C383" s="1"/>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="1"/>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C385" s="1"/>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C386" s="1"/>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C387" s="1"/>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C389" s="1"/>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C391" s="1"/>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C392" s="1"/>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C394" s="1"/>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C396" s="1"/>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C400" s="1"/>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" s="5"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="5"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" s="5"/>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C403" s="5"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C404" s="1"/>
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C405" s="5"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C406" s="1"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C407" s="1"/>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C412" s="5"/>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C425" s="5"/>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C429" s="5"/>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C430" s="5"/>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C431" s="5"/>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C432" s="5"/>
+      <c r="C407" s="5"/>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C409" s="5"/>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" s="5"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" s="5"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C435" s="5"/>
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C437" s="1"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C439" s="1"/>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C441" s="1"/>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C444" s="1"/>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C446" s="1"/>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C448" s="1"/>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C452" s="1"/>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C456" s="1"/>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C459" s="1"/>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C464" s="5"/>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C477" s="5"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C481" s="5"/>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C482" s="5"/>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C483" s="5"/>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C484" s="5"/>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C487" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4402,17 +6215,17 @@
   </sheetPr>
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView topLeftCell="A169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="118.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="78.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4723,7 +6536,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B17" s="2">
         <v>250</v>
@@ -5184,7 +6997,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B44" s="2">
         <v>520</v>
@@ -5240,7 +7053,7 @@
         <v/>
       </c>
       <c r="F47" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5261,7 +7074,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B49" s="2">
         <v>570</v>
@@ -5443,7 +7256,7 @@
         <v/>
       </c>
       <c r="F58" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5619,7 +7432,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2">
         <v>740</v>
@@ -5865,12 +7678,12 @@
         <v>RESTORECOLS</v>
       </c>
       <c r="F81" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2">
         <v>880</v>
@@ -5887,7 +7700,7 @@
         <v/>
       </c>
       <c r="F82" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5906,7 +7719,7 @@
         <v/>
       </c>
       <c r="F83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5925,7 +7738,7 @@
         <v/>
       </c>
       <c r="F84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -5944,7 +7757,7 @@
         <v/>
       </c>
       <c r="F85" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5963,7 +7776,7 @@
         <v/>
       </c>
       <c r="F86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5982,7 +7795,7 @@
         <v/>
       </c>
       <c r="F87" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -6050,7 +7863,7 @@
         <v/>
       </c>
       <c r="F91" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6088,7 +7901,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2">
         <v>1000</v>
@@ -6105,7 +7918,7 @@
         <v>SHIP2</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6124,7 +7937,7 @@
         <v/>
       </c>
       <c r="F95" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6143,12 +7956,12 @@
         <v/>
       </c>
       <c r="F96" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B97" s="2">
         <v>1030</v>
@@ -6165,7 +7978,7 @@
         <v>SHIP3</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -6184,7 +7997,7 @@
         <v/>
       </c>
       <c r="F98" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -6203,12 +8016,12 @@
         <v/>
       </c>
       <c r="F99" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B100" s="2">
         <v>1060</v>
@@ -6225,7 +8038,7 @@
         <v>SHIP4</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -6244,7 +8057,7 @@
         <v/>
       </c>
       <c r="F101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -6263,12 +8076,12 @@
         <v/>
       </c>
       <c r="F102" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B103" s="2">
         <v>1090</v>
@@ -6285,7 +8098,7 @@
         <v>SHIP5</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -6304,7 +8117,7 @@
         <v/>
       </c>
       <c r="F104" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6323,12 +8136,12 @@
         <v/>
       </c>
       <c r="F105" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B106" s="2">
         <v>1120</v>
@@ -6345,7 +8158,7 @@
         <v>PLACED</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -6364,7 +8177,7 @@
         <v/>
       </c>
       <c r="F107" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -6383,12 +8196,12 @@
         <v/>
       </c>
       <c r="F108" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B109" s="2">
         <v>1150</v>
@@ -6400,9 +8213,9 @@
         <f t="shared" si="2"/>
         <v>1540</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>ALTDUPCHECK</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -6437,7 +8250,7 @@
         <v/>
       </c>
       <c r="F111" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -6456,7 +8269,7 @@
         <v/>
       </c>
       <c r="F112" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -6475,7 +8288,7 @@
         <v/>
       </c>
       <c r="F113" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -6494,7 +8307,7 @@
         <v/>
       </c>
       <c r="F114" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -6513,7 +8326,7 @@
         <v/>
       </c>
       <c r="F115" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -6532,7 +8345,7 @@
         <v/>
       </c>
       <c r="F116" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -6551,7 +8364,7 @@
         <v/>
       </c>
       <c r="F117" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -6570,7 +8383,7 @@
         <v/>
       </c>
       <c r="F118" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -6589,7 +8402,7 @@
         <v/>
       </c>
       <c r="F119" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -6608,7 +8421,7 @@
         <v/>
       </c>
       <c r="F120" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -6646,7 +8459,7 @@
         <v/>
       </c>
       <c r="F122" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -6681,7 +8494,7 @@
         <v>INPUTSHIP</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -6716,7 +8529,7 @@
         <v/>
       </c>
       <c r="F126" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -6751,7 +8564,7 @@
         <v/>
       </c>
       <c r="F128" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -6786,7 +8599,7 @@
         <v/>
       </c>
       <c r="F130" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6985,7 +8798,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B143" s="2">
         <v>1490</v>
@@ -7002,7 +8815,7 @@
         <v/>
       </c>
       <c r="F143" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -7070,6 +8883,9 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>644</v>
+      </c>
       <c r="B148" s="2">
         <v>1540</v>
       </c>
@@ -7102,7 +8918,7 @@
         <v/>
       </c>
       <c r="F149" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -7122,6 +8938,9 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>641</v>
+      </c>
       <c r="B151" s="2">
         <v>1570</v>
       </c>
@@ -7137,7 +8956,7 @@
         <v/>
       </c>
       <c r="F151" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -7172,7 +8991,7 @@
         <v>NEXTDUPCHECK</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -7191,12 +9010,12 @@
         <v>CHECKROWDUP</v>
       </c>
       <c r="F154" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B155" s="2">
         <v>1610</v>
@@ -7240,12 +9059,9 @@
         <f t="shared" si="4"/>
         <v>2370</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F157" t="s">
-        <v>500</v>
+        <v>COMPUTERDEPLOYED</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7266,7 +9082,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B159" s="2">
         <v>1650</v>
@@ -7278,12 +9094,9 @@
         <f t="shared" si="4"/>
         <v>2340</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F159" t="s">
-        <v>500</v>
+        <v>ROWDUPCHECK</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7302,10 +9115,13 @@
         <v>INPUTSHIPMENU</v>
       </c>
       <c r="F160" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>647</v>
+      </c>
       <c r="B161" s="2">
         <v>1670</v>
       </c>
@@ -7323,7 +9139,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B162" s="2">
         <v>1680</v>
@@ -7356,7 +9172,7 @@
         <v/>
       </c>
       <c r="F163" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7375,7 +9191,7 @@
         <v/>
       </c>
       <c r="F164" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7410,7 +9226,7 @@
         <v/>
       </c>
       <c r="F166" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7449,7 +9265,7 @@
       <c r="B169" s="2">
         <v>1750</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D169" s="5" t="str">
@@ -7459,13 +9275,16 @@
       <c r="E169" t="str">
         <f t="shared" si="5"/>
         <v/>
+      </c>
+      <c r="F169" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
         <v>1760</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D170" s="5" t="str">
@@ -7475,13 +9294,16 @@
       <c r="E170" t="str">
         <f t="shared" si="5"/>
         <v/>
+      </c>
+      <c r="F170" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
         <v>1770</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D171" s="5" t="str">
@@ -7497,7 +9319,7 @@
       <c r="B172" s="2">
         <v>1780</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D172" s="5" t="str">
@@ -7513,7 +9335,7 @@
       <c r="B173" s="2">
         <v>1790</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D173" s="5" t="str">
@@ -7523,13 +9345,16 @@
       <c r="E173" t="str">
         <f t="shared" si="5"/>
         <v/>
+      </c>
+      <c r="F173" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
         <v>1800</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D174" s="5" t="str">
@@ -7545,7 +9370,7 @@
       <c r="B175" s="2">
         <v>1810</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D175" s="5" t="str">
@@ -7561,7 +9386,7 @@
       <c r="B176" s="2">
         <v>1820</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="5" t="str">
@@ -7573,11 +9398,14 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>645</v>
+      </c>
       <c r="B177" s="2">
         <v>1830</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D177" s="5" t="str">
@@ -7588,12 +9416,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>640</v>
+      </c>
       <c r="B178" s="2">
         <v>1840</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D178" s="5" t="str">
@@ -7604,12 +9438,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
         <v>1850</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D179" s="5" t="str">
@@ -7620,28 +9457,31 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
         <v>1860</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D180" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2090</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+        <v>VERTICALMODE</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
         <v>1870</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D181" s="5" t="str">
@@ -7652,12 +9492,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
         <v>1880</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D182" s="5" t="str">
@@ -7669,11 +9512,11 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
         <v>1890</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D183" s="5" t="str">
@@ -7685,11 +9528,11 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
         <v>1900</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D184" s="5" t="str">
@@ -7700,12 +9543,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
         <v>1910</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="5" t="str">
@@ -7717,11 +9563,11 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
         <v>1920</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D186" s="5" t="str">
@@ -7732,12 +9578,18 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>657</v>
+      </c>
       <c r="B187" s="2">
         <v>1930</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D187" s="5" t="str">
@@ -7748,12 +9600,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
         <v>1940</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D188" s="5" t="str">
@@ -7764,12 +9619,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
         <v>1950</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="3" t="s">
         <v>157</v>
       </c>
       <c r="D189" s="5" t="str">
@@ -7780,12 +9638,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
         <v>1960</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D190" s="5" t="str">
@@ -7796,12 +9657,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
         <v>1970</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D191" s="5" t="str">
@@ -7812,12 +9676,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
         <v>1980</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D192" s="5" t="str">
@@ -7828,12 +9695,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
         <v>1990</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D193" s="5" t="str">
@@ -7844,12 +9714,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
         <v>2000</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D194" s="5" t="str">
@@ -7860,12 +9733,15 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
         <v>2010</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D195" s="5" t="str">
@@ -7876,12 +9752,15 @@
         <f t="shared" ref="E195:E258" si="7">IFERROR(INDEX($A:$A,MATCH(_xlfn.NUMBERVALUE(D195),$B:$B,0)),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
         <v>2020</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D196" s="5" t="str">
@@ -7892,28 +9771,34 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
         <v>2030</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D197" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2140</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+        <v>STOREROW</v>
+      </c>
+      <c r="F197" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
         <v>2040</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D198" s="5" t="str">
@@ -7925,11 +9810,11 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
         <v>2050</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D199" s="5" t="str">
@@ -7940,12 +9825,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
         <v>2060</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="5" t="str">
@@ -7957,43 +9845,49 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
         <v>2070</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D201" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2220</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+        <v>SETOFFSETS</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
         <v>2080</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="22" t="s">
         <v>168</v>
       </c>
       <c r="D202" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2380</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+        <v>COMPUTERDEPLOYED2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>650</v>
+      </c>
       <c r="B203" s="2">
         <v>2090</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D203" s="5" t="str">
@@ -8005,11 +9899,14 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>660</v>
+      </c>
       <c r="B204" s="2">
         <v>2100</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D204" s="5" t="str">
@@ -8020,12 +9917,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
         <v>2110</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D205" s="5" t="str">
@@ -8036,12 +9936,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
         <v>2120</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D206" s="5" t="str">
@@ -8052,28 +9955,37 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B207" s="2">
         <v>2130</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="22" t="s">
         <v>173</v>
       </c>
       <c r="D207" s="5" t="str">
         <f t="shared" si="6"/>
         <v>1930</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+        <v>CONVERTNUM2LET</v>
+      </c>
+      <c r="F207" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>661</v>
+      </c>
       <c r="B208" s="2">
         <v>2140</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="22" t="s">
         <v>174</v>
       </c>
       <c r="D208" s="5" t="str">
@@ -8084,12 +9996,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B209" s="2">
         <v>2150</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D209" s="5" t="str">
@@ -8100,12 +10015,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B210" s="2">
         <v>2160</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D210" s="5" t="str">
@@ -8116,28 +10034,31 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B211" s="2">
         <v>2170</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D211" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2100</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+        <v>INCROW</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B212" s="2">
         <v>2180</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D212" s="5" t="str">
@@ -8148,12 +10069,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B213" s="2">
         <v>2190</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D213" s="5" t="str">
@@ -8165,11 +10089,11 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B214" s="2">
         <v>2200</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D214" s="5" t="str">
@@ -8180,12 +10104,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B215" s="2">
         <v>2210</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="5" t="str">
@@ -8197,11 +10124,14 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>637</v>
+      </c>
       <c r="B216" s="2">
         <v>2220</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D216" s="5" t="str">
@@ -8213,27 +10143,30 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B217" s="2">
         <v>2230</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D217" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2330</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+        <v>DODUPCHECK</v>
+      </c>
+      <c r="F217" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B218" s="2">
         <v>2240</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D218" s="5" t="str">
@@ -8245,11 +10178,11 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B219" s="2">
         <v>2250</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D219" s="5" t="str">
@@ -8260,12 +10193,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B220" s="2">
         <v>2260</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D220" s="5" t="str">
@@ -8276,12 +10212,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B221" s="2">
         <v>2270</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D221" s="5" t="str">
@@ -8292,12 +10231,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B222" s="2">
         <v>2280</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D222" s="5" t="str">
@@ -8308,12 +10250,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B223" s="2">
         <v>2290</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D223" s="5" t="str">
@@ -8324,12 +10269,15 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B224" s="2">
         <v>2300</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D224" s="5" t="str">
@@ -8340,109 +10288,127 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B225" s="2">
         <v>2310</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D225" s="5" t="str">
         <f t="shared" si="6"/>
         <v>1840</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>PICKSHIPLOC</v>
       </c>
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B226" s="2">
         <v>2320</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D226" s="5" t="str">
         <f t="shared" si="6"/>
         <v>1840</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PICKSHIPLOC</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>642</v>
+      </c>
       <c r="B227" s="2">
         <v>2330</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D227" s="5" t="str">
         <f t="shared" si="6"/>
         <v>1570</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+        <v>DUPCHECK</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>643</v>
+      </c>
       <c r="B228" s="2">
         <v>2340</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D228" s="5" t="str">
         <f t="shared" si="6"/>
         <v>2360</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+        <v>DUPLICATE</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B229" s="2">
         <v>2350</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D229" s="5" t="str">
         <f t="shared" si="6"/>
         <v>1670</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+        <v>KEEPDUPCHECKING</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>646</v>
+      </c>
       <c r="B230" s="2">
         <v>2360</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D230" s="5" t="str">
         <f t="shared" si="6"/>
         <v>1830</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+        <v>PICKALLSHIPLOCS</v>
+      </c>
+      <c r="F230" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>652</v>
+      </c>
       <c r="B231" s="2">
         <v>2370</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D231" s="5" t="str">
@@ -8454,11 +10420,14 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>653</v>
+      </c>
       <c r="B232" s="2">
         <v>2380</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D232" s="5" t="str">
@@ -8470,11 +10439,11 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B233" s="2">
         <v>2390</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D233" s="5" t="str">
@@ -8486,27 +10455,27 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="12">
+    <row r="234" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="2">
         <v>2400</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D234" s="14" t="str">
+      <c r="D234" s="21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E234" s="12" t="str">
+      <c r="E234" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B235" s="2">
         <v>2410</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D235" s="5" t="str">
@@ -8518,7 +10487,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B236" s="2">
         <v>2420</v>
       </c>
@@ -8534,7 +10503,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B237" s="2">
         <v>2430</v>
       </c>
@@ -8550,7 +10519,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B238" s="2">
         <v>2440</v>
       </c>
@@ -8566,7 +10535,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B239" s="2">
         <v>2450</v>
       </c>
@@ -8582,7 +10551,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B240" s="2">
         <v>2460</v>
       </c>
@@ -8710,18 +10679,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="2">
+    <row r="248" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="12">
         <v>2540</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D248" s="5" t="str">
+      <c r="D248" s="14" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E248" t="str">
+      <c r="E248" s="12" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEDE273-0A75-CB4F-AF94-062957878ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A9CB7-2057-7B4D-9436-5B320C412478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="725">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -1839,15 +1839,6 @@
     <t>IF HORIZONTAL=1 THEN SERIAL(I)=COORDS(I) ELSE SERIAL(I)=ASC(COORDS$(I))-64</t>
   </si>
   <si>
-    <t>CALL COLOR(9,2,1) :: REM BLACK ON TRANSPARENT</t>
-  </si>
-  <si>
-    <t>CALL COLOR(10,2,12) :: REM BLACK ON LIGHT YELLOW</t>
-  </si>
-  <si>
-    <t>CALL COLOR(11,2,3) :: REM BLACK ON MED GREEN</t>
-  </si>
-  <si>
     <t>CALL COLOR(13,2,16) :: REM BLACK ON WHITE</t>
   </si>
   <si>
@@ -1857,9 +1848,6 @@
     <t>HOLECHAR=96 :: CALL CHAR(HOLECHAR,"3C4299A5A599423C") :: REM SET 9</t>
   </si>
   <si>
-    <t>TENCHAR=97 :: CALL CHAR(TENCHAR,"004FC949494949EF") :: REM SET 9</t>
-  </si>
-  <si>
     <t>HITCHAR=104 :: CALL CHAR(HITCHAR,"003C7E7E7E7E3C00") :: REM SET 10</t>
   </si>
   <si>
@@ -2194,6 +2182,39 @@
   </si>
   <si>
     <t>DEBUG=1</t>
+  </si>
+  <si>
+    <t>TENCHAR=120 :: CALL CHAR(TENCHAR,"004FC949494949EF") :: REM SET 12</t>
+  </si>
+  <si>
+    <t>CALL COLOR(12,2,1) :: REM BLACK ON TRANSPARENT</t>
+  </si>
+  <si>
+    <t>FILLCHAR=97 :: CALL CHAR(FILLCHAR,"0000000000000000") :: REM SET 9</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+I,X,FILLCHAR,19)</t>
+  </si>
+  <si>
+    <t>CALL COLOR(9,2,8) :: REM BLACK ON CYAN</t>
+  </si>
+  <si>
+    <t>CALL COLOR(11,2,15) :: REM BLACK ON GREY</t>
+  </si>
+  <si>
+    <t>CALL COLOR(10,2,11) :: REM BLACK ON DARK YELLOW</t>
+  </si>
+  <si>
+    <t>RENDERHOLES</t>
+  </si>
+  <si>
+    <t>RENDERBACKBOARD</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO 18</t>
+  </si>
+  <si>
+    <t>CALL SCREEN(4)</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:E487"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -2723,17 +2744,8 @@
       <c r="B3">
         <v>110</v>
       </c>
-      <c r="C3" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D3,A:A,0),0)," :: REM CALL ",D3,"")</f>
-        <v>GOSUB 180 :: REM CALL INIT</v>
-      </c>
-      <c r="D3" t="str">
-        <f>A10</f>
-        <v>INIT</v>
-      </c>
-      <c r="E3">
-        <f>_xlfn.IFNA(MATCH(D3,A:A,0),"")</f>
-        <v>10</v>
+      <c r="C3" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2742,15 +2754,15 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D4,A:A,0),0)," :: REM CALL ",D4,"")</f>
-        <v>GOSUB 320 :: REM CALL SETCHARS</v>
+        <v>GOSUB 190 :: REM CALL INIT</v>
       </c>
       <c r="D4" t="str">
-        <f>A24</f>
-        <v>SETCHARS</v>
+        <f>A11</f>
+        <v>INIT</v>
       </c>
       <c r="E4">
         <f>_xlfn.IFNA(MATCH(D4,A:A,0),"")</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2759,15 +2771,15 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D5,A:A,0),0)," :: REM CALL ",D5,"")</f>
-        <v>GOSUB 400 :: REM CALL SETCOLORSCHEME</v>
+        <v>GOSUB 330 :: REM CALL SETCHARS</v>
       </c>
       <c r="D5" t="str">
-        <f>A32</f>
-        <v>SETCOLORSCHEME</v>
+        <f>A25</f>
+        <v>SETCHARS</v>
       </c>
       <c r="E5">
         <f>_xlfn.IFNA(MATCH(D5,A:A,0),"")</f>
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2776,15 +2788,15 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D6,A:A,0),0)," :: REM CALL ",D6,"")</f>
-        <v>GOSUB 470 :: REM CALL RENDERBOARDS</v>
+        <v>GOSUB 420 :: REM CALL SETCOLORSCHEME</v>
       </c>
       <c r="D6" t="str">
-        <f>A39</f>
-        <v>RENDERBOARDS</v>
+        <f>A34</f>
+        <v>SETCOLORSCHEME</v>
       </c>
       <c r="E6">
         <f>_xlfn.IFNA(MATCH(D6,A:A,0),"")</f>
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2793,27 +2805,32 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D7,A:A,0),0)," :: REM CALL ",D7,"")</f>
-        <v>GOSUB 540 :: REM CALL DEPLOYSHIPS</v>
+        <v>GOSUB 500 :: REM CALL RENDERBOARDS</v>
       </c>
       <c r="D7" t="str">
-        <f>A46</f>
-        <v>DEPLOYSHIPS</v>
+        <f>A42</f>
+        <v>RENDERBOARDS</v>
       </c>
       <c r="E7">
         <f>_xlfn.IFNA(MATCH(D7,A:A,0),"")</f>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>160</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D8,A:A,0),0)," :: REM CALL ",D8,"")</f>
+        <v>GOSUB 560 :: REM CALL DEPLOYSHIPS</v>
+      </c>
+      <c r="D8" t="str">
+        <f>A48</f>
+        <v>DEPLOYSHIPS</v>
+      </c>
+      <c r="E8">
         <f>_xlfn.IFNA(MATCH(D8,A:A,0),"")</f>
-        <v/>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2821,7 +2838,7 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.IFNA(MATCH(D9,A:A,0),"")</f>
@@ -2829,15 +2846,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="B10">
         <v>180</v>
       </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A10,"***")</f>
-        <v>REM SUBROUTINE ***INIT***</v>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.IFNA(MATCH(D10,A:A,0),"")</f>
@@ -2845,11 +2858,15 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="B11">
         <v>190</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A11,"***")</f>
+        <v>REM SUBROUTINE ***INIT***</v>
       </c>
       <c r="E11" t="str">
         <f>_xlfn.IFNA(MATCH(D11,A:A,0),"")</f>
@@ -2861,7 +2878,11 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>717</v>
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.IFNA(MATCH(D12,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2869,11 +2890,7 @@
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
-      </c>
-      <c r="E13" t="str">
-        <f>_xlfn.IFNA(MATCH(D13,A:A,0),"")</f>
-        <v/>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2881,7 +2898,7 @@
         <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>673</v>
+        <v>553</v>
       </c>
       <c r="E14" t="str">
         <f>_xlfn.IFNA(MATCH(D14,A:A,0),"")</f>
@@ -2893,7 +2910,7 @@
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E15" t="str">
         <f>_xlfn.IFNA(MATCH(D15,A:A,0),"")</f>
@@ -2905,7 +2922,7 @@
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E16" t="str">
         <f>_xlfn.IFNA(MATCH(D16,A:A,0),"")</f>
@@ -2917,7 +2934,7 @@
         <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="E17" t="str">
         <f>_xlfn.IFNA(MATCH(D17,A:A,0),"")</f>
@@ -2929,7 +2946,7 @@
         <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>555</v>
+        <v>699</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.IFNA(MATCH(D18,A:A,0),"")</f>
@@ -2941,7 +2958,7 @@
         <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>701</v>
+        <v>555</v>
       </c>
       <c r="E19" t="str">
         <f>_xlfn.IFNA(MATCH(D19,A:A,0),"")</f>
@@ -2953,7 +2970,7 @@
         <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E20" t="str">
         <f>_xlfn.IFNA(MATCH(D20,A:A,0),"")</f>
@@ -2965,7 +2982,7 @@
         <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E21" t="str">
         <f>_xlfn.IFNA(MATCH(D21,A:A,0),"")</f>
@@ -2977,7 +2994,7 @@
         <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>589</v>
+        <v>696</v>
       </c>
       <c r="E22" t="str">
         <f>_xlfn.IFNA(MATCH(D22,A:A,0),"")</f>
@@ -2989,7 +3006,7 @@
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>589</v>
       </c>
       <c r="E23" t="str">
         <f>_xlfn.IFNA(MATCH(D23,A:A,0),"")</f>
@@ -2997,15 +3014,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>10</v>
-      </c>
       <c r="B24">
         <v>320</v>
       </c>
-      <c r="C24" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A24,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
       <c r="E24" t="str">
         <f>_xlfn.IFNA(MATCH(D24,A:A,0),"")</f>
@@ -3013,11 +3026,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="B25">
         <v>330</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>604</v>
+      <c r="C25" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A25,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
       </c>
       <c r="E25" t="str">
         <f>_xlfn.IFNA(MATCH(D25,A:A,0),"")</f>
@@ -3028,8 +3045,8 @@
       <c r="B26">
         <v>340</v>
       </c>
-      <c r="C26" t="s">
-        <v>605</v>
+      <c r="C26" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="E26" t="str">
         <f>_xlfn.IFNA(MATCH(D26,A:A,0),"")</f>
@@ -3040,20 +3057,16 @@
       <c r="B27">
         <v>350</v>
       </c>
-      <c r="C27" t="s">
-        <v>606</v>
-      </c>
-      <c r="E27" t="str">
-        <f>_xlfn.IFNA(MATCH(D27,A:A,0),"")</f>
-        <v/>
+      <c r="C27" s="5" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>360</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>607</v>
+      <c r="C28" t="s">
+        <v>602</v>
       </c>
       <c r="E28" t="str">
         <f>_xlfn.IFNA(MATCH(D28,A:A,0),"")</f>
@@ -3065,7 +3078,7 @@
         <v>370</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E29" t="str">
         <f>_xlfn.IFNA(MATCH(D29,A:A,0),"")</f>
@@ -3076,20 +3089,16 @@
       <c r="B30">
         <v>380</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E30" t="str">
-        <f>_xlfn.IFNA(MATCH(D30,A:A,0),"")</f>
-        <v/>
+      <c r="C30" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>390</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
+      <c r="C31" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.IFNA(MATCH(D31,A:A,0),"")</f>
@@ -3097,15 +3106,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="B32">
         <v>400</v>
       </c>
-      <c r="C32" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A32,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      <c r="C32" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="E32" t="str">
         <f>_xlfn.IFNA(MATCH(D32,A:A,0),"")</f>
@@ -3116,8 +3121,8 @@
       <c r="B33">
         <v>410</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>599</v>
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
       <c r="E33" t="str">
         <f>_xlfn.IFNA(MATCH(D33,A:A,0),"")</f>
@@ -3125,11 +3130,15 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="B34">
         <v>420</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>600</v>
+      <c r="C34" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A34,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
       </c>
       <c r="E34" t="str">
         <f>_xlfn.IFNA(MATCH(D34,A:A,0),"")</f>
@@ -3141,7 +3150,7 @@
         <v>430</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>601</v>
+        <v>718</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.IFNA(MATCH(D35,A:A,0),"")</f>
@@ -3152,8 +3161,8 @@
       <c r="B36">
         <v>440</v>
       </c>
-      <c r="C36" t="s">
-        <v>602</v>
+      <c r="C36" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="E36" t="str">
         <f>_xlfn.IFNA(MATCH(D36,A:A,0),"")</f>
@@ -3164,8 +3173,8 @@
       <c r="B37">
         <v>450</v>
       </c>
-      <c r="C37" t="s">
-        <v>603</v>
+      <c r="C37" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="E37" t="str">
         <f>_xlfn.IFNA(MATCH(D37,A:A,0),"")</f>
@@ -3176,24 +3185,16 @@
       <c r="B38">
         <v>460</v>
       </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="str">
-        <f>_xlfn.IFNA(MATCH(D38,A:A,0),"")</f>
-        <v/>
+      <c r="C38" s="5" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>616</v>
-      </c>
       <c r="B39">
         <v>470</v>
       </c>
-      <c r="C39" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A39,"***")</f>
-        <v>REM SUBROUTINE ***RENDERBOARDS***</v>
+      <c r="C39" t="s">
+        <v>599</v>
       </c>
       <c r="E39" t="str">
         <f>_xlfn.IFNA(MATCH(D39,A:A,0),"")</f>
@@ -3205,7 +3206,7 @@
         <v>480</v>
       </c>
       <c r="C40" t="s">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E40" t="str">
         <f>_xlfn.IFNA(MATCH(D40,A:A,0),"")</f>
@@ -3217,7 +3218,7 @@
         <v>490</v>
       </c>
       <c r="C41" t="s">
-        <v>571</v>
+        <v>9</v>
       </c>
       <c r="E41" t="str">
         <f>_xlfn.IFNA(MATCH(D41,A:A,0),"")</f>
@@ -3225,152 +3226,147 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>612</v>
+      </c>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D42,A:A,0),0)," :: REM CALL ",D42,"")</f>
-        <v>GOSUB 580 :: REM CALL RENDERBOARD</v>
-      </c>
-      <c r="D42" t="str">
-        <f>A50</f>
-        <v>RENDERBOARD</v>
-      </c>
-      <c r="E42">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A42,"***")</f>
+        <v>REM SUBROUTINE ***RENDERBOARDS***</v>
+      </c>
+      <c r="E42" t="str">
         <f>_xlfn.IFNA(MATCH(D42,A:A,0),"")</f>
-        <v>50</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>510</v>
       </c>
-      <c r="C43" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D43,A:A,0),0)," :: REM CALL ",D43,"")</f>
-        <v>GOSUB 660 :: REM CALL RENDERAXES</v>
-      </c>
-      <c r="D43" t="str">
-        <f>A58</f>
-        <v>RENDERAXES</v>
-      </c>
-      <c r="E43">
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
         <f>_xlfn.IFNA(MATCH(D43,A:A,0),"")</f>
-        <v>58</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>520</v>
       </c>
-      <c r="C44" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D44,A:A,0),0)," :: REM CALL ",D44,"")</f>
-        <v>GOSUB 770 :: REM CALL RENDERAUX</v>
-      </c>
-      <c r="D44" t="str">
-        <f>A69</f>
-        <v>RENDERAUX</v>
-      </c>
-      <c r="E44">
+      <c r="C44" t="s">
+        <v>571</v>
+      </c>
+      <c r="E44" t="str">
         <f>_xlfn.IFNA(MATCH(D44,A:A,0),"")</f>
-        <v>69</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>530</v>
       </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="str">
+      <c r="C45" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D45,A:A,0),0)," :: REM CALL ",D45,"")</f>
+        <v>GOSUB 600 :: REM CALL RENDERBOARD</v>
+      </c>
+      <c r="D45" t="str">
+        <f>A52</f>
+        <v>RENDERBOARD</v>
+      </c>
+      <c r="E45">
         <f>_xlfn.IFNA(MATCH(D45,A:A,0),"")</f>
-        <v/>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>614</v>
-      </c>
       <c r="B46">
         <v>540</v>
       </c>
       <c r="C46" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A46,"***")</f>
-        <v>REM SUBROUTINE ***DEPLOYSHIPS***</v>
-      </c>
-      <c r="E46" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D46,A:A,0),0)," :: REM CALL ",D46,"")</f>
+        <v>GOSUB 900 :: REM CALL RENDERAUX</v>
+      </c>
+      <c r="D46" t="str">
+        <f>A82</f>
+        <v>RENDERAUX</v>
+      </c>
+      <c r="E46">
         <f>_xlfn.IFNA(MATCH(D46,A:A,0),"")</f>
-        <v/>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>550</v>
       </c>
-      <c r="C47" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D47,A:A,0),0)," :: REM CALL ",D47,"")</f>
-        <v>GOSUB 830 :: REM CALL PLAYERDELOY</v>
-      </c>
-      <c r="D47" t="str">
-        <f>A75</f>
-        <v>PLAYERDELOY</v>
-      </c>
-      <c r="E47">
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="str">
         <f>_xlfn.IFNA(MATCH(D47,A:A,0),"")</f>
-        <v>75</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>610</v>
+      </c>
       <c r="B48">
         <v>560</v>
       </c>
       <c r="C48" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D48,A:A,0),0)," :: REM CALL ",D48,"")</f>
-        <v>GOSUB 1200 :: REM CALL COMPUTERDEPLOY</v>
-      </c>
-      <c r="D48" t="str">
-        <f>A112</f>
-        <v>COMPUTERDEPLOY</v>
-      </c>
-      <c r="E48">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A48,"***")</f>
+        <v>REM SUBROUTINE ***DEPLOYSHIPS***</v>
+      </c>
+      <c r="E48" t="str">
         <f>_xlfn.IFNA(MATCH(D48,A:A,0),"")</f>
-        <v>112</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>570</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="str">
+      <c r="C49" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D49,A:A,0),0)," :: REM CALL ",D49,"")</f>
+        <v>GOSUB 960 :: REM CALL PLAYERDELOY</v>
+      </c>
+      <c r="D49" t="str">
+        <f>A88</f>
+        <v>PLAYERDELOY</v>
+      </c>
+      <c r="E49">
         <f>_xlfn.IFNA(MATCH(D49,A:A,0),"")</f>
-        <v/>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
-        <v>692</v>
-      </c>
       <c r="B50">
         <v>580</v>
       </c>
       <c r="C50" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A50,"***")</f>
-        <v>REM SUBROUTINE ***RENDERBOARD***</v>
-      </c>
-      <c r="E50" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D50,A:A,0),0)," :: REM CALL ",D50,"")</f>
+        <v>GOSUB 1330 :: REM CALL COMPUTERDEPLOY</v>
+      </c>
+      <c r="D50" t="str">
+        <f>A125</f>
+        <v>COMPUTERDEPLOY</v>
+      </c>
+      <c r="E50">
         <f>_xlfn.IFNA(MATCH(D50,A:A,0),"")</f>
-        <v/>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>590</v>
       </c>
-      <c r="C51" t="s">
-        <v>698</v>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E51" t="str">
         <f>_xlfn.IFNA(MATCH(D51,A:A,0),"")</f>
@@ -3378,11 +3374,15 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>688</v>
+      </c>
       <c r="B52">
         <v>600</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>617</v>
+      <c r="C52" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A52,"***")</f>
+        <v>REM SUBROUTINE ***RENDERBOARD***</v>
       </c>
       <c r="E52" t="str">
         <f>_xlfn.IFNA(MATCH(D52,A:A,0),"")</f>
@@ -3393,72 +3393,67 @@
       <c r="B53">
         <v>610</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="E53" t="str">
-        <f>_xlfn.IFNA(MATCH(D53,A:A,0),"")</f>
-        <v/>
+      <c r="C53" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D53,A:A,0),0)," :: REM CALL ",D53,"")</f>
+        <v>GOSUB 650 :: REM CALL RENDERBACKBOARD</v>
+      </c>
+      <c r="D53" t="str">
+        <f>A57</f>
+        <v>RENDERBACKBOARD</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>620</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="E54" t="str">
-        <f>_xlfn.IFNA(MATCH(D54,A:A,0),"")</f>
-        <v/>
+      <c r="C54" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D54,A:A,0),0)," :: REM CALL ",D54,"")</f>
+        <v>GOSUB 790 :: REM CALL RENDERAXES</v>
+      </c>
+      <c r="D54" t="str">
+        <f>A71</f>
+        <v>RENDERAXES</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>630</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="str">
-        <f>_xlfn.IFNA(MATCH(D55,A:A,0),"")</f>
-        <v/>
+      <c r="C55" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D55,A:A,0),0)," :: REM CALL ",D55,"")</f>
+        <v>GOSUB 710 :: REM CALL RENDERHOLES</v>
+      </c>
+      <c r="D55" t="str">
+        <f>A63</f>
+        <v>RENDERHOLES</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>640</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" t="str">
-        <f>_xlfn.IFNA(MATCH(D56,A:A,0),"")</f>
-        <v/>
+      <c r="C56" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>722</v>
+      </c>
       <c r="B57">
         <v>650</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="str">
-        <f>_xlfn.IFNA(MATCH(D57,A:A,0),"")</f>
-        <v/>
+      <c r="C57" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A57,"***")</f>
+        <v>REM SUBROUTINE ***RENDERBACKBOARD***</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
-        <v>693</v>
-      </c>
       <c r="B58">
         <v>660</v>
       </c>
-      <c r="C58" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A58,"***")</f>
-        <v>REM SUBROUTINE ***RENDERAXES***</v>
+      <c r="C58" t="s">
+        <v>694</v>
       </c>
       <c r="E58" t="str">
         <f>_xlfn.IFNA(MATCH(D58,A:A,0),"")</f>
@@ -3469,12 +3464,8 @@
       <c r="B59">
         <v>670</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E59" t="str">
-        <f>_xlfn.IFNA(MATCH(D59,A:A,0),"")</f>
-        <v/>
+      <c r="C59" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3482,11 +3473,7 @@
         <v>680</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E60" t="str">
-        <f>_xlfn.IFNA(MATCH(D60,A:A,0),"")</f>
-        <v/>
+        <v>717</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,11 +3481,7 @@
         <v>690</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="E61" t="str">
-        <f>_xlfn.IFNA(MATCH(D61,A:A,0),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3506,35 +3489,27 @@
         <v>700</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" t="str">
-        <f>_xlfn.IFNA(MATCH(D62,A:A,0),"")</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>721</v>
+      </c>
       <c r="B63">
         <v>710</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="E63" t="str">
-        <f>_xlfn.IFNA(MATCH(D63,A:A,0),"")</f>
-        <v/>
+      <c r="C63" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A63,"***")</f>
+        <v>REM SUBROUTINE ***RENDERHOLES***</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>720</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="E64" t="str">
-        <f>_xlfn.IFNA(MATCH(D64,A:A,0),"")</f>
-        <v/>
+      <c r="C64" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3542,7 +3517,7 @@
         <v>730</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>34</v>
+        <v>613</v>
       </c>
       <c r="E65" t="str">
         <f>_xlfn.IFNA(MATCH(D65,A:A,0),"")</f>
@@ -3554,7 +3529,7 @@
         <v>740</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
       <c r="E66" t="str">
         <f>_xlfn.IFNA(MATCH(D66,A:A,0),"")</f>
@@ -3566,7 +3541,7 @@
         <v>750</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1</v>
+        <v>619</v>
       </c>
       <c r="E67" t="str">
         <f>_xlfn.IFNA(MATCH(D67,A:A,0),"")</f>
@@ -3578,7 +3553,7 @@
         <v>760</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E68" t="str">
         <f>_xlfn.IFNA(MATCH(D68,A:A,0),"")</f>
@@ -3586,15 +3561,11 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>699</v>
-      </c>
       <c r="B69">
         <v>770</v>
       </c>
-      <c r="C69" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A69,"***")</f>
-        <v>REM SUBROUTINE ***RENDERAUX***</v>
+      <c r="C69" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E69" t="str">
         <f>_xlfn.IFNA(MATCH(D69,A:A,0),"")</f>
@@ -3606,7 +3577,7 @@
         <v>780</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>695</v>
+        <v>9</v>
       </c>
       <c r="E70" t="str">
         <f>_xlfn.IFNA(MATCH(D70,A:A,0),"")</f>
@@ -3614,11 +3585,15 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>689</v>
+      </c>
       <c r="B71">
         <v>790</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>18</v>
+      <c r="C71" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A71,"***")</f>
+        <v>REM SUBROUTINE ***RENDERAXES***</v>
       </c>
       <c r="E71" t="str">
         <f>_xlfn.IFNA(MATCH(D71,A:A,0),"")</f>
@@ -3630,7 +3605,7 @@
         <v>800</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="E72" t="str">
         <f>_xlfn.IFNA(MATCH(D72,A:A,0),"")</f>
@@ -3642,7 +3617,7 @@
         <v>810</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1</v>
+        <v>551</v>
       </c>
       <c r="E73" t="str">
         <f>_xlfn.IFNA(MATCH(D73,A:A,0),"")</f>
@@ -3654,7 +3629,7 @@
         <v>820</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>617</v>
       </c>
       <c r="E74" t="str">
         <f>_xlfn.IFNA(MATCH(D74,A:A,0),"")</f>
@@ -3662,15 +3637,11 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>685</v>
-      </c>
       <c r="B75">
         <v>830</v>
       </c>
-      <c r="C75" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A75,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDELOY***</v>
+      <c r="C75" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E75" t="str">
         <f>_xlfn.IFNA(MATCH(D75,A:A,0),"")</f>
@@ -3681,17 +3652,12 @@
       <c r="B76">
         <v>840</v>
       </c>
-      <c r="C76" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D76,A:A,0),0)," :: REM CALL ",D76,"")</f>
-        <v>GOSUB 1400 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D76" t="str">
-        <f>A132</f>
-        <v>CLEARMENU</v>
-      </c>
-      <c r="E76">
+      <c r="C76" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E76" t="str">
         <f>_xlfn.IFNA(MATCH(D76,A:A,0),"")</f>
-        <v>132</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3699,7 +3665,7 @@
         <v>850</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>664</v>
+        <v>615</v>
       </c>
       <c r="E77" t="str">
         <f>_xlfn.IFNA(MATCH(D77,A:A,0),"")</f>
@@ -3711,7 +3677,7 @@
         <v>860</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>665</v>
+        <v>34</v>
       </c>
       <c r="E78" t="str">
         <f>_xlfn.IFNA(MATCH(D78,A:A,0),"")</f>
@@ -3723,7 +3689,7 @@
         <v>870</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="E79" t="str">
         <f>_xlfn.IFNA(MATCH(D79,A:A,0),"")</f>
@@ -3735,7 +3701,7 @@
         <v>880</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>677</v>
+        <v>1</v>
       </c>
       <c r="E80" t="str">
         <f>_xlfn.IFNA(MATCH(D80,A:A,0),"")</f>
@@ -3747,7 +3713,7 @@
         <v>890</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>678</v>
+        <v>9</v>
       </c>
       <c r="E81" t="str">
         <f>_xlfn.IFNA(MATCH(D81,A:A,0),"")</f>
@@ -3755,11 +3721,15 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>695</v>
+      </c>
       <c r="B82">
         <v>900</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>679</v>
+      <c r="C82" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A82,"***")</f>
+        <v>REM SUBROUTINE ***RENDERAUX***</v>
       </c>
       <c r="E82" t="str">
         <f>_xlfn.IFNA(MATCH(D82,A:A,0),"")</f>
@@ -3770,13 +3740,12 @@
       <c r="B83">
         <v>910</v>
       </c>
-      <c r="C83" s="5" t="str">
-        <f>_xlfn.CONCAT("IF AUTODEPLOY$=""N"" THEN ",INDEX(B:B,MATCH(D83,A:A,0),0)," :: REM GOTO ",D83,"")</f>
-        <v>IF AUTODEPLOY$="N" THEN 1020 :: REM GOTO PLAYERDEPLOYSHIPS</v>
-      </c>
-      <c r="D83" t="str">
-        <f>A94</f>
-        <v>PLAYERDEPLOYSHIPS</v>
+      <c r="C83" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E83" t="str">
+        <f>_xlfn.IFNA(MATCH(D83,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3784,7 +3753,11 @@
         <v>920</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>714</v>
+        <v>18</v>
+      </c>
+      <c r="E84" t="str">
+        <f>_xlfn.IFNA(MATCH(D84,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3792,7 +3765,11 @@
         <v>930</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>715</v>
+        <v>605</v>
+      </c>
+      <c r="E85" t="str">
+        <f>_xlfn.IFNA(MATCH(D85,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3800,32 +3777,35 @@
         <v>940</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>716</v>
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <f>_xlfn.IFNA(MATCH(D86,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>950</v>
       </c>
-      <c r="C87" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D87,A:A,0),0)," :: REM CALL ",D87,"")</f>
-        <v>GOSUB 1200 :: REM CALL COMPUTERDEPLOY</v>
-      </c>
-      <c r="D87" t="str">
-        <f>A112</f>
-        <v>COMPUTERDEPLOY</v>
-      </c>
-      <c r="E87">
+      <c r="C87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="str">
         <f>_xlfn.IFNA(MATCH(D87,A:A,0),"")</f>
-        <v>112</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>681</v>
+      </c>
       <c r="B88">
         <v>960</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>625</v>
+      <c r="C88" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A88,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDELOY***</v>
       </c>
       <c r="E88" t="str">
         <f>_xlfn.IFNA(MATCH(D88,A:A,0),"")</f>
@@ -3836,12 +3816,17 @@
       <c r="B89">
         <v>970</v>
       </c>
-      <c r="C89" t="s">
-        <v>670</v>
-      </c>
-      <c r="E89" t="str">
+      <c r="C89" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D89,A:A,0),0)," :: REM CALL ",D89,"")</f>
+        <v>GOSUB 1530 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D89" t="str">
+        <f>A145</f>
+        <v>CLEARMENU</v>
+      </c>
+      <c r="E89">
         <f>_xlfn.IFNA(MATCH(D89,A:A,0),"")</f>
-        <v/>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3849,7 +3834,7 @@
         <v>980</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="E90" t="str">
         <f>_xlfn.IFNA(MATCH(D90,A:A,0),"")</f>
@@ -3861,7 +3846,7 @@
         <v>990</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>17</v>
+        <v>661</v>
       </c>
       <c r="E91" t="str">
         <f>_xlfn.IFNA(MATCH(D91,A:A,0),"")</f>
@@ -3873,7 +3858,7 @@
         <v>1000</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1</v>
+        <v>662</v>
       </c>
       <c r="E92" t="str">
         <f>_xlfn.IFNA(MATCH(D92,A:A,0),"")</f>
@@ -3884,25 +3869,20 @@
       <c r="B93">
         <v>1010</v>
       </c>
-      <c r="C93" s="5" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D93,A:A,0),0)," :: REM GOTO ",D93,"")</f>
-        <v>GOTO 1160 :: REM GOTO PLAYERRENDERSHIPS</v>
-      </c>
-      <c r="D93" t="str">
-        <f>A108</f>
-        <v>PLAYERRENDERSHIPS</v>
+      <c r="C93" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E93" t="str">
+        <f>_xlfn.IFNA(MATCH(D93,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
-        <v>686</v>
-      </c>
       <c r="B94">
         <v>1020</v>
       </c>
-      <c r="C94" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A94,"***")</f>
-        <v>REM LABEL ***PLAYERDEPLOYSHIPS***</v>
+      <c r="C94" s="5" t="s">
+        <v>674</v>
       </c>
       <c r="E94" t="str">
         <f>_xlfn.IFNA(MATCH(D94,A:A,0),"")</f>
@@ -3910,126 +3890,93 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
       <c r="B95">
         <v>1030</v>
       </c>
-      <c r="C95" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D95,A:A,0),0)," :: REM CALL ",D95,"")</f>
-        <v>GOSUB 1400 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D95" t="str">
-        <f>A132</f>
-        <v>CLEARMENU</v>
-      </c>
-      <c r="E95">
+      <c r="C95" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E95" t="str">
         <f>_xlfn.IFNA(MATCH(D95,A:A,0),"")</f>
-        <v>132</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
       <c r="B96">
         <v>1040</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E96" t="str">
-        <f>_xlfn.IFNA(MATCH(D96,A:A,0),"")</f>
-        <v/>
+      <c r="C96" s="5" t="str">
+        <f>_xlfn.CONCAT("IF AUTODEPLOY$=""N"" THEN ",INDEX(B:B,MATCH(D96,A:A,0),0)," :: REM GOTO ",D96,"")</f>
+        <v>IF AUTODEPLOY$="N" THEN 1150 :: REM GOTO PLAYERDEPLOYSHIPS</v>
+      </c>
+      <c r="D96" t="str">
+        <f>A107</f>
+        <v>PLAYERDEPLOYSHIPS</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>687</v>
-      </c>
       <c r="B97">
         <v>1050</v>
       </c>
-      <c r="C97" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A97,"***")</f>
-        <v>REM LABEL ***PLAYERDEPLOYSHIP***</v>
-      </c>
-      <c r="E97" t="str">
-        <f>_xlfn.IFNA(MATCH(D97,A:A,0),"")</f>
-        <v/>
+      <c r="C97" s="5" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1060</v>
       </c>
-      <c r="C98" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D98,A:A,0),0)," :: REM CALL ",D98,"")</f>
-        <v>GOSUB 1430 :: REM CALL PLAYERDEPLOYMENU</v>
-      </c>
-      <c r="D98" t="str">
-        <f>A135</f>
-        <v>PLAYERDEPLOYMENU</v>
-      </c>
-      <c r="E98">
-        <f>_xlfn.IFNA(MATCH(D98,A:A,0),"")</f>
-        <v>135</v>
+      <c r="C98" s="5" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1070</v>
       </c>
-      <c r="C99" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D99,A:A,0),0)," :: REM CALL ",D99,"")</f>
-        <v>GOSUB 1550 :: REM CALL PLAYERDEPLOYINPUT</v>
-      </c>
-      <c r="D99" t="str">
-        <f>A147</f>
-        <v>PLAYERDEPLOYINPUT</v>
-      </c>
-      <c r="E99">
-        <f>_xlfn.IFNA(MATCH(D99,A:A,0),"")</f>
-        <v>147</v>
+      <c r="C99" s="5" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>1080</v>
       </c>
-      <c r="C100" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" t="str">
+      <c r="C100" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D100,A:A,0),0)," :: REM CALL ",D100,"")</f>
+        <v>GOSUB 1330 :: REM CALL COMPUTERDEPLOY</v>
+      </c>
+      <c r="D100" t="str">
+        <f>A125</f>
+        <v>COMPUTERDEPLOY</v>
+      </c>
+      <c r="E100">
         <f>_xlfn.IFNA(MATCH(D100,A:A,0),"")</f>
-        <v/>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1090</v>
       </c>
-      <c r="C101" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D101,A:A,0),0)," :: REM CALL ",D101,"")</f>
-        <v>GOSUB 1680 :: REM CALL VALIDATESHIP</v>
-      </c>
-      <c r="D101" t="str">
-        <f>A160</f>
-        <v>VALIDATESHIP</v>
-      </c>
-      <c r="E101">
+      <c r="C101" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E101" t="str">
         <f>_xlfn.IFNA(MATCH(D101,A:A,0),"")</f>
-        <v>160</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>1100</v>
       </c>
-      <c r="C102" s="5" t="str">
-        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D102,A:A,0),0)," :: REM GOTO ",D102,"")</f>
-        <v>IF SHIPERR=1 THEN 1050 :: REM GOTO PLAYERDEPLOYSHIP</v>
-      </c>
-      <c r="D102" t="str">
-        <f>A97</f>
-        <v>PLAYERDEPLOYSHIP</v>
+      <c r="C102" t="s">
+        <v>666</v>
+      </c>
+      <c r="E102" t="str">
+        <f>_xlfn.IFNA(MATCH(D102,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4037,7 +3984,7 @@
         <v>1110</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E103" t="str">
         <f>_xlfn.IFNA(MATCH(D103,A:A,0),"")</f>
@@ -4049,7 +3996,7 @@
         <v>1120</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>680</v>
+        <v>17</v>
       </c>
       <c r="E104" t="str">
         <f>_xlfn.IFNA(MATCH(D104,A:A,0),"")</f>
@@ -4072,25 +4019,25 @@
       <c r="B106">
         <v>1140</v>
       </c>
-      <c r="C106" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D106,A:A,0),0)," :: REM CALL ",D106,"")</f>
-        <v>GOSUB 1780 :: REM CALL RENDERSHIP</v>
+      <c r="C106" s="5" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D106,A:A,0),0)," :: REM GOTO ",D106,"")</f>
+        <v>GOTO 1290 :: REM GOTO PLAYERRENDERSHIPS</v>
       </c>
       <c r="D106" t="str">
-        <f>A170</f>
-        <v>RENDERSHIP</v>
-      </c>
-      <c r="E106">
-        <f>_xlfn.IFNA(MATCH(D106,A:A,0),"")</f>
-        <v>170</v>
+        <f>A121</f>
+        <v>PLAYERRENDERSHIPS</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
+        <v>682</v>
+      </c>
       <c r="B107">
         <v>1150</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>556</v>
+      <c r="C107" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A107,"***")</f>
+        <v>REM LABEL ***PLAYERDEPLOYSHIPS***</v>
       </c>
       <c r="E107" t="str">
         <f>_xlfn.IFNA(MATCH(D107,A:A,0),"")</f>
@@ -4098,85 +4045,84 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="19" t="s">
-        <v>688</v>
-      </c>
+      <c r="A108" s="19"/>
       <c r="B108">
         <v>1160</v>
       </c>
       <c r="C108" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D108,A:A,0),0)," :: REM CALL ",D108,"")</f>
-        <v>GOSUB 1840 :: REM CALL RENDERSHIPSAUX</v>
+        <v>GOSUB 1530 :: REM CALL CLEARMENU</v>
       </c>
       <c r="D108" t="str">
-        <f>A176</f>
-        <v>RENDERSHIPSAUX</v>
+        <f>A145</f>
+        <v>CLEARMENU</v>
       </c>
       <c r="E108">
         <f>_xlfn.IFNA(MATCH(D108,A:A,0),"")</f>
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="19"/>
       <c r="B109">
         <v>1170</v>
       </c>
-      <c r="C109" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D109,A:A,0),0)," :: REM CALL ",D109,"")</f>
-        <v>GOSUB 580 :: REM CALL RENDERBOARD</v>
-      </c>
-      <c r="D109" t="str">
-        <f>A50</f>
-        <v>RENDERBOARD</v>
-      </c>
-      <c r="E109">
+      <c r="C109" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E109" t="str">
         <f>_xlfn.IFNA(MATCH(D109,A:A,0),"")</f>
-        <v>50</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="19" t="s">
+        <v>683</v>
+      </c>
       <c r="B110">
         <v>1180</v>
       </c>
-      <c r="C110" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D110,A:A,0),0)," :: REM CALL ",D110,"")</f>
-        <v>GOSUB 1920 :: REM CALL PLAYERDEPLOYED</v>
-      </c>
-      <c r="D110" t="str">
-        <f>A184</f>
-        <v>PLAYERDEPLOYED</v>
-      </c>
-      <c r="E110">
+      <c r="C110" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A110,"***")</f>
+        <v>REM LABEL ***PLAYERDEPLOYSHIP***</v>
+      </c>
+      <c r="E110" t="str">
         <f>_xlfn.IFNA(MATCH(D110,A:A,0),"")</f>
-        <v>184</v>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>1190</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="str">
+      <c r="C111" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D111,A:A,0),0)," :: REM CALL ",D111,"")</f>
+        <v>GOSUB 1560 :: REM CALL PLAYERDEPLOYMENU</v>
+      </c>
+      <c r="D111" t="str">
+        <f>A148</f>
+        <v>PLAYERDEPLOYMENU</v>
+      </c>
+      <c r="E111">
         <f>_xlfn.IFNA(MATCH(D111,A:A,0),"")</f>
-        <v/>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="17" t="s">
-        <v>689</v>
-      </c>
       <c r="B112">
         <v>1200</v>
       </c>
       <c r="C112" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A112,"***")</f>
-        <v>REM SUBROUTINE ***COMPUTERDEPLOY***</v>
-      </c>
-      <c r="E112" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D112,A:A,0),0)," :: REM CALL ",D112,"")</f>
+        <v>GOSUB 1680 :: REM CALL PLAYERDEPLOYINPUT</v>
+      </c>
+      <c r="D112" t="str">
+        <f>A160</f>
+        <v>PLAYERDEPLOYINPUT</v>
+      </c>
+      <c r="E112">
         <f>_xlfn.IFNA(MATCH(D112,A:A,0),"")</f>
-        <v/>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4184,7 +4130,7 @@
         <v>1210</v>
       </c>
       <c r="C113" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="E113" t="str">
         <f>_xlfn.IFNA(MATCH(D113,A:A,0),"")</f>
@@ -4192,39 +4138,41 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
-        <v>707</v>
-      </c>
       <c r="B114">
         <v>1220</v>
       </c>
-      <c r="C114" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A114,"***")</f>
-        <v>REM LABEL ***COMPUTERDEPLOYSHIP***</v>
-      </c>
-      <c r="E114" t="str">
+      <c r="C114" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D114,A:A,0),0)," :: REM CALL ",D114,"")</f>
+        <v>GOSUB 1810 :: REM CALL VALIDATESHIP</v>
+      </c>
+      <c r="D114" t="str">
+        <f>A173</f>
+        <v>VALIDATESHIP</v>
+      </c>
+      <c r="E114">
         <f>_xlfn.IFNA(MATCH(D114,A:A,0),"")</f>
-        <v/>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>1230</v>
       </c>
-      <c r="C115" t="s">
-        <v>704</v>
-      </c>
-      <c r="E115" t="str">
-        <f>_xlfn.IFNA(MATCH(D115,A:A,0),"")</f>
-        <v/>
+      <c r="C115" s="5" t="str">
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D115,A:A,0),0)," :: REM GOTO ",D115,"")</f>
+        <v>IF SHIPERR=1 THEN 1180 :: REM GOTO PLAYERDEPLOYSHIP</v>
+      </c>
+      <c r="D115" t="str">
+        <f>A110</f>
+        <v>PLAYERDEPLOYSHIP</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B116">
         <v>1240</v>
       </c>
-      <c r="C116" t="s">
-        <v>711</v>
+      <c r="C116" s="5" t="s">
+        <v>664</v>
       </c>
       <c r="E116" t="str">
         <f>_xlfn.IFNA(MATCH(D116,A:A,0),"")</f>
@@ -4235,8 +4183,8 @@
       <c r="B117">
         <v>1250</v>
       </c>
-      <c r="C117" t="s">
-        <v>705</v>
+      <c r="C117" s="5" t="s">
+        <v>676</v>
       </c>
       <c r="E117" t="str">
         <f>_xlfn.IFNA(MATCH(D117,A:A,0),"")</f>
@@ -4247,8 +4195,8 @@
       <c r="B118">
         <v>1260</v>
       </c>
-      <c r="C118" t="s">
-        <v>668</v>
+      <c r="C118" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E118" t="str">
         <f>_xlfn.IFNA(MATCH(D118,A:A,0),"")</f>
@@ -4259,20 +4207,25 @@
       <c r="B119">
         <v>1270</v>
       </c>
-      <c r="C119" t="s">
-        <v>713</v>
-      </c>
-      <c r="E119" t="str">
+      <c r="C119" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D119,A:A,0),0)," :: REM CALL ",D119,"")</f>
+        <v>GOSUB 1910 :: REM CALL RENDERSHIP</v>
+      </c>
+      <c r="D119" t="str">
+        <f>A183</f>
+        <v>RENDERSHIP</v>
+      </c>
+      <c r="E119">
         <f>_xlfn.IFNA(MATCH(D119,A:A,0),"")</f>
-        <v/>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B120">
         <v>1280</v>
       </c>
-      <c r="C120" t="s">
-        <v>706</v>
+      <c r="C120" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="E120" t="str">
         <f>_xlfn.IFNA(MATCH(D120,A:A,0),"")</f>
@@ -4280,290 +4233,308 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="19" t="s">
+        <v>684</v>
+      </c>
       <c r="B121">
         <v>1290</v>
       </c>
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="E121" t="str">
+      <c r="C121" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D121,A:A,0),0)," :: REM CALL ",D121,"")</f>
+        <v>GOSUB 1970 :: REM CALL RENDERSHIPSAUX</v>
+      </c>
+      <c r="D121" t="str">
+        <f>A189</f>
+        <v>RENDERSHIPSAUX</v>
+      </c>
+      <c r="E121">
         <f>_xlfn.IFNA(MATCH(D121,A:A,0),"")</f>
-        <v/>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>1300</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E122" t="str">
+      <c r="C122" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D122,A:A,0),0)," :: REM CALL ",D122,"")</f>
+        <v>GOSUB 710 :: REM CALL RENDERHOLES</v>
+      </c>
+      <c r="D122" t="str">
+        <f>A63</f>
+        <v>RENDERHOLES</v>
+      </c>
+      <c r="E122">
         <f>_xlfn.IFNA(MATCH(D122,A:A,0),"")</f>
-        <v/>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>1310</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="E123" t="str">
+      <c r="C123" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D123,A:A,0),0)," :: REM CALL ",D123,"")</f>
+        <v>GOSUB 2050 :: REM CALL PLAYERDEPLOYED</v>
+      </c>
+      <c r="D123" t="str">
+        <f>A197</f>
+        <v>PLAYERDEPLOYED</v>
+      </c>
+      <c r="E123">
         <f>_xlfn.IFNA(MATCH(D123,A:A,0),"")</f>
-        <v/>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B124">
         <v>1320</v>
       </c>
-      <c r="C124" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D124,A:A,0),0)," :: REM CALL ",D124,"")</f>
-        <v>GOSUB 2010 :: REM CALL CHECKOVERLAP</v>
-      </c>
-      <c r="D124" t="str">
-        <f>A193</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-      <c r="E124">
+      <c r="C124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="str">
         <f>_xlfn.IFNA(MATCH(D124,A:A,0),"")</f>
-        <v>193</v>
+        <v/>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
+        <v>685</v>
+      </c>
       <c r="B125">
         <v>1330</v>
       </c>
       <c r="C125" t="str">
-        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D125,A:A,0),0)," :: REM GOTO ",D125,"")</f>
-        <v>IF SHIPERR=1 THEN 1220 :: REM GOTO COMPUTERDEPLOYSHIP</v>
-      </c>
-      <c r="D125" t="str">
-        <f>A114</f>
-        <v>COMPUTERDEPLOYSHIP</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A125,"***")</f>
+        <v>REM SUBROUTINE ***COMPUTERDEPLOY***</v>
+      </c>
+      <c r="E125" t="str">
+        <f>_xlfn.IFNA(MATCH(D125,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>1340</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>668</v>
+      <c r="C126" t="s">
+        <v>620</v>
+      </c>
+      <c r="E126" t="str">
+        <f>_xlfn.IFNA(MATCH(D126,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="19" t="s">
+        <v>703</v>
+      </c>
       <c r="B127">
         <v>1350</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>712</v>
+      <c r="C127" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A127,"***")</f>
+        <v>REM LABEL ***COMPUTERDEPLOYSHIP***</v>
+      </c>
+      <c r="E127" t="str">
+        <f>_xlfn.IFNA(MATCH(D127,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B128">
         <v>1360</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>700</v>
+      </c>
+      <c r="E128" t="str">
+        <f>_xlfn.IFNA(MATCH(D128,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>1370</v>
       </c>
-      <c r="C129" t="str">
-        <f>_xlfn.CONCAT("IF DEBUG=1 THEN GOSUB ",INDEX(B:B,MATCH(D129,A:A,0),0)," :: REM CALL ",D129,"")</f>
-        <v>IF DEBUG=1 THEN GOSUB 1780 :: REM CALL RENDERSHIP</v>
-      </c>
-      <c r="D129" t="str">
-        <f>A170</f>
-        <v>RENDERSHIP</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>707</v>
+      </c>
+      <c r="E129" t="str">
+        <f>_xlfn.IFNA(MATCH(D129,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>1380</v>
       </c>
       <c r="C130" t="s">
-        <v>556</v>
+        <v>701</v>
       </c>
       <c r="E130" t="str">
         <f>_xlfn.IFNA(MATCH(D130,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>1390</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>9</v>
+      <c r="C131" t="s">
+        <v>664</v>
       </c>
       <c r="E131" t="str">
         <f>_xlfn.IFNA(MATCH(D131,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="17" t="s">
-        <v>595</v>
-      </c>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>1400</v>
       </c>
-      <c r="C132" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A132,"***")</f>
-        <v>REM SUBROUTINE ***CLEARMENU***</v>
+      <c r="C132" t="s">
+        <v>709</v>
       </c>
       <c r="E132" t="str">
         <f>_xlfn.IFNA(MATCH(D132,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>1410</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>596</v>
+      <c r="C133" t="s">
+        <v>702</v>
       </c>
       <c r="E133" t="str">
         <f>_xlfn.IFNA(MATCH(D133,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>1420</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>9</v>
+      <c r="C134" t="s">
+        <v>1</v>
       </c>
       <c r="E134" t="str">
         <f>_xlfn.IFNA(MATCH(D134,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
-        <v>690</v>
-      </c>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>1430</v>
       </c>
-      <c r="C135" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A135,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYMENU***</v>
+      <c r="C135" s="5" t="s">
+        <v>576</v>
       </c>
       <c r="E135" t="str">
         <f>_xlfn.IFNA(MATCH(D135,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>1440</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>567</v>
+        <v>706</v>
       </c>
       <c r="E136" t="str">
         <f>_xlfn.IFNA(MATCH(D136,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>1450</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E137" t="str">
+      <c r="C137" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D137,A:A,0),0)," :: REM CALL ",D137,"")</f>
+        <v>GOSUB 2140 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D137" t="str">
+        <f>A206</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E137">
         <f>_xlfn.IFNA(MATCH(D137,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>1460</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="E138" t="str">
-        <f>_xlfn.IFNA(MATCH(D138,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C138" t="str">
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D138,A:A,0),0)," :: REM GOTO ",D138,"")</f>
+        <v>IF SHIPERR=1 THEN 1350 :: REM GOTO COMPUTERDEPLOYSHIP</v>
+      </c>
+      <c r="D138" t="str">
+        <f>A127</f>
+        <v>COMPUTERDEPLOYSHIP</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>1470</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E139" t="str">
-        <f>_xlfn.IFNA(MATCH(D139,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>1480</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="E140" t="str">
-        <f>_xlfn.IFNA(MATCH(D140,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>1490</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E141" t="str">
-        <f>_xlfn.IFNA(MATCH(D141,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>1500</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" t="str">
-        <f>_xlfn.IFNA(MATCH(D142,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C142" t="str">
+        <f>_xlfn.CONCAT("IF DEBUG=1 THEN GOSUB ",INDEX(B:B,MATCH(D142,A:A,0),0)," :: REM CALL ",D142,"")</f>
+        <v>IF DEBUG=1 THEN GOSUB 1910 :: REM CALL RENDERSHIP</v>
+      </c>
+      <c r="D142" t="str">
+        <f>A183</f>
+        <v>RENDERSHIP</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>1510</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>669</v>
+      <c r="C143" t="s">
+        <v>556</v>
       </c>
       <c r="E143" t="str">
         <f>_xlfn.IFNA(MATCH(D143,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144">
         <v>1520</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>597</v>
+        <v>9</v>
       </c>
       <c r="E144" t="str">
         <f>_xlfn.IFNA(MATCH(D144,A:A,0),"")</f>
@@ -4571,11 +4542,15 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="17" t="s">
+        <v>595</v>
+      </c>
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>1</v>
+      <c r="C145" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A145,"***")</f>
+        <v>REM SUBROUTINE ***CLEARMENU***</v>
       </c>
       <c r="E145" t="str">
         <f>_xlfn.IFNA(MATCH(D145,A:A,0),"")</f>
@@ -4587,7 +4562,7 @@
         <v>1540</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>9</v>
+        <v>596</v>
       </c>
       <c r="E146" t="str">
         <f>_xlfn.IFNA(MATCH(D146,A:A,0),"")</f>
@@ -4595,15 +4570,11 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="17" t="s">
-        <v>691</v>
-      </c>
       <c r="B147">
         <v>1550</v>
       </c>
-      <c r="C147" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A147,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYINPUT***</v>
+      <c r="C147" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E147" t="str">
         <f>_xlfn.IFNA(MATCH(D147,A:A,0),"")</f>
@@ -4611,11 +4582,15 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="17" t="s">
+        <v>686</v>
+      </c>
       <c r="B148">
         <v>1560</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>25</v>
+      <c r="C148" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A148,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYMENU***</v>
       </c>
       <c r="E148" t="str">
         <f>_xlfn.IFNA(MATCH(D148,A:A,0),"")</f>
@@ -4627,7 +4602,7 @@
         <v>1570</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>668</v>
+        <v>567</v>
       </c>
       <c r="E149" t="str">
         <f>_xlfn.IFNA(MATCH(D149,A:A,0),"")</f>
@@ -4635,15 +4610,11 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="19" t="s">
-        <v>557</v>
-      </c>
       <c r="B150">
         <v>1580</v>
       </c>
-      <c r="C150" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A150,"***")</f>
-        <v>REM LABEL ***INPUTROW***</v>
+      <c r="C150" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="E150" t="str">
         <f>_xlfn.IFNA(MATCH(D150,A:A,0),"")</f>
@@ -4655,7 +4626,7 @@
         <v>1590</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E151" t="str">
         <f>_xlfn.IFNA(MATCH(D151,A:A,0),"")</f>
@@ -4666,25 +4637,20 @@
       <c r="B152">
         <v>1600</v>
       </c>
-      <c r="C152" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D152,A:A,0),0)," :: REM GOTO ",D152,"")</f>
-        <v>IF COORDS$(I)="" THEN  1580 :: REM GOTO INPUTROW</v>
-      </c>
-      <c r="D152" t="str">
-        <f>A150</f>
-        <v>INPUTROW</v>
+      <c r="C152" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E152" t="str">
+        <f>_xlfn.IFNA(MATCH(D152,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
-        <v>574</v>
-      </c>
       <c r="B153">
         <v>1610</v>
       </c>
-      <c r="C153" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A153,"***")</f>
-        <v>REM LABEL ***INPUTCOL***</v>
+      <c r="C153" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="E153" t="str">
         <f>_xlfn.IFNA(MATCH(D153,A:A,0),"")</f>
@@ -4696,7 +4662,7 @@
         <v>1620</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="E154" t="str">
         <f>_xlfn.IFNA(MATCH(D154,A:A,0),"")</f>
@@ -4707,26 +4673,24 @@
       <c r="B155">
         <v>1630</v>
       </c>
-      <c r="C155" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D155,A:A,0),0)," :: REM GOTO ",D155,"")</f>
-        <v>IF COORDS(I)&gt;10 THEN  1610 :: REM GOTO INPUTCOL</v>
-      </c>
-      <c r="D155" t="str">
-        <f>A153</f>
-        <v>INPUTCOL</v>
+      <c r="C155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="str">
+        <f>_xlfn.IFNA(MATCH(D155,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>1640</v>
       </c>
-      <c r="C156" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D156,A:A,0),0)," :: REM GOTO ",D156,"")</f>
-        <v>IF COORDS(I)&lt;1 THEN  1610 :: REM GOTO INPUTCOL</v>
-      </c>
-      <c r="D156" t="str">
-        <f>A153</f>
-        <v>INPUTCOL</v>
+      <c r="C156" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E156" t="str">
+        <f>_xlfn.IFNA(MATCH(D156,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4734,7 +4698,7 @@
         <v>1650</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>1</v>
+        <v>597</v>
       </c>
       <c r="E157" t="str">
         <f>_xlfn.IFNA(MATCH(D157,A:A,0),"")</f>
@@ -4746,7 +4710,7 @@
         <v>1660</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>569</v>
+        <v>1</v>
       </c>
       <c r="E158" t="str">
         <f>_xlfn.IFNA(MATCH(D158,A:A,0),"")</f>
@@ -4767,14 +4731,14 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
-        <v>575</v>
+        <v>687</v>
       </c>
       <c r="B160">
         <v>1680</v>
       </c>
       <c r="C160" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A160,"***")</f>
-        <v>REM SUBROUTINE ***VALIDATESHIP***</v>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYINPUT***</v>
       </c>
       <c r="E160" t="str">
         <f>_xlfn.IFNA(MATCH(D160,A:A,0),"")</f>
@@ -4786,7 +4750,7 @@
         <v>1690</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>576</v>
+        <v>25</v>
       </c>
       <c r="E161" t="str">
         <f>_xlfn.IFNA(MATCH(D161,A:A,0),"")</f>
@@ -4797,25 +4761,24 @@
       <c r="B162">
         <v>1700</v>
       </c>
-      <c r="C162" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D162,A:A,0),0)," :: REM CALL ",D162,"")</f>
-        <v>GOSUB 2120 :: REM CALL CHECKHORIZONTAL</v>
-      </c>
-      <c r="D162" t="str">
-        <f>A204</f>
-        <v>CHECKHORIZONTAL</v>
-      </c>
-      <c r="E162">
+      <c r="C162" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E162" t="str">
         <f>_xlfn.IFNA(MATCH(D162,A:A,0),"")</f>
-        <v>204</v>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="19" t="s">
+        <v>557</v>
+      </c>
       <c r="B163">
         <v>1710</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>668</v>
+      <c r="C163" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A163,"***")</f>
+        <v>REM LABEL ***INPUTROW***</v>
       </c>
       <c r="E163" t="str">
         <f>_xlfn.IFNA(MATCH(D163,A:A,0),"")</f>
@@ -4827,7 +4790,7 @@
         <v>1720</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="E164" t="str">
         <f>_xlfn.IFNA(MATCH(D164,A:A,0),"")</f>
@@ -4838,37 +4801,37 @@
       <c r="B165">
         <v>1730</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E165" t="str">
-        <f>_xlfn.IFNA(MATCH(D165,A:A,0),"")</f>
-        <v/>
+      <c r="C165" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D165,A:A,0),0)," :: REM GOTO ",D165,"")</f>
+        <v>IF COORDS$(I)="" THEN  1710 :: REM GOTO INPUTROW</v>
+      </c>
+      <c r="D165" t="str">
+        <f>A163</f>
+        <v>INPUTROW</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="19" t="s">
+        <v>574</v>
+      </c>
       <c r="B166">
         <v>1740</v>
       </c>
-      <c r="C166" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D166,A:A,0),0)," :: REM CALL ",D166,"")</f>
-        <v>GOSUB 2190 :: REM CALL CHECKSEQUENCE</v>
-      </c>
-      <c r="D166" t="str">
-        <f>A211</f>
-        <v>CHECKSEQUENCE</v>
-      </c>
-      <c r="E166">
+      <c r="C166" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A166,"***")</f>
+        <v>REM LABEL ***INPUTCOL***</v>
+      </c>
+      <c r="E166" t="str">
         <f>_xlfn.IFNA(MATCH(D166,A:A,0),"")</f>
-        <v>211</v>
+        <v/>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B167">
         <v>1750</v>
       </c>
-      <c r="C167" t="s">
-        <v>588</v>
+      <c r="C167" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="E167" t="str">
         <f>_xlfn.IFNA(MATCH(D167,A:A,0),"")</f>
@@ -4879,41 +4842,34 @@
       <c r="B168">
         <v>1760</v>
       </c>
-      <c r="C168" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM CALL ",D168,"")</f>
-        <v>GOSUB 2010 :: REM CALL CHECKOVERLAP</v>
+      <c r="C168" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM GOTO ",D168,"")</f>
+        <v>IF COORDS(I)&gt;10 THEN  1740 :: REM GOTO INPUTCOL</v>
       </c>
       <c r="D168" t="str">
-        <f>A193</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-      <c r="E168">
-        <f>_xlfn.IFNA(MATCH(D168,A:A,0),"")</f>
-        <v>193</v>
+        <f>A166</f>
+        <v>INPUTCOL</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B169">
         <v>1770</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" t="str">
-        <f>_xlfn.IFNA(MATCH(D169,A:A,0),"")</f>
-        <v/>
+      <c r="C169" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D169,A:A,0),0)," :: REM GOTO ",D169,"")</f>
+        <v>IF COORDS(I)&lt;1 THEN  1740 :: REM GOTO INPUTCOL</v>
+      </c>
+      <c r="D169" t="str">
+        <f>A166</f>
+        <v>INPUTCOL</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="17" t="s">
-        <v>615</v>
-      </c>
       <c r="B170">
         <v>1780</v>
       </c>
-      <c r="C170" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A170,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSHIP***</v>
+      <c r="C170" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E170" t="str">
         <f>_xlfn.IFNA(MATCH(D170,A:A,0),"")</f>
@@ -4924,8 +4880,8 @@
       <c r="B171">
         <v>1790</v>
       </c>
-      <c r="C171" t="s">
-        <v>698</v>
+      <c r="C171" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="E171" t="str">
         <f>_xlfn.IFNA(MATCH(D171,A:A,0),"")</f>
@@ -4937,7 +4893,7 @@
         <v>1800</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>668</v>
+        <v>9</v>
       </c>
       <c r="E172" t="str">
         <f>_xlfn.IFNA(MATCH(D172,A:A,0),"")</f>
@@ -4945,11 +4901,15 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
+        <v>575</v>
+      </c>
       <c r="B173">
         <v>1810</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>697</v>
+      <c r="C173" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A173,"***")</f>
+        <v>REM SUBROUTINE ***VALIDATESHIP***</v>
       </c>
       <c r="E173" t="str">
         <f>_xlfn.IFNA(MATCH(D173,A:A,0),"")</f>
@@ -4961,7 +4921,7 @@
         <v>1820</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>1</v>
+        <v>576</v>
       </c>
       <c r="E174" t="str">
         <f>_xlfn.IFNA(MATCH(D174,A:A,0),"")</f>
@@ -4972,24 +4932,25 @@
       <c r="B175">
         <v>1830</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" t="str">
+      <c r="C175" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D175,A:A,0),0)," :: REM CALL ",D175,"")</f>
+        <v>GOSUB 2250 :: REM CALL CHECKHORIZONTAL</v>
+      </c>
+      <c r="D175" t="str">
+        <f>A217</f>
+        <v>CHECKHORIZONTAL</v>
+      </c>
+      <c r="E175">
         <f>_xlfn.IFNA(MATCH(D175,A:A,0),"")</f>
-        <v/>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
-        <v>694</v>
-      </c>
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A176,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSHIPSAUX***</v>
+      <c r="C176" s="5" t="s">
+        <v>664</v>
       </c>
       <c r="E176" t="str">
         <f>_xlfn.IFNA(MATCH(D176,A:A,0),"")</f>
@@ -5001,7 +4962,7 @@
         <v>1850</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>695</v>
+        <v>598</v>
       </c>
       <c r="E177" t="str">
         <f>_xlfn.IFNA(MATCH(D177,A:A,0),"")</f>
@@ -5013,7 +4974,7 @@
         <v>1860</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>625</v>
+        <v>1</v>
       </c>
       <c r="E178" t="str">
         <f>_xlfn.IFNA(MATCH(D178,A:A,0),"")</f>
@@ -5024,20 +4985,25 @@
       <c r="B179">
         <v>1870</v>
       </c>
-      <c r="C179" t="s">
-        <v>670</v>
-      </c>
-      <c r="E179" t="str">
+      <c r="C179" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D179,A:A,0),0)," :: REM CALL ",D179,"")</f>
+        <v>GOSUB 2320 :: REM CALL CHECKSEQUENCE</v>
+      </c>
+      <c r="D179" t="str">
+        <f>A224</f>
+        <v>CHECKSEQUENCE</v>
+      </c>
+      <c r="E179">
         <f>_xlfn.IFNA(MATCH(D179,A:A,0),"")</f>
-        <v/>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B180">
         <v>1880</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>696</v>
+      <c r="C180" t="s">
+        <v>588</v>
       </c>
       <c r="E180" t="str">
         <f>_xlfn.IFNA(MATCH(D180,A:A,0),"")</f>
@@ -5048,12 +5014,17 @@
       <c r="B181">
         <v>1890</v>
       </c>
-      <c r="C181" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" t="str">
+      <c r="C181" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D181,A:A,0),0)," :: REM CALL ",D181,"")</f>
+        <v>GOSUB 2140 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D181" t="str">
+        <f>A206</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E181">
         <f>_xlfn.IFNA(MATCH(D181,A:A,0),"")</f>
-        <v/>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -5061,7 +5032,7 @@
         <v>1900</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E182" t="str">
         <f>_xlfn.IFNA(MATCH(D182,A:A,0),"")</f>
@@ -5069,11 +5040,15 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="17" t="s">
+        <v>611</v>
+      </c>
       <c r="B183">
         <v>1910</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>9</v>
+      <c r="C183" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A183,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIP***</v>
       </c>
       <c r="E183" t="str">
         <f>_xlfn.IFNA(MATCH(D183,A:A,0),"")</f>
@@ -5081,15 +5056,11 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="17" t="s">
-        <v>613</v>
-      </c>
       <c r="B184">
         <v>1920</v>
       </c>
-      <c r="C184" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A184,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
+      <c r="C184" t="s">
+        <v>694</v>
       </c>
       <c r="E184" t="str">
         <f>_xlfn.IFNA(MATCH(D184,A:A,0),"")</f>
@@ -5100,17 +5071,12 @@
       <c r="B185">
         <v>1930</v>
       </c>
-      <c r="C185" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D185,A:A,0),0)," :: REM CALL ",D185,"")</f>
-        <v>GOSUB 1400 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D185" t="str">
-        <f>A132</f>
-        <v>CLEARMENU</v>
-      </c>
-      <c r="E185">
+      <c r="C185" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E185" t="str">
         <f>_xlfn.IFNA(MATCH(D185,A:A,0),"")</f>
-        <v>132</v>
+        <v/>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5118,7 +5084,7 @@
         <v>1940</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="E186" t="str">
         <f>_xlfn.IFNA(MATCH(D186,A:A,0),"")</f>
@@ -5130,7 +5096,7 @@
         <v>1950</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>612</v>
+        <v>1</v>
       </c>
       <c r="E187" t="str">
         <f>_xlfn.IFNA(MATCH(D187,A:A,0),"")</f>
@@ -5142,7 +5108,7 @@
         <v>1960</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>681</v>
+        <v>9</v>
       </c>
       <c r="E188" t="str">
         <f>_xlfn.IFNA(MATCH(D188,A:A,0),"")</f>
@@ -5150,11 +5116,15 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="17" t="s">
+        <v>690</v>
+      </c>
       <c r="B189">
         <v>1970</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>682</v>
+      <c r="C189" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A189,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIPSAUX***</v>
       </c>
       <c r="E189" t="str">
         <f>_xlfn.IFNA(MATCH(D189,A:A,0),"")</f>
@@ -5166,7 +5136,7 @@
         <v>1980</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E190" t="str">
         <f>_xlfn.IFNA(MATCH(D190,A:A,0),"")</f>
@@ -5178,7 +5148,7 @@
         <v>1990</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>684</v>
+        <v>621</v>
       </c>
       <c r="E191" t="str">
         <f>_xlfn.IFNA(MATCH(D191,A:A,0),"")</f>
@@ -5189,8 +5159,8 @@
       <c r="B192">
         <v>2000</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>9</v>
+      <c r="C192" t="s">
+        <v>666</v>
       </c>
       <c r="E192" t="str">
         <f>_xlfn.IFNA(MATCH(D192,A:A,0),"")</f>
@@ -5198,15 +5168,11 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="17" t="s">
-        <v>591</v>
-      </c>
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A193,"***")</f>
-        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
+      <c r="C193" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="E193" t="str">
         <f>_xlfn.IFNA(MATCH(D193,A:A,0),"")</f>
@@ -5218,7 +5184,7 @@
         <v>2020</v>
       </c>
       <c r="C194" t="s">
-        <v>593</v>
+        <v>17</v>
       </c>
       <c r="E194" t="str">
         <f>_xlfn.IFNA(MATCH(D194,A:A,0),"")</f>
@@ -5229,8 +5195,8 @@
       <c r="B195">
         <v>2030</v>
       </c>
-      <c r="C195" t="s">
-        <v>670</v>
+      <c r="C195" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E195" t="str">
         <f>_xlfn.IFNA(MATCH(D195,A:A,0),"")</f>
@@ -5241,8 +5207,8 @@
       <c r="B196">
         <v>2040</v>
       </c>
-      <c r="C196" t="s">
-        <v>709</v>
+      <c r="C196" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E196" t="str">
         <f>_xlfn.IFNA(MATCH(D196,A:A,0),"")</f>
@@ -5250,11 +5216,15 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
+        <v>609</v>
+      </c>
       <c r="B197">
         <v>2050</v>
       </c>
-      <c r="C197" t="s">
-        <v>672</v>
+      <c r="C197" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A197,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
       </c>
       <c r="E197" t="str">
         <f>_xlfn.IFNA(MATCH(D197,A:A,0),"")</f>
@@ -5265,20 +5235,25 @@
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" t="s">
-        <v>594</v>
-      </c>
-      <c r="E198" t="str">
+      <c r="C198" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D198,A:A,0),0)," :: REM CALL ",D198,"")</f>
+        <v>GOSUB 1530 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D198" t="str">
+        <f>A145</f>
+        <v>CLEARMENU</v>
+      </c>
+      <c r="E198">
         <f>_xlfn.IFNA(MATCH(D198,A:A,0),"")</f>
-        <v/>
+        <v>145</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B199">
         <v>2070</v>
       </c>
-      <c r="C199" t="s">
-        <v>592</v>
+      <c r="C199" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="E199" t="str">
         <f>_xlfn.IFNA(MATCH(D199,A:A,0),"")</f>
@@ -5289,8 +5264,8 @@
       <c r="B200">
         <v>2080</v>
       </c>
-      <c r="C200" t="s">
-        <v>87</v>
+      <c r="C200" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="E200" t="str">
         <f>_xlfn.IFNA(MATCH(D200,A:A,0),"")</f>
@@ -5301,8 +5276,8 @@
       <c r="B201">
         <v>2090</v>
       </c>
-      <c r="C201" t="s">
-        <v>17</v>
+      <c r="C201" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="E201" t="str">
         <f>_xlfn.IFNA(MATCH(D201,A:A,0),"")</f>
@@ -5313,8 +5288,8 @@
       <c r="B202">
         <v>2100</v>
       </c>
-      <c r="C202" t="s">
-        <v>1</v>
+      <c r="C202" s="5" t="s">
+        <v>678</v>
       </c>
       <c r="E202" t="str">
         <f>_xlfn.IFNA(MATCH(D202,A:A,0),"")</f>
@@ -5326,7 +5301,7 @@
         <v>2110</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>9</v>
+        <v>679</v>
       </c>
       <c r="E203" t="str">
         <f>_xlfn.IFNA(MATCH(D203,A:A,0),"")</f>
@@ -5334,15 +5309,11 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="17" t="s">
-        <v>585</v>
-      </c>
       <c r="B204">
         <v>2120</v>
       </c>
-      <c r="C204" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A204,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
+      <c r="C204" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="E204" t="str">
         <f>_xlfn.IFNA(MATCH(D204,A:A,0),"")</f>
@@ -5353,8 +5324,8 @@
       <c r="B205">
         <v>2130</v>
       </c>
-      <c r="C205" t="s">
-        <v>586</v>
+      <c r="C205" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E205" t="str">
         <f>_xlfn.IFNA(MATCH(D205,A:A,0),"")</f>
@@ -5362,11 +5333,15 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="17" t="s">
+        <v>591</v>
+      </c>
       <c r="B206">
         <v>2140</v>
       </c>
-      <c r="C206" t="s">
-        <v>671</v>
+      <c r="C206" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A206,"***")</f>
+        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
       </c>
       <c r="E206" t="str">
         <f>_xlfn.IFNA(MATCH(D206,A:A,0),"")</f>
@@ -5378,7 +5353,7 @@
         <v>2150</v>
       </c>
       <c r="C207" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E207" t="str">
         <f>_xlfn.IFNA(MATCH(D207,A:A,0),"")</f>
@@ -5390,7 +5365,7 @@
         <v>2160</v>
       </c>
       <c r="C208" t="s">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="E208" t="str">
         <f>_xlfn.IFNA(MATCH(D208,A:A,0),"")</f>
@@ -5401,8 +5376,8 @@
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>587</v>
+      <c r="C209" t="s">
+        <v>705</v>
       </c>
       <c r="E209" t="str">
         <f>_xlfn.IFNA(MATCH(D209,A:A,0),"")</f>
@@ -5413,8 +5388,8 @@
       <c r="B210">
         <v>2180</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>9</v>
+      <c r="C210" t="s">
+        <v>668</v>
       </c>
       <c r="E210" t="str">
         <f>_xlfn.IFNA(MATCH(D210,A:A,0),"")</f>
@@ -5422,15 +5397,11 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="B211">
         <v>2190</v>
       </c>
-      <c r="C211" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A211,"***")</f>
-        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
+      <c r="C211" t="s">
+        <v>594</v>
       </c>
       <c r="E211" t="str">
         <f>_xlfn.IFNA(MATCH(D211,A:A,0),"")</f>
@@ -5442,7 +5413,7 @@
         <v>2200</v>
       </c>
       <c r="C212" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="E212" t="str">
         <f>_xlfn.IFNA(MATCH(D212,A:A,0),"")</f>
@@ -5453,8 +5424,8 @@
       <c r="B213">
         <v>2210</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>671</v>
+      <c r="C213" t="s">
+        <v>87</v>
       </c>
       <c r="E213" t="str">
         <f>_xlfn.IFNA(MATCH(D213,A:A,0),"")</f>
@@ -5465,8 +5436,8 @@
       <c r="B214">
         <v>2220</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>581</v>
+      <c r="C214" t="s">
+        <v>17</v>
       </c>
       <c r="E214" t="str">
         <f>_xlfn.IFNA(MATCH(D214,A:A,0),"")</f>
@@ -5477,7 +5448,7 @@
       <c r="B215">
         <v>2230</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" t="s">
         <v>1</v>
       </c>
       <c r="E215" t="str">
@@ -5490,7 +5461,7 @@
         <v>2240</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>578</v>
+        <v>9</v>
       </c>
       <c r="E216" t="str">
         <f>_xlfn.IFNA(MATCH(D216,A:A,0),"")</f>
@@ -5498,11 +5469,15 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="17" t="s">
+        <v>585</v>
+      </c>
       <c r="B217">
         <v>2250</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>671</v>
+      <c r="C217" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A217,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
       </c>
       <c r="E217" t="str">
         <f>_xlfn.IFNA(MATCH(D217,A:A,0),"")</f>
@@ -5513,8 +5488,8 @@
       <c r="B218">
         <v>2260</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>584</v>
+      <c r="C218" t="s">
+        <v>586</v>
       </c>
       <c r="E218" t="str">
         <f>_xlfn.IFNA(MATCH(D218,A:A,0),"")</f>
@@ -5525,8 +5500,8 @@
       <c r="B219">
         <v>2270</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>1</v>
+      <c r="C219" t="s">
+        <v>667</v>
       </c>
       <c r="E219" t="str">
         <f>_xlfn.IFNA(MATCH(D219,A:A,0),"")</f>
@@ -5537,8 +5512,8 @@
       <c r="B220">
         <v>2280</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>582</v>
+      <c r="C220" t="s">
+        <v>590</v>
       </c>
       <c r="E220" t="str">
         <f>_xlfn.IFNA(MATCH(D220,A:A,0),"")</f>
@@ -5549,8 +5524,8 @@
       <c r="B221">
         <v>2290</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>671</v>
+      <c r="C221" t="s">
+        <v>1</v>
       </c>
       <c r="E221" t="str">
         <f>_xlfn.IFNA(MATCH(D221,A:A,0),"")</f>
@@ -5562,7 +5537,7 @@
         <v>2300</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E222" t="str">
         <f>_xlfn.IFNA(MATCH(D222,A:A,0),"")</f>
@@ -5574,7 +5549,7 @@
         <v>2310</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E223" t="str">
         <f>_xlfn.IFNA(MATCH(D223,A:A,0),"")</f>
@@ -5582,11 +5557,15 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="17" t="s">
+        <v>577</v>
+      </c>
       <c r="B224">
         <v>2320</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>579</v>
+      <c r="C224" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A224,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
       </c>
       <c r="E224" t="str">
         <f>_xlfn.IFNA(MATCH(D224,A:A,0),"")</f>
@@ -5597,8 +5576,8 @@
       <c r="B225">
         <v>2330</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>9</v>
+      <c r="C225" t="s">
+        <v>580</v>
       </c>
       <c r="E225" t="str">
         <f>_xlfn.IFNA(MATCH(D225,A:A,0),"")</f>
@@ -5606,15 +5585,11 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="17" t="s">
-        <v>558</v>
-      </c>
       <c r="B226">
         <v>2340</v>
       </c>
-      <c r="C226" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A226,"***")</f>
-        <v>REM SUBROUTINE ***RENDERTEXT***</v>
+      <c r="C226" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="E226" t="str">
         <f>_xlfn.IFNA(MATCH(D226,A:A,0),"")</f>
@@ -5625,8 +5600,8 @@
       <c r="B227">
         <v>2350</v>
       </c>
-      <c r="C227" t="s">
-        <v>561</v>
+      <c r="C227" s="5" t="s">
+        <v>581</v>
       </c>
       <c r="E227" t="str">
         <f>_xlfn.IFNA(MATCH(D227,A:A,0),"")</f>
@@ -5638,7 +5613,7 @@
         <v>2360</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="E228" t="str">
         <f>_xlfn.IFNA(MATCH(D228,A:A,0),"")</f>
@@ -5650,7 +5625,7 @@
         <v>2370</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="E229" t="str">
         <f>_xlfn.IFNA(MATCH(D229,A:A,0),"")</f>
@@ -5662,7 +5637,7 @@
         <v>2380</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>563</v>
+        <v>667</v>
       </c>
       <c r="E230" t="str">
         <f>_xlfn.IFNA(MATCH(D230,A:A,0),"")</f>
@@ -5674,7 +5649,7 @@
         <v>2390</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="E231" t="str">
         <f>_xlfn.IFNA(MATCH(D231,A:A,0),"")</f>
@@ -5698,7 +5673,7 @@
         <v>2410</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="E233" t="str">
         <f>_xlfn.IFNA(MATCH(D233,A:A,0),"")</f>
@@ -5706,161 +5681,240 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C234" s="5"/>
+      <c r="B234">
+        <v>2420</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>667</v>
+      </c>
       <c r="E234" t="str">
         <f>_xlfn.IFNA(MATCH(D234,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C235" s="5"/>
+      <c r="B235">
+        <v>2430</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>583</v>
+      </c>
       <c r="E235" t="str">
         <f>_xlfn.IFNA(MATCH(D235,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C236" s="5"/>
+      <c r="B236">
+        <v>2440</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E236" t="str">
         <f>_xlfn.IFNA(MATCH(D236,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>2450</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="E237" t="str">
         <f>_xlfn.IFNA(MATCH(D237,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C238" s="5"/>
+      <c r="B238">
+        <v>2460</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E238" t="str">
         <f>_xlfn.IFNA(MATCH(D238,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B239">
+        <v>2470</v>
+      </c>
+      <c r="C239" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A239,"***")</f>
+        <v>REM SUBROUTINE ***RENDERTEXT***</v>
+      </c>
       <c r="E239" t="str">
         <f>_xlfn.IFNA(MATCH(D239,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C240" s="5"/>
+      <c r="B240">
+        <v>2480</v>
+      </c>
+      <c r="C240" t="s">
+        <v>561</v>
+      </c>
       <c r="E240" t="str">
         <f>_xlfn.IFNA(MATCH(D240,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>2490</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="E241" t="str">
         <f>_xlfn.IFNA(MATCH(D241,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C242" s="5"/>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>2500</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="E242" t="str">
         <f>_xlfn.IFNA(MATCH(D242,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>2510</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>563</v>
+      </c>
       <c r="E243" t="str">
         <f>_xlfn.IFNA(MATCH(D243,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C244" s="5"/>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>2520</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>565</v>
+      </c>
       <c r="E244" t="str">
         <f>_xlfn.IFNA(MATCH(D244,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C245" s="5"/>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>2530</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E245" t="str">
         <f>_xlfn.IFNA(MATCH(D245,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C246" s="5"/>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>2540</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>560</v>
+      </c>
       <c r="E246" t="str">
         <f>_xlfn.IFNA(MATCH(D246,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C247" s="5"/>
       <c r="E247" t="str">
         <f>_xlfn.IFNA(MATCH(D247,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C248" s="5"/>
       <c r="E248" t="str">
         <f>_xlfn.IFNA(MATCH(D248,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C249" s="5"/>
       <c r="E249" t="str">
         <f>_xlfn.IFNA(MATCH(D249,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E250" t="str">
         <f>_xlfn.IFNA(MATCH(D250,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C251" s="5"/>
       <c r="E251" t="str">
         <f>_xlfn.IFNA(MATCH(D251,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E252" t="str">
         <f>_xlfn.IFNA(MATCH(D252,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="E253" t="str">
         <f>_xlfn.IFNA(MATCH(D253,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C254" s="5"/>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E254" t="str">
         <f>_xlfn.IFNA(MATCH(D254,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C255" s="5"/>
       <c r="E255" t="str">
         <f>_xlfn.IFNA(MATCH(D255,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E256" t="str">
         <f>_xlfn.IFNA(MATCH(D256,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C257" s="5"/>
       <c r="E257" t="str">
         <f>_xlfn.IFNA(MATCH(D257,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C258" s="5"/>
       <c r="E258" t="str">
         <f>_xlfn.IFNA(MATCH(D258,A:A,0),"")</f>
         <v/>
@@ -5874,7 +5928,6 @@
       </c>
     </row>
     <row r="260" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C260" s="5"/>
       <c r="E260" t="str">
         <f>_xlfn.IFNA(MATCH(D260,A:A,0),"")</f>
         <v/>
@@ -5911,12 +5964,14 @@
       </c>
     </row>
     <row r="266" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C266" s="5"/>
       <c r="E266" t="str">
         <f>_xlfn.IFNA(MATCH(D266,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C267" s="5"/>
       <c r="E267" t="str">
         <f>_xlfn.IFNA(MATCH(D267,A:A,0),"")</f>
         <v/>
@@ -5947,12 +6002,14 @@
       </c>
     </row>
     <row r="272" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C272" s="5"/>
       <c r="E272" t="str">
         <f>_xlfn.IFNA(MATCH(D272,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C273" s="5"/>
       <c r="E273" t="str">
         <f>_xlfn.IFNA(MATCH(D273,A:A,0),"")</f>
         <v/>
@@ -5965,14 +6022,12 @@
       </c>
     </row>
     <row r="275" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C275" s="5"/>
       <c r="E275" t="str">
         <f>_xlfn.IFNA(MATCH(D275,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C276" s="5"/>
       <c r="E276" t="str">
         <f>_xlfn.IFNA(MATCH(D276,A:A,0),"")</f>
         <v/>
@@ -5997,67 +6052,138 @@
       </c>
     </row>
     <row r="280" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C280" s="5"/>
       <c r="E280" t="str">
         <f>_xlfn.IFNA(MATCH(D280,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C281" s="5"/>
       <c r="E281" t="str">
         <f>_xlfn.IFNA(MATCH(D281,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C282" s="5"/>
       <c r="E282" t="str">
         <f>_xlfn.IFNA(MATCH(D282,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C283" s="5"/>
+      <c r="E283" t="str">
+        <f>_xlfn.IFNA(MATCH(D283,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C284" s="5"/>
+      <c r="E284" t="str">
+        <f>_xlfn.IFNA(MATCH(D284,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="285" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C285" s="5"/>
+      <c r="E285" t="str">
+        <f>_xlfn.IFNA(MATCH(D285,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="286" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C286" s="5"/>
+      <c r="E286" t="str">
+        <f>_xlfn.IFNA(MATCH(D286,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="287" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C287" s="5"/>
+      <c r="E287" t="str">
+        <f>_xlfn.IFNA(MATCH(D287,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="E288" t="str">
+        <f>_xlfn.IFNA(MATCH(D288,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C290" s="5"/>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C291" s="5"/>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C292" s="5"/>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C313" s="5"/>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C314" s="5"/>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C318" s="5"/>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C321" s="5"/>
+      <c r="E289" t="str">
+        <f>_xlfn.IFNA(MATCH(D289,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E290" t="str">
+        <f>_xlfn.IFNA(MATCH(D290,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E291" t="str">
+        <f>_xlfn.IFNA(MATCH(D291,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E292" t="str">
+        <f>_xlfn.IFNA(MATCH(D292,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C293" s="5"/>
+      <c r="E293" t="str">
+        <f>_xlfn.IFNA(MATCH(D293,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C294" s="5"/>
+      <c r="E294" t="str">
+        <f>_xlfn.IFNA(MATCH(D294,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C295" s="5"/>
+      <c r="E295" t="str">
+        <f>_xlfn.IFNA(MATCH(D295,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C296" s="5"/>
+    </row>
+    <row r="297" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C297" s="5"/>
+    </row>
+    <row r="298" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C298" s="5"/>
+    </row>
+    <row r="299" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C299" s="5"/>
+    </row>
+    <row r="300" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C300" s="5"/>
+    </row>
+    <row r="301" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C301" s="5"/>
+    </row>
+    <row r="302" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C302" s="5"/>
+    </row>
+    <row r="303" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C303" s="5"/>
+    </row>
+    <row r="304" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C304" s="5"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="5"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="5"/>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
@@ -6065,59 +6191,41 @@
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C335" s="5"/>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C339" s="5"/>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C349" s="5"/>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C356" s="5"/>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C360" s="5"/>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C365" s="5"/>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C371" s="5"/>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C377" s="5"/>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C380" s="5"/>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C402" s="5"/>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C403" s="5"/>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C404" s="5"/>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C405" s="5"/>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C406" s="5"/>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C407" s="5"/>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C408" s="5"/>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C409" s="5"/>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C414" s="5"/>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" s="5"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" s="5"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" s="5"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" s="5"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" s="5"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" s="5"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" s="5"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" s="5"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" s="5"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" s="5"/>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="5"/>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="5"/>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C415" s="5"/>
@@ -6134,74 +6242,101 @@
     <row r="419" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C419" s="5"/>
     </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" s="5"/>
+    </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C421" s="5"/>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C422" s="5"/>
     </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C427" s="5"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C428" s="5"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" s="5"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" s="5"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" s="5"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" s="5"/>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C434" s="5"/>
+    </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C435" s="1"/>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C436" s="1"/>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C437" s="1"/>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C438" s="1"/>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C439" s="1"/>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C441" s="1"/>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C443" s="1"/>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C444" s="1"/>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C446" s="1"/>
+      <c r="C435" s="5"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C448" s="1"/>
     </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C451" s="1"/>
+    </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C452" s="1"/>
     </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C454" s="1"/>
+    </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C456" s="1"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C458" s="1"/>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C457" s="1"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C459" s="1"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C464" s="5"/>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C461" s="1"/>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C465" s="1"/>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C469" s="1"/>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C472" s="1"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C477" s="5"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C481" s="5"/>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C482" s="5"/>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C483" s="5"/>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C484" s="5"/>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C487" s="5"/>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C490" s="5"/>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C494" s="5"/>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C495" s="5"/>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C496" s="5"/>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C497" s="5"/>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C500" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6215,8 +6350,8 @@
   </sheetPr>
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView topLeftCell="A161" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235:XFD235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8884,7 +9019,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B148" s="2">
         <v>1540</v>
@@ -8939,7 +9074,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B151" s="2">
         <v>1570</v>
@@ -9120,7 +9255,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B161" s="2">
         <v>1670</v>
@@ -9277,7 +9412,7 @@
         <v/>
       </c>
       <c r="F169" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -9296,7 +9431,7 @@
         <v/>
       </c>
       <c r="F170" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -9347,7 +9482,7 @@
         <v/>
       </c>
       <c r="F173" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -9400,7 +9535,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B177" s="2">
         <v>1830</v>
@@ -9417,12 +9552,12 @@
         <v/>
       </c>
       <c r="F177" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B178" s="2">
         <v>1840</v>
@@ -9439,7 +9574,7 @@
         <v/>
       </c>
       <c r="F178" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -9458,7 +9593,7 @@
         <v/>
       </c>
       <c r="F179" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -9493,7 +9628,7 @@
         <v/>
       </c>
       <c r="F181" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -9544,7 +9679,7 @@
         <v/>
       </c>
       <c r="F184" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -9579,12 +9714,12 @@
         <v/>
       </c>
       <c r="F186" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B187" s="2">
         <v>1930</v>
@@ -9601,7 +9736,7 @@
         <v/>
       </c>
       <c r="F187" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -9620,7 +9755,7 @@
         <v/>
       </c>
       <c r="F188" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -9639,7 +9774,7 @@
         <v/>
       </c>
       <c r="F189" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -9658,7 +9793,7 @@
         <v/>
       </c>
       <c r="F190" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -9677,7 +9812,7 @@
         <v/>
       </c>
       <c r="F191" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -9696,7 +9831,7 @@
         <v/>
       </c>
       <c r="F192" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -9715,7 +9850,7 @@
         <v/>
       </c>
       <c r="F193" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9734,7 +9869,7 @@
         <v/>
       </c>
       <c r="F194" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -9753,7 +9888,7 @@
         <v/>
       </c>
       <c r="F195" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -9772,7 +9907,7 @@
         <v/>
       </c>
       <c r="F196" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -9791,7 +9926,7 @@
         <v>STOREROW</v>
       </c>
       <c r="F197" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -9826,7 +9961,7 @@
         <v/>
       </c>
       <c r="F199" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -9877,12 +10012,12 @@
         <v>COMPUTERDEPLOYED2</v>
       </c>
       <c r="F202" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B203" s="2">
         <v>2090</v>
@@ -9901,7 +10036,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B204" s="2">
         <v>2100</v>
@@ -9918,7 +10053,7 @@
         <v/>
       </c>
       <c r="F204" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -9937,7 +10072,7 @@
         <v/>
       </c>
       <c r="F205" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -9956,7 +10091,7 @@
         <v/>
       </c>
       <c r="F206" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -9975,12 +10110,12 @@
         <v>CONVERTNUM2LET</v>
       </c>
       <c r="F207" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B208" s="2">
         <v>2140</v>
@@ -9997,7 +10132,7 @@
         <v/>
       </c>
       <c r="F208" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -10016,7 +10151,7 @@
         <v/>
       </c>
       <c r="F209" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -10035,7 +10170,7 @@
         <v/>
       </c>
       <c r="F210" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -10070,7 +10205,7 @@
         <v/>
       </c>
       <c r="F212" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -10105,7 +10240,7 @@
         <v/>
       </c>
       <c r="F214" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -10126,7 +10261,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B216" s="2">
         <v>2220</v>
@@ -10159,7 +10294,7 @@
         <v>DODUPCHECK</v>
       </c>
       <c r="F217" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -10194,7 +10329,7 @@
         <v/>
       </c>
       <c r="F219" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -10213,7 +10348,7 @@
         <v/>
       </c>
       <c r="F220" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -10232,7 +10367,7 @@
         <v/>
       </c>
       <c r="F221" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -10251,7 +10386,7 @@
         <v/>
       </c>
       <c r="F222" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -10270,7 +10405,7 @@
         <v/>
       </c>
       <c r="F223" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -10289,7 +10424,7 @@
         <v/>
       </c>
       <c r="F224" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -10327,7 +10462,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B227" s="2">
         <v>2330</v>
@@ -10346,7 +10481,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B228" s="2">
         <v>2340</v>
@@ -10381,7 +10516,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B230" s="2">
         <v>2360</v>
@@ -10398,12 +10533,12 @@
         <v>PICKALLSHIPLOCS</v>
       </c>
       <c r="F230" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B231" s="2">
         <v>2370</v>
@@ -10422,7 +10557,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B232" s="2">
         <v>2380</v>

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A9CB7-2057-7B4D-9436-5B320C412478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCCB306-657F-4A41-916D-1A56BA934444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
+    <workbookView xWindow="8400" yWindow="29560" windowWidth="33000" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="REFACTORED" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="770">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -1707,9 +1707,6 @@
     <t>Draw row:15, column: 31, character: "N"; initialize T</t>
   </si>
   <si>
-    <t>DIM COORDS(4) :: DIM COORDS$(4)</t>
-  </si>
-  <si>
     <t>NEXT CURRENTSHIP</t>
   </si>
   <si>
@@ -1758,12 +1755,6 @@
     <t>DISPLAY AT(1,9):"BATTLESHIP"</t>
   </si>
   <si>
-    <t>ACCEPT AT(YMENU+5+I,XMENU+3)VALIDATE("ABCDEFGHIJ")BEEP SIZE(1):COORDS$(I)</t>
-  </si>
-  <si>
-    <t>ACCEPT AT(YMENU+5+I,XMENU+4)VALIDATE(DIGIT)BEEP SIZE(2):COORDS(I)</t>
-  </si>
-  <si>
     <t>INPUTCOL</t>
   </si>
   <si>
@@ -1812,9 +1803,6 @@
     <t>DIM SERIAL(4)</t>
   </si>
   <si>
-    <t>IF COORDS$(I-1)&lt;&gt;COORDS$(I) THEN RETURN</t>
-  </si>
-  <si>
     <t>CHECKOVERLAP</t>
   </si>
   <si>
@@ -1824,9 +1812,6 @@
     <t>FOR I=0 TO CURRENTSHIP-1</t>
   </si>
   <si>
-    <t>LOC=(ASC(COORDS$(K))-64)*16+COORDS(K)</t>
-  </si>
-  <si>
     <t>CLEARMENU</t>
   </si>
   <si>
@@ -1836,9 +1821,6 @@
     <t>CALL RENDERTEXT(TEXT$,YMENU+4+I,XMENU)</t>
   </si>
   <si>
-    <t>IF HORIZONTAL=1 THEN SERIAL(I)=COORDS(I) ELSE SERIAL(I)=ASC(COORDS$(I))-64</t>
-  </si>
-  <si>
     <t>CALL COLOR(13,2,16) :: REM BLACK ON WHITE</t>
   </si>
   <si>
@@ -2058,9 +2040,6 @@
     <t>CALL RENDERTEXT(SHIPNAMES$(CURRENTSHIP),YMENU+3,XMENU)</t>
   </si>
   <si>
-    <t>BCOORDS(0,I,J)=BCOORDS(1,I,J) :: BCOORDS$(0,I,J)=BCOORDS$(1,I,J)</t>
-  </si>
-  <si>
     <t>CALL RENDERTEXT("SHIPS?",YMENU+3,XMENU)</t>
   </si>
   <si>
@@ -2070,9 +2049,6 @@
     <t>ACCEPT AT(YMENU+4,XMENU+4)VALIDATE("YN")BEEP SIZE(1):AUTODEPLOY$</t>
   </si>
   <si>
-    <t>BCOORDS(0,CURRENTSHIP,I)=COORDS(I) :: BCOORDS$(0,CURRENTSHIP,I)=COORDS$(I)</t>
-  </si>
-  <si>
     <t>CALL RENDERTEXT("DEPLOYED.",YMENU+2,XMENU)</t>
   </si>
   <si>
@@ -2118,12 +2094,6 @@
     <t>X=XAUX :: Y=YAUX</t>
   </si>
   <si>
-    <t>CALL HCHAR(Y+ASC(BCOORDS$(0,I,J))-65,X+BCOORDS(0,I,J)-1,SHIPCHAR,1)</t>
-  </si>
-  <si>
-    <t>CALL HCHAR(Y+(ASC(COORDS$(I))-65)*2,X+(COORDS(I)-1)*2,SHIPCHAR,1)</t>
-  </si>
-  <si>
     <t>X=XBOARD :: Y=YBOARD</t>
   </si>
   <si>
@@ -2139,39 +2109,24 @@
     <t>XAUX=23 :: YAUX=3 :: REM AUX BOARD ORIGINS</t>
   </si>
   <si>
-    <t>DIM BCOORDS(1,4,4) :: DIM BCOORDS$(1,4,4) :: REM BCOORDS[PLAYER,SHIP,POS], BCOORDS$[PLAYER,SHIP,POS]</t>
-  </si>
-  <si>
     <t>HORIZONTAL=INT(RND*2)</t>
   </si>
   <si>
     <t>STATIC=INT(RND*10)+1</t>
   </si>
   <si>
-    <t>IF HORIZONTAL=1 THEN COORDS$(I)=CHR$(64+STATIC) ELSE COORDS(I)=STATIC</t>
-  </si>
-  <si>
     <t>COMPUTERDEPLOYSHIP</t>
   </si>
   <si>
     <t>PLAYER=0</t>
   </si>
   <si>
-    <t>STOREDLOC=(ASC(BCOORDS$(PLAYER,I,J))-64)*16+BCOORDS(PLAYER,I,J)</t>
-  </si>
-  <si>
     <t>PLAYER=1</t>
   </si>
   <si>
     <t>SHIPBEGIN=INT(RND*(10-SHIPLENS(CURRENTSHIP)))+1</t>
   </si>
   <si>
-    <t>BCOORDS(1,CURRENTSHIP,I)=COORDS(I) :: BCOORDS$(1,CURRENTSHIP,I)=COORDS$(I)</t>
-  </si>
-  <si>
-    <t>IF HORIZONTAL=1 THEN COORDS(I)=SHIPBEGIN+I ELSE COORDS$(I)=CHR$(64+SHIPBEGIN+I)</t>
-  </si>
-  <si>
     <t>CALL RENDERTEXT("AUTO",YMENU+6,XMENU)</t>
   </si>
   <si>
@@ -2215,6 +2170,186 @@
   </si>
   <si>
     <t>CALL SCREEN(4)</t>
+  </si>
+  <si>
+    <t>Clear menu area</t>
+  </si>
+  <si>
+    <t>ENTERLETTARGET</t>
+  </si>
+  <si>
+    <t>ENTERNUMTARGET</t>
+  </si>
+  <si>
+    <t>Display target menu</t>
+  </si>
+  <si>
+    <t>Matching column?</t>
+  </si>
+  <si>
+    <t>CHECKROWMATCH</t>
+  </si>
+  <si>
+    <t>Check shot against ships</t>
+  </si>
+  <si>
+    <t>Shot row</t>
+  </si>
+  <si>
+    <t>Shot col</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>NEXTCOLCHECK</t>
+  </si>
+  <si>
+    <t>ENTERTARGET</t>
+  </si>
+  <si>
+    <t>Already used target</t>
+  </si>
+  <si>
+    <t>NEXTCOLSHOTCHECK</t>
+  </si>
+  <si>
+    <t>Record shot</t>
+  </si>
+  <si>
+    <t>Accumulate hit on ship type</t>
+  </si>
+  <si>
+    <t>STOREHIT</t>
+  </si>
+  <si>
+    <t>Convert row to number v</t>
+  </si>
+  <si>
+    <t>Display hit message</t>
+  </si>
+  <si>
+    <t>hit char</t>
+  </si>
+  <si>
+    <t>place hit on board</t>
+  </si>
+  <si>
+    <t>display miss message</t>
+  </si>
+  <si>
+    <t>miss char</t>
+  </si>
+  <si>
+    <t>convert row to number v</t>
+  </si>
+  <si>
+    <t>place miss on board</t>
+  </si>
+  <si>
+    <t>CHECKSHIP2DESTROY</t>
+  </si>
+  <si>
+    <t>CHECKSHIP3DESTROY</t>
+  </si>
+  <si>
+    <t>CHECKSHIP4DESTROY</t>
+  </si>
+  <si>
+    <t>CHECKSHIP5DESTROY</t>
+  </si>
+  <si>
+    <t>DONECHECKSHIPDESTORY</t>
+  </si>
+  <si>
+    <t>Ship 1 destroyed</t>
+  </si>
+  <si>
+    <t>Ship 2 destroyed</t>
+  </si>
+  <si>
+    <t>Ship 3 destroyed</t>
+  </si>
+  <si>
+    <t>Ship 4 destroyed</t>
+  </si>
+  <si>
+    <t>Ship 5 destroyed</t>
+  </si>
+  <si>
+    <t>place destroy on board</t>
+  </si>
+  <si>
+    <t>Next h?</t>
+  </si>
+  <si>
+    <t>get ship 1 size</t>
+  </si>
+  <si>
+    <t>get ship 2 size</t>
+  </si>
+  <si>
+    <t>get ship 3 size</t>
+  </si>
+  <si>
+    <t>get ship 4 size</t>
+  </si>
+  <si>
+    <t>get ship 5 size</t>
+  </si>
+  <si>
+    <t>DIM COORDS(4)</t>
+  </si>
+  <si>
+    <t>ACCEPT AT(YMENU+5+I,XMENU+3)VALIDATE("ABCDEFGHIJ")BEEP SIZE(1):ROW$</t>
+  </si>
+  <si>
+    <t>ACCEPT AT(YMENU+5+I,XMENU+4)VALIDATE(DIGIT)BEEP SIZE(2):COL</t>
+  </si>
+  <si>
+    <t>IF HORIZONTAL=1 THEN SERIAL(I)=COL ELSE SERIAL(I)=ROW</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+(ROW-1)*2,X+(COL-1)*2,SHIPCHAR,1)</t>
+  </si>
+  <si>
+    <t>LOC=COORDS(K)</t>
+  </si>
+  <si>
+    <t>IF PREV&lt;&gt;CURR THEN RETURN</t>
+  </si>
+  <si>
+    <t>DIM BCOORDS(1,4,4) :: REM BCOORDS[PLAYER,SHIP,POS]</t>
+  </si>
+  <si>
+    <t>BCOORDS(0,I,J)=BCOORDS(1,I,J)</t>
+  </si>
+  <si>
+    <t>BCOORDS(0,CURRENTSHIP,I)=COORDS(I)</t>
+  </si>
+  <si>
+    <t>BCOORDS(1,CURRENTSHIP,I)=COORDS(I)</t>
+  </si>
+  <si>
+    <t>STOREDLOC=BCOORDS(PLAYER,I,J)</t>
+  </si>
+  <si>
+    <t>COL=COORDS(I)-INT(COORDS(I)/16)*16 :: ROW=INT(COORDS(I)/16)</t>
+  </si>
+  <si>
+    <t>COL=BCOORDS(0,I,J)-INT(BCOORDS(0,I,J)/16)*16 :: ROW=INT(BCOORDS(0,I,J)/16)</t>
+  </si>
+  <si>
+    <t>IF HORIZONTAL=1 THEN COORDS(I)=16*STATIC+SHIPBEGIN+I ELSE COORDS(I)=16*(SHIPBEGIN+I)+STATIC</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(Y+ROW-1,X+COL-1,SHIPCHAR,1)</t>
+  </si>
+  <si>
+    <t>COORDS(I)=16*(ASC(ROW$)-64)+COL</t>
+  </si>
+  <si>
+    <t>PREV=INT(COORDS(I-1)/16) :: CURR=INT(COORDS(I)/16)</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2325,12 +2460,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2344,7 +2473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2357,17 +2486,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2702,20 +2829,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -2745,7 +2872,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,7 +2985,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B11">
@@ -2890,7 +3017,7 @@
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2910,7 +3037,7 @@
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E15" t="str">
         <f>_xlfn.IFNA(MATCH(D15,A:A,0),"")</f>
@@ -2922,7 +3049,7 @@
         <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E16" t="str">
         <f>_xlfn.IFNA(MATCH(D16,A:A,0),"")</f>
@@ -2934,7 +3061,7 @@
         <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E17" t="str">
         <f>_xlfn.IFNA(MATCH(D17,A:A,0),"")</f>
@@ -2946,7 +3073,7 @@
         <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>699</v>
+        <v>759</v>
       </c>
       <c r="E18" t="str">
         <f>_xlfn.IFNA(MATCH(D18,A:A,0),"")</f>
@@ -2958,7 +3085,7 @@
         <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>555</v>
+        <v>752</v>
       </c>
       <c r="E19" t="str">
         <f>_xlfn.IFNA(MATCH(D19,A:A,0),"")</f>
@@ -2970,7 +3097,7 @@
         <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="E20" t="str">
         <f>_xlfn.IFNA(MATCH(D20,A:A,0),"")</f>
@@ -2982,7 +3109,7 @@
         <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="E21" t="str">
         <f>_xlfn.IFNA(MATCH(D21,A:A,0),"")</f>
@@ -2994,7 +3121,7 @@
         <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E22" t="str">
         <f>_xlfn.IFNA(MATCH(D22,A:A,0),"")</f>
@@ -3006,7 +3133,7 @@
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E23" t="str">
         <f>_xlfn.IFNA(MATCH(D23,A:A,0),"")</f>
@@ -3026,7 +3153,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B25">
@@ -3046,7 +3173,7 @@
         <v>340</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E26" t="str">
         <f>_xlfn.IFNA(MATCH(D26,A:A,0),"")</f>
@@ -3058,7 +3185,7 @@
         <v>350</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3066,7 +3193,7 @@
         <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E28" t="str">
         <f>_xlfn.IFNA(MATCH(D28,A:A,0),"")</f>
@@ -3078,7 +3205,7 @@
         <v>370</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E29" t="str">
         <f>_xlfn.IFNA(MATCH(D29,A:A,0),"")</f>
@@ -3090,7 +3217,7 @@
         <v>380</v>
       </c>
       <c r="C30" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,7 +3225,7 @@
         <v>390</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E31" t="str">
         <f>_xlfn.IFNA(MATCH(D31,A:A,0),"")</f>
@@ -3110,7 +3237,7 @@
         <v>400</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E32" t="str">
         <f>_xlfn.IFNA(MATCH(D32,A:A,0),"")</f>
@@ -3130,7 +3257,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B34">
@@ -3150,7 +3277,7 @@
         <v>430</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.IFNA(MATCH(D35,A:A,0),"")</f>
@@ -3162,7 +3289,7 @@
         <v>440</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="E36" t="str">
         <f>_xlfn.IFNA(MATCH(D36,A:A,0),"")</f>
@@ -3174,7 +3301,7 @@
         <v>450</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="E37" t="str">
         <f>_xlfn.IFNA(MATCH(D37,A:A,0),"")</f>
@@ -3186,7 +3313,7 @@
         <v>460</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3194,7 +3321,7 @@
         <v>470</v>
       </c>
       <c r="C39" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E39" t="str">
         <f>_xlfn.IFNA(MATCH(D39,A:A,0),"")</f>
@@ -3206,7 +3333,7 @@
         <v>480</v>
       </c>
       <c r="C40" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E40" t="str">
         <f>_xlfn.IFNA(MATCH(D40,A:A,0),"")</f>
@@ -3226,8 +3353,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>612</v>
+      <c r="A42" s="15" t="s">
+        <v>606</v>
       </c>
       <c r="B42">
         <v>500</v>
@@ -3258,7 +3385,7 @@
         <v>520</v>
       </c>
       <c r="C44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E44" t="str">
         <f>_xlfn.IFNA(MATCH(D44,A:A,0),"")</f>
@@ -3312,8 +3439,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>610</v>
+      <c r="A48" s="15" t="s">
+        <v>604</v>
       </c>
       <c r="B48">
         <v>560</v>
@@ -3374,8 +3501,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
-        <v>688</v>
+      <c r="A52" s="15" t="s">
+        <v>680</v>
       </c>
       <c r="B52">
         <v>600</v>
@@ -3437,8 +3564,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>722</v>
+      <c r="A57" s="15" t="s">
+        <v>707</v>
       </c>
       <c r="B57">
         <v>650</v>
@@ -3453,7 +3580,7 @@
         <v>660</v>
       </c>
       <c r="C58" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E58" t="str">
         <f>_xlfn.IFNA(MATCH(D58,A:A,0),"")</f>
@@ -3465,7 +3592,7 @@
         <v>670</v>
       </c>
       <c r="C59" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3473,7 +3600,7 @@
         <v>680</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3493,8 +3620,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>721</v>
+      <c r="A63" s="15" t="s">
+        <v>706</v>
       </c>
       <c r="B63">
         <v>710</v>
@@ -3509,7 +3636,7 @@
         <v>720</v>
       </c>
       <c r="C64" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3517,7 +3644,7 @@
         <v>730</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E65" t="str">
         <f>_xlfn.IFNA(MATCH(D65,A:A,0),"")</f>
@@ -3541,7 +3668,7 @@
         <v>750</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E67" t="str">
         <f>_xlfn.IFNA(MATCH(D67,A:A,0),"")</f>
@@ -3585,8 +3712,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>689</v>
+      <c r="A71" s="15" t="s">
+        <v>681</v>
       </c>
       <c r="B71">
         <v>790</v>
@@ -3605,7 +3732,7 @@
         <v>800</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E72" t="str">
         <f>_xlfn.IFNA(MATCH(D72,A:A,0),"")</f>
@@ -3629,7 +3756,7 @@
         <v>820</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="E74" t="str">
         <f>_xlfn.IFNA(MATCH(D74,A:A,0),"")</f>
@@ -3653,7 +3780,7 @@
         <v>840</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E76" t="str">
         <f>_xlfn.IFNA(MATCH(D76,A:A,0),"")</f>
@@ -3665,7 +3792,7 @@
         <v>850</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E77" t="str">
         <f>_xlfn.IFNA(MATCH(D77,A:A,0),"")</f>
@@ -3689,7 +3816,7 @@
         <v>870</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E79" t="str">
         <f>_xlfn.IFNA(MATCH(D79,A:A,0),"")</f>
@@ -3721,8 +3848,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>695</v>
+      <c r="A82" s="15" t="s">
+        <v>685</v>
       </c>
       <c r="B82">
         <v>900</v>
@@ -3741,7 +3868,7 @@
         <v>910</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="E83" t="str">
         <f>_xlfn.IFNA(MATCH(D83,A:A,0),"")</f>
@@ -3765,7 +3892,7 @@
         <v>930</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E85" t="str">
         <f>_xlfn.IFNA(MATCH(D85,A:A,0),"")</f>
@@ -3797,8 +3924,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>681</v>
+      <c r="A88" s="15" t="s">
+        <v>673</v>
       </c>
       <c r="B88">
         <v>960</v>
@@ -3818,15 +3945,15 @@
       </c>
       <c r="C89" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D89,A:A,0),0)," :: REM CALL ",D89,"")</f>
-        <v>GOSUB 1530 :: REM CALL CLEARMENU</v>
+        <v>GOSUB 1520 :: REM CALL CLEARMENU</v>
       </c>
       <c r="D89" t="str">
-        <f>A145</f>
+        <f>A144</f>
         <v>CLEARMENU</v>
       </c>
       <c r="E89">
         <f>_xlfn.IFNA(MATCH(D89,A:A,0),"")</f>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,7 +3961,7 @@
         <v>980</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E90" t="str">
         <f>_xlfn.IFNA(MATCH(D90,A:A,0),"")</f>
@@ -3846,7 +3973,7 @@
         <v>990</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="E91" t="str">
         <f>_xlfn.IFNA(MATCH(D91,A:A,0),"")</f>
@@ -3858,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E92" t="str">
         <f>_xlfn.IFNA(MATCH(D92,A:A,0),"")</f>
@@ -3870,7 +3997,7 @@
         <v>1010</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E93" t="str">
         <f>_xlfn.IFNA(MATCH(D93,A:A,0),"")</f>
@@ -3882,7 +4009,7 @@
         <v>1020</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E94" t="str">
         <f>_xlfn.IFNA(MATCH(D94,A:A,0),"")</f>
@@ -3894,7 +4021,7 @@
         <v>1030</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E95" t="str">
         <f>_xlfn.IFNA(MATCH(D95,A:A,0),"")</f>
@@ -3919,7 +4046,7 @@
         <v>1050</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3927,7 +4054,7 @@
         <v>1060</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3935,7 +4062,7 @@
         <v>1070</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3960,7 +4087,7 @@
         <v>1090</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E101" t="str">
         <f>_xlfn.IFNA(MATCH(D101,A:A,0),"")</f>
@@ -3972,7 +4099,7 @@
         <v>1100</v>
       </c>
       <c r="C102" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E102" t="str">
         <f>_xlfn.IFNA(MATCH(D102,A:A,0),"")</f>
@@ -3984,7 +4111,7 @@
         <v>1110</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="E103" t="str">
         <f>_xlfn.IFNA(MATCH(D103,A:A,0),"")</f>
@@ -4029,8 +4156,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
-        <v>682</v>
+      <c r="A107" s="17" t="s">
+        <v>674</v>
       </c>
       <c r="B107">
         <v>1150</v>
@@ -4045,30 +4172,30 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
+      <c r="A108" s="17"/>
       <c r="B108">
         <v>1160</v>
       </c>
       <c r="C108" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D108,A:A,0),0)," :: REM CALL ",D108,"")</f>
-        <v>GOSUB 1530 :: REM CALL CLEARMENU</v>
+        <v>GOSUB 1520 :: REM CALL CLEARMENU</v>
       </c>
       <c r="D108" t="str">
-        <f>A145</f>
+        <f>A144</f>
         <v>CLEARMENU</v>
       </c>
       <c r="E108">
         <f>_xlfn.IFNA(MATCH(D108,A:A,0),"")</f>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
+      <c r="A109" s="17"/>
       <c r="B109">
         <v>1170</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E109" t="str">
         <f>_xlfn.IFNA(MATCH(D109,A:A,0),"")</f>
@@ -4076,8 +4203,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="19" t="s">
-        <v>683</v>
+      <c r="A110" s="17" t="s">
+        <v>675</v>
       </c>
       <c r="B110">
         <v>1180</v>
@@ -4097,15 +4224,15 @@
       </c>
       <c r="C111" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D111,A:A,0),0)," :: REM CALL ",D111,"")</f>
-        <v>GOSUB 1560 :: REM CALL PLAYERDEPLOYMENU</v>
+        <v>GOSUB 1550 :: REM CALL PLAYERDEPLOYMENU</v>
       </c>
       <c r="D111" t="str">
-        <f>A148</f>
+        <f>A147</f>
         <v>PLAYERDEPLOYMENU</v>
       </c>
       <c r="E111">
         <f>_xlfn.IFNA(MATCH(D111,A:A,0),"")</f>
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4114,15 +4241,15 @@
       </c>
       <c r="C112" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D112,A:A,0),0)," :: REM CALL ",D112,"")</f>
-        <v>GOSUB 1680 :: REM CALL PLAYERDEPLOYINPUT</v>
+        <v>GOSUB 1670 :: REM CALL PLAYERDEPLOYINPUT</v>
       </c>
       <c r="D112" t="str">
-        <f>A160</f>
+        <f>A159</f>
         <v>PLAYERDEPLOYINPUT</v>
       </c>
       <c r="E112">
         <f>_xlfn.IFNA(MATCH(D112,A:A,0),"")</f>
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,7 +4257,7 @@
         <v>1210</v>
       </c>
       <c r="C113" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="E113" t="str">
         <f>_xlfn.IFNA(MATCH(D113,A:A,0),"")</f>
@@ -4172,7 +4299,7 @@
         <v>1240</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E116" t="str">
         <f>_xlfn.IFNA(MATCH(D116,A:A,0),"")</f>
@@ -4184,7 +4311,7 @@
         <v>1250</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="E117" t="str">
         <f>_xlfn.IFNA(MATCH(D117,A:A,0),"")</f>
@@ -4209,15 +4336,15 @@
       </c>
       <c r="C119" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D119,A:A,0),0)," :: REM CALL ",D119,"")</f>
-        <v>GOSUB 1910 :: REM CALL RENDERSHIP</v>
+        <v>GOSUB 1920 :: REM CALL RENDERSHIP</v>
       </c>
       <c r="D119" t="str">
-        <f>A183</f>
+        <f>A184</f>
         <v>RENDERSHIP</v>
       </c>
       <c r="E119">
         <f>_xlfn.IFNA(MATCH(D119,A:A,0),"")</f>
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,7 +4352,7 @@
         <v>1280</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E120" t="str">
         <f>_xlfn.IFNA(MATCH(D120,A:A,0),"")</f>
@@ -4233,23 +4360,23 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="19" t="s">
-        <v>684</v>
+      <c r="A121" s="17" t="s">
+        <v>676</v>
       </c>
       <c r="B121">
         <v>1290</v>
       </c>
       <c r="C121" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D121,A:A,0),0)," :: REM CALL ",D121,"")</f>
-        <v>GOSUB 1970 :: REM CALL RENDERSHIPSAUX</v>
+        <v>GOSUB 1990 :: REM CALL RENDERSHIPSAUX</v>
       </c>
       <c r="D121" t="str">
-        <f>A189</f>
+        <f>A191</f>
         <v>RENDERSHIPSAUX</v>
       </c>
       <c r="E121">
         <f>_xlfn.IFNA(MATCH(D121,A:A,0),"")</f>
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4275,15 +4402,15 @@
       </c>
       <c r="C123" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D123,A:A,0),0)," :: REM CALL ",D123,"")</f>
-        <v>GOSUB 2050 :: REM CALL PLAYERDEPLOYED</v>
+        <v>GOSUB 2080 :: REM CALL PLAYERDEPLOYED</v>
       </c>
       <c r="D123" t="str">
-        <f>A197</f>
+        <f>A200</f>
         <v>PLAYERDEPLOYED</v>
       </c>
       <c r="E123">
         <f>_xlfn.IFNA(MATCH(D123,A:A,0),"")</f>
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,8 +4426,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
-        <v>685</v>
+      <c r="A125" s="15" t="s">
+        <v>677</v>
       </c>
       <c r="B125">
         <v>1330</v>
@@ -4319,7 +4446,7 @@
         <v>1340</v>
       </c>
       <c r="C126" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E126" t="str">
         <f>_xlfn.IFNA(MATCH(D126,A:A,0),"")</f>
@@ -4327,8 +4454,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
-        <v>703</v>
+      <c r="A127" s="17" t="s">
+        <v>691</v>
       </c>
       <c r="B127">
         <v>1350</v>
@@ -4347,194 +4474,198 @@
         <v>1360</v>
       </c>
       <c r="C128" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E128" t="str">
         <f>_xlfn.IFNA(MATCH(D128,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129">
         <v>1370</v>
       </c>
       <c r="C129" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="E129" t="str">
         <f>_xlfn.IFNA(MATCH(D129,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>1380</v>
       </c>
       <c r="C130" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E130" t="str">
         <f>_xlfn.IFNA(MATCH(D130,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131">
         <v>1390</v>
       </c>
       <c r="C131" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E131" t="str">
         <f>_xlfn.IFNA(MATCH(D131,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B132">
         <v>1400</v>
       </c>
       <c r="C132" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="E132" t="str">
         <f>_xlfn.IFNA(MATCH(D132,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133">
         <v>1410</v>
       </c>
       <c r="C133" t="s">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="E133" t="str">
         <f>_xlfn.IFNA(MATCH(D133,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>1420</v>
       </c>
-      <c r="C134" t="s">
-        <v>1</v>
+      <c r="C134" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="E134" t="str">
         <f>_xlfn.IFNA(MATCH(D134,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>1430</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="E135" t="str">
         <f>_xlfn.IFNA(MATCH(D135,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B136">
         <v>1440</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="E136" t="str">
+      <c r="C136" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D136,A:A,0),0)," :: REM CALL ",D136,"")</f>
+        <v>GOSUB 2170 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D136" t="str">
+        <f>A209</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E136">
         <f>_xlfn.IFNA(MATCH(D136,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B137">
         <v>1450</v>
       </c>
       <c r="C137" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D137,A:A,0),0)," :: REM CALL ",D137,"")</f>
-        <v>GOSUB 2140 :: REM CALL CHECKOVERLAP</v>
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D137,A:A,0),0)," :: REM GOTO ",D137,"")</f>
+        <v>IF SHIPERR=1 THEN 1350 :: REM GOTO COMPUTERDEPLOYSHIP</v>
       </c>
       <c r="D137" t="str">
-        <f>A206</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-      <c r="E137">
-        <f>_xlfn.IFNA(MATCH(D137,A:A,0),"")</f>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+        <f>A127</f>
+        <v>COMPUTERDEPLOYSHIP</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138">
         <v>1460</v>
       </c>
-      <c r="C138" t="str">
-        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D138,A:A,0),0)," :: REM GOTO ",D138,"")</f>
-        <v>IF SHIPERR=1 THEN 1350 :: REM GOTO COMPUTERDEPLOYSHIP</v>
-      </c>
-      <c r="D138" t="str">
-        <f>A127</f>
-        <v>COMPUTERDEPLOYSHIP</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C138" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139">
         <v>1470</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B140">
         <v>1480</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>1490</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C141" t="str">
+        <f>_xlfn.CONCAT("IF DEBUG=1 THEN GOSUB ",INDEX(B:B,MATCH(D141,A:A,0),0)," :: REM CALL ",D141,"")</f>
+        <v>IF DEBUG=1 THEN GOSUB 1920 :: REM CALL RENDERSHIP</v>
+      </c>
+      <c r="D141" t="str">
+        <f>A184</f>
+        <v>RENDERSHIP</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B142">
         <v>1500</v>
       </c>
-      <c r="C142" t="str">
-        <f>_xlfn.CONCAT("IF DEBUG=1 THEN GOSUB ",INDEX(B:B,MATCH(D142,A:A,0),0)," :: REM CALL ",D142,"")</f>
-        <v>IF DEBUG=1 THEN GOSUB 1910 :: REM CALL RENDERSHIP</v>
-      </c>
-      <c r="D142" t="str">
-        <f>A183</f>
-        <v>RENDERSHIP</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>555</v>
+      </c>
+      <c r="E142" t="str">
+        <f>_xlfn.IFNA(MATCH(D142,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B143">
         <v>1510</v>
       </c>
-      <c r="C143" t="s">
-        <v>556</v>
+      <c r="C143" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E143" t="str">
         <f>_xlfn.IFNA(MATCH(D143,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
+        <v>590</v>
+      </c>
       <c r="B144">
         <v>1520</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>9</v>
+      <c r="C144" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A144,"***")</f>
+        <v>REM SUBROUTINE ***CLEARMENU***</v>
       </c>
       <c r="E144" t="str">
         <f>_xlfn.IFNA(MATCH(D144,A:A,0),"")</f>
@@ -4542,15 +4673,11 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
-        <v>595</v>
-      </c>
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A145,"***")</f>
-        <v>REM SUBROUTINE ***CLEARMENU***</v>
+      <c r="C145" s="5" t="s">
+        <v>591</v>
       </c>
       <c r="E145" t="str">
         <f>_xlfn.IFNA(MATCH(D145,A:A,0),"")</f>
@@ -4562,7 +4689,7 @@
         <v>1540</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>596</v>
+        <v>9</v>
       </c>
       <c r="E146" t="str">
         <f>_xlfn.IFNA(MATCH(D146,A:A,0),"")</f>
@@ -4570,11 +4697,15 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="15" t="s">
+        <v>678</v>
+      </c>
       <c r="B147">
         <v>1550</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>9</v>
+      <c r="C147" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A147,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYMENU***</v>
       </c>
       <c r="E147" t="str">
         <f>_xlfn.IFNA(MATCH(D147,A:A,0),"")</f>
@@ -4582,15 +4713,11 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="17" t="s">
-        <v>686</v>
-      </c>
       <c r="B148">
         <v>1560</v>
       </c>
-      <c r="C148" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A148,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYMENU***</v>
+      <c r="C148" s="5" t="s">
+        <v>566</v>
       </c>
       <c r="E148" t="str">
         <f>_xlfn.IFNA(MATCH(D148,A:A,0),"")</f>
@@ -4602,7 +4729,7 @@
         <v>1570</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E149" t="str">
         <f>_xlfn.IFNA(MATCH(D149,A:A,0),"")</f>
@@ -4614,7 +4741,7 @@
         <v>1580</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E150" t="str">
         <f>_xlfn.IFNA(MATCH(D150,A:A,0),"")</f>
@@ -4626,7 +4753,7 @@
         <v>1590</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E151" t="str">
         <f>_xlfn.IFNA(MATCH(D151,A:A,0),"")</f>
@@ -4638,7 +4765,7 @@
         <v>1600</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="E152" t="str">
         <f>_xlfn.IFNA(MATCH(D152,A:A,0),"")</f>
@@ -4650,7 +4777,7 @@
         <v>1610</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>671</v>
+        <v>563</v>
       </c>
       <c r="E153" t="str">
         <f>_xlfn.IFNA(MATCH(D153,A:A,0),"")</f>
@@ -4662,7 +4789,7 @@
         <v>1620</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
       <c r="E154" t="str">
         <f>_xlfn.IFNA(MATCH(D154,A:A,0),"")</f>
@@ -4674,7 +4801,7 @@
         <v>1630</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>3</v>
+        <v>659</v>
       </c>
       <c r="E155" t="str">
         <f>_xlfn.IFNA(MATCH(D155,A:A,0),"")</f>
@@ -4686,7 +4813,7 @@
         <v>1640</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="E156" t="str">
         <f>_xlfn.IFNA(MATCH(D156,A:A,0),"")</f>
@@ -4698,7 +4825,7 @@
         <v>1650</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>597</v>
+        <v>1</v>
       </c>
       <c r="E157" t="str">
         <f>_xlfn.IFNA(MATCH(D157,A:A,0),"")</f>
@@ -4710,7 +4837,7 @@
         <v>1660</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E158" t="str">
         <f>_xlfn.IFNA(MATCH(D158,A:A,0),"")</f>
@@ -4718,11 +4845,15 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="15" t="s">
+        <v>679</v>
+      </c>
       <c r="B159">
         <v>1670</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>9</v>
+      <c r="C159" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A159,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYINPUT***</v>
       </c>
       <c r="E159" t="str">
         <f>_xlfn.IFNA(MATCH(D159,A:A,0),"")</f>
@@ -4730,15 +4861,11 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="17" t="s">
-        <v>687</v>
-      </c>
       <c r="B160">
         <v>1680</v>
       </c>
-      <c r="C160" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A160,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYINPUT***</v>
+      <c r="C160" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E160" t="str">
         <f>_xlfn.IFNA(MATCH(D160,A:A,0),"")</f>
@@ -4750,7 +4877,7 @@
         <v>1690</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>25</v>
+        <v>658</v>
       </c>
       <c r="E161" t="str">
         <f>_xlfn.IFNA(MATCH(D161,A:A,0),"")</f>
@@ -4758,11 +4885,15 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>556</v>
+      </c>
       <c r="B162">
         <v>1700</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>664</v>
+      <c r="C162" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A162,"***")</f>
+        <v>REM LABEL ***INPUTROW***</v>
       </c>
       <c r="E162" t="str">
         <f>_xlfn.IFNA(MATCH(D162,A:A,0),"")</f>
@@ -4770,15 +4901,11 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="19" t="s">
-        <v>557</v>
-      </c>
       <c r="B163">
         <v>1710</v>
       </c>
-      <c r="C163" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A163,"***")</f>
-        <v>REM LABEL ***INPUTROW***</v>
+      <c r="C163" s="5" t="s">
+        <v>753</v>
       </c>
       <c r="E163" t="str">
         <f>_xlfn.IFNA(MATCH(D163,A:A,0),"")</f>
@@ -4789,37 +4916,37 @@
       <c r="B164">
         <v>1720</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E164" t="str">
-        <f>_xlfn.IFNA(MATCH(D164,A:A,0),"")</f>
-        <v/>
+      <c r="C164" s="5" t="str">
+        <f>_xlfn.CONCAT("IF ROW$="""" THEN  ",INDEX(B:B,MATCH(D164,A:A,0),0)," :: REM GOTO ",D164,"")</f>
+        <v>IF ROW$="" THEN  1700 :: REM GOTO INPUTROW</v>
+      </c>
+      <c r="D164" t="str">
+        <f>A162</f>
+        <v>INPUTROW</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
+        <v>571</v>
+      </c>
       <c r="B165">
         <v>1730</v>
       </c>
       <c r="C165" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS$(I)="""" THEN  ",INDEX(B:B,MATCH(D165,A:A,0),0)," :: REM GOTO ",D165,"")</f>
-        <v>IF COORDS$(I)="" THEN  1710 :: REM GOTO INPUTROW</v>
-      </c>
-      <c r="D165" t="str">
-        <f>A163</f>
-        <v>INPUTROW</v>
+        <f>_xlfn.CONCAT("REM LABEL ***",A165,"***")</f>
+        <v>REM LABEL ***INPUTCOL***</v>
+      </c>
+      <c r="E165" t="str">
+        <f>_xlfn.IFNA(MATCH(D165,A:A,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="19" t="s">
-        <v>574</v>
-      </c>
       <c r="B166">
         <v>1740</v>
       </c>
-      <c r="C166" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A166,"***")</f>
-        <v>REM LABEL ***INPUTCOL***</v>
+      <c r="C166" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="E166" t="str">
         <f>_xlfn.IFNA(MATCH(D166,A:A,0),"")</f>
@@ -4830,12 +4957,13 @@
       <c r="B167">
         <v>1750</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E167" t="str">
-        <f>_xlfn.IFNA(MATCH(D167,A:A,0),"")</f>
-        <v/>
+      <c r="C167" s="5" t="str">
+        <f>_xlfn.CONCAT("IF COL&gt;10 THEN  ",INDEX(B:B,MATCH(D167,A:A,0),0)," :: REM GOTO ",D167,"")</f>
+        <v>IF COL&gt;10 THEN  1730 :: REM GOTO INPUTCOL</v>
+      </c>
+      <c r="D167" t="str">
+        <f>A165</f>
+        <v>INPUTCOL</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -4843,11 +4971,11 @@
         <v>1760</v>
       </c>
       <c r="C168" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&gt;10 THEN  ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM GOTO ",D168,"")</f>
-        <v>IF COORDS(I)&gt;10 THEN  1740 :: REM GOTO INPUTCOL</v>
+        <f>_xlfn.CONCAT("IF COL&lt;1 THEN  ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM GOTO ",D168,"")</f>
+        <v>IF COL&lt;1 THEN  1730 :: REM GOTO INPUTCOL</v>
       </c>
       <c r="D168" t="str">
-        <f>A166</f>
+        <f>A165</f>
         <v>INPUTCOL</v>
       </c>
     </row>
@@ -4855,13 +4983,8 @@
       <c r="B169">
         <v>1770</v>
       </c>
-      <c r="C169" s="5" t="str">
-        <f>_xlfn.CONCAT("IF COORDS(I)&lt;1 THEN  ",INDEX(B:B,MATCH(D169,A:A,0),0)," :: REM GOTO ",D169,"")</f>
-        <v>IF COORDS(I)&lt;1 THEN  1740 :: REM GOTO INPUTCOL</v>
-      </c>
-      <c r="D169" t="str">
-        <f>A166</f>
-        <v>INPUTCOL</v>
+      <c r="C169" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -4881,7 +5004,7 @@
         <v>1790</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E171" t="str">
         <f>_xlfn.IFNA(MATCH(D171,A:A,0),"")</f>
@@ -4901,8 +5024,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="17" t="s">
-        <v>575</v>
+      <c r="A173" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="B173">
         <v>1810</v>
@@ -4921,7 +5044,7 @@
         <v>1820</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E174" t="str">
         <f>_xlfn.IFNA(MATCH(D174,A:A,0),"")</f>
@@ -4934,15 +5057,15 @@
       </c>
       <c r="C175" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D175,A:A,0),0)," :: REM CALL ",D175,"")</f>
-        <v>GOSUB 2250 :: REM CALL CHECKHORIZONTAL</v>
+        <v>GOSUB 2280 :: REM CALL CHECKHORIZONTAL</v>
       </c>
       <c r="D175" t="str">
-        <f>A217</f>
+        <f>A220</f>
         <v>CHECKHORIZONTAL</v>
       </c>
       <c r="E175">
         <f>_xlfn.IFNA(MATCH(D175,A:A,0),"")</f>
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -4950,7 +5073,7 @@
         <v>1840</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E176" t="str">
         <f>_xlfn.IFNA(MATCH(D176,A:A,0),"")</f>
@@ -4962,11 +5085,7 @@
         <v>1850</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="E177" t="str">
-        <f>_xlfn.IFNA(MATCH(D177,A:A,0),"")</f>
-        <v/>
+        <v>764</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -4974,7 +5093,7 @@
         <v>1860</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="E178" t="str">
         <f>_xlfn.IFNA(MATCH(D178,A:A,0),"")</f>
@@ -4985,70 +5104,66 @@
       <c r="B179">
         <v>1870</v>
       </c>
-      <c r="C179" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D179,A:A,0),0)," :: REM CALL ",D179,"")</f>
-        <v>GOSUB 2320 :: REM CALL CHECKSEQUENCE</v>
-      </c>
-      <c r="D179" t="str">
-        <f>A224</f>
-        <v>CHECKSEQUENCE</v>
-      </c>
-      <c r="E179">
+      <c r="C179" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" t="str">
         <f>_xlfn.IFNA(MATCH(D179,A:A,0),"")</f>
-        <v>224</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B180">
         <v>1880</v>
       </c>
-      <c r="C180" t="s">
-        <v>588</v>
-      </c>
-      <c r="E180" t="str">
+      <c r="C180" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D180,A:A,0),0)," :: REM CALL ",D180,"")</f>
+        <v>GOSUB 2360 :: REM CALL CHECKSEQUENCE</v>
+      </c>
+      <c r="D180" t="str">
+        <f>A228</f>
+        <v>CHECKSEQUENCE</v>
+      </c>
+      <c r="E180">
         <f>_xlfn.IFNA(MATCH(D180,A:A,0),"")</f>
-        <v/>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B181">
         <v>1890</v>
       </c>
-      <c r="C181" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D181,A:A,0),0)," :: REM CALL ",D181,"")</f>
-        <v>GOSUB 2140 :: REM CALL CHECKOVERLAP</v>
-      </c>
-      <c r="D181" t="str">
-        <f>A206</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-      <c r="E181">
+      <c r="C181" t="s">
+        <v>585</v>
+      </c>
+      <c r="E181" t="str">
         <f>_xlfn.IFNA(MATCH(D181,A:A,0),"")</f>
-        <v>206</v>
+        <v/>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B182">
         <v>1900</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" t="str">
+      <c r="C182" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D182,A:A,0),0)," :: REM CALL ",D182,"")</f>
+        <v>GOSUB 2170 :: REM CALL CHECKOVERLAP</v>
+      </c>
+      <c r="D182" t="str">
+        <f>A209</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E182">
         <f>_xlfn.IFNA(MATCH(D182,A:A,0),"")</f>
-        <v/>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="17" t="s">
-        <v>611</v>
-      </c>
       <c r="B183">
         <v>1910</v>
       </c>
-      <c r="C183" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A183,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSHIP***</v>
+      <c r="C183" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E183" t="str">
         <f>_xlfn.IFNA(MATCH(D183,A:A,0),"")</f>
@@ -5056,11 +5171,15 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="15" t="s">
+        <v>605</v>
+      </c>
       <c r="B184">
         <v>1920</v>
       </c>
-      <c r="C184" t="s">
-        <v>694</v>
+      <c r="C184" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A184,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIP***</v>
       </c>
       <c r="E184" t="str">
         <f>_xlfn.IFNA(MATCH(D184,A:A,0),"")</f>
@@ -5071,8 +5190,8 @@
       <c r="B185">
         <v>1930</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>664</v>
+      <c r="C185" t="s">
+        <v>684</v>
       </c>
       <c r="E185" t="str">
         <f>_xlfn.IFNA(MATCH(D185,A:A,0),"")</f>
@@ -5084,7 +5203,7 @@
         <v>1940</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="E186" t="str">
         <f>_xlfn.IFNA(MATCH(D186,A:A,0),"")</f>
@@ -5096,11 +5215,7 @@
         <v>1950</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E187" t="str">
-        <f>_xlfn.IFNA(MATCH(D187,A:A,0),"")</f>
-        <v/>
+        <v>764</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -5108,7 +5223,7 @@
         <v>1960</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>9</v>
+        <v>756</v>
       </c>
       <c r="E188" t="str">
         <f>_xlfn.IFNA(MATCH(D188,A:A,0),"")</f>
@@ -5116,15 +5231,11 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="17" t="s">
-        <v>690</v>
-      </c>
       <c r="B189">
         <v>1970</v>
       </c>
-      <c r="C189" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A189,"***")</f>
-        <v>REM SUBROUTINE ***RENDERSHIPSAUX***</v>
+      <c r="C189" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E189" t="str">
         <f>_xlfn.IFNA(MATCH(D189,A:A,0),"")</f>
@@ -5136,7 +5247,7 @@
         <v>1980</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>691</v>
+        <v>9</v>
       </c>
       <c r="E190" t="str">
         <f>_xlfn.IFNA(MATCH(D190,A:A,0),"")</f>
@@ -5144,11 +5255,15 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="15" t="s">
+        <v>682</v>
+      </c>
       <c r="B191">
         <v>1990</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>621</v>
+      <c r="C191" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A191,"***")</f>
+        <v>REM SUBROUTINE ***RENDERSHIPSAUX***</v>
       </c>
       <c r="E191" t="str">
         <f>_xlfn.IFNA(MATCH(D191,A:A,0),"")</f>
@@ -5159,8 +5274,8 @@
       <c r="B192">
         <v>2000</v>
       </c>
-      <c r="C192" t="s">
-        <v>666</v>
+      <c r="C192" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="E192" t="str">
         <f>_xlfn.IFNA(MATCH(D192,A:A,0),"")</f>
@@ -5172,7 +5287,7 @@
         <v>2010</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>692</v>
+        <v>615</v>
       </c>
       <c r="E193" t="str">
         <f>_xlfn.IFNA(MATCH(D193,A:A,0),"")</f>
@@ -5184,7 +5299,7 @@
         <v>2020</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>660</v>
       </c>
       <c r="E194" t="str">
         <f>_xlfn.IFNA(MATCH(D194,A:A,0),"")</f>
@@ -5196,11 +5311,7 @@
         <v>2030</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E195" t="str">
-        <f>_xlfn.IFNA(MATCH(D195,A:A,0),"")</f>
-        <v/>
+        <v>765</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5208,7 +5319,7 @@
         <v>2040</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>9</v>
+        <v>767</v>
       </c>
       <c r="E196" t="str">
         <f>_xlfn.IFNA(MATCH(D196,A:A,0),"")</f>
@@ -5216,15 +5327,11 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="17" t="s">
-        <v>609</v>
-      </c>
       <c r="B197">
         <v>2050</v>
       </c>
-      <c r="C197" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A197,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
+      <c r="C197" t="s">
+        <v>17</v>
       </c>
       <c r="E197" t="str">
         <f>_xlfn.IFNA(MATCH(D197,A:A,0),"")</f>
@@ -5235,17 +5342,12 @@
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D198,A:A,0),0)," :: REM CALL ",D198,"")</f>
-        <v>GOSUB 1530 :: REM CALL CLEARMENU</v>
-      </c>
-      <c r="D198" t="str">
-        <f>A145</f>
-        <v>CLEARMENU</v>
-      </c>
-      <c r="E198">
+      <c r="C198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E198" t="str">
         <f>_xlfn.IFNA(MATCH(D198,A:A,0),"")</f>
-        <v>145</v>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5253,7 +5355,7 @@
         <v>2070</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>607</v>
+        <v>9</v>
       </c>
       <c r="E199" t="str">
         <f>_xlfn.IFNA(MATCH(D199,A:A,0),"")</f>
@@ -5261,11 +5363,15 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="15" t="s">
+        <v>603</v>
+      </c>
       <c r="B200">
         <v>2080</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>608</v>
+      <c r="C200" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A200,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERDEPLOYED***</v>
       </c>
       <c r="E200" t="str">
         <f>_xlfn.IFNA(MATCH(D200,A:A,0),"")</f>
@@ -5276,12 +5382,17 @@
       <c r="B201">
         <v>2090</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="E201" t="str">
+      <c r="C201" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D201,A:A,0),0)," :: REM CALL ",D201,"")</f>
+        <v>GOSUB 1520 :: REM CALL CLEARMENU</v>
+      </c>
+      <c r="D201" t="str">
+        <f>A144</f>
+        <v>CLEARMENU</v>
+      </c>
+      <c r="E201">
         <f>_xlfn.IFNA(MATCH(D201,A:A,0),"")</f>
-        <v/>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5289,7 +5400,7 @@
         <v>2100</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="E202" t="str">
         <f>_xlfn.IFNA(MATCH(D202,A:A,0),"")</f>
@@ -5301,7 +5412,7 @@
         <v>2110</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>679</v>
+        <v>602</v>
       </c>
       <c r="E203" t="str">
         <f>_xlfn.IFNA(MATCH(D203,A:A,0),"")</f>
@@ -5313,7 +5424,7 @@
         <v>2120</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="E204" t="str">
         <f>_xlfn.IFNA(MATCH(D204,A:A,0),"")</f>
@@ -5325,7 +5436,7 @@
         <v>2130</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>9</v>
+        <v>670</v>
       </c>
       <c r="E205" t="str">
         <f>_xlfn.IFNA(MATCH(D205,A:A,0),"")</f>
@@ -5333,15 +5444,11 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="17" t="s">
-        <v>591</v>
-      </c>
       <c r="B206">
         <v>2140</v>
       </c>
-      <c r="C206" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A206,"***")</f>
-        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
+      <c r="C206" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="E206" t="str">
         <f>_xlfn.IFNA(MATCH(D206,A:A,0),"")</f>
@@ -5352,8 +5459,8 @@
       <c r="B207">
         <v>2150</v>
       </c>
-      <c r="C207" t="s">
-        <v>593</v>
+      <c r="C207" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="E207" t="str">
         <f>_xlfn.IFNA(MATCH(D207,A:A,0),"")</f>
@@ -5364,8 +5471,8 @@
       <c r="B208">
         <v>2160</v>
       </c>
-      <c r="C208" t="s">
-        <v>666</v>
+      <c r="C208" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E208" t="str">
         <f>_xlfn.IFNA(MATCH(D208,A:A,0),"")</f>
@@ -5373,11 +5480,15 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="15" t="s">
+        <v>587</v>
+      </c>
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" t="s">
-        <v>705</v>
+      <c r="C209" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A209,"***")</f>
+        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
       </c>
       <c r="E209" t="str">
         <f>_xlfn.IFNA(MATCH(D209,A:A,0),"")</f>
@@ -5389,7 +5500,7 @@
         <v>2180</v>
       </c>
       <c r="C210" t="s">
-        <v>668</v>
+        <v>589</v>
       </c>
       <c r="E210" t="str">
         <f>_xlfn.IFNA(MATCH(D210,A:A,0),"")</f>
@@ -5401,7 +5512,7 @@
         <v>2190</v>
       </c>
       <c r="C211" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="E211" t="str">
         <f>_xlfn.IFNA(MATCH(D211,A:A,0),"")</f>
@@ -5413,7 +5524,7 @@
         <v>2200</v>
       </c>
       <c r="C212" t="s">
-        <v>592</v>
+        <v>763</v>
       </c>
       <c r="E212" t="str">
         <f>_xlfn.IFNA(MATCH(D212,A:A,0),"")</f>
@@ -5425,7 +5536,7 @@
         <v>2210</v>
       </c>
       <c r="C213" t="s">
-        <v>87</v>
+        <v>662</v>
       </c>
       <c r="E213" t="str">
         <f>_xlfn.IFNA(MATCH(D213,A:A,0),"")</f>
@@ -5437,7 +5548,7 @@
         <v>2220</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>757</v>
       </c>
       <c r="E214" t="str">
         <f>_xlfn.IFNA(MATCH(D214,A:A,0),"")</f>
@@ -5449,7 +5560,7 @@
         <v>2230</v>
       </c>
       <c r="C215" t="s">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="E215" t="str">
         <f>_xlfn.IFNA(MATCH(D215,A:A,0),"")</f>
@@ -5460,8 +5571,8 @@
       <c r="B216">
         <v>2240</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>9</v>
+      <c r="C216" t="s">
+        <v>87</v>
       </c>
       <c r="E216" t="str">
         <f>_xlfn.IFNA(MATCH(D216,A:A,0),"")</f>
@@ -5469,15 +5580,11 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="17" t="s">
-        <v>585</v>
-      </c>
       <c r="B217">
         <v>2250</v>
       </c>
-      <c r="C217" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A217,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
+      <c r="C217" t="s">
+        <v>17</v>
       </c>
       <c r="E217" t="str">
         <f>_xlfn.IFNA(MATCH(D217,A:A,0),"")</f>
@@ -5489,7 +5596,7 @@
         <v>2260</v>
       </c>
       <c r="C218" t="s">
-        <v>586</v>
+        <v>1</v>
       </c>
       <c r="E218" t="str">
         <f>_xlfn.IFNA(MATCH(D218,A:A,0),"")</f>
@@ -5500,8 +5607,8 @@
       <c r="B219">
         <v>2270</v>
       </c>
-      <c r="C219" t="s">
-        <v>667</v>
+      <c r="C219" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E219" t="str">
         <f>_xlfn.IFNA(MATCH(D219,A:A,0),"")</f>
@@ -5509,11 +5616,15 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="15" t="s">
+        <v>582</v>
+      </c>
       <c r="B220">
         <v>2280</v>
       </c>
-      <c r="C220" t="s">
-        <v>590</v>
+      <c r="C220" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A220,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
       </c>
       <c r="E220" t="str">
         <f>_xlfn.IFNA(MATCH(D220,A:A,0),"")</f>
@@ -5525,7 +5636,7 @@
         <v>2290</v>
       </c>
       <c r="C221" t="s">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="E221" t="str">
         <f>_xlfn.IFNA(MATCH(D221,A:A,0),"")</f>
@@ -5536,8 +5647,8 @@
       <c r="B222">
         <v>2300</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>587</v>
+      <c r="C222" t="s">
+        <v>661</v>
       </c>
       <c r="E222" t="str">
         <f>_xlfn.IFNA(MATCH(D222,A:A,0),"")</f>
@@ -5549,23 +5660,15 @@
         <v>2310</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" t="str">
-        <f>_xlfn.IFNA(MATCH(D223,A:A,0),"")</f>
-        <v/>
+        <v>769</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="B224">
         <v>2320</v>
       </c>
-      <c r="C224" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A224,"***")</f>
-        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
+      <c r="C224" t="s">
+        <v>758</v>
       </c>
       <c r="E224" t="str">
         <f>_xlfn.IFNA(MATCH(D224,A:A,0),"")</f>
@@ -5577,7 +5680,7 @@
         <v>2330</v>
       </c>
       <c r="C225" t="s">
-        <v>580</v>
+        <v>1</v>
       </c>
       <c r="E225" t="str">
         <f>_xlfn.IFNA(MATCH(D225,A:A,0),"")</f>
@@ -5589,7 +5692,7 @@
         <v>2340</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>667</v>
+        <v>584</v>
       </c>
       <c r="E226" t="str">
         <f>_xlfn.IFNA(MATCH(D226,A:A,0),"")</f>
@@ -5601,7 +5704,7 @@
         <v>2350</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>581</v>
+        <v>9</v>
       </c>
       <c r="E227" t="str">
         <f>_xlfn.IFNA(MATCH(D227,A:A,0),"")</f>
@@ -5609,11 +5712,15 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="15" t="s">
+        <v>574</v>
+      </c>
       <c r="B228">
         <v>2360</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>1</v>
+      <c r="C228" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A228,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSEQUENCE***</v>
       </c>
       <c r="E228" t="str">
         <f>_xlfn.IFNA(MATCH(D228,A:A,0),"")</f>
@@ -5624,8 +5731,8 @@
       <c r="B229">
         <v>2370</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>578</v>
+      <c r="C229" t="s">
+        <v>577</v>
       </c>
       <c r="E229" t="str">
         <f>_xlfn.IFNA(MATCH(D229,A:A,0),"")</f>
@@ -5637,7 +5744,7 @@
         <v>2380</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E230" t="str">
         <f>_xlfn.IFNA(MATCH(D230,A:A,0),"")</f>
@@ -5649,7 +5756,7 @@
         <v>2390</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E231" t="str">
         <f>_xlfn.IFNA(MATCH(D231,A:A,0),"")</f>
@@ -5673,7 +5780,7 @@
         <v>2410</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E233" t="str">
         <f>_xlfn.IFNA(MATCH(D233,A:A,0),"")</f>
@@ -5685,7 +5792,7 @@
         <v>2420</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E234" t="str">
         <f>_xlfn.IFNA(MATCH(D234,A:A,0),"")</f>
@@ -5697,7 +5804,7 @@
         <v>2430</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E235" t="str">
         <f>_xlfn.IFNA(MATCH(D235,A:A,0),"")</f>
@@ -5733,7 +5840,7 @@
         <v>2460</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>9</v>
+        <v>661</v>
       </c>
       <c r="E238" t="str">
         <f>_xlfn.IFNA(MATCH(D238,A:A,0),"")</f>
@@ -5741,15 +5848,11 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="17" t="s">
-        <v>558</v>
-      </c>
       <c r="B239">
         <v>2470</v>
       </c>
-      <c r="C239" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A239,"***")</f>
-        <v>REM SUBROUTINE ***RENDERTEXT***</v>
+      <c r="C239" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="E239" t="str">
         <f>_xlfn.IFNA(MATCH(D239,A:A,0),"")</f>
@@ -5760,147 +5863,173 @@
       <c r="B240">
         <v>2480</v>
       </c>
-      <c r="C240" t="s">
-        <v>561</v>
+      <c r="C240" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E240" t="str">
         <f>_xlfn.IFNA(MATCH(D240,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B241">
         <v>2490</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="E241" t="str">
         <f>_xlfn.IFNA(MATCH(D241,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B242">
         <v>2500</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>562</v>
+        <v>9</v>
       </c>
       <c r="E242" t="str">
         <f>_xlfn.IFNA(MATCH(D242,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="15" t="s">
+        <v>557</v>
+      </c>
       <c r="B243">
         <v>2510</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>563</v>
+      <c r="C243" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A243,"***")</f>
+        <v>REM SUBROUTINE ***RENDERTEXT***</v>
       </c>
       <c r="E243" t="str">
         <f>_xlfn.IFNA(MATCH(D243,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B244">
         <v>2520</v>
       </c>
-      <c r="C244" s="5" t="s">
-        <v>565</v>
+      <c r="C244" t="s">
+        <v>560</v>
       </c>
       <c r="E244" t="str">
         <f>_xlfn.IFNA(MATCH(D244,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B245">
         <v>2530</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1</v>
+        <v>558</v>
       </c>
       <c r="E245" t="str">
         <f>_xlfn.IFNA(MATCH(D245,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B246">
         <v>2540</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E246" t="str">
         <f>_xlfn.IFNA(MATCH(D246,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C247" s="5"/>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>2550</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>562</v>
+      </c>
       <c r="E247" t="str">
         <f>_xlfn.IFNA(MATCH(D247,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C248" s="5"/>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>2560</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>564</v>
+      </c>
       <c r="E248" t="str">
         <f>_xlfn.IFNA(MATCH(D248,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C249" s="5"/>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>2570</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E249" t="str">
         <f>_xlfn.IFNA(MATCH(D249,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>2580</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="E250" t="str">
         <f>_xlfn.IFNA(MATCH(D250,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="E251" t="str">
         <f>_xlfn.IFNA(MATCH(D251,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C252" s="5"/>
       <c r="E252" t="str">
         <f>_xlfn.IFNA(MATCH(D252,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="E253" t="str">
         <f>_xlfn.IFNA(MATCH(D253,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E254" t="str">
         <f>_xlfn.IFNA(MATCH(D254,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="E255" t="str">
         <f>_xlfn.IFNA(MATCH(D255,A:A,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E256" t="str">
         <f>_xlfn.IFNA(MATCH(D256,A:A,0),"")</f>
         <v/>
@@ -5914,7 +6043,6 @@
       </c>
     </row>
     <row r="258" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C258" s="5"/>
       <c r="E258" t="str">
         <f>_xlfn.IFNA(MATCH(D258,A:A,0),"")</f>
         <v/>
@@ -5934,18 +6062,21 @@
       </c>
     </row>
     <row r="261" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C261" s="5"/>
       <c r="E261" t="str">
         <f>_xlfn.IFNA(MATCH(D261,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C262" s="5"/>
       <c r="E262" t="str">
         <f>_xlfn.IFNA(MATCH(D262,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C263" s="5"/>
       <c r="E263" t="str">
         <f>_xlfn.IFNA(MATCH(D263,A:A,0),"")</f>
         <v/>
@@ -5964,14 +6095,12 @@
       </c>
     </row>
     <row r="266" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C266" s="5"/>
       <c r="E266" t="str">
         <f>_xlfn.IFNA(MATCH(D266,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C267" s="5"/>
       <c r="E267" t="str">
         <f>_xlfn.IFNA(MATCH(D267,A:A,0),"")</f>
         <v/>
@@ -5990,26 +6119,26 @@
       </c>
     </row>
     <row r="270" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C270" s="5"/>
       <c r="E270" t="str">
         <f>_xlfn.IFNA(MATCH(D270,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C271" s="5"/>
       <c r="E271" t="str">
         <f>_xlfn.IFNA(MATCH(D271,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C272" s="5"/>
       <c r="E272" t="str">
         <f>_xlfn.IFNA(MATCH(D272,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C273" s="5"/>
       <c r="E273" t="str">
         <f>_xlfn.IFNA(MATCH(D273,A:A,0),"")</f>
         <v/>
@@ -6028,12 +6157,14 @@
       </c>
     </row>
     <row r="276" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C276" s="5"/>
       <c r="E276" t="str">
         <f>_xlfn.IFNA(MATCH(D276,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C277" s="5"/>
       <c r="E277" t="str">
         <f>_xlfn.IFNA(MATCH(D277,A:A,0),"")</f>
         <v/>
@@ -6100,14 +6231,12 @@
       </c>
     </row>
     <row r="288" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C288" s="5"/>
       <c r="E288" t="str">
         <f>_xlfn.IFNA(MATCH(D288,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C289" s="5"/>
       <c r="E289" t="str">
         <f>_xlfn.IFNA(MATCH(D289,A:A,0),"")</f>
         <v/>
@@ -6126,6 +6255,7 @@
       </c>
     </row>
     <row r="292" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C292" s="5"/>
       <c r="E292" t="str">
         <f>_xlfn.IFNA(MATCH(D292,A:A,0),"")</f>
         <v/>
@@ -6139,30 +6269,43 @@
       </c>
     </row>
     <row r="294" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C294" s="5"/>
       <c r="E294" t="str">
         <f>_xlfn.IFNA(MATCH(D294,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C295" s="5"/>
       <c r="E295" t="str">
         <f>_xlfn.IFNA(MATCH(D295,A:A,0),"")</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C296" s="5"/>
+      <c r="E296" t="str">
+        <f>_xlfn.IFNA(MATCH(D296,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="297" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
+      <c r="E297" t="str">
+        <f>_xlfn.IFNA(MATCH(D297,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="298" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
+      <c r="E298" t="str">
+        <f>_xlfn.IFNA(MATCH(D298,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="299" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
+      <c r="E299" t="str">
+        <f>_xlfn.IFNA(MATCH(D299,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="300" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
@@ -6182,20 +6325,29 @@
     <row r="305" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C326" s="5"/>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C327" s="5"/>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="5"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="5"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="5"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="5"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" s="5"/>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C334" s="5"/>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C340" s="5"/>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" s="5"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" s="5"/>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
@@ -6206,38 +6358,29 @@
     <row r="352" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C352" s="5"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C362" s="5"/>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C369" s="5"/>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="5"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" s="5"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C373" s="5"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C378" s="5"/>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C384" s="5"/>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C390" s="5"/>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C393" s="5"/>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C415" s="5"/>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C416" s="5"/>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C417" s="5"/>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C418" s="5"/>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" s="5"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" s="5"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" s="5"/>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="5"/>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" s="5"/>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C419" s="5"/>
@@ -6251,17 +6394,17 @@
     <row r="422" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C422" s="5"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C427" s="5"/>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C428" s="5"/>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C429" s="5"/>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C430" s="5"/>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C426" s="5"/>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C431" s="5"/>
@@ -6269,74 +6412,86 @@
     <row r="432" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C432" s="5"/>
     </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C433" s="5"/>
+    </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C434" s="5"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C435" s="5"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C448" s="1"/>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C449" s="1"/>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C450" s="1"/>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C451" s="1"/>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C436" s="5"/>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C438" s="5"/>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C439" s="5"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C452" s="1"/>
     </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C453" s="1"/>
+    </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C454" s="1"/>
     </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C455" s="1"/>
+    </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C456" s="1"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C457" s="1"/>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C459" s="1"/>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C458" s="1"/>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C460" s="1"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C461" s="1"/>
     </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C463" s="1"/>
+    </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C465" s="1"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C469" s="1"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C471" s="1"/>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C472" s="1"/>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C477" s="5"/>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C490" s="5"/>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C473" s="1"/>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C476" s="1"/>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C481" s="5"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C494" s="5"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C495" s="5"/>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C496" s="5"/>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C497" s="5"/>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C498" s="5"/>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C499" s="5"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C500" s="5"/>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C501" s="5"/>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C504" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6350,8 +6505,8 @@
   </sheetPr>
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235:XFD235"/>
+    <sheetView topLeftCell="A291" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6379,7 +6534,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
@@ -6499,7 +6654,7 @@
       <c r="B8" s="2">
         <v>160</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="5" t="str">
@@ -6534,7 +6689,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -6670,7 +6825,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>527</v>
       </c>
       <c r="B17" s="2">
@@ -6938,7 +7093,7 @@
       <c r="B32" s="2">
         <v>400</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="5" t="str">
@@ -7131,7 +7286,7 @@
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>528</v>
       </c>
       <c r="B44" s="2">
@@ -7179,7 +7334,7 @@
       <c r="B47" s="2">
         <v>550</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D47" s="5"/>
@@ -7379,7 +7534,7 @@
       <c r="B58" s="2">
         <v>630</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="5" t="str">
@@ -7474,7 +7629,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>482</v>
       </c>
       <c r="B63" s="2">
@@ -8041,7 +8196,7 @@
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D94" s="5" t="str">
@@ -8101,7 +8256,7 @@
       <c r="B97" s="2">
         <v>1030</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D97" s="5" t="str">
@@ -8120,7 +8275,7 @@
       <c r="B98" s="2">
         <v>1040</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D98" s="5" t="str">
@@ -8139,7 +8294,7 @@
       <c r="B99" s="2">
         <v>1050</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D99" s="5" t="str">
@@ -8161,7 +8316,7 @@
       <c r="B100" s="2">
         <v>1060</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D100" s="5" t="str">
@@ -8180,7 +8335,7 @@
       <c r="B101" s="2">
         <v>1070</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="5" t="str">
@@ -8199,7 +8354,7 @@
       <c r="B102" s="2">
         <v>1080</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="5" t="str">
@@ -8221,7 +8376,7 @@
       <c r="B103" s="2">
         <v>1090</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C103" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D103" s="5" t="str">
@@ -8240,7 +8395,7 @@
       <c r="B104" s="2">
         <v>1100</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D104" s="5" t="str">
@@ -8259,7 +8414,7 @@
       <c r="B105" s="2">
         <v>1110</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D105" s="5" t="str">
@@ -8281,7 +8436,7 @@
       <c r="B106" s="2">
         <v>1120</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D106" s="5" t="str">
@@ -8300,7 +8455,7 @@
       <c r="B107" s="2">
         <v>1130</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D107" s="5" t="str">
@@ -8319,7 +8474,7 @@
       <c r="B108" s="2">
         <v>1140</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D108" s="5" t="str">
@@ -9019,7 +9174,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B148" s="2">
         <v>1540</v>
@@ -9074,7 +9229,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B151" s="2">
         <v>1570</v>
@@ -9255,7 +9410,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B161" s="2">
         <v>1670</v>
@@ -9412,7 +9567,7 @@
         <v/>
       </c>
       <c r="F169" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -9431,7 +9586,7 @@
         <v/>
       </c>
       <c r="F170" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -9482,7 +9637,7 @@
         <v/>
       </c>
       <c r="F173" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -9535,7 +9690,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B177" s="2">
         <v>1830</v>
@@ -9552,12 +9707,12 @@
         <v/>
       </c>
       <c r="F177" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B178" s="2">
         <v>1840</v>
@@ -9574,7 +9729,7 @@
         <v/>
       </c>
       <c r="F178" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -9593,7 +9748,7 @@
         <v/>
       </c>
       <c r="F179" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -9628,7 +9783,7 @@
         <v/>
       </c>
       <c r="F181" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -9679,7 +9834,7 @@
         <v/>
       </c>
       <c r="F184" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -9714,12 +9869,12 @@
         <v/>
       </c>
       <c r="F186" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B187" s="2">
         <v>1930</v>
@@ -9736,7 +9891,7 @@
         <v/>
       </c>
       <c r="F187" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -9755,7 +9910,7 @@
         <v/>
       </c>
       <c r="F188" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -9774,7 +9929,7 @@
         <v/>
       </c>
       <c r="F189" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -9793,7 +9948,7 @@
         <v/>
       </c>
       <c r="F190" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -9812,7 +9967,7 @@
         <v/>
       </c>
       <c r="F191" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -9831,7 +9986,7 @@
         <v/>
       </c>
       <c r="F192" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -9850,7 +10005,7 @@
         <v/>
       </c>
       <c r="F193" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9869,7 +10024,7 @@
         <v/>
       </c>
       <c r="F194" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -9888,7 +10043,7 @@
         <v/>
       </c>
       <c r="F195" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -9907,7 +10062,7 @@
         <v/>
       </c>
       <c r="F196" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -9926,7 +10081,7 @@
         <v>STOREROW</v>
       </c>
       <c r="F197" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -9961,7 +10116,7 @@
         <v/>
       </c>
       <c r="F199" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -10000,7 +10155,7 @@
       <c r="B202" s="2">
         <v>2080</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="18" t="s">
         <v>168</v>
       </c>
       <c r="D202" s="5" t="str">
@@ -10012,12 +10167,12 @@
         <v>COMPUTERDEPLOYED2</v>
       </c>
       <c r="F202" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B203" s="2">
         <v>2090</v>
@@ -10036,7 +10191,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B204" s="2">
         <v>2100</v>
@@ -10053,7 +10208,7 @@
         <v/>
       </c>
       <c r="F204" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -10072,7 +10227,7 @@
         <v/>
       </c>
       <c r="F205" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -10091,14 +10246,14 @@
         <v/>
       </c>
       <c r="F206" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B207" s="2">
         <v>2130</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D207" s="5" t="str">
@@ -10110,17 +10265,17 @@
         <v>CONVERTNUM2LET</v>
       </c>
       <c r="F207" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B208" s="2">
         <v>2140</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="18" t="s">
         <v>174</v>
       </c>
       <c r="D208" s="5" t="str">
@@ -10132,7 +10287,7 @@
         <v/>
       </c>
       <c r="F208" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -10151,14 +10306,14 @@
         <v/>
       </c>
       <c r="F209" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B210" s="2">
         <v>2160</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D210" s="5" t="str">
@@ -10170,7 +10325,7 @@
         <v/>
       </c>
       <c r="F210" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -10205,7 +10360,7 @@
         <v/>
       </c>
       <c r="F212" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -10240,7 +10395,7 @@
         <v/>
       </c>
       <c r="F214" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -10261,7 +10416,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B216" s="2">
         <v>2220</v>
@@ -10294,7 +10449,7 @@
         <v>DODUPCHECK</v>
       </c>
       <c r="F217" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -10329,7 +10484,7 @@
         <v/>
       </c>
       <c r="F219" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -10348,7 +10503,7 @@
         <v/>
       </c>
       <c r="F220" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -10367,7 +10522,7 @@
         <v/>
       </c>
       <c r="F221" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -10386,7 +10541,7 @@
         <v/>
       </c>
       <c r="F222" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -10405,7 +10560,7 @@
         <v/>
       </c>
       <c r="F223" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -10424,7 +10579,7 @@
         <v/>
       </c>
       <c r="F224" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -10462,7 +10617,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B227" s="2">
         <v>2330</v>
@@ -10481,7 +10636,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B228" s="2">
         <v>2340</v>
@@ -10516,7 +10671,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B230" s="2">
         <v>2360</v>
@@ -10533,12 +10688,12 @@
         <v>PICKALLSHIPLOCS</v>
       </c>
       <c r="F230" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B231" s="2">
         <v>2370</v>
@@ -10557,7 +10712,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B232" s="2">
         <v>2380</v>
@@ -10590,18 +10745,18 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B234" s="2">
         <v>2400</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D234" s="21" t="str">
+      <c r="D234" s="5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E234" s="20" t="str">
+      <c r="E234" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -10637,6 +10792,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="F236" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B237" s="2">
@@ -10653,6 +10811,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
+      <c r="F237" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B238" s="2">
@@ -10702,7 +10863,10 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>721</v>
+      </c>
       <c r="B241" s="2">
         <v>2470</v>
       </c>
@@ -10718,7 +10882,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B242" s="2">
         <v>2480</v>
       </c>
@@ -10734,7 +10898,10 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>711</v>
+      </c>
       <c r="B243" s="2">
         <v>2490</v>
       </c>
@@ -10749,8 +10916,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B244" s="2">
         <v>2500</v>
       </c>
@@ -10761,12 +10931,15 @@
         <f t="shared" si="8"/>
         <v>2490</v>
       </c>
-      <c r="E244">
+      <c r="E244" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+        <v>ENTERLETTARGET</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>712</v>
+      </c>
       <c r="B245" s="2">
         <v>2510</v>
       </c>
@@ -10781,8 +10954,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B246" s="2">
         <v>2520</v>
       </c>
@@ -10793,12 +10969,12 @@
         <f t="shared" si="8"/>
         <v>2510</v>
       </c>
-      <c r="E246">
+      <c r="E246" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+        <v>ENTERNUMTARGET</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B247" s="2">
         <v>2530</v>
       </c>
@@ -10809,28 +10985,31 @@
         <f t="shared" si="8"/>
         <v>2510</v>
       </c>
-      <c r="E247">
+      <c r="E247" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="12">
+        <v>ENTERNUMTARGET</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="2">
         <v>2540</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D248" s="14" t="str">
+      <c r="D248" s="19" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E248" s="12" t="str">
+      <c r="E248" s="19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F248" s="19" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B249" s="2">
         <v>2550</v>
       </c>
@@ -10841,12 +11020,18 @@
         <f t="shared" si="8"/>
         <v>2580</v>
       </c>
-      <c r="E249">
+      <c r="E249" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+        <v>CHECKROWMATCH</v>
+      </c>
+      <c r="F249" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>720</v>
+      </c>
       <c r="B250" s="2">
         <v>2560</v>
       </c>
@@ -10862,7 +11047,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B251" s="2">
         <v>2570</v>
       </c>
@@ -10873,12 +11058,15 @@
         <f t="shared" si="8"/>
         <v>2810</v>
       </c>
-      <c r="E251">
+      <c r="E251" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+        <v>MISS</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>715</v>
+      </c>
       <c r="B252" s="2">
         <v>2580</v>
       </c>
@@ -10889,12 +11077,12 @@
         <f t="shared" si="8"/>
         <v>2560</v>
       </c>
-      <c r="E252">
+      <c r="E252" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+        <v>NEXTCOLCHECK</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B253" s="2">
         <v>2590</v>
       </c>
@@ -10910,7 +11098,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B254" s="2">
         <v>2600</v>
       </c>
@@ -10921,12 +11109,12 @@
         <f t="shared" si="8"/>
         <v>2620</v>
       </c>
-      <c r="E254">
+      <c r="E254" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+        <v>NEXTCOLSHOTCHECK</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B255" s="2">
         <v>2610</v>
       </c>
@@ -10937,12 +11125,18 @@
         <f t="shared" si="8"/>
         <v>2470</v>
       </c>
-      <c r="E255">
+      <c r="E255" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+        <v>ENTERTARGET</v>
+      </c>
+      <c r="F255" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>723</v>
+      </c>
       <c r="B256" s="2">
         <v>2620</v>
       </c>
@@ -10958,7 +11152,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B257" s="2">
         <v>2630</v>
       </c>
@@ -10974,7 +11168,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B258" s="2">
         <v>2640</v>
       </c>
@@ -10989,8 +11183,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B259" s="2">
         <v>2650</v>
       </c>
@@ -11001,12 +11198,12 @@
         <f t="shared" si="8"/>
         <v>2730</v>
       </c>
-      <c r="E259">
+      <c r="E259" t="str">
         <f t="shared" ref="E259:E322" si="9">IFERROR(INDEX($A:$A,MATCH(_xlfn.NUMBERVALUE(D259),$B:$B,0)),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+        <v>STOREHIT</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B260" s="2">
         <v>2660</v>
       </c>
@@ -11021,8 +11218,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F260" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B261" s="2">
         <v>2670</v>
       </c>
@@ -11033,12 +11233,12 @@
         <f t="shared" si="8"/>
         <v>2730</v>
       </c>
-      <c r="E261">
+      <c r="E261" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+        <v>STOREHIT</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B262" s="2">
         <v>2680</v>
       </c>
@@ -11053,8 +11253,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F262" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B263" s="2">
         <v>2690</v>
       </c>
@@ -11065,12 +11268,12 @@
         <f t="shared" si="8"/>
         <v>2730</v>
       </c>
-      <c r="E263">
+      <c r="E263" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+        <v>STOREHIT</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B264" s="2">
         <v>2700</v>
       </c>
@@ -11085,8 +11288,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F264" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B265" s="2">
         <v>2710</v>
       </c>
@@ -11097,12 +11303,12 @@
         <f t="shared" si="8"/>
         <v>2730</v>
       </c>
-      <c r="E265">
+      <c r="E265" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+        <v>STOREHIT</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B266" s="2">
         <v>2720</v>
       </c>
@@ -11117,8 +11323,14 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F266" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>726</v>
+      </c>
       <c r="B267" s="2">
         <v>2730</v>
       </c>
@@ -11133,8 +11345,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F267" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B268" s="2">
         <v>2740</v>
       </c>
@@ -11150,7 +11365,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B269" s="2">
         <v>2750</v>
       </c>
@@ -11165,8 +11380,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F269" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B270" s="2">
         <v>2760</v>
       </c>
@@ -11182,7 +11400,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B271" s="2">
         <v>2770</v>
       </c>
@@ -11197,8 +11415,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F271" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B272" s="2">
         <v>2780</v>
       </c>
@@ -11213,8 +11434,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F272" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B273" s="2">
         <v>2790</v>
       </c>
@@ -11229,8 +11453,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F273" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B274" s="2">
         <v>2800</v>
       </c>
@@ -11246,7 +11473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>719</v>
+      </c>
       <c r="B275" s="2">
         <v>2810</v>
       </c>
@@ -11261,8 +11491,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F275" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B276" s="2">
         <v>2820</v>
       </c>
@@ -11278,7 +11511,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B277" s="2">
         <v>2830</v>
       </c>
@@ -11293,8 +11526,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F277" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B278" s="2">
         <v>2840</v>
       </c>
@@ -11310,7 +11546,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B279" s="2">
         <v>2850</v>
       </c>
@@ -11326,7 +11562,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B280" s="2">
         <v>2860</v>
       </c>
@@ -11341,8 +11577,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F280" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B281" s="2">
         <v>2870</v>
       </c>
@@ -11358,7 +11597,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B282" s="2">
         <v>2880</v>
       </c>
@@ -11373,8 +11612,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F282" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B283" s="2">
         <v>2890</v>
       </c>
@@ -11390,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B284" s="2">
         <v>2900</v>
       </c>
@@ -11406,7 +11648,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B285" s="2">
         <v>2910</v>
       </c>
@@ -11422,7 +11664,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B286" s="2">
         <v>2920</v>
       </c>
@@ -11433,12 +11675,12 @@
         <f t="shared" si="8"/>
         <v>2960</v>
       </c>
-      <c r="E286">
+      <c r="E286" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+        <v>CHECKSHIP2DESTROY</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B287" s="2">
         <v>2930</v>
       </c>
@@ -11454,7 +11696,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B288" s="2">
         <v>2940</v>
       </c>
@@ -11469,8 +11711,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F288" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B289" s="2">
         <v>2950</v>
       </c>
@@ -11486,7 +11731,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>735</v>
+      </c>
       <c r="B290" s="2">
         <v>2960</v>
       </c>
@@ -11497,12 +11745,12 @@
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="E290">
+      <c r="E290" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+        <v>CHECKSHIP3DESTROY</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B291" s="2">
         <v>2970</v>
       </c>
@@ -11518,7 +11766,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B292" s="2">
         <v>2980</v>
       </c>
@@ -11533,8 +11781,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F292" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B293" s="2">
         <v>2990</v>
       </c>
@@ -11550,7 +11801,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>736</v>
+      </c>
       <c r="B294" s="2">
         <v>3000</v>
       </c>
@@ -11561,12 +11815,12 @@
         <f t="shared" si="8"/>
         <v>3040</v>
       </c>
-      <c r="E294">
+      <c r="E294" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+        <v>CHECKSHIP4DESTROY</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B295" s="2">
         <v>3010</v>
       </c>
@@ -11582,7 +11836,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B296" s="2">
         <v>3020</v>
       </c>
@@ -11597,8 +11851,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F296" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B297" s="2">
         <v>3030</v>
       </c>
@@ -11614,7 +11871,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>737</v>
+      </c>
       <c r="B298" s="2">
         <v>3040</v>
       </c>
@@ -11625,12 +11885,12 @@
         <f t="shared" si="8"/>
         <v>3080</v>
       </c>
-      <c r="E298">
+      <c r="E298" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+        <v>CHECKSHIP5DESTROY</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B299" s="2">
         <v>3050</v>
       </c>
@@ -11646,7 +11906,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B300" s="2">
         <v>3060</v>
       </c>
@@ -11661,8 +11921,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F300" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B301" s="2">
         <v>3070</v>
       </c>
@@ -11678,7 +11941,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>738</v>
+      </c>
       <c r="B302" s="2">
         <v>3080</v>
       </c>
@@ -11689,12 +11955,12 @@
         <f t="shared" si="8"/>
         <v>3120</v>
       </c>
-      <c r="E302">
+      <c r="E302" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+        <v>DONECHECKSHIPDESTORY</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B303" s="2">
         <v>3090</v>
       </c>
@@ -11710,7 +11976,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B304" s="2">
         <v>3100</v>
       </c>
@@ -11725,8 +11991,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F304" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B305" s="2">
         <v>3110</v>
       </c>
@@ -11742,7 +12011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>739</v>
+      </c>
       <c r="B306" s="2">
         <v>3120</v>
       </c>
@@ -11758,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B307" s="2">
         <v>3130</v>
       </c>
@@ -11773,8 +12045,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F307" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B308" s="2">
         <v>3140</v>
       </c>
@@ -11789,8 +12064,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F308" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B309" s="2">
         <v>3150</v>
       </c>
@@ -11805,8 +12083,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F309" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B310" s="2">
         <v>3160</v>
       </c>
@@ -11821,8 +12102,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F310" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B311" s="2">
         <v>3170</v>
       </c>
@@ -11837,8 +12121,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F311" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B312" s="2">
         <v>3180</v>
       </c>
@@ -11854,7 +12141,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B313" s="2">
         <v>3190</v>
       </c>
@@ -11870,7 +12157,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B314" s="2">
         <v>3200</v>
       </c>
@@ -11885,12 +12172,15 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F314" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B315" s="2">
         <v>3210</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D315" s="5" t="str">
@@ -11901,8 +12191,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F315" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B316" s="2">
         <v>3220</v>
       </c>
@@ -11917,8 +12210,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F316" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B317" s="2">
         <v>3230</v>
       </c>
@@ -11934,7 +12230,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B318" s="2">
         <v>3240</v>
       </c>
@@ -11950,7 +12246,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B319" s="2">
         <v>3250</v>
       </c>
@@ -11966,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B320" s="2">
         <v>3260</v>
       </c>

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63E94F4-6CE7-1D4D-8191-1166EE0DDF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5C036-17BC-3142-BF47-601C9DA42CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="33000" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="49520" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="REFACTORED" sheetId="4" r:id="rId1"/>
-    <sheet name="ORIGINAL" sheetId="1" r:id="rId2"/>
+    <sheet name="SOLVER" sheetId="5" r:id="rId2"/>
+    <sheet name="ORIGINAL" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ORIGINAL!$A:$F</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ORIGINAL!$A:$F</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1032">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -2917,6 +2918,225 @@
   </si>
   <si>
     <t>REM &lt;HTTPS://WWW.GNU.ORG/LICENSES/&gt;.</t>
+  </si>
+  <si>
+    <t>SAMPLE$(4,0)="E7"::SAMPLE$(4,1)="E8"</t>
+  </si>
+  <si>
+    <t>ROW=ASC(SEG$(SAMPLE$(I,J),1,1))-64</t>
+  </si>
+  <si>
+    <t>LOC=ROW*16+COL</t>
+  </si>
+  <si>
+    <t>SHIPS(0,I,J)=LOC</t>
+  </si>
+  <si>
+    <t>Q(),QLEN</t>
+  </si>
+  <si>
+    <t>QUEUEADD</t>
+  </si>
+  <si>
+    <t>DIM SAMPLE$(4,4)</t>
+  </si>
+  <si>
+    <t>SAMPLE$(0,0)="C5"::SAMPLE$(0,1)="D5"::SAMPLE$(0,2)="E5"::SAMPLE$(0,3)="F5"::SAMPLE$(0,4)="G5"</t>
+  </si>
+  <si>
+    <t>SAMPLE$(1,0)="D6"::SAMPLE$(1,1)="E6"::SAMPLE$(1,2)="F6"::SAMPLE$(1,3)="G6"</t>
+  </si>
+  <si>
+    <t>SAMPLE$(2,0)="D4"::SAMPLE$(2,1)="E4"::SAMPLE$(2,2)="F4"</t>
+  </si>
+  <si>
+    <t>SAMPLE$(3,0)="E1"::SAMPLE$(3,1)="E2"::SAMPLE$(3,2)="E3"</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO QLEN-1</t>
+  </si>
+  <si>
+    <t>FOR I=DINDEX TO QLEN-1</t>
+  </si>
+  <si>
+    <t>QUEUEINIT</t>
+  </si>
+  <si>
+    <t>QUEUESIZE</t>
+  </si>
+  <si>
+    <t>QSIZE</t>
+  </si>
+  <si>
+    <t>QSIZE=11</t>
+  </si>
+  <si>
+    <t>DIM Q(10) :: QLEN=0</t>
+  </si>
+  <si>
+    <t>QLEN=0</t>
+  </si>
+  <si>
+    <t>QUEUEDEL</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO QLEN</t>
+  </si>
+  <si>
+    <t>DINDEX=-1 :: ERRVAL=-1</t>
+  </si>
+  <si>
+    <t>Q(I)=Q(I+1)</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO QSIZE-1 :: Q(I)=-1 :: NEXT I</t>
+  </si>
+  <si>
+    <t>QUEUEDELFOUND</t>
+  </si>
+  <si>
+    <t>QUEUEPRINT</t>
+  </si>
+  <si>
+    <t>PRINT "Q("&amp;STR$(I)&amp;"):"&amp;STR$(Q(I))&amp;" QLEN:"&amp;STR$(QLEN)</t>
+  </si>
+  <si>
+    <t>COL=VAL(SEG$(SAMPLE$(I,J),2,1))</t>
+  </si>
+  <si>
+    <t>Q(),QLEN,VALUE,ERRVAL</t>
+  </si>
+  <si>
+    <t>IF QLEN=0 THEN PRINT "QLEN:0"</t>
+  </si>
+  <si>
+    <t>QLEN=QLEN-1 :: ERRVAL=0</t>
+  </si>
+  <si>
+    <t>IF QLEN&lt;QSIZE-1 THEN Q(QLEN)=VALUE :: QLEN=QLEN+1 :: ERRVAL=0 ELSE ERRVAL=1</t>
+  </si>
+  <si>
+    <t>MOCK</t>
+  </si>
+  <si>
+    <t>REM ****************************************</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>GAMEAI</t>
+  </si>
+  <si>
+    <t>ROW=INT(Q(0)/16) :: COL=Q(0)-INT(Q(0)/16)*16</t>
+  </si>
+  <si>
+    <t>IF DIR=0 OR DIR=2 THEN CDIR=DIR-1 ELSE RDIR=DIR-2</t>
+  </si>
+  <si>
+    <t>PRINT "ROW:"&amp;STR$(ROW)&amp;",COL:"&amp;STR$(COL)</t>
+  </si>
+  <si>
+    <t>DIR=INT(RND*4)</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>OFFSETZERO</t>
+  </si>
+  <si>
+    <t>AISTART</t>
+  </si>
+  <si>
+    <t>ROW=ROW+OFFSET*RDIR :: COL=COL+OFFSET*CDIR</t>
+  </si>
+  <si>
+    <t>EMPTYQUEUE</t>
+  </si>
+  <si>
+    <t>IF REVERSED=1 THEN TMP=RDIR :: RDIR=CDIR :: CDIR=TMP :: REVERSED=0 :: OFFSET=OFFSET+1 :: RETURN</t>
+  </si>
+  <si>
+    <t>IF RDIR&lt;&gt;0 THEN RDIR=RDIR*-1:: REVERSED=1 :: OFFSET=OFFSET+1 :: RETURN</t>
+  </si>
+  <si>
+    <t>IF CDIR&lt;&gt;0 THEN CDIR=CDIR*-1:: REVERSED=1 :: OFFSET=OFFSET+1 :: RETURN</t>
+  </si>
+  <si>
+    <t>RDIR=0 :: CDIR=0 :: REVERSED=0 :: OFFSET=0</t>
+  </si>
+  <si>
+    <t>REVERSED=0 :: OFFSET=OFFSET+1</t>
+  </si>
+  <si>
+    <t>ERRORVAL,(ROW),(COL),0,SHOTS(,,)</t>
+  </si>
+  <si>
+    <t>Q(),QLEN,(LOC),ERRVAL</t>
+  </si>
+  <si>
+    <t>IF OFFSET&lt;&gt;0 THEN OFFSET=OFFSET+1</t>
+  </si>
+  <si>
+    <t>VALIDATESHOT</t>
+  </si>
+  <si>
+    <t>SHOTS(0,ROW-1,COL-1)=1</t>
+  </si>
+  <si>
+    <t>REM PRINT "END RDIR:"&amp;STR$(RDIR)&amp;",CDIR:"&amp;STR$(CDIR)&amp;",REVERSED:"&amp;STR$(REVERSED)&amp;",OFFSET:"&amp;STR$(OFFSET)&amp;",ROW:"&amp;STR$(ROW)&amp;",COL:"&amp;STR$(COL)</t>
+  </si>
+  <si>
+    <t>REM PRINT "BEGIN QLEN:"&amp;STR$(QLEN)&amp;",RDIR:"&amp;STR$(RDIR)&amp;",CDIR:"&amp;STR$(CDIR)&amp;",REVERSED:"&amp;STR$(REVERSED)&amp;",OFFSET:"&amp;STR$(OFFSET)</t>
+  </si>
+  <si>
+    <t>PRINT STR$(SHOTS(0,I,0))&amp;STR$(SHOTS(0,I,1))&amp;STR$(SHOTS(0,I,2))&amp;STR$(SHOTS(0,I,3))&amp;STR$(SHOTS(0,I,4))&amp;STR$(SHOTS(0,I,5))&amp;STR$(SHOTS(0,I,6))&amp;STR$(SHOTS(0,I,7))&amp;STR$(SHOTS(0,I,8))&amp;STR$(SHOTS(0,I,9))</t>
+  </si>
+  <si>
+    <t>OLDQLEN=QLEN</t>
+  </si>
+  <si>
+    <t>HIT,SHIP,(LOC),0,SHIPS(,,)</t>
+  </si>
+  <si>
+    <t>HITSLEFT(0,SHIP)=HITSLEFT(0,SHIP)-1</t>
+  </si>
+  <si>
+    <t>SHIPSLEFT(0)=SHIPSLEFT(0)-1</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>SHIPLEN,SHIP</t>
+  </si>
+  <si>
+    <t>LOC=SHIPS(0,SHIP,I)</t>
+  </si>
+  <si>
+    <t>TESTLOOP</t>
+  </si>
+  <si>
+    <t>REM ROW=5::COL=7::LOC=ROW*16+COL</t>
+  </si>
+  <si>
+    <t>REM PRINT "PRIMING HIT: ROW:"&amp;STR$(ROW)&amp;",COL:"&amp;STR$(COL)</t>
+  </si>
+  <si>
+    <t>REM SHOTS(0,ROW-1,COL-1)=1</t>
+  </si>
+  <si>
+    <t>PRINT "SUNK:"&amp;STR$(SHIP)&amp;",SHIPSLEFT:"&amp;STR$(SHIPSLEFT(0))</t>
+  </si>
+  <si>
+    <t>ROW,COL,Q(),QLEN,SHOTS(,,)</t>
+  </si>
+  <si>
+    <t>IF HIT=1 THEN PRINT "HIT" :: CALL SOUND(500,-8,2) :: CALL SOUND(1,110,30) ELSE CALL SOUND(500,-3,2) :: CALL SOUND(1,110,30)</t>
+  </si>
+  <si>
+    <t>IF QLEN&lt;=OLDQLEN THEN OFFSET=0</t>
   </si>
 </sst>
 </file>
@@ -3014,7 +3234,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3045,6 +3265,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3058,7 +3296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3083,7 +3321,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3418,7 +3668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:H744"/>
+  <dimension ref="A1:H745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3452,27 +3702,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="24">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="24">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>110</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="24">
+      <c r="B4">
         <v>120</v>
       </c>
       <c r="C4" t="s">
@@ -3481,7 +3729,7 @@
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="24">
+      <c r="B5">
         <v>130</v>
       </c>
       <c r="C5" t="s">
@@ -3490,7 +3738,7 @@
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
-      <c r="B6" s="24">
+      <c r="B6">
         <v>140</v>
       </c>
       <c r="C6" t="s">
@@ -3499,7 +3747,7 @@
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="24">
+      <c r="B7">
         <v>150</v>
       </c>
       <c r="C7" t="s">
@@ -3508,7 +3756,7 @@
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="24">
+      <c r="B8">
         <v>160</v>
       </c>
       <c r="C8" t="s">
@@ -3517,7 +3765,7 @@
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="24">
+      <c r="B9">
         <v>170</v>
       </c>
       <c r="C9" t="s">
@@ -3526,7 +3774,7 @@
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="24">
+      <c r="B10">
         <v>180</v>
       </c>
       <c r="C10" t="s">
@@ -3535,7 +3783,7 @@
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="24">
+      <c r="B11">
         <v>190</v>
       </c>
       <c r="C11" t="s">
@@ -3544,7 +3792,7 @@
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
-      <c r="B12" s="24">
+      <c r="B12">
         <v>200</v>
       </c>
       <c r="C12" t="s">
@@ -3553,7 +3801,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
-      <c r="B13" s="24">
+      <c r="B13">
         <v>210</v>
       </c>
       <c r="C13" t="s">
@@ -3566,7 +3814,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
-      <c r="B14" s="24">
+      <c r="B14">
         <v>220</v>
       </c>
       <c r="C14" t="s">
@@ -3575,7 +3823,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
-      <c r="B15" s="24">
+      <c r="B15">
         <v>230</v>
       </c>
       <c r="C15" t="s">
@@ -3584,7 +3832,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
-      <c r="B16" s="24">
+      <c r="B16">
         <v>240</v>
       </c>
       <c r="C16" t="s">
@@ -3593,7 +3841,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="24">
+      <c r="B17">
         <v>250</v>
       </c>
       <c r="C17" s="18" t="str">
@@ -3607,7 +3855,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="24">
+      <c r="B18">
         <v>260</v>
       </c>
       <c r="C18" s="18" t="str">
@@ -3623,7 +3871,7 @@
       <c r="A19" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19">
         <v>270</v>
       </c>
       <c r="C19" s="5" t="str">
@@ -3634,7 +3882,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
-      <c r="B20" s="24">
+      <c r="B20">
         <v>280</v>
       </c>
       <c r="C20" s="18" t="str">
@@ -3648,7 +3896,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="24">
+      <c r="B21">
         <v>290</v>
       </c>
       <c r="C21" s="18" t="str">
@@ -3665,7 +3913,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="24">
+      <c r="B22">
         <v>300</v>
       </c>
       <c r="C22" s="18" t="str">
@@ -3682,7 +3930,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="24">
+      <c r="B23">
         <v>310</v>
       </c>
       <c r="C23" s="5" t="str">
@@ -3696,7 +3944,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
-      <c r="B24" s="24">
+      <c r="B24">
         <v>320</v>
       </c>
       <c r="C24" t="s">
@@ -3707,7 +3955,7 @@
       <c r="A25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25">
         <v>330</v>
       </c>
       <c r="C25" t="str">
@@ -3717,7 +3965,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="24">
+      <c r="B26">
         <v>340</v>
       </c>
       <c r="C26" t="str">
@@ -3727,7 +3975,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
-      <c r="B27" s="24">
+      <c r="B27">
         <v>350</v>
       </c>
       <c r="C27" s="18" t="str">
@@ -3735,7 +3983,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D27" s="18" t="str">
-        <f>A476</f>
+        <f>A477</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E27" t="s">
@@ -3744,7 +3992,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="24">
+      <c r="B28">
         <v>360</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -3753,7 +4001,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
-      <c r="B29" s="24">
+      <c r="B29">
         <v>370</v>
       </c>
       <c r="C29" s="18" t="str">
@@ -3761,7 +4009,7 @@
         <v>CALL GETFILLCHAR(FILLCHAR)</v>
       </c>
       <c r="D29" s="18" t="str">
-        <f>A480</f>
+        <f>A481</f>
         <v>GETFILLCHAR</v>
       </c>
       <c r="E29" t="s">
@@ -3770,7 +4018,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
-      <c r="B30" s="24">
+      <c r="B30">
         <v>380</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -3779,7 +4027,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="24">
+      <c r="B31">
         <v>390</v>
       </c>
       <c r="C31" s="18" t="str">
@@ -3787,7 +4035,7 @@
         <v>CALL GETHITCHAR(HITCHAR)</v>
       </c>
       <c r="D31" s="18" t="str">
-        <f>A484</f>
+        <f>A485</f>
         <v>GETHITCHAR</v>
       </c>
       <c r="E31" t="s">
@@ -3796,7 +4044,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="24">
+      <c r="B32">
         <v>400</v>
       </c>
       <c r="C32" t="s">
@@ -3805,7 +4053,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
-      <c r="B33" s="24">
+      <c r="B33">
         <v>410</v>
       </c>
       <c r="C33" s="18" t="str">
@@ -3813,7 +4061,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D33" s="18" t="str">
-        <f>A488</f>
+        <f>A489</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E33" t="s">
@@ -3822,7 +4070,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="24">
+      <c r="B34">
         <v>420</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3831,7 +4079,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="24">
+      <c r="B35">
         <v>430</v>
       </c>
       <c r="C35" s="18" t="str">
@@ -3839,7 +4087,7 @@
         <v>CALL GETTENCHAR(TENCHAR)</v>
       </c>
       <c r="D35" s="18" t="str">
-        <f>A492</f>
+        <f>A493</f>
         <v>GETTENCHAR</v>
       </c>
       <c r="E35" t="s">
@@ -3848,7 +4096,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="24">
+      <c r="B36">
         <v>440</v>
       </c>
       <c r="C36" t="s">
@@ -3857,7 +4105,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
-      <c r="B37" s="24">
+      <c r="B37">
         <v>450</v>
       </c>
       <c r="C37" s="18" t="str">
@@ -3865,7 +4113,7 @@
         <v>CALL GETMISSCHAR(MISSCHAR)</v>
       </c>
       <c r="D37" s="18" t="str">
-        <f>A496</f>
+        <f>A497</f>
         <v>GETMISSCHAR</v>
       </c>
       <c r="E37" t="s">
@@ -3874,7 +4122,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
-      <c r="B38" s="24">
+      <c r="B38">
         <v>460</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -3883,7 +4131,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="24">
+      <c r="B39">
         <v>470</v>
       </c>
       <c r="C39" s="18" t="str">
@@ -3891,7 +4139,7 @@
         <v>CALL GETSUNKCHAR(SUNKCHAR)</v>
       </c>
       <c r="D39" s="18" t="str">
-        <f>A500</f>
+        <f>A501</f>
         <v>GETSUNKCHAR</v>
       </c>
       <c r="E39" t="s">
@@ -3900,7 +4148,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="24">
+      <c r="B40">
         <v>480</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -3909,7 +4157,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
-      <c r="B41" s="24">
+      <c r="B41">
         <v>490</v>
       </c>
       <c r="C41" t="s">
@@ -3920,7 +4168,7 @@
       <c r="A42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42">
         <v>500</v>
       </c>
       <c r="C42" t="str">
@@ -3930,7 +4178,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
-      <c r="B43" s="24">
+      <c r="B43">
         <v>510</v>
       </c>
       <c r="C43" t="str">
@@ -3940,7 +4188,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
-      <c r="B44" s="24">
+      <c r="B44">
         <v>520</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -3949,7 +4197,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="24">
+      <c r="B45">
         <v>530</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -3958,7 +4206,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="24">
+      <c r="B46">
         <v>540</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -3967,7 +4215,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
-      <c r="B47" s="24">
+      <c r="B47">
         <v>550</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3976,7 +4224,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
-      <c r="B48" s="24">
+      <c r="B48">
         <v>560</v>
       </c>
       <c r="C48" t="s">
@@ -3985,7 +4233,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="24">
+      <c r="B49">
         <v>570</v>
       </c>
       <c r="C49" t="s">
@@ -3994,7 +4242,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="24">
+      <c r="B50">
         <v>580</v>
       </c>
       <c r="C50" t="s">
@@ -4005,7 +4253,7 @@
       <c r="A51" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51">
         <v>590</v>
       </c>
       <c r="C51" t="str">
@@ -4015,7 +4263,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
-      <c r="B52" s="24">
+      <c r="B52">
         <v>600</v>
       </c>
       <c r="C52" t="str">
@@ -4028,7 +4276,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="24">
+      <c r="B53">
         <v>610</v>
       </c>
       <c r="C53" s="18" t="str">
@@ -4045,7 +4293,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
-      <c r="B54" s="24">
+      <c r="B54">
         <v>620</v>
       </c>
       <c r="C54" s="18" t="str">
@@ -4062,7 +4310,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
-      <c r="B55" s="24">
+      <c r="B55">
         <v>630</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -4073,7 +4321,7 @@
       <c r="A56" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56">
         <v>640</v>
       </c>
       <c r="C56" t="str">
@@ -4083,7 +4331,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
-      <c r="B57" s="24">
+      <c r="B57">
         <v>650</v>
       </c>
       <c r="C57" t="str">
@@ -4096,7 +4344,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
-      <c r="B58" s="24">
+      <c r="B58">
         <v>660</v>
       </c>
       <c r="C58" s="18" t="str">
@@ -4104,7 +4352,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f>A504</f>
+        <f>A505</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E58" t="s">
@@ -4113,7 +4361,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="24">
+      <c r="B59">
         <v>670</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -4123,7 +4371,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
-      <c r="B60" s="24">
+      <c r="B60">
         <v>680</v>
       </c>
       <c r="C60" s="18" t="str">
@@ -4140,7 +4388,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
-      <c r="B61" s="24">
+      <c r="B61">
         <v>690</v>
       </c>
       <c r="C61" s="18" t="str">
@@ -4164,7 +4412,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
-      <c r="B62" s="24">
+      <c r="B62">
         <v>700</v>
       </c>
       <c r="C62" s="18" t="str">
@@ -4181,7 +4429,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
-      <c r="B63" s="24">
+      <c r="B63">
         <v>710</v>
       </c>
       <c r="C63" s="18" t="str">
@@ -4195,7 +4443,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
-      <c r="B64" s="24">
+      <c r="B64">
         <v>720</v>
       </c>
       <c r="C64" s="18" t="str">
@@ -4209,7 +4457,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
-      <c r="B65" s="24">
+      <c r="B65">
         <v>730</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -4220,7 +4468,7 @@
       <c r="A66" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66">
         <v>740</v>
       </c>
       <c r="C66" t="str">
@@ -4230,7 +4478,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
-      <c r="B67" s="24">
+      <c r="B67">
         <v>750</v>
       </c>
       <c r="C67" t="str">
@@ -4243,7 +4491,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
-      <c r="B68" s="24">
+      <c r="B68">
         <v>760</v>
       </c>
       <c r="C68" s="18" t="str">
@@ -4251,7 +4499,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D68" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E68" t="s">
@@ -4260,7 +4508,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
-      <c r="B69" s="24">
+      <c r="B69">
         <v>770</v>
       </c>
       <c r="C69" s="18" t="str">
@@ -4277,7 +4525,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
-      <c r="B70" s="24">
+      <c r="B70">
         <v>780</v>
       </c>
       <c r="C70" s="18" t="str">
@@ -4294,7 +4542,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
-      <c r="B71" s="24">
+      <c r="B71">
         <v>790</v>
       </c>
       <c r="C71" s="18" t="str">
@@ -4311,7 +4559,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
-      <c r="B72" s="24">
+      <c r="B72">
         <v>800</v>
       </c>
       <c r="C72" s="18" t="str">
@@ -4328,7 +4576,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
-      <c r="B73" s="24">
+      <c r="B73">
         <v>810</v>
       </c>
       <c r="C73" s="18" t="str">
@@ -4336,7 +4584,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D73" s="18" t="str">
-        <f>A504</f>
+        <f>A505</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E73" t="s">
@@ -4345,7 +4593,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
-      <c r="B74" s="24">
+      <c r="B74">
         <v>820</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -4354,7 +4602,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
-      <c r="B75" s="24">
+      <c r="B75">
         <v>830</v>
       </c>
       <c r="C75" s="18" t="str">
@@ -4362,7 +4610,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D75" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E75" t="s">
@@ -4371,7 +4619,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
-      <c r="B76" s="24">
+      <c r="B76">
         <v>840</v>
       </c>
       <c r="C76" t="s">
@@ -4380,7 +4628,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
-      <c r="B77" s="24">
+      <c r="B77">
         <v>850</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -4389,7 +4637,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
-      <c r="B78" s="24">
+      <c r="B78">
         <v>860</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -4398,7 +4646,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
-      <c r="B79" s="24">
+      <c r="B79">
         <v>870</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -4407,7 +4655,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
-      <c r="B80" s="24">
+      <c r="B80">
         <v>880</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -4418,7 +4666,7 @@
       <c r="A81" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81">
         <v>890</v>
       </c>
       <c r="C81" t="str">
@@ -4428,7 +4676,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
-      <c r="B82" s="24">
+      <c r="B82">
         <v>900</v>
       </c>
       <c r="C82" t="str">
@@ -4441,7 +4689,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
-      <c r="B83" s="24">
+      <c r="B83">
         <v>910</v>
       </c>
       <c r="C83" s="18" t="str">
@@ -4455,7 +4703,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
-      <c r="B84" s="24">
+      <c r="B84">
         <v>920</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -4465,7 +4713,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
-      <c r="B85" s="24">
+      <c r="B85">
         <v>930</v>
       </c>
       <c r="C85" s="18" t="str">
@@ -4473,7 +4721,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D85" s="18" t="str">
-        <f>A504</f>
+        <f>A505</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E85" t="s">
@@ -4482,7 +4730,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
-      <c r="B86" s="24">
+      <c r="B86">
         <v>940</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -4493,7 +4741,7 @@
       <c r="A87" s="20" t="s">
         <v>876</v>
       </c>
-      <c r="B87" s="24">
+      <c r="B87">
         <v>950</v>
       </c>
       <c r="C87" s="5" t="str">
@@ -4503,7 +4751,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
-      <c r="B88" s="24">
+      <c r="B88">
         <v>960</v>
       </c>
       <c r="C88" s="18" t="str">
@@ -4520,7 +4768,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
-      <c r="B89" s="24">
+      <c r="B89">
         <v>970</v>
       </c>
       <c r="C89" s="18" t="str">
@@ -4537,7 +4785,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
-      <c r="B90" s="24">
+      <c r="B90">
         <v>980</v>
       </c>
       <c r="C90" t="s">
@@ -4546,7 +4794,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
-      <c r="B91" s="24">
+      <c r="B91">
         <v>990</v>
       </c>
       <c r="C91" t="s">
@@ -4555,7 +4803,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
-      <c r="B92" s="24">
+      <c r="B92">
         <v>1000</v>
       </c>
       <c r="C92" s="18" t="str">
@@ -4572,7 +4820,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
-      <c r="B93" s="24">
+      <c r="B93">
         <v>1010</v>
       </c>
       <c r="C93" s="5" t="str">
@@ -4586,7 +4834,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
-      <c r="B94" s="24">
+      <c r="B94">
         <v>1020</v>
       </c>
       <c r="C94" s="18" t="str">
@@ -4594,7 +4842,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D94" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E94" t="s">
@@ -4603,7 +4851,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
-      <c r="B95" s="24">
+      <c r="B95">
         <v>1030</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -4612,7 +4860,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
-      <c r="B96" s="24">
+      <c r="B96">
         <v>1040</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -4621,7 +4869,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
-      <c r="B97" s="24">
+      <c r="B97">
         <v>1050</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -4630,7 +4878,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
-      <c r="B98" s="24">
+      <c r="B98">
         <v>1060</v>
       </c>
       <c r="C98" s="18" t="str">
@@ -4647,7 +4895,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="18"/>
-      <c r="B99" s="24">
+      <c r="B99">
         <v>1070</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -4656,7 +4904,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="18"/>
-      <c r="B100" s="24">
+      <c r="B100">
         <v>1080</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -4667,7 +4915,7 @@
       <c r="A101" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="B101" s="24">
+      <c r="B101">
         <v>1090</v>
       </c>
       <c r="C101" t="str">
@@ -4677,7 +4925,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
-      <c r="B102" s="24">
+      <c r="B102">
         <v>1100</v>
       </c>
       <c r="C102" t="str">
@@ -4690,7 +4938,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="18"/>
-      <c r="B103" s="24">
+      <c r="B103">
         <v>1110</v>
       </c>
       <c r="C103" t="s">
@@ -4699,7 +4947,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="18"/>
-      <c r="B104" s="24">
+      <c r="B104">
         <v>1120</v>
       </c>
       <c r="C104" s="18" t="str">
@@ -4707,7 +4955,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D104" s="18" t="str">
-        <f>A504</f>
+        <f>A505</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E104" t="s">
@@ -4716,7 +4964,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="18"/>
-      <c r="B105" s="24">
+      <c r="B105">
         <v>1130</v>
       </c>
       <c r="C105" s="18" t="str">
@@ -4724,7 +4972,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D105" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E105" t="s">
@@ -4733,7 +4981,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
-      <c r="B106" s="24">
+      <c r="B106">
         <v>1140</v>
       </c>
       <c r="C106" s="18" t="str">
@@ -4741,7 +4989,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D106" s="18" t="str">
-        <f>A488</f>
+        <f>A489</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E106" t="s">
@@ -4750,7 +4998,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="18"/>
-      <c r="B107" s="24">
+      <c r="B107">
         <v>1150</v>
       </c>
       <c r="C107" t="s">
@@ -4761,7 +5009,7 @@
       <c r="A108" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="B108" s="24">
+      <c r="B108">
         <v>1160</v>
       </c>
       <c r="C108" s="5" t="str">
@@ -4771,7 +5019,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="18"/>
-      <c r="B109" s="24">
+      <c r="B109">
         <v>1170</v>
       </c>
       <c r="C109" s="18" t="str">
@@ -4779,7 +5027,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D109" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E109" t="s">
@@ -4788,7 +5036,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="18"/>
-      <c r="B110" s="24">
+      <c r="B110">
         <v>1180</v>
       </c>
       <c r="C110" t="s">
@@ -4797,7 +5045,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
-      <c r="B111" s="24">
+      <c r="B111">
         <v>1190</v>
       </c>
       <c r="C111" t="s">
@@ -4806,7 +5054,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
-      <c r="B112" s="24">
+      <c r="B112">
         <v>1200</v>
       </c>
       <c r="C112" t="s">
@@ -4815,7 +5063,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="18"/>
-      <c r="B113" s="24">
+      <c r="B113">
         <v>1210</v>
       </c>
       <c r="C113" t="s">
@@ -4824,7 +5072,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="18"/>
-      <c r="B114" s="24">
+      <c r="B114">
         <v>1220</v>
       </c>
       <c r="C114" t="s">
@@ -4833,7 +5081,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
-      <c r="B115" s="24">
+      <c r="B115">
         <v>1230</v>
       </c>
       <c r="C115" t="s">
@@ -4842,7 +5090,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="18"/>
-      <c r="B116" s="24">
+      <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -4851,7 +5099,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="18"/>
-      <c r="B117" s="24">
+      <c r="B117">
         <v>1250</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -4860,7 +5108,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="18"/>
-      <c r="B118" s="24">
+      <c r="B118">
         <v>1260</v>
       </c>
       <c r="C118" s="18" t="str">
@@ -4868,7 +5116,7 @@
         <v>CALL CHECKOVERLAP(SHIPERR,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
       </c>
       <c r="D118" s="18" t="str">
-        <f>A461</f>
+        <f>A462</f>
         <v>CHECKOVERLAP</v>
       </c>
       <c r="E118" t="s">
@@ -4877,7 +5125,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="18"/>
-      <c r="B119" s="24">
+      <c r="B119">
         <v>1270</v>
       </c>
       <c r="C119" t="str">
@@ -4891,7 +5139,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="18"/>
-      <c r="B120" s="24">
+      <c r="B120">
         <v>1280</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -4900,7 +5148,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="18"/>
-      <c r="B121" s="24">
+      <c r="B121">
         <v>1290</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -4909,7 +5157,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="18"/>
-      <c r="B122" s="24">
+      <c r="B122">
         <v>1300</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -4918,7 +5166,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="18"/>
-      <c r="B123" s="24">
+      <c r="B123">
         <v>1310</v>
       </c>
       <c r="C123" s="18" t="str">
@@ -4926,7 +5174,7 @@
         <v>CALL GETDEBUGFLAG(DEBUG)</v>
       </c>
       <c r="D123" s="18" t="str">
-        <f>A530</f>
+        <f>A531</f>
         <v>GETDEBUGFLAG</v>
       </c>
       <c r="E123" t="s">
@@ -4936,7 +5184,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="18"/>
-      <c r="B124" s="24">
+      <c r="B124">
         <v>1320</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -4946,7 +5194,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="18"/>
-      <c r="B125" s="24">
+      <c r="B125">
         <v>1330</v>
       </c>
       <c r="C125" s="18" t="str">
@@ -4963,7 +5211,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="18"/>
-      <c r="B126" s="24">
+      <c r="B126">
         <v>1340</v>
       </c>
       <c r="C126" t="s">
@@ -4972,7 +5220,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="18"/>
-      <c r="B127" s="24">
+      <c r="B127">
         <v>1350</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -4983,7 +5231,7 @@
       <c r="A128" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="B128" s="24">
+      <c r="B128">
         <v>1360</v>
       </c>
       <c r="C128" t="str">
@@ -4993,7 +5241,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="18"/>
-      <c r="B129" s="24">
+      <c r="B129">
         <v>1370</v>
       </c>
       <c r="C129" t="str">
@@ -5006,7 +5254,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="18"/>
-      <c r="B130" s="24">
+      <c r="B130">
         <v>1380</v>
       </c>
       <c r="C130" s="18" t="str">
@@ -5020,7 +5268,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="18"/>
-      <c r="B131" s="24">
+      <c r="B131">
         <v>1390</v>
       </c>
       <c r="C131" s="18" t="str">
@@ -5034,7 +5282,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="18"/>
-      <c r="B132" s="24">
+      <c r="B132">
         <v>1400</v>
       </c>
       <c r="C132" t="s">
@@ -5043,7 +5291,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="18"/>
-      <c r="B133" s="24">
+      <c r="B133">
         <v>1410</v>
       </c>
       <c r="C133" t="s">
@@ -5052,7 +5300,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="18"/>
-      <c r="B134" s="24">
+      <c r="B134">
         <v>1420</v>
       </c>
       <c r="C134" t="s">
@@ -5061,7 +5309,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="18"/>
-      <c r="B135" s="24">
+      <c r="B135">
         <v>1430</v>
       </c>
       <c r="C135" s="18" t="str">
@@ -5069,7 +5317,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D135" s="18" t="str">
-        <f>A504</f>
+        <f>A505</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E135" t="s">
@@ -5078,7 +5326,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="18"/>
-      <c r="B136" s="24">
+      <c r="B136">
         <v>1440</v>
       </c>
       <c r="C136" t="s">
@@ -5087,7 +5335,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="18"/>
-      <c r="B137" s="24">
+      <c r="B137">
         <v>1450</v>
       </c>
       <c r="C137" s="18" t="str">
@@ -5095,7 +5343,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,I)</v>
       </c>
       <c r="D137" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E137" t="s">
@@ -5104,7 +5352,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="18"/>
-      <c r="B138" s="24">
+      <c r="B138">
         <v>1460</v>
       </c>
       <c r="C138" t="s">
@@ -5113,7 +5361,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="18"/>
-      <c r="B139" s="24">
+      <c r="B139">
         <v>1470</v>
       </c>
       <c r="C139" t="s">
@@ -5122,7 +5370,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="18"/>
-      <c r="B140" s="24">
+      <c r="B140">
         <v>1480</v>
       </c>
       <c r="C140" t="s">
@@ -5131,7 +5379,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="18"/>
-      <c r="B141" s="24">
+      <c r="B141">
         <v>1490</v>
       </c>
       <c r="C141" t="s">
@@ -5140,7 +5388,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="18"/>
-      <c r="B142" s="24">
+      <c r="B142">
         <v>1500</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -5149,7 +5397,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="18"/>
-      <c r="B143" s="24">
+      <c r="B143">
         <v>1510</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -5160,7 +5408,7 @@
       <c r="A144" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="B144" s="24">
+      <c r="B144">
         <v>1520</v>
       </c>
       <c r="C144" s="5" t="str">
@@ -5170,7 +5418,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="20"/>
-      <c r="B145" s="24">
+      <c r="B145">
         <v>1530</v>
       </c>
       <c r="C145" s="18" t="str">
@@ -5187,7 +5435,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="20"/>
-      <c r="B146" s="24">
+      <c r="B146">
         <v>1540</v>
       </c>
       <c r="C146" s="21" t="s">
@@ -5197,7 +5445,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="20"/>
-      <c r="B147" s="24">
+      <c r="B147">
         <v>1550</v>
       </c>
       <c r="C147" s="18" t="str">
@@ -5214,7 +5462,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="20"/>
-      <c r="B148" s="24">
+      <c r="B148">
         <v>1560</v>
       </c>
       <c r="C148" s="5" t="str">
@@ -5228,7 +5476,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="20"/>
-      <c r="B149" s="24">
+      <c r="B149">
         <v>1570</v>
       </c>
       <c r="C149" s="21" t="s">
@@ -5238,7 +5486,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="20"/>
-      <c r="B150" s="24">
+      <c r="B150">
         <v>1580</v>
       </c>
       <c r="C150" s="18" t="str">
@@ -5255,7 +5503,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="18"/>
-      <c r="B151" s="24">
+      <c r="B151">
         <v>1590</v>
       </c>
       <c r="C151" s="5" t="str">
@@ -5269,7 +5517,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="20"/>
-      <c r="B152" s="24">
+      <c r="B152">
         <v>1600</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -5279,7 +5527,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="18"/>
-      <c r="B153" s="24">
+      <c r="B153">
         <v>1610</v>
       </c>
       <c r="C153" s="5" t="str">
@@ -5295,7 +5543,7 @@
       <c r="A154" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="B154" s="24">
+      <c r="B154">
         <v>1620</v>
       </c>
       <c r="C154" s="5" t="str">
@@ -5306,7 +5554,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="20"/>
-      <c r="B155" s="24">
+      <c r="B155">
         <v>1630</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -5316,7 +5564,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="18"/>
-      <c r="B156" s="24">
+      <c r="B156">
         <v>1640</v>
       </c>
       <c r="C156" s="18" t="str">
@@ -5333,12 +5581,12 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="18"/>
-      <c r="B157" s="24">
+      <c r="B157">
         <v>1650</v>
       </c>
       <c r="C157" s="21" t="str">
-        <f>_xlfn.CONCAT("IF PLAYAGAIN$=""Y"" THEN ",INDEX(B:B,MATCH(D157,A:A,0),0)," :: REM GOTO ",D157,"")</f>
-        <v>IF PLAYAGAIN$="Y" THEN 1680 :: REM GOTO PLAYGAME.SUBEND</v>
+        <f>_xlfn.CONCAT("IF PLAYAGAIN$=""Y"" THEN ",INDEX(B:B,MATCH(D157,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF PLAYAGAIN$="Y" THEN 1680 :: REM SUBEND</v>
       </c>
       <c r="D157" s="20" t="str">
         <f>A160</f>
@@ -5347,7 +5595,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="18"/>
-      <c r="B158" s="24">
+      <c r="B158">
         <v>1660</v>
       </c>
       <c r="C158" s="21" t="s">
@@ -5357,7 +5605,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="18"/>
-      <c r="B159" s="24">
+      <c r="B159">
         <v>1670</v>
       </c>
       <c r="C159" s="21" t="s">
@@ -5370,7 +5618,7 @@
         <f>_xlfn.CONCAT(A128,".SUBEND")</f>
         <v>PLAYGAME.SUBEND</v>
       </c>
-      <c r="B160" s="24">
+      <c r="B160">
         <v>1680</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -5381,7 +5629,7 @@
       <c r="A161" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="B161" s="24">
+      <c r="B161">
         <v>1690</v>
       </c>
       <c r="C161" t="str">
@@ -5391,7 +5639,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="20"/>
-      <c r="B162" s="24">
+      <c r="B162">
         <v>1700</v>
       </c>
       <c r="C162" t="str">
@@ -5404,7 +5652,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="20"/>
-      <c r="B163" s="24">
+      <c r="B163">
         <v>1710</v>
       </c>
       <c r="C163" s="18" t="str">
@@ -5425,7 +5673,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="20"/>
-      <c r="B164" s="24">
+      <c r="B164">
         <v>1720</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -5436,7 +5684,7 @@
       <c r="A165" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="B165" s="24">
+      <c r="B165">
         <v>1730</v>
       </c>
       <c r="C165" t="str">
@@ -5446,7 +5694,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="20"/>
-      <c r="B166" s="24">
+      <c r="B166">
         <v>1740</v>
       </c>
       <c r="C166" t="str">
@@ -5458,7 +5706,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B167" s="24">
+      <c r="B167">
         <v>1750</v>
       </c>
       <c r="C167" s="18" t="str">
@@ -5474,7 +5722,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B168" s="24">
+      <c r="B168">
         <v>1760</v>
       </c>
       <c r="C168" t="s">
@@ -5483,7 +5731,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="20"/>
-      <c r="B169" s="24">
+      <c r="B169">
         <v>1770</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -5494,7 +5742,7 @@
       <c r="A170" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="B170" s="24">
+      <c r="B170">
         <v>1780</v>
       </c>
       <c r="C170" t="str">
@@ -5504,7 +5752,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="20"/>
-      <c r="B171" s="24">
+      <c r="B171">
         <v>1790</v>
       </c>
       <c r="C171" t="str">
@@ -5517,7 +5765,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="20"/>
-      <c r="B172" s="24">
+      <c r="B172">
         <v>1800</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -5526,7 +5774,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="20"/>
-      <c r="B173" s="24">
+      <c r="B173">
         <v>1810</v>
       </c>
       <c r="C173" s="18" t="str">
@@ -5534,7 +5782,7 @@
         <v>CALL GETMENUORIG(MROW,MCOL)</v>
       </c>
       <c r="D173" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E173" t="s">
@@ -5543,7 +5791,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="20"/>
-      <c r="B174" s="24">
+      <c r="B174">
         <v>1820</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -5553,7 +5801,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="20"/>
-      <c r="B175" s="24">
+      <c r="B175">
         <v>1830</v>
       </c>
       <c r="C175" s="5" t="s">
@@ -5563,7 +5811,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="20"/>
-      <c r="B176" s="24">
+      <c r="B176">
         <v>1840</v>
       </c>
       <c r="C176" s="18" t="str">
@@ -5580,7 +5828,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="20"/>
-      <c r="B177" s="24">
+      <c r="B177">
         <v>1850</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -5591,7 +5839,7 @@
       <c r="A178" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="B178" s="24">
+      <c r="B178">
         <v>1860</v>
       </c>
       <c r="C178" t="str">
@@ -5601,7 +5849,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
-      <c r="B179" s="24">
+      <c r="B179">
         <v>1870</v>
       </c>
       <c r="C179" t="str">
@@ -5614,7 +5862,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="18"/>
-      <c r="B180" s="24">
+      <c r="B180">
         <v>1880</v>
       </c>
       <c r="C180" s="21" t="s">
@@ -5623,7 +5871,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="18"/>
-      <c r="B181" s="24">
+      <c r="B181">
         <v>1890</v>
       </c>
       <c r="C181" s="21" t="s">
@@ -5632,7 +5880,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="18"/>
-      <c r="B182" s="24">
+      <c r="B182">
         <v>1900</v>
       </c>
       <c r="C182" s="18" t="str">
@@ -5640,7 +5888,7 @@
         <v>CALL CHECKHIT(HIT,SHIP,(LOC),(1-PLAYER),SHIPS(,,))</v>
       </c>
       <c r="D182" s="18" t="str">
-        <f>A422</f>
+        <f>A423</f>
         <v>CHECKHIT</v>
       </c>
       <c r="E182" t="s">
@@ -5649,7 +5897,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="18"/>
-      <c r="B183" s="24">
+      <c r="B183">
         <v>1910</v>
       </c>
       <c r="C183" s="18" t="str">
@@ -5666,12 +5914,12 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="18"/>
-      <c r="B184" s="24">
+      <c r="B184">
         <v>1920</v>
       </c>
       <c r="C184" s="5" t="str">
-        <f>_xlfn.CONCAT("IF HIT=0 THEN ",INDEX(B:B,MATCH(D184,A:A,0),0)," :: REM GOTO ",D184,"")</f>
-        <v>IF HIT=0 THEN 1980 :: REM GOTO PROCESSSHOT.SUBEND</v>
+        <f>_xlfn.CONCAT("IF HIT=0 THEN ",INDEX(B:B,MATCH(D184,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF HIT=0 THEN 1980 :: REM SUBEND</v>
       </c>
       <c r="D184" s="20" t="str">
         <f>A190</f>
@@ -5680,7 +5928,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="18"/>
-      <c r="B185" s="24">
+      <c r="B185">
         <v>1930</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -5689,12 +5937,12 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="18"/>
-      <c r="B186" s="24">
+      <c r="B186">
         <v>1940</v>
       </c>
       <c r="C186" s="5" t="str">
-        <f>_xlfn.CONCAT("IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN ",INDEX(B:B,MATCH(D186,A:A,0),0)," :: REM GOTO ",D186,"")</f>
-        <v>IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN 1980 :: REM GOTO PROCESSSHOT.SUBEND</v>
+        <f>_xlfn.CONCAT("IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN ",INDEX(B:B,MATCH(D186,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN 1980 :: REM SUBEND</v>
       </c>
       <c r="D186" s="20" t="str">
         <f>A190</f>
@@ -5703,7 +5951,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="18"/>
-      <c r="B187" s="24">
+      <c r="B187">
         <v>1950</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -5712,7 +5960,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="18"/>
-      <c r="B188" s="24">
+      <c r="B188">
         <v>1960</v>
       </c>
       <c r="C188" s="18" t="str">
@@ -5729,7 +5977,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="18"/>
-      <c r="B189" s="24">
+      <c r="B189">
         <v>1970</v>
       </c>
       <c r="C189" s="21" t="s">
@@ -5741,7 +5989,7 @@
         <f>_xlfn.CONCAT(A178,".SUBEND")</f>
         <v>PROCESSSHOT.SUBEND</v>
       </c>
-      <c r="B190" s="24">
+      <c r="B190">
         <v>1980</v>
       </c>
       <c r="C190" s="5" t="s">
@@ -5752,7 +6000,7 @@
       <c r="A191" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="B191" s="24">
+      <c r="B191">
         <v>1990</v>
       </c>
       <c r="C191" t="str">
@@ -5762,7 +6010,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="18"/>
-      <c r="B192" s="24">
+      <c r="B192">
         <v>2000</v>
       </c>
       <c r="C192" t="str">
@@ -5775,7 +6023,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="18"/>
-      <c r="B193" s="24">
+      <c r="B193">
         <v>2010</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -5784,7 +6032,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="18"/>
-      <c r="B194" s="24">
+      <c r="B194">
         <v>2020</v>
       </c>
       <c r="C194" s="5" t="s">
@@ -5793,7 +6041,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="18"/>
-      <c r="B195" s="24">
+      <c r="B195">
         <v>2030</v>
       </c>
       <c r="C195" s="5" t="s">
@@ -5802,7 +6050,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="18"/>
-      <c r="B196" s="24">
+      <c r="B196">
         <v>2040</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -5811,7 +6059,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="18"/>
-      <c r="B197" s="24">
+      <c r="B197">
         <v>2050</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -5820,7 +6068,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="18"/>
-      <c r="B198" s="24">
+      <c r="B198">
         <v>2060</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -5831,7 +6079,7 @@
       <c r="A199" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="B199" s="24">
+      <c r="B199">
         <v>2070</v>
       </c>
       <c r="C199" t="str">
@@ -5841,7 +6089,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="18"/>
-      <c r="B200" s="24">
+      <c r="B200">
         <v>2080</v>
       </c>
       <c r="C200" t="str">
@@ -5851,7 +6099,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="18"/>
-      <c r="B201" s="24">
+      <c r="B201">
         <v>2090</v>
       </c>
       <c r="C201" t="s">
@@ -5860,7 +6108,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="18"/>
-      <c r="B202" s="24">
+      <c r="B202">
         <v>2100</v>
       </c>
       <c r="C202" t="s">
@@ -5869,7 +6117,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="18"/>
-      <c r="B203" s="24">
+      <c r="B203">
         <v>2110</v>
       </c>
       <c r="C203" s="18" t="str">
@@ -5883,7 +6131,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="18"/>
-      <c r="B204" s="24">
+      <c r="B204">
         <v>2120</v>
       </c>
       <c r="C204" s="18" t="str">
@@ -5897,7 +6145,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="18"/>
-      <c r="B205" s="24">
+      <c r="B205">
         <v>2130</v>
       </c>
       <c r="C205" t="s">
@@ -5908,7 +6156,7 @@
       <c r="A206" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="B206" s="24">
+      <c r="B206">
         <v>2140</v>
       </c>
       <c r="C206" t="str">
@@ -5918,7 +6166,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="18"/>
-      <c r="B207" s="24">
+      <c r="B207">
         <v>2150</v>
       </c>
       <c r="C207" t="str">
@@ -5928,7 +6176,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="18"/>
-      <c r="B208" s="24">
+      <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" s="18" t="str">
@@ -5942,7 +6190,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="18"/>
-      <c r="B209" s="24">
+      <c r="B209">
         <v>2170</v>
       </c>
       <c r="C209" s="18" t="str">
@@ -5956,7 +6204,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="18"/>
-      <c r="B210" s="24">
+      <c r="B210">
         <v>2180</v>
       </c>
       <c r="C210" s="18" t="str">
@@ -5970,7 +6218,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="18"/>
-      <c r="B211" s="24">
+      <c r="B211">
         <v>2190</v>
       </c>
       <c r="C211" t="s">
@@ -5981,7 +6229,7 @@
       <c r="A212" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="B212" s="24">
+      <c r="B212">
         <v>2200</v>
       </c>
       <c r="C212" t="str">
@@ -5991,7 +6239,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="18"/>
-      <c r="B213" s="24">
+      <c r="B213">
         <v>2210</v>
       </c>
       <c r="C213" t="str">
@@ -6001,7 +6249,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="18"/>
-      <c r="B214" s="24">
+      <c r="B214">
         <v>2220</v>
       </c>
       <c r="C214" s="18" t="str">
@@ -6009,7 +6257,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D214" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E214" t="s">
@@ -6018,7 +6266,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="18"/>
-      <c r="B215" s="24">
+      <c r="B215">
         <v>2230</v>
       </c>
       <c r="C215" s="18" t="str">
@@ -6026,7 +6274,7 @@
         <v>CALL GETFILLCHAR(FILLCHAR)</v>
       </c>
       <c r="D215" s="18" t="str">
-        <f>A480</f>
+        <f>A481</f>
         <v>GETFILLCHAR</v>
       </c>
       <c r="E215" t="s">
@@ -6035,7 +6283,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="18"/>
-      <c r="B216" s="24">
+      <c r="B216">
         <v>2240</v>
       </c>
       <c r="C216" t="s">
@@ -6044,7 +6292,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="18"/>
-      <c r="B217" s="24">
+      <c r="B217">
         <v>2250</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -6053,7 +6301,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="18"/>
-      <c r="B218" s="24">
+      <c r="B218">
         <v>2260</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -6062,7 +6310,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="18"/>
-      <c r="B219" s="24">
+      <c r="B219">
         <v>2270</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -6073,7 +6321,7 @@
       <c r="A220" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="B220" s="24">
+      <c r="B220">
         <v>2280</v>
       </c>
       <c r="C220" t="str">
@@ -6083,7 +6331,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="18"/>
-      <c r="B221" s="24">
+      <c r="B221">
         <v>2290</v>
       </c>
       <c r="C221" t="str">
@@ -6093,7 +6341,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="18"/>
-      <c r="B222" s="24">
+      <c r="B222">
         <v>2300</v>
       </c>
       <c r="C222" s="18" t="str">
@@ -6101,7 +6349,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D222" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E222" t="s">
@@ -6110,7 +6358,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="18"/>
-      <c r="B223" s="24">
+      <c r="B223">
         <v>2310</v>
       </c>
       <c r="C223" s="18" t="str">
@@ -6118,7 +6366,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D223" s="18" t="str">
-        <f>A476</f>
+        <f>A477</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E223" t="s">
@@ -6127,7 +6375,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="18"/>
-      <c r="B224" s="24">
+      <c r="B224">
         <v>2320</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -6136,7 +6384,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="18"/>
-      <c r="B225" s="24">
+      <c r="B225">
         <v>2330</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -6145,7 +6393,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="18"/>
-      <c r="B226" s="24">
+      <c r="B226">
         <v>2340</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -6154,7 +6402,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="18"/>
-      <c r="B227" s="24">
+      <c r="B227">
         <v>2350</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -6163,7 +6411,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="18"/>
-      <c r="B228" s="24">
+      <c r="B228">
         <v>2360</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -6172,7 +6420,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="18"/>
-      <c r="B229" s="24">
+      <c r="B229">
         <v>2370</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -6183,7 +6431,7 @@
       <c r="A230" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="B230" s="24">
+      <c r="B230">
         <v>2380</v>
       </c>
       <c r="C230" t="str">
@@ -6193,7 +6441,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="18"/>
-      <c r="B231" s="24">
+      <c r="B231">
         <v>2390</v>
       </c>
       <c r="C231" t="str">
@@ -6203,7 +6451,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="18"/>
-      <c r="B232" s="24">
+      <c r="B232">
         <v>2400</v>
       </c>
       <c r="C232" s="18" t="str">
@@ -6211,7 +6459,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D232" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E232" t="s">
@@ -6220,7 +6468,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
-      <c r="B233" s="24">
+      <c r="B233">
         <v>2410</v>
       </c>
       <c r="C233" s="18" t="str">
@@ -6228,7 +6476,7 @@
         <v>CALL GETTENCHAR(TENCHAR)</v>
       </c>
       <c r="D233" s="18" t="str">
-        <f>A492</f>
+        <f>A493</f>
         <v>GETTENCHAR</v>
       </c>
       <c r="E233" t="s">
@@ -6237,7 +6485,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="18"/>
-      <c r="B234" s="24">
+      <c r="B234">
         <v>2420</v>
       </c>
       <c r="C234" s="5" t="s">
@@ -6246,7 +6494,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="18"/>
-      <c r="B235" s="24">
+      <c r="B235">
         <v>2430</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -6255,7 +6503,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="18"/>
-      <c r="B236" s="24">
+      <c r="B236">
         <v>2440</v>
       </c>
       <c r="C236" s="5" t="s">
@@ -6264,7 +6512,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
-      <c r="B237" s="24">
+      <c r="B237">
         <v>2450</v>
       </c>
       <c r="C237" s="5" t="s">
@@ -6273,7 +6521,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="18"/>
-      <c r="B238" s="24">
+      <c r="B238">
         <v>2460</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -6282,7 +6530,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="18"/>
-      <c r="B239" s="24">
+      <c r="B239">
         <v>2470</v>
       </c>
       <c r="C239" s="5" t="s">
@@ -6291,7 +6539,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="18"/>
-      <c r="B240" s="24">
+      <c r="B240">
         <v>2480</v>
       </c>
       <c r="C240" s="5" t="s">
@@ -6300,7 +6548,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="18"/>
-      <c r="B241" s="24">
+      <c r="B241">
         <v>2490</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -6309,7 +6557,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="18"/>
-      <c r="B242" s="24">
+      <c r="B242">
         <v>2500</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -6318,7 +6566,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="18"/>
-      <c r="B243" s="24">
+      <c r="B243">
         <v>2510</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -6329,7 +6577,7 @@
       <c r="A244" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="B244" s="24">
+      <c r="B244">
         <v>2520</v>
       </c>
       <c r="C244" t="str">
@@ -6339,7 +6587,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="18"/>
-      <c r="B245" s="24">
+      <c r="B245">
         <v>2530</v>
       </c>
       <c r="C245" t="str">
@@ -6349,7 +6597,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="18"/>
-      <c r="B246" s="24">
+      <c r="B246">
         <v>2540</v>
       </c>
       <c r="C246" s="18" t="str">
@@ -6357,7 +6605,7 @@
         <v>CALL GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D246" s="18" t="str">
-        <f>A522</f>
+        <f>A523</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E246" t="s">
@@ -6366,7 +6614,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="18"/>
-      <c r="B247" s="24">
+      <c r="B247">
         <v>2550</v>
       </c>
       <c r="C247" s="18" t="str">
@@ -6374,7 +6622,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D247" s="18" t="str">
-        <f>A476</f>
+        <f>A477</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E247" t="s">
@@ -6383,7 +6631,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="18"/>
-      <c r="B248" s="24">
+      <c r="B248">
         <v>2560</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -6392,7 +6640,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="18"/>
-      <c r="B249" s="24">
+      <c r="B249">
         <v>2570</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -6401,7 +6649,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="18"/>
-      <c r="B250" s="24">
+      <c r="B250">
         <v>2580</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -6410,7 +6658,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="18"/>
-      <c r="B251" s="24">
+      <c r="B251">
         <v>2590</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -6421,7 +6669,7 @@
       <c r="A252" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="B252" s="24">
+      <c r="B252">
         <v>2600</v>
       </c>
       <c r="C252" t="str">
@@ -6431,7 +6679,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="18"/>
-      <c r="B253" s="24">
+      <c r="B253">
         <v>2610</v>
       </c>
       <c r="C253" t="str">
@@ -6444,7 +6692,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="18"/>
-      <c r="B254" s="24">
+      <c r="B254">
         <v>2620</v>
       </c>
       <c r="C254" s="18" t="str">
@@ -6452,7 +6700,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D254" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E254" t="s">
@@ -6461,7 +6709,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="18"/>
-      <c r="B255" s="24">
+      <c r="B255">
         <v>2630</v>
       </c>
       <c r="C255" s="18" t="str">
@@ -6469,7 +6717,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D255" s="18" t="str">
-        <f>A488</f>
+        <f>A489</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E255" t="s">
@@ -6478,7 +6726,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="18"/>
-      <c r="B256" s="24">
+      <c r="B256">
         <v>2640</v>
       </c>
       <c r="C256" s="18" t="str">
@@ -6486,7 +6734,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D256" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E256" t="s">
@@ -6495,7 +6743,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="18"/>
-      <c r="B257" s="24">
+      <c r="B257">
         <v>2650</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -6504,7 +6752,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
-      <c r="B258" s="24">
+      <c r="B258">
         <v>2660</v>
       </c>
       <c r="C258" s="5" t="s">
@@ -6513,7 +6761,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="18"/>
-      <c r="B259" s="24">
+      <c r="B259">
         <v>2670</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -6522,7 +6770,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="18"/>
-      <c r="B260" s="24">
+      <c r="B260">
         <v>2680</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -6531,7 +6779,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="18"/>
-      <c r="B261" s="24">
+      <c r="B261">
         <v>2690</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -6542,7 +6790,7 @@
       <c r="A262" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="B262" s="24">
+      <c r="B262">
         <v>2700</v>
       </c>
       <c r="C262" t="str">
@@ -6552,7 +6800,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="18"/>
-      <c r="B263" s="24">
+      <c r="B263">
         <v>2710</v>
       </c>
       <c r="C263" t="str">
@@ -6565,7 +6813,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="18"/>
-      <c r="B264" s="24">
+      <c r="B264">
         <v>2720</v>
       </c>
       <c r="C264" s="18" t="str">
@@ -6573,7 +6821,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D264" s="18" t="str">
-        <f>A504</f>
+        <f>A505</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E264" t="s">
@@ -6582,7 +6830,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="18"/>
-      <c r="B265" s="24">
+      <c r="B265">
         <v>2730</v>
       </c>
       <c r="C265" s="18" t="str">
@@ -6590,7 +6838,7 @@
         <v>CALL GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D265" s="18" t="str">
-        <f>A522</f>
+        <f>A523</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E265" t="s">
@@ -6599,7 +6847,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
-      <c r="B266" s="24">
+      <c r="B266">
         <v>2740</v>
       </c>
       <c r="C266" s="18" t="str">
@@ -6607,7 +6855,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D266" s="18" t="str">
-        <f>A488</f>
+        <f>A489</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E266" t="s">
@@ -6616,7 +6864,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="18"/>
-      <c r="B267" s="24">
+      <c r="B267">
         <v>2750</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -6625,7 +6873,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
-      <c r="B268" s="24">
+      <c r="B268">
         <v>2760</v>
       </c>
       <c r="C268" s="18" t="str">
@@ -6633,7 +6881,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D268" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E268" t="s">
@@ -6642,7 +6890,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
-      <c r="B269" s="24">
+      <c r="B269">
         <v>2770</v>
       </c>
       <c r="C269" t="s">
@@ -6651,7 +6899,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="18"/>
-      <c r="B270" s="24">
+      <c r="B270">
         <v>2780</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -6660,7 +6908,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="18"/>
-      <c r="B271" s="24">
+      <c r="B271">
         <v>2790</v>
       </c>
       <c r="C271" s="5" t="s">
@@ -6669,7 +6917,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="18"/>
-      <c r="B272" s="24">
+      <c r="B272">
         <v>2800</v>
       </c>
       <c r="C272" t="s">
@@ -6678,7 +6926,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="18"/>
-      <c r="B273" s="24">
+      <c r="B273">
         <v>2810</v>
       </c>
       <c r="C273" s="5" t="s">
@@ -6687,7 +6935,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="18"/>
-      <c r="B274" s="24">
+      <c r="B274">
         <v>2820</v>
       </c>
       <c r="C274" s="5" t="s">
@@ -6698,7 +6946,7 @@
       <c r="A275" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="B275" s="24">
+      <c r="B275">
         <v>2830</v>
       </c>
       <c r="C275" t="str">
@@ -6708,7 +6956,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="18"/>
-      <c r="B276" s="24">
+      <c r="B276">
         <v>2840</v>
       </c>
       <c r="C276" t="str">
@@ -6721,7 +6969,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="18"/>
-      <c r="B277" s="24">
+      <c r="B277">
         <v>2850</v>
       </c>
       <c r="C277" s="18" t="str">
@@ -6729,7 +6977,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D277" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E277" t="s">
@@ -6738,7 +6986,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="18"/>
-      <c r="B278" s="24">
+      <c r="B278">
         <v>2860</v>
       </c>
       <c r="C278" s="5" t="s">
@@ -6747,7 +6995,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="18"/>
-      <c r="B279" s="24">
+      <c r="B279">
         <v>2870</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -6756,7 +7004,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="18"/>
-      <c r="B280" s="24">
+      <c r="B280">
         <v>2880</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -6765,7 +7013,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="18"/>
-      <c r="B281" s="24">
+      <c r="B281">
         <v>2890</v>
       </c>
       <c r="C281" s="18" t="str">
@@ -6782,7 +7030,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="18"/>
-      <c r="B282" s="24">
+      <c r="B282">
         <v>2900</v>
       </c>
       <c r="C282" s="18" t="str">
@@ -6790,7 +7038,7 @@
         <v>IF HIT=1 THEN CALL GETHITCHAR(CHARVAL) ELSE CALL GETMISSCHAR(CHARVAL)</v>
       </c>
       <c r="D282" s="18" t="str">
-        <f>A484</f>
+        <f>A485</f>
         <v>GETHITCHAR</v>
       </c>
       <c r="E282" s="18" t="s">
@@ -6802,7 +7050,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="18"/>
-      <c r="B283" s="24">
+      <c r="B283">
         <v>2910</v>
       </c>
       <c r="C283" s="18" t="str">
@@ -6810,11 +7058,11 @@
         <v>IF PLAYER=1 THEN CALL GETAUXORIG(ROW,COL) ELSE CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D283" s="18" t="str">
-        <f>A522</f>
+        <f>A523</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E283" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="F283" t="s">
@@ -6823,7 +7071,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="18"/>
-      <c r="B284" s="24">
+      <c r="B284">
         <v>2920</v>
       </c>
       <c r="C284" s="5" t="s">
@@ -6834,7 +7082,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="18"/>
-      <c r="B285" s="24">
+      <c r="B285">
         <v>2930</v>
       </c>
       <c r="C285" s="21" t="s">
@@ -6845,7 +7093,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="18"/>
-      <c r="B286" s="24">
+      <c r="B286">
         <v>2940</v>
       </c>
       <c r="C286" s="21" t="s">
@@ -6856,7 +7104,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="18"/>
-      <c r="B287" s="24">
+      <c r="B287">
         <v>2950</v>
       </c>
       <c r="C287" s="21" t="s">
@@ -6867,7 +7115,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="18"/>
-      <c r="B288" s="24">
+      <c r="B288">
         <v>2960</v>
       </c>
       <c r="C288" s="5" t="s">
@@ -6878,7 +7126,7 @@
       <c r="A289" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="B289" s="24">
+      <c r="B289">
         <v>2970</v>
       </c>
       <c r="C289" t="str">
@@ -6888,7 +7136,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="18"/>
-      <c r="B290" s="24">
+      <c r="B290">
         <v>2980</v>
       </c>
       <c r="C290" t="str">
@@ -6901,7 +7149,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="18"/>
-      <c r="B291" s="24">
+      <c r="B291">
         <v>2990</v>
       </c>
       <c r="C291" s="18" t="str">
@@ -6909,7 +7157,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(SHIP))</v>
       </c>
       <c r="D291" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E291" t="s">
@@ -6918,7 +7166,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="18"/>
-      <c r="B292" s="24">
+      <c r="B292">
         <v>3000</v>
       </c>
       <c r="C292" s="18" t="str">
@@ -6926,11 +7174,11 @@
         <v>IF PLAYER=0 THEN CALL GETAUXORIG(ROW,COL) ELSE CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D292" s="18" t="str">
-        <f>A522</f>
+        <f>A523</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E292" s="18" t="str">
-        <f>A518</f>
+        <f>A519</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="F292" t="s">
@@ -6939,7 +7187,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="18"/>
-      <c r="B293" s="24">
+      <c r="B293">
         <v>3010</v>
       </c>
       <c r="C293" s="18" t="str">
@@ -6947,7 +7195,7 @@
         <v>CALL GETSUNKCHAR(SUNKCHAR)</v>
       </c>
       <c r="D293" s="18" t="str">
-        <f>A500</f>
+        <f>A501</f>
         <v>GETSUNKCHAR</v>
       </c>
       <c r="E293" s="5" t="s">
@@ -6956,7 +7204,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="18"/>
-      <c r="B294" s="24">
+      <c r="B294">
         <v>3020</v>
       </c>
       <c r="C294" s="5" t="s">
@@ -6965,7 +7213,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="18"/>
-      <c r="B295" s="24">
+      <c r="B295">
         <v>3030</v>
       </c>
       <c r="C295" s="5" t="s">
@@ -6974,7 +7222,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="18"/>
-      <c r="B296" s="24">
+      <c r="B296">
         <v>3040</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -6983,7 +7231,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="18"/>
-      <c r="B297" s="24">
+      <c r="B297">
         <v>3050</v>
       </c>
       <c r="C297" s="5" t="s">
@@ -6992,7 +7240,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="18"/>
-      <c r="B298" s="24">
+      <c r="B298">
         <v>3060</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -7001,7 +7249,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="18"/>
-      <c r="B299" s="24">
+      <c r="B299">
         <v>3070</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -7010,7 +7258,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="18"/>
-      <c r="B300" s="24">
+      <c r="B300">
         <v>3080</v>
       </c>
       <c r="C300" s="18" t="str">
@@ -7018,7 +7266,7 @@
         <v>CALL GETSHIPNAME(SHIPNAME$,SHIP)</v>
       </c>
       <c r="D300" s="18" t="str">
-        <f>A513</f>
+        <f>A514</f>
         <v>GETSHIPNAME</v>
       </c>
       <c r="E300" t="s">
@@ -7027,7 +7275,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="18"/>
-      <c r="B301" s="24">
+      <c r="B301">
         <v>3090</v>
       </c>
       <c r="C301" s="18" t="str">
@@ -7035,7 +7283,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D301" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E301" t="s">
@@ -7044,7 +7292,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="18"/>
-      <c r="B302" s="24">
+      <c r="B302">
         <v>3100</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -7053,7 +7301,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="18"/>
-      <c r="B303" s="24">
+      <c r="B303">
         <v>3110</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -7062,7 +7310,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="18"/>
-      <c r="B304" s="24">
+      <c r="B304">
         <v>3120</v>
       </c>
       <c r="C304" s="18" t="str">
@@ -7079,7 +7327,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="18"/>
-      <c r="B305" s="24">
+      <c r="B305">
         <v>3130</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -7088,7 +7336,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="18"/>
-      <c r="B306" s="24">
+      <c r="B306">
         <v>3140</v>
       </c>
       <c r="C306" s="18" t="str">
@@ -7105,7 +7353,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="18"/>
-      <c r="B307" s="24">
+      <c r="B307">
         <v>3150</v>
       </c>
       <c r="C307" s="5" t="s">
@@ -7114,7 +7362,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="18"/>
-      <c r="B308" s="24">
+      <c r="B308">
         <v>3160</v>
       </c>
       <c r="C308" s="5" t="s">
@@ -7125,7 +7373,7 @@
       <c r="A309" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="B309" s="24">
+      <c r="B309">
         <v>3170</v>
       </c>
       <c r="C309" t="str">
@@ -7135,7 +7383,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="18"/>
-      <c r="B310" s="24">
+      <c r="B310">
         <v>3180</v>
       </c>
       <c r="C310" t="str">
@@ -7145,7 +7393,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="18"/>
-      <c r="B311" s="24">
+      <c r="B311">
         <v>3190</v>
       </c>
       <c r="C311" s="18" t="str">
@@ -7153,7 +7401,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D311" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E311" t="s">
@@ -7162,7 +7410,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="18"/>
-      <c r="B312" s="24">
+      <c r="B312">
         <v>3200</v>
       </c>
       <c r="C312" s="5" t="s">
@@ -7171,7 +7419,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="18"/>
-      <c r="B313" s="24">
+      <c r="B313">
         <v>3210</v>
       </c>
       <c r="C313" s="5" t="s">
@@ -7182,7 +7430,7 @@
       <c r="A314" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="B314" s="24">
+      <c r="B314">
         <v>3220</v>
       </c>
       <c r="C314" t="str">
@@ -7192,7 +7440,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="18"/>
-      <c r="B315" s="24">
+      <c r="B315">
         <v>3230</v>
       </c>
       <c r="C315" t="str">
@@ -7205,7 +7453,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="18"/>
-      <c r="B316" s="24">
+      <c r="B316">
         <v>3240</v>
       </c>
       <c r="C316" s="18" t="str">
@@ -7213,7 +7461,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D316" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E316" t="s">
@@ -7222,7 +7470,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="18"/>
-      <c r="B317" s="24">
+      <c r="B317">
         <v>3250</v>
       </c>
       <c r="C317" s="18" t="str">
@@ -7236,7 +7484,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="18"/>
-      <c r="B318" s="24">
+      <c r="B318">
         <v>3260</v>
       </c>
       <c r="C318" s="18" t="str">
@@ -7253,7 +7501,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="18"/>
-      <c r="B319" s="24">
+      <c r="B319">
         <v>3270</v>
       </c>
       <c r="C319" s="18" t="str">
@@ -7270,7 +7518,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="18"/>
-      <c r="B320" s="24">
+      <c r="B320">
         <v>3280</v>
       </c>
       <c r="C320" s="18" t="str">
@@ -7287,7 +7535,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="18"/>
-      <c r="B321" s="24">
+      <c r="B321">
         <v>3290</v>
       </c>
       <c r="C321" s="18" t="str">
@@ -7304,7 +7552,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="18"/>
-      <c r="B322" s="24">
+      <c r="B322">
         <v>3300</v>
       </c>
       <c r="C322" s="18" t="str">
@@ -7321,7 +7569,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="18"/>
-      <c r="B323" s="24">
+      <c r="B323">
         <v>3310</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -7330,7 +7578,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="18"/>
-      <c r="B324" s="24">
+      <c r="B324">
         <v>3320</v>
       </c>
       <c r="C324" s="5" t="s">
@@ -7341,7 +7589,7 @@
       <c r="A325" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="B325" s="24">
+      <c r="B325">
         <v>3330</v>
       </c>
       <c r="C325" t="str">
@@ -7351,7 +7599,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="18"/>
-      <c r="B326" s="24">
+      <c r="B326">
         <v>3340</v>
       </c>
       <c r="C326" t="str">
@@ -7364,7 +7612,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="18"/>
-      <c r="B327" s="24">
+      <c r="B327">
         <v>3350</v>
       </c>
       <c r="C327" s="18" t="str">
@@ -7372,7 +7620,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D327" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E327" t="s">
@@ -7381,7 +7629,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="18"/>
-      <c r="B328" s="24">
+      <c r="B328">
         <v>3360</v>
       </c>
       <c r="C328" s="18" t="str">
@@ -7398,7 +7646,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="18"/>
-      <c r="B329" s="24">
+      <c r="B329">
         <v>3370</v>
       </c>
       <c r="C329" s="18" t="str">
@@ -7415,7 +7663,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="18"/>
-      <c r="B330" s="24">
+      <c r="B330">
         <v>3380</v>
       </c>
       <c r="C330" s="18" t="str">
@@ -7432,7 +7680,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="18"/>
-      <c r="B331" s="24">
+      <c r="B331">
         <v>3390</v>
       </c>
       <c r="C331" s="18" t="str">
@@ -7449,7 +7697,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="18"/>
-      <c r="B332" s="24">
+      <c r="B332">
         <v>3400</v>
       </c>
       <c r="C332" s="18" t="str">
@@ -7457,7 +7705,7 @@
         <v>CALL GETSHIPNAME(SHIPNAME$,(CURRENTSHIP))</v>
       </c>
       <c r="D332" s="18" t="str">
-        <f>A513</f>
+        <f>A514</f>
         <v>GETSHIPNAME</v>
       </c>
       <c r="E332" t="s">
@@ -7466,7 +7714,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="18"/>
-      <c r="B333" s="24">
+      <c r="B333">
         <v>3410</v>
       </c>
       <c r="C333" s="18" t="str">
@@ -7483,7 +7731,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="18"/>
-      <c r="B334" s="24">
+      <c r="B334">
         <v>3420</v>
       </c>
       <c r="C334" s="18" t="str">
@@ -7500,7 +7748,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="18"/>
-      <c r="B335" s="24">
+      <c r="B335">
         <v>3430</v>
       </c>
       <c r="C335" s="18" t="str">
@@ -7508,7 +7756,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D335" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E335" t="s">
@@ -7517,7 +7765,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="18"/>
-      <c r="B336" s="24">
+      <c r="B336">
         <v>3440</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -7526,7 +7774,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="18"/>
-      <c r="B337" s="24">
+      <c r="B337">
         <v>3450</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -7535,7 +7783,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="18"/>
-      <c r="B338" s="24">
+      <c r="B338">
         <v>3460</v>
       </c>
       <c r="C338" s="18" t="str">
@@ -7552,7 +7800,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="18"/>
-      <c r="B339" s="24">
+      <c r="B339">
         <v>3470</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -7561,7 +7809,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="18"/>
-      <c r="B340" s="24">
+      <c r="B340">
         <v>3480</v>
       </c>
       <c r="C340" s="5" t="s">
@@ -7572,7 +7820,7 @@
       <c r="A341" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="B341" s="24">
+      <c r="B341">
         <v>3490</v>
       </c>
       <c r="C341" t="str">
@@ -7582,7 +7830,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="18"/>
-      <c r="B342" s="24">
+      <c r="B342">
         <v>3500</v>
       </c>
       <c r="C342" t="str">
@@ -7592,7 +7840,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="18"/>
-      <c r="B343" s="24">
+      <c r="B343">
         <v>3510</v>
       </c>
       <c r="C343" s="18" t="str">
@@ -7600,7 +7848,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D343" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E343" t="s">
@@ -7609,7 +7857,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="18"/>
-      <c r="B344" s="24">
+      <c r="B344">
         <v>3520</v>
       </c>
       <c r="C344" s="18" t="str">
@@ -7626,7 +7874,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="18"/>
-      <c r="B345" s="24">
+      <c r="B345">
         <v>3530</v>
       </c>
       <c r="C345" s="18" t="str">
@@ -7643,7 +7891,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="18"/>
-      <c r="B346" s="24">
+      <c r="B346">
         <v>3540</v>
       </c>
       <c r="C346" s="18" t="str">
@@ -7660,7 +7908,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="18"/>
-      <c r="B347" s="24">
+      <c r="B347">
         <v>3550</v>
       </c>
       <c r="C347" s="18" t="str">
@@ -7677,7 +7925,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="18"/>
-      <c r="B348" s="24">
+      <c r="B348">
         <v>3560</v>
       </c>
       <c r="C348" s="18" t="str">
@@ -7694,7 +7942,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="18"/>
-      <c r="B349" s="24">
+      <c r="B349">
         <v>3570</v>
       </c>
       <c r="C349" s="5" t="s">
@@ -7705,7 +7953,7 @@
       <c r="A350" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="B350" s="24">
+      <c r="B350">
         <v>3580</v>
       </c>
       <c r="C350" t="str">
@@ -7715,7 +7963,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="18"/>
-      <c r="B351" s="24">
+      <c r="B351">
         <v>3590</v>
       </c>
       <c r="C351" t="str">
@@ -7725,7 +7973,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="18"/>
-      <c r="B352" s="24">
+      <c r="B352">
         <v>3600</v>
       </c>
       <c r="C352" s="18" t="str">
@@ -7733,7 +7981,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D352" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E352" t="s">
@@ -7742,7 +7990,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="18"/>
-      <c r="B353" s="24">
+      <c r="B353">
         <v>3610</v>
       </c>
       <c r="C353" s="18" t="str">
@@ -7756,7 +8004,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="18"/>
-      <c r="B354" s="24">
+      <c r="B354">
         <v>3620</v>
       </c>
       <c r="C354" s="18" t="str">
@@ -7773,7 +8021,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="18"/>
-      <c r="B355" s="24">
+      <c r="B355">
         <v>3630</v>
       </c>
       <c r="C355" s="18" t="str">
@@ -7790,7 +8038,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="18"/>
-      <c r="B356" s="24">
+      <c r="B356">
         <v>3640</v>
       </c>
       <c r="C356" s="18" t="str">
@@ -7806,7 +8054,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="18"/>
-      <c r="B357" s="24">
+      <c r="B357">
         <v>3650</v>
       </c>
       <c r="C357" s="18" t="str">
@@ -7823,7 +8071,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="18"/>
-      <c r="B358" s="24">
+      <c r="B358">
         <v>3660</v>
       </c>
       <c r="C358" s="18" t="str">
@@ -7839,7 +8087,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="18"/>
-      <c r="B359" s="24">
+      <c r="B359">
         <v>3670</v>
       </c>
       <c r="C359" s="18" t="str">
@@ -7856,7 +8104,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="18"/>
-      <c r="B360" s="24">
+      <c r="B360">
         <v>3680</v>
       </c>
       <c r="C360" s="5" t="s">
@@ -7867,7 +8115,7 @@
       <c r="A361" s="18" t="s">
         <v>892</v>
       </c>
-      <c r="B361" s="24">
+      <c r="B361">
         <v>3690</v>
       </c>
       <c r="C361" t="str">
@@ -7877,7 +8125,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="18"/>
-      <c r="B362" s="24">
+      <c r="B362">
         <v>3700</v>
       </c>
       <c r="C362" t="str">
@@ -7890,7 +8138,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="18"/>
-      <c r="B363" s="24">
+      <c r="B363">
         <v>3710</v>
       </c>
       <c r="C363" s="18" t="str">
@@ -7898,7 +8146,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D363" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E363" t="s">
@@ -7907,7 +8155,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="18"/>
-      <c r="B364" s="24">
+      <c r="B364">
         <v>3720</v>
       </c>
       <c r="C364" s="18" t="str">
@@ -7921,7 +8169,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="18"/>
-      <c r="B365" s="24">
+      <c r="B365">
         <v>3730</v>
       </c>
       <c r="C365" s="18" t="str">
@@ -7938,7 +8186,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="18"/>
-      <c r="B366" s="24">
+      <c r="B366">
         <v>3740</v>
       </c>
       <c r="C366" s="18" t="str">
@@ -7955,7 +8203,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="18"/>
-      <c r="B367" s="24">
+      <c r="B367">
         <v>3750</v>
       </c>
       <c r="C367" s="5" t="s">
@@ -7965,7 +8213,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="18"/>
-      <c r="B368" s="24">
+      <c r="B368">
         <v>3760</v>
       </c>
       <c r="C368" s="18" t="str">
@@ -7982,7 +8230,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="18"/>
-      <c r="B369" s="24">
+      <c r="B369">
         <v>3770</v>
       </c>
       <c r="C369" s="18" t="str">
@@ -7999,7 +8247,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="18"/>
-      <c r="B370" s="24">
+      <c r="B370">
         <v>3780</v>
       </c>
       <c r="C370" s="18" t="str">
@@ -8016,7 +8264,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="18"/>
-      <c r="B371" s="24">
+      <c r="B371">
         <v>3790</v>
       </c>
       <c r="C371" s="18" t="str">
@@ -8033,7 +8281,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="18"/>
-      <c r="B372" s="24">
+      <c r="B372">
         <v>3800</v>
       </c>
       <c r="C372" s="5" t="s">
@@ -8043,7 +8291,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="18"/>
-      <c r="B373" s="24">
+      <c r="B373">
         <v>3810</v>
       </c>
       <c r="C373" s="5" t="s">
@@ -8054,7 +8302,7 @@
       <c r="A374" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="B374" s="24">
+      <c r="B374">
         <v>3820</v>
       </c>
       <c r="C374" t="str">
@@ -8064,7 +8312,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="18"/>
-      <c r="B375" s="24">
+      <c r="B375">
         <v>3830</v>
       </c>
       <c r="C375" t="str">
@@ -8077,7 +8325,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="18"/>
-      <c r="B376" s="24">
+      <c r="B376">
         <v>3840</v>
       </c>
       <c r="C376" s="5" t="s">
@@ -8088,7 +8336,7 @@
       <c r="A377" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="B377" s="24">
+      <c r="B377">
         <v>3850</v>
       </c>
       <c r="C377" s="5" t="str">
@@ -8098,7 +8346,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="18"/>
-      <c r="B378" s="24">
+      <c r="B378">
         <v>3860</v>
       </c>
       <c r="C378" s="5" t="s">
@@ -8107,7 +8355,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="18"/>
-      <c r="B379" s="24">
+      <c r="B379">
         <v>3870</v>
       </c>
       <c r="C379" s="5" t="str">
@@ -8123,7 +8371,7 @@
       <c r="A380" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="B380" s="24">
+      <c r="B380">
         <v>3880</v>
       </c>
       <c r="C380" s="5" t="str">
@@ -8133,7 +8381,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="18"/>
-      <c r="B381" s="24">
+      <c r="B381">
         <v>3890</v>
       </c>
       <c r="C381" s="5" t="s">
@@ -8142,7 +8390,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="18"/>
-      <c r="B382" s="24">
+      <c r="B382">
         <v>3900</v>
       </c>
       <c r="C382" s="5" t="str">
@@ -8156,7 +8404,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="18"/>
-      <c r="B383" s="24">
+      <c r="B383">
         <v>3910</v>
       </c>
       <c r="C383" s="5" t="str">
@@ -8170,7 +8418,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="18"/>
-      <c r="B384" s="24">
+      <c r="B384">
         <v>3920</v>
       </c>
       <c r="C384" s="5" t="s">
@@ -8179,7 +8427,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="18"/>
-      <c r="B385" s="24">
+      <c r="B385">
         <v>3930</v>
       </c>
       <c r="C385" s="5" t="s">
@@ -8190,7 +8438,7 @@
       <c r="A386" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="B386" s="24">
+      <c r="B386">
         <v>3940</v>
       </c>
       <c r="C386" t="str">
@@ -8200,7 +8448,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="18"/>
-      <c r="B387" s="24">
+      <c r="B387">
         <v>3950</v>
       </c>
       <c r="C387" t="str">
@@ -8213,7 +8461,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="18"/>
-      <c r="B388" s="24">
+      <c r="B388">
         <v>3960</v>
       </c>
       <c r="C388" s="18" t="str">
@@ -8221,7 +8469,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D388" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E388" t="s">
@@ -8230,7 +8478,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="18"/>
-      <c r="B389" s="24">
+      <c r="B389">
         <v>3970</v>
       </c>
       <c r="C389" s="18" t="str">
@@ -8238,7 +8486,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D389" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E389" t="s">
@@ -8247,7 +8495,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="18"/>
-      <c r="B390" s="24">
+      <c r="B390">
         <v>3980</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -8256,7 +8504,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="18"/>
-      <c r="B391" s="24">
+      <c r="B391">
         <v>3990</v>
       </c>
       <c r="C391" s="5" t="s">
@@ -8265,7 +8513,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="18"/>
-      <c r="B392" s="24">
+      <c r="B392">
         <v>4000</v>
       </c>
       <c r="C392" s="18" t="str">
@@ -8282,7 +8530,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="18"/>
-      <c r="B393" s="24">
+      <c r="B393">
         <v>4010</v>
       </c>
       <c r="C393" s="5" t="s">
@@ -8291,7 +8539,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="18"/>
-      <c r="B394" s="24">
+      <c r="B394">
         <v>4020</v>
       </c>
       <c r="C394" s="5" t="s">
@@ -8300,7 +8548,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="18"/>
-      <c r="B395" s="24">
+      <c r="B395">
         <v>4030</v>
       </c>
       <c r="C395" s="5" t="s">
@@ -8311,7 +8559,7 @@
       <c r="A396" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="B396" s="24">
+      <c r="B396">
         <v>4040</v>
       </c>
       <c r="C396" t="str">
@@ -8321,7 +8569,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="18"/>
-      <c r="B397" s="24">
+      <c r="B397">
         <v>4050</v>
       </c>
       <c r="C397" t="str">
@@ -8334,7 +8582,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="18"/>
-      <c r="B398" s="24">
+      <c r="B398">
         <v>4060</v>
       </c>
       <c r="C398" s="18" t="str">
@@ -8342,7 +8590,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D398" s="18" t="str">
-        <f>A526</f>
+        <f>A527</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E398" t="s">
@@ -8351,7 +8599,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="18"/>
-      <c r="B399" s="24">
+      <c r="B399">
         <v>4070</v>
       </c>
       <c r="C399" s="5" t="s">
@@ -8360,7 +8608,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="18"/>
-      <c r="B400" s="24">
+      <c r="B400">
         <v>4080</v>
       </c>
       <c r="C400" s="18" t="str">
@@ -8377,7 +8625,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="18"/>
-      <c r="B401" s="24">
+      <c r="B401">
         <v>4090</v>
       </c>
       <c r="C401" s="5" t="s">
@@ -8388,7 +8636,7 @@
       <c r="A402" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="B402" s="24">
+      <c r="B402">
         <v>4100</v>
       </c>
       <c r="C402" t="str">
@@ -8398,7 +8646,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="18"/>
-      <c r="B403" s="24">
+      <c r="B403">
         <v>4110</v>
       </c>
       <c r="C403" t="str">
@@ -8411,7 +8659,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="18"/>
-      <c r="B404" s="24">
+      <c r="B404">
         <v>4120</v>
       </c>
       <c r="C404" s="5" t="s">
@@ -8420,7 +8668,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="18"/>
-      <c r="B405" s="24">
+      <c r="B405">
         <v>4130</v>
       </c>
       <c r="C405" s="5" t="s">
@@ -8429,7 +8677,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="18"/>
-      <c r="B406" s="24">
+      <c r="B406">
         <v>4140</v>
       </c>
       <c r="C406" s="18" t="str">
@@ -8437,7 +8685,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D406" s="18" t="str">
-        <f>A508</f>
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E406" t="s">
@@ -8446,7 +8694,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="18"/>
-      <c r="B407" s="24">
+      <c r="B407">
         <v>4150</v>
       </c>
       <c r="C407" s="18" t="str">
@@ -8454,7 +8702,7 @@
         <v>CALL CHECKHORIZONTAL(HORIZONTAL,(CURRENTSHIP),SHIP())</v>
       </c>
       <c r="D407" s="18" t="str">
-        <f>A433</f>
+        <f>A434</f>
         <v>CHECKHORIZONTAL</v>
       </c>
       <c r="E407" t="s">
@@ -8463,7 +8711,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="18"/>
-      <c r="B408" s="24">
+      <c r="B408">
         <v>4160</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -8472,7 +8720,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="18"/>
-      <c r="B409" s="24">
+      <c r="B409">
         <v>4170</v>
       </c>
       <c r="C409" s="5" t="s">
@@ -8481,7 +8729,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="18"/>
-      <c r="B410" s="24">
+      <c r="B410">
         <v>4180</v>
       </c>
       <c r="C410" s="5" t="s">
@@ -8490,7 +8738,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="18"/>
-      <c r="B411" s="24">
+      <c r="B411">
         <v>4190</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -8499,7 +8747,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="18"/>
-      <c r="B412" s="24">
+      <c r="B412">
         <v>4200</v>
       </c>
       <c r="C412" s="5" t="s">
@@ -8508,7 +8756,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="18"/>
-      <c r="B413" s="24">
+      <c r="B413">
         <v>4210</v>
       </c>
       <c r="C413" s="18" t="str">
@@ -8516,7 +8764,7 @@
         <v>CALL CHECKSEQUENTIAL(SHIPERR,(CURRENTSHIP),SEQUENCE())</v>
       </c>
       <c r="D413" s="18" t="str">
-        <f>A443</f>
+        <f>A444</f>
         <v>CHECKSEQUENTIAL</v>
       </c>
       <c r="E413" t="s">
@@ -8525,7 +8773,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="18"/>
-      <c r="B414" s="24">
+      <c r="B414">
         <v>4220</v>
       </c>
       <c r="C414" t="str">
@@ -8539,7 +8787,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="18"/>
-      <c r="B415" s="24">
+      <c r="B415">
         <v>4230</v>
       </c>
       <c r="C415" s="18" t="str">
@@ -8547,7 +8795,7 @@
         <v>CALL CHECKOVERLAP(SHIPERR,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
       </c>
       <c r="D415" s="18" t="str">
-        <f>A461</f>
+        <f>A462</f>
         <v>CHECKOVERLAP</v>
       </c>
       <c r="E415" t="s">
@@ -8559,7 +8807,7 @@
         <f>_xlfn.CONCAT(A402,".SUBEND")</f>
         <v>CHECKVALIDSHIP.SUBEND</v>
       </c>
-      <c r="B416" s="24">
+      <c r="B416">
         <v>4240</v>
       </c>
       <c r="C416" s="5" t="s">
@@ -8570,7 +8818,7 @@
       <c r="A417" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="B417" s="24">
+      <c r="B417">
         <v>4250</v>
       </c>
       <c r="C417" t="str">
@@ -8580,7 +8828,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="18"/>
-      <c r="B418" s="24">
+      <c r="B418">
         <v>4260</v>
       </c>
       <c r="C418" t="str">
@@ -8593,7 +8841,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="18"/>
-      <c r="B419" s="24">
+      <c r="B419">
         <v>4270</v>
       </c>
       <c r="C419" t="s">
@@ -8602,1235 +8850,1249 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="18"/>
-      <c r="B420" s="24">
+      <c r="B420">
         <v>4280</v>
       </c>
-      <c r="C420" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="D420" s="20"/>
+      <c r="C420" t="str">
+        <f>_xlfn.CONCAT("IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  ",INDEX(B:B,MATCH(D420,A:A,0),0)," :: REM GOTO SUBEND")</f>
+        <v>IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  4300 :: REM GOTO SUBEND</v>
+      </c>
+      <c r="D420" t="str">
+        <f>A422</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" s="18"/>
-      <c r="B421" s="24">
+      <c r="B421">
         <v>4290</v>
       </c>
       <c r="C421" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D421" s="20"/>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="20" t="str">
+        <f>_xlfn.CONCAT(A417,".SUBEND")</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
+      <c r="B422">
+        <v>4300</v>
+      </c>
+      <c r="C422" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422" s="18" t="s">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="B422" s="24">
-        <v>4300</v>
-      </c>
-      <c r="C422" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A422,"***")</f>
+      <c r="B423">
+        <v>4310</v>
+      </c>
+      <c r="C423" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A423,"***")</f>
         <v>REM SUBROUTINE ***CHECKHIT***</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="18"/>
-      <c r="B423" s="24">
-        <v>4310</v>
-      </c>
-      <c r="C423" t="str">
-        <f>IF(ISBLANK(E423),_xlfn.CONCAT("SUB ",A422),_xlfn.CONCAT("SUB ",A422,"(",E423,")"))</f>
-        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
-      </c>
-      <c r="E423" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="18"/>
-      <c r="B424" s="24">
+      <c r="B424">
         <v>4320</v>
       </c>
-      <c r="C424" t="s">
-        <v>779</v>
+      <c r="C424" t="str">
+        <f>IF(ISBLANK(E424),_xlfn.CONCAT("SUB ",A423),_xlfn.CONCAT("SUB ",A423,"(",E424,")"))</f>
+        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
+      </c>
+      <c r="E424" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="18"/>
-      <c r="B425" s="24">
+      <c r="B425">
         <v>4330</v>
       </c>
-      <c r="C425" s="18" t="str">
-        <f t="shared" ref="C425:C427" si="7">IF(ISBLANK(E425),_xlfn.CONCAT("CALL ",D425),_xlfn.CONCAT("CALL ",D425,"(",E425,")"))</f>
-        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
-      </c>
-      <c r="D425" s="18" t="str">
-        <f>A504</f>
-        <v>GETNUMSHIPS</v>
-      </c>
-      <c r="E425" t="s">
-        <v>712</v>
+      <c r="C425" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="18"/>
-      <c r="B426" s="24">
+      <c r="B426">
         <v>4340</v>
       </c>
-      <c r="C426" s="5" t="s">
-        <v>577</v>
+      <c r="C426" s="18" t="str">
+        <f t="shared" ref="C426:C428" si="7">IF(ISBLANK(E426),_xlfn.CONCAT("CALL ",D426),_xlfn.CONCAT("CALL ",D426,"(",E426,")"))</f>
+        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="D426" s="18" t="str">
+        <f>A505</f>
+        <v>GETNUMSHIPS</v>
+      </c>
+      <c r="E426" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="18"/>
-      <c r="B427" s="24">
+      <c r="B427">
         <v>4350</v>
       </c>
-      <c r="C427" s="18" t="str">
+      <c r="C427" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="18"/>
+      <c r="B428">
+        <v>4360</v>
+      </c>
+      <c r="C428" s="18" t="str">
         <f t="shared" si="7"/>
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
-      <c r="D427" s="18" t="str">
-        <f>A508</f>
+      <c r="D428" s="18" t="str">
+        <f>A509</f>
         <v>GETSHIPLEN</v>
       </c>
-      <c r="E427" t="s">
+      <c r="E428" t="s">
         <v>799</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A428" s="18"/>
-      <c r="B428" s="24">
-        <v>4360</v>
-      </c>
-      <c r="C428" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="18"/>
-      <c r="B429" s="24">
+      <c r="B429">
         <v>4370</v>
       </c>
-      <c r="C429" s="5" t="str">
-        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D429,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 4400 :: REM SUBEND</v>
-      </c>
-      <c r="D429" s="20" t="str">
-        <f>A432</f>
-        <v>CHECKHIT.SUBEND</v>
+      <c r="C429" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="18"/>
-      <c r="B430" s="24">
+      <c r="B430">
         <v>4380</v>
       </c>
-      <c r="C430" s="5" t="s">
-        <v>14</v>
+      <c r="C430" s="5" t="str">
+        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D430,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 4410 :: REM SUBEND</v>
+      </c>
+      <c r="D430" s="20" t="str">
+        <f>A433</f>
+        <v>CHECKHIT.SUBEND</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="18"/>
-      <c r="B431" s="24">
+      <c r="B431">
         <v>4390</v>
       </c>
       <c r="C431" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="18"/>
+      <c r="B432">
+        <v>4400</v>
+      </c>
+      <c r="C432" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A432" s="20" t="str">
-        <f>_xlfn.CONCAT(A422,".SUBEND")</f>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="20" t="str">
+        <f>_xlfn.CONCAT(A423,".SUBEND")</f>
         <v>CHECKHIT.SUBEND</v>
       </c>
-      <c r="B432" s="24">
-        <v>4400</v>
-      </c>
-      <c r="C432" s="5" t="s">
+      <c r="B433">
+        <v>4410</v>
+      </c>
+      <c r="C433" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433" s="18" t="s">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B433" s="24">
-        <v>4410</v>
-      </c>
-      <c r="C433" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A433,"***")</f>
+      <c r="B434">
+        <v>4420</v>
+      </c>
+      <c r="C434" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A434,"***")</f>
         <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A434" s="18"/>
-      <c r="B434" s="24">
-        <v>4420</v>
-      </c>
-      <c r="C434" t="str">
-        <f>IF(ISBLANK(E434),_xlfn.CONCAT("SUB ",A433),_xlfn.CONCAT("SUB ",A433,"(",E434,")"))</f>
-        <v>SUB CHECKHORIZONTAL(HORIZONTAL,CURRENTSHIP,SHIP())</v>
-      </c>
-      <c r="E434" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="18"/>
-      <c r="B435" s="24">
+      <c r="B435">
         <v>4430</v>
       </c>
-      <c r="C435" t="s">
-        <v>566</v>
+      <c r="C435" t="str">
+        <f>IF(ISBLANK(E435),_xlfn.CONCAT("SUB ",A434),_xlfn.CONCAT("SUB ",A434,"(",E435,")"))</f>
+        <v>SUB CHECKHORIZONTAL(HORIZONTAL,CURRENTSHIP,SHIP())</v>
+      </c>
+      <c r="E435" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="18"/>
-      <c r="B436" s="24">
+      <c r="B436">
         <v>4440</v>
       </c>
-      <c r="C436" s="18" t="str">
-        <f>IF(ISBLANK(E436),_xlfn.CONCAT("CALL ",D436),_xlfn.CONCAT("CALL ",D436,"(",E436,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D436" s="18" t="str">
-        <f>A508</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E436" t="s">
-        <v>817</v>
+      <c r="C436" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="18"/>
-      <c r="B437" s="24">
+      <c r="B437">
         <v>4450</v>
       </c>
-      <c r="C437" t="s">
-        <v>729</v>
+      <c r="C437" s="18" t="str">
+        <f>IF(ISBLANK(E437),_xlfn.CONCAT("CALL ",D437),_xlfn.CONCAT("CALL ",D437,"(",E437,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D437" s="18" t="str">
+        <f>A509</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E437" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="18"/>
-      <c r="B438" s="24">
+      <c r="B438">
         <v>4460</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>689</v>
+      <c r="C438" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="18"/>
-      <c r="B439" s="24">
+      <c r="B439">
         <v>4470</v>
       </c>
-      <c r="C439" t="str">
-        <f>_xlfn.CONCAT("IF PREV&lt;&gt;CURR THEN ",INDEX(B:B,MATCH(D439,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF PREV&lt;&gt;CURR THEN 4500 :: REM SUBEND</v>
-      </c>
-      <c r="D439" s="20" t="str">
-        <f>A442</f>
-        <v>CHECKHORIZONTAL.SUBEND</v>
+      <c r="C439" s="5" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="18"/>
-      <c r="B440" s="24">
+      <c r="B440">
         <v>4480</v>
       </c>
-      <c r="C440" t="s">
-        <v>1</v>
+      <c r="C440" t="str">
+        <f>_xlfn.CONCAT("IF PREV&lt;&gt;CURR THEN ",INDEX(B:B,MATCH(D440,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF PREV&lt;&gt;CURR THEN 4510 :: REM SUBEND</v>
+      </c>
+      <c r="D440" s="20" t="str">
+        <f>A443</f>
+        <v>CHECKHORIZONTAL.SUBEND</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="18"/>
-      <c r="B441" s="24">
+      <c r="B441">
         <v>4490</v>
       </c>
-      <c r="C441" s="5" t="s">
+      <c r="C441" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="18"/>
+      <c r="B442">
+        <v>4500</v>
+      </c>
+      <c r="C442" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442" s="20" t="str">
-        <f>_xlfn.CONCAT(A433,".SUBEND")</f>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="20" t="str">
+        <f>_xlfn.CONCAT(A434,".SUBEND")</f>
         <v>CHECKHORIZONTAL.SUBEND</v>
       </c>
-      <c r="B442" s="24">
-        <v>4500</v>
-      </c>
-      <c r="C442" s="5" t="s">
+      <c r="B443">
+        <v>4510</v>
+      </c>
+      <c r="C443" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="18" t="s">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="B443" s="24">
-        <v>4510</v>
-      </c>
-      <c r="C443" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A443,"***")</f>
+      <c r="B444">
+        <v>4520</v>
+      </c>
+      <c r="C444" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A444,"***")</f>
         <v>REM SUBROUTINE ***CHECKSEQUENTIAL***</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444" s="18"/>
-      <c r="B444" s="24">
-        <v>4520</v>
-      </c>
-      <c r="C444" t="str">
-        <f>IF(ISBLANK(E444),_xlfn.CONCAT("SUB ",A443),_xlfn.CONCAT("SUB ",A443,"(",E444,")"))</f>
-        <v>SUB CHECKSEQUENTIAL(SHIPERR,CURRENTSHIP,SEQUENCE())</v>
-      </c>
-      <c r="E444" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="18"/>
-      <c r="B445" s="24">
+      <c r="B445">
         <v>4530</v>
       </c>
-      <c r="C445" t="s">
-        <v>561</v>
+      <c r="C445" t="str">
+        <f>IF(ISBLANK(E445),_xlfn.CONCAT("SUB ",A444),_xlfn.CONCAT("SUB ",A444,"(",E445,")"))</f>
+        <v>SUB CHECKSEQUENTIAL(SHIPERR,CURRENTSHIP,SEQUENCE())</v>
+      </c>
+      <c r="E445" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="18"/>
-      <c r="B446" s="24">
+      <c r="B446">
         <v>4540</v>
       </c>
-      <c r="C446" s="18" t="str">
-        <f>IF(ISBLANK(E446),_xlfn.CONCAT("CALL ",D446),_xlfn.CONCAT("CALL ",D446,"(",E446,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D446" s="18" t="str">
-        <f>A508</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E446" t="s">
-        <v>817</v>
+      <c r="C446" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="18"/>
-      <c r="B447" s="24">
+      <c r="B447">
         <v>4550</v>
       </c>
-      <c r="C447" t="s">
-        <v>700</v>
+      <c r="C447" s="18" t="str">
+        <f>IF(ISBLANK(E447),_xlfn.CONCAT("CALL ",D447),_xlfn.CONCAT("CALL ",D447,"(",E447,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D447" s="18" t="str">
+        <f>A509</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E447" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="18"/>
-      <c r="B448" s="24">
+      <c r="B448">
         <v>4560</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>729</v>
+      <c r="C448" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="18"/>
-      <c r="B449" s="24">
+      <c r="B449">
         <v>4570</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="18"/>
-      <c r="B450" s="24">
+      <c r="B450">
         <v>4580</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1</v>
+        <v>703</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="18"/>
-      <c r="B451" s="24">
+      <c r="B451">
         <v>4590</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="18"/>
-      <c r="B452" s="24">
+      <c r="B452">
         <v>4600</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>729</v>
+        <v>562</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="18"/>
-      <c r="B453" s="24">
+      <c r="B453">
         <v>4610</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>564</v>
+        <v>729</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="18"/>
-      <c r="B454" s="24">
+      <c r="B454">
         <v>4620</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1</v>
+        <v>564</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" s="18"/>
-      <c r="B455" s="24">
+      <c r="B455">
         <v>4630</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="18"/>
-      <c r="B456" s="24">
+      <c r="B456">
         <v>4640</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="18"/>
-      <c r="B457" s="24">
+      <c r="B457">
         <v>4650</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="18"/>
-      <c r="B458" s="24">
+      <c r="B458">
         <v>4660</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>1</v>
+        <v>702</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" s="18"/>
-      <c r="B459" s="24">
+      <c r="B459">
         <v>4670</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" s="18"/>
-      <c r="B460" s="24">
+      <c r="B460">
         <v>4680</v>
       </c>
       <c r="C460" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="18"/>
+      <c r="B461">
+        <v>4690</v>
+      </c>
+      <c r="C461" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A461" s="18" t="s">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="B461" s="24">
-        <v>4690</v>
-      </c>
-      <c r="C461" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A461,"***")</f>
+      <c r="B462">
+        <v>4700</v>
+      </c>
+      <c r="C462" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A462,"***")</f>
         <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A462" s="18"/>
-      <c r="B462" s="24">
-        <v>4700</v>
-      </c>
-      <c r="C462" t="str">
-        <f>IF(ISBLANK(E462),_xlfn.CONCAT("SUB ",A461),_xlfn.CONCAT("SUB ",A461,"(",E462,")"))</f>
-        <v>SUB CHECKOVERLAP(SHIPERR,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
-      </c>
-      <c r="E462" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" s="18"/>
-      <c r="B463" s="24">
+      <c r="B463">
         <v>4710</v>
       </c>
-      <c r="C463" s="5" t="s">
-        <v>561</v>
+      <c r="C463" t="str">
+        <f>IF(ISBLANK(E463),_xlfn.CONCAT("SUB ",A462),_xlfn.CONCAT("SUB ",A462,"(",E463,")"))</f>
+        <v>SUB CHECKOVERLAP(SHIPERR,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
+      </c>
+      <c r="E463" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" s="18"/>
-      <c r="B464" s="24">
+      <c r="B464">
         <v>4720</v>
       </c>
-      <c r="C464" s="18" t="str">
-        <f>IF(ISBLANK(E464),_xlfn.CONCAT("CALL ",D464),_xlfn.CONCAT("CALL ",D464,"(",E464,")"))</f>
-        <v>CALL GETSHIPLEN(CURRENTSHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D464" s="18" t="str">
-        <f>A508</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E464" t="s">
-        <v>835</v>
+      <c r="C464" s="5" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="18"/>
-      <c r="B465" s="24">
+      <c r="B465">
         <v>4730</v>
       </c>
-      <c r="C465" t="s">
-        <v>569</v>
+      <c r="C465" s="18" t="str">
+        <f>IF(ISBLANK(E465),_xlfn.CONCAT("CALL ",D465),_xlfn.CONCAT("CALL ",D465,"(",E465,")"))</f>
+        <v>CALL GETSHIPLEN(CURRENTSHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D465" s="18" t="str">
+        <f>A509</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E465" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="18"/>
-      <c r="B466" s="24">
+      <c r="B466">
         <v>4740</v>
       </c>
-      <c r="C466" s="18" t="str">
-        <f>IF(ISBLANK(E466),_xlfn.CONCAT("CALL ",D466),_xlfn.CONCAT("CALL ",D466,"(",E466,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
-      </c>
-      <c r="D466" s="18" t="str">
-        <f>A508</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E466" t="s">
-        <v>799</v>
+      <c r="C466" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="18"/>
-      <c r="B467" s="24">
+      <c r="B467">
         <v>4750</v>
       </c>
-      <c r="C467" t="s">
-        <v>731</v>
+      <c r="C467" s="18" t="str">
+        <f>IF(ISBLANK(E467),_xlfn.CONCAT("CALL ",D467),_xlfn.CONCAT("CALL ",D467,"(",E467,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+      </c>
+      <c r="D467" s="18" t="str">
+        <f>A509</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E467" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="18"/>
-      <c r="B468" s="24">
+      <c r="B468">
         <v>4760</v>
       </c>
       <c r="C468" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="18"/>
-      <c r="B469" s="24">
+      <c r="B469">
         <v>4770</v>
       </c>
       <c r="C469" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="18"/>
-      <c r="B470" s="24">
+      <c r="B470">
         <v>4780</v>
       </c>
       <c r="C470" t="s">
-        <v>688</v>
+        <v>732</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="18"/>
-      <c r="B471" s="24">
+      <c r="B471">
         <v>4790</v>
       </c>
-      <c r="C471" s="5" t="str">
-        <f>_xlfn.CONCAT("IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO ",INDEX(B:B,MATCH(D471,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO 4830 :: REM SUBEND</v>
-      </c>
-      <c r="D471" s="20" t="str">
-        <f>A475</f>
-        <v>CHECKOVERLAP.SUBEND</v>
+      <c r="C471" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="18"/>
-      <c r="B472" s="24">
+      <c r="B472">
         <v>4800</v>
       </c>
-      <c r="C472" t="s">
-        <v>84</v>
+      <c r="C472" s="5" t="str">
+        <f>_xlfn.CONCAT("IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO ",INDEX(B:B,MATCH(D472,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO 4840 :: REM SUBEND</v>
+      </c>
+      <c r="D472" s="20" t="str">
+        <f>A476</f>
+        <v>CHECKOVERLAP.SUBEND</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="18"/>
-      <c r="B473" s="24">
+      <c r="B473">
         <v>4810</v>
       </c>
       <c r="C473" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="18"/>
-      <c r="B474" s="24">
+      <c r="B474">
         <v>4820</v>
       </c>
       <c r="C474" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="18"/>
+      <c r="B475">
+        <v>4830</v>
+      </c>
+      <c r="C475" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="20" t="str">
-        <f>_xlfn.CONCAT(A461,".SUBEND")</f>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="20" t="str">
+        <f>_xlfn.CONCAT(A462,".SUBEND")</f>
         <v>CHECKOVERLAP.SUBEND</v>
       </c>
-      <c r="B475" s="24">
-        <v>4830</v>
-      </c>
-      <c r="C475" s="5" t="s">
+      <c r="B476">
+        <v>4840</v>
+      </c>
+      <c r="C476" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="18" t="s">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="B476" s="24">
-        <v>4840</v>
-      </c>
-      <c r="C476" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A476,"***")</f>
+      <c r="B477">
+        <v>4850</v>
+      </c>
+      <c r="C477" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A477,"***")</f>
         <v>REM SUBROUTINE ***GETHOLECHAR***</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="18"/>
-      <c r="B477" s="24">
-        <v>4850</v>
-      </c>
-      <c r="C477" t="str">
-        <f>IF(ISBLANK(E477),_xlfn.CONCAT("SUB ",A476),_xlfn.CONCAT("SUB ",A476,"(",E477,")"))</f>
-        <v>SUB GETHOLECHAR(CHARVAL)</v>
-      </c>
-      <c r="E477" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="18"/>
-      <c r="B478" s="24">
+      <c r="B478">
         <v>4860</v>
       </c>
-      <c r="C478" s="5" t="s">
-        <v>753</v>
+      <c r="C478" t="str">
+        <f>IF(ISBLANK(E478),_xlfn.CONCAT("SUB ",A477),_xlfn.CONCAT("SUB ",A477,"(",E478,")"))</f>
+        <v>SUB GETHOLECHAR(CHARVAL)</v>
+      </c>
+      <c r="E478" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="18"/>
-      <c r="B479" s="24">
+      <c r="B479">
         <v>4870</v>
       </c>
       <c r="C479" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="18"/>
+      <c r="B480">
+        <v>4880</v>
+      </c>
+      <c r="C480" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A480" s="18" t="s">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="B480" s="24">
-        <v>4880</v>
-      </c>
-      <c r="C480" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A480,"***")</f>
+      <c r="B481">
+        <v>4890</v>
+      </c>
+      <c r="C481" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A481,"***")</f>
         <v>REM SUBROUTINE ***GETFILLCHAR***</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A481" s="18"/>
-      <c r="B481" s="24">
-        <v>4890</v>
-      </c>
-      <c r="C481" t="str">
-        <f>IF(ISBLANK(E481),_xlfn.CONCAT("SUB ",A480),_xlfn.CONCAT("SUB ",A480,"(",E481,")"))</f>
-        <v>SUB GETFILLCHAR(CHARVAL)</v>
-      </c>
-      <c r="E481" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="18"/>
-      <c r="B482" s="24">
+      <c r="B482">
         <v>4900</v>
       </c>
-      <c r="C482" s="5" t="s">
-        <v>758</v>
+      <c r="C482" t="str">
+        <f>IF(ISBLANK(E482),_xlfn.CONCAT("SUB ",A481),_xlfn.CONCAT("SUB ",A481,"(",E482,")"))</f>
+        <v>SUB GETFILLCHAR(CHARVAL)</v>
+      </c>
+      <c r="E482" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="18"/>
-      <c r="B483" s="24">
+      <c r="B483">
         <v>4910</v>
       </c>
       <c r="C483" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="18"/>
+      <c r="B484">
+        <v>4920</v>
+      </c>
+      <c r="C484" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="18" t="s">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="18" t="s">
         <v>761</v>
       </c>
-      <c r="B484" s="24">
-        <v>4920</v>
-      </c>
-      <c r="C484" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A484,"***")</f>
+      <c r="B485">
+        <v>4930</v>
+      </c>
+      <c r="C485" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A485,"***")</f>
         <v>REM SUBROUTINE ***GETHITCHAR***</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="18"/>
-      <c r="B485" s="24">
-        <v>4930</v>
-      </c>
-      <c r="C485" t="str">
-        <f>IF(ISBLANK(E485),_xlfn.CONCAT("SUB ",A484),_xlfn.CONCAT("SUB ",A484,"(",E485,")"))</f>
-        <v>SUB GETHITCHAR(CHARVAL)</v>
-      </c>
-      <c r="E485" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="18"/>
-      <c r="B486" s="24">
+      <c r="B486">
         <v>4940</v>
       </c>
-      <c r="C486" s="5" t="s">
-        <v>762</v>
+      <c r="C486" t="str">
+        <f>IF(ISBLANK(E486),_xlfn.CONCAT("SUB ",A485),_xlfn.CONCAT("SUB ",A485,"(",E486,")"))</f>
+        <v>SUB GETHITCHAR(CHARVAL)</v>
+      </c>
+      <c r="E486" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="18"/>
-      <c r="B487" s="24">
+      <c r="B487">
         <v>4950</v>
       </c>
       <c r="C487" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="18"/>
+      <c r="B488">
+        <v>4960</v>
+      </c>
+      <c r="C488" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A488" s="18" t="s">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="B488" s="24">
-        <v>4960</v>
-      </c>
-      <c r="C488" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A488,"***")</f>
+      <c r="B489">
+        <v>4970</v>
+      </c>
+      <c r="C489" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A489,"***")</f>
         <v>REM SUBROUTINE ***GETSHIPCHAR***</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="18"/>
-      <c r="B489" s="24">
-        <v>4970</v>
-      </c>
-      <c r="C489" t="str">
-        <f>IF(ISBLANK(E489),_xlfn.CONCAT("SUB ",A488),_xlfn.CONCAT("SUB ",A488,"(",E489,")"))</f>
-        <v>SUB GETSHIPCHAR(CHARVAL)</v>
-      </c>
-      <c r="E489" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="18"/>
-      <c r="B490" s="24">
+      <c r="B490">
         <v>4980</v>
       </c>
-      <c r="C490" s="5" t="s">
-        <v>752</v>
+      <c r="C490" t="str">
+        <f>IF(ISBLANK(E490),_xlfn.CONCAT("SUB ",A489),_xlfn.CONCAT("SUB ",A489,"(",E490,")"))</f>
+        <v>SUB GETSHIPCHAR(CHARVAL)</v>
+      </c>
+      <c r="E490" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="18"/>
-      <c r="B491" s="24">
+      <c r="B491">
         <v>4990</v>
       </c>
       <c r="C491" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492" s="18"/>
+      <c r="B492">
+        <v>5000</v>
+      </c>
+      <c r="C492" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="18" t="s">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="B492" s="24">
-        <v>5000</v>
-      </c>
-      <c r="C492" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A492,"***")</f>
+      <c r="B493">
+        <v>5010</v>
+      </c>
+      <c r="C493" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A493,"***")</f>
         <v>REM SUBROUTINE ***GETTENCHAR***</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="18"/>
-      <c r="B493" s="24">
-        <v>5010</v>
-      </c>
-      <c r="C493" t="str">
-        <f>IF(ISBLANK(E493),_xlfn.CONCAT("SUB ",A492),_xlfn.CONCAT("SUB ",A492,"(",E493,")"))</f>
-        <v>SUB GETTENCHAR(CHARVAL)</v>
-      </c>
-      <c r="E493" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="18"/>
-      <c r="B494" s="24">
+      <c r="B494">
         <v>5020</v>
       </c>
-      <c r="C494" s="5" t="s">
-        <v>754</v>
+      <c r="C494" t="str">
+        <f>IF(ISBLANK(E494),_xlfn.CONCAT("SUB ",A493),_xlfn.CONCAT("SUB ",A493,"(",E494,")"))</f>
+        <v>SUB GETTENCHAR(CHARVAL)</v>
+      </c>
+      <c r="E494" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="18"/>
-      <c r="B495" s="24">
+      <c r="B495">
         <v>5030</v>
       </c>
       <c r="C495" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" s="18"/>
+      <c r="B496">
+        <v>5040</v>
+      </c>
+      <c r="C496" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="18" t="s">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="B496" s="24">
-        <v>5040</v>
-      </c>
-      <c r="C496" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A496,"***")</f>
+      <c r="B497">
+        <v>5050</v>
+      </c>
+      <c r="C497" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A497,"***")</f>
         <v>REM SUBROUTINE ***GETMISSCHAR***</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A497" s="18"/>
-      <c r="B497" s="24">
-        <v>5050</v>
-      </c>
-      <c r="C497" t="str">
-        <f>IF(ISBLANK(E497),_xlfn.CONCAT("SUB ",A496),_xlfn.CONCAT("SUB ",A496,"(",E497,")"))</f>
-        <v>SUB GETMISSCHAR(CHARVAL)</v>
-      </c>
-      <c r="E497" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="18"/>
-      <c r="B498" s="24">
+      <c r="B498">
         <v>5060</v>
       </c>
-      <c r="C498" s="5" t="s">
-        <v>764</v>
+      <c r="C498" t="str">
+        <f>IF(ISBLANK(E498),_xlfn.CONCAT("SUB ",A497),_xlfn.CONCAT("SUB ",A497,"(",E498,")"))</f>
+        <v>SUB GETMISSCHAR(CHARVAL)</v>
+      </c>
+      <c r="E498" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="18"/>
-      <c r="B499" s="24">
+      <c r="B499">
         <v>5070</v>
       </c>
       <c r="C499" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" s="18"/>
+      <c r="B500">
+        <v>5080</v>
+      </c>
+      <c r="C500" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A500" s="18" t="s">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="B500" s="24">
-        <v>5080</v>
-      </c>
-      <c r="C500" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A500,"***")</f>
+      <c r="B501">
+        <v>5090</v>
+      </c>
+      <c r="C501" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A501,"***")</f>
         <v>REM SUBROUTINE ***GETSUNKCHAR***</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="18"/>
-      <c r="B501" s="24">
-        <v>5090</v>
-      </c>
-      <c r="C501" t="str">
-        <f>IF(ISBLANK(E501),_xlfn.CONCAT("SUB ",A500),_xlfn.CONCAT("SUB ",A500,"(",E501,")"))</f>
-        <v>SUB GETSUNKCHAR(CHARVAL)</v>
-      </c>
-      <c r="E501" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="18"/>
-      <c r="B502" s="24">
+      <c r="B502">
         <v>5100</v>
       </c>
-      <c r="C502" s="5" t="s">
-        <v>771</v>
+      <c r="C502" t="str">
+        <f>IF(ISBLANK(E502),_xlfn.CONCAT("SUB ",A501),_xlfn.CONCAT("SUB ",A501,"(",E502,")"))</f>
+        <v>SUB GETSUNKCHAR(CHARVAL)</v>
+      </c>
+      <c r="E502" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="18"/>
-      <c r="B503" s="24">
+      <c r="B503">
         <v>5110</v>
       </c>
       <c r="C503" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" s="18"/>
+      <c r="B504">
+        <v>5120</v>
+      </c>
+      <c r="C504" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="18" t="s">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="B504" s="24">
-        <v>5120</v>
-      </c>
-      <c r="C504" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A504,"***")</f>
+      <c r="B505">
+        <v>5130</v>
+      </c>
+      <c r="C505" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A505,"***")</f>
         <v>REM SUBROUTINE ***GETNUMSHIPS***</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A505" s="18"/>
-      <c r="B505" s="24">
-        <v>5130</v>
-      </c>
-      <c r="C505" t="str">
-        <f>IF(ISBLANK(E505),_xlfn.CONCAT("SUB ",A504),_xlfn.CONCAT("SUB ",A504,"(",E505,")"))</f>
-        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
-      </c>
-      <c r="E505" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="18"/>
-      <c r="B506" s="24">
+      <c r="B506">
         <v>5140</v>
       </c>
-      <c r="C506" t="s">
-        <v>550</v>
+      <c r="C506" t="str">
+        <f>IF(ISBLANK(E506),_xlfn.CONCAT("SUB ",A505),_xlfn.CONCAT("SUB ",A505,"(",E506,")"))</f>
+        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="E506" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="18"/>
-      <c r="B507" s="24">
+      <c r="B507">
         <v>5150</v>
       </c>
       <c r="C507" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508" s="18"/>
+      <c r="B508">
+        <v>5160</v>
+      </c>
+      <c r="C508" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="18" t="s">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="B508" s="24">
-        <v>5160</v>
-      </c>
-      <c r="C508" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A508,"***")</f>
+      <c r="B509">
+        <v>5170</v>
+      </c>
+      <c r="C509" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A509,"***")</f>
         <v>REM SUBROUTINE ***GETSHIPLEN***</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="18"/>
-      <c r="B509" s="24">
-        <v>5170</v>
-      </c>
-      <c r="C509" t="str">
-        <f>IF(ISBLANK(E509),_xlfn.CONCAT("SUB ",A508),_xlfn.CONCAT("SUB ",A508,"(",E509,")"))</f>
-        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
-      </c>
-      <c r="E509" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="18"/>
-      <c r="B510" s="24">
+      <c r="B510">
         <v>5180</v>
       </c>
-      <c r="C510" t="s">
-        <v>616</v>
+      <c r="C510" t="str">
+        <f>IF(ISBLANK(E510),_xlfn.CONCAT("SUB ",A509),_xlfn.CONCAT("SUB ",A509,"(",E510,")"))</f>
+        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
+      </c>
+      <c r="E510" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="18"/>
-      <c r="B511" s="24">
+      <c r="B511">
         <v>5190</v>
       </c>
       <c r="C511" t="s">
-        <v>728</v>
+        <v>616</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="18"/>
-      <c r="B512" s="24">
+      <c r="B512">
         <v>5200</v>
       </c>
-      <c r="C512" s="5" t="s">
+      <c r="C512" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513" s="18"/>
+      <c r="B513">
+        <v>5210</v>
+      </c>
+      <c r="C513" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A513" s="18" t="s">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="B513" s="24">
-        <v>5210</v>
-      </c>
-      <c r="C513" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A513,"***")</f>
+      <c r="B514">
+        <v>5220</v>
+      </c>
+      <c r="C514" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A514,"***")</f>
         <v>REM SUBROUTINE ***GETSHIPNAME***</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A514" s="18"/>
-      <c r="B514" s="24">
-        <v>5220</v>
-      </c>
-      <c r="C514" t="str">
-        <f>IF(ISBLANK(E514),_xlfn.CONCAT("SUB ",A513),_xlfn.CONCAT("SUB ",A513,"(",E514,")"))</f>
-        <v>SUB GETSHIPNAME(SHIPNAME$,INDEX)</v>
-      </c>
-      <c r="E514" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="18"/>
-      <c r="B515" s="24">
+      <c r="B515">
         <v>5230</v>
       </c>
-      <c r="C515" t="s">
-        <v>617</v>
+      <c r="C515" t="str">
+        <f>IF(ISBLANK(E515),_xlfn.CONCAT("SUB ",A514),_xlfn.CONCAT("SUB ",A514,"(",E515,")"))</f>
+        <v>SUB GETSHIPNAME(SHIPNAME$,INDEX)</v>
+      </c>
+      <c r="E515" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="18"/>
-      <c r="B516" s="24">
+      <c r="B516">
         <v>5240</v>
       </c>
       <c r="C516" t="s">
-        <v>727</v>
+        <v>617</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="18"/>
-      <c r="B517" s="24">
+      <c r="B517">
         <v>5250</v>
       </c>
-      <c r="C517" s="5" t="s">
+      <c r="C517" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A518" s="18"/>
+      <c r="B518">
+        <v>5260</v>
+      </c>
+      <c r="C518" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A518" s="18" t="s">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="B518" s="24">
-        <v>5260</v>
-      </c>
-      <c r="C518" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A518,"***")</f>
+      <c r="B519">
+        <v>5270</v>
+      </c>
+      <c r="C519" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A519,"***")</f>
         <v>REM SUBROUTINE ***GETBOARDORIG***</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A519" s="18"/>
-      <c r="B519" s="24">
-        <v>5270</v>
-      </c>
-      <c r="C519" t="str">
-        <f>IF(ISBLANK(E519),_xlfn.CONCAT("SUB ",A518),_xlfn.CONCAT("SUB ",A518,"(",E519,")"))</f>
-        <v>SUB GETBOARDORIG(ROW,COL)</v>
-      </c>
-      <c r="E519" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="18"/>
-      <c r="B520" s="24">
+      <c r="B520">
         <v>5280</v>
       </c>
-      <c r="C520" t="s">
-        <v>714</v>
+      <c r="C520" t="str">
+        <f>IF(ISBLANK(E520),_xlfn.CONCAT("SUB ",A519),_xlfn.CONCAT("SUB ",A519,"(",E520,")"))</f>
+        <v>SUB GETBOARDORIG(ROW,COL)</v>
+      </c>
+      <c r="E520" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="18"/>
-      <c r="B521" s="24">
+      <c r="B521">
         <v>5290</v>
       </c>
-      <c r="C521" s="5" t="s">
+      <c r="C521" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" s="18"/>
+      <c r="B522">
+        <v>5300</v>
+      </c>
+      <c r="C522" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A522" s="18" t="s">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="B522" s="24">
-        <v>5300</v>
-      </c>
-      <c r="C522" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A522,"***")</f>
+      <c r="B523">
+        <v>5310</v>
+      </c>
+      <c r="C523" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A523,"***")</f>
         <v>REM SUBROUTINE ***GETAUXORIG***</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A523" s="18"/>
-      <c r="B523" s="24">
-        <v>5310</v>
-      </c>
-      <c r="C523" t="str">
-        <f>IF(ISBLANK(E523),_xlfn.CONCAT("SUB ",A522),_xlfn.CONCAT("SUB ",A522,"(",E523,")"))</f>
-        <v>SUB GETAUXORIG(ROW,COL)</v>
-      </c>
-      <c r="E523" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="18"/>
-      <c r="B524" s="24">
+      <c r="B524">
         <v>5320</v>
       </c>
-      <c r="C524" t="s">
-        <v>715</v>
+      <c r="C524" t="str">
+        <f>IF(ISBLANK(E524),_xlfn.CONCAT("SUB ",A523),_xlfn.CONCAT("SUB ",A523,"(",E524,")"))</f>
+        <v>SUB GETAUXORIG(ROW,COL)</v>
+      </c>
+      <c r="E524" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="18"/>
-      <c r="B525" s="24">
+      <c r="B525">
         <v>5330</v>
       </c>
-      <c r="C525" s="5" t="s">
+      <c r="C525" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" s="18"/>
+      <c r="B526">
+        <v>5340</v>
+      </c>
+      <c r="C526" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A526" s="18" t="s">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="B526" s="24">
-        <v>5340</v>
-      </c>
-      <c r="C526" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A526,"***")</f>
+      <c r="B527">
+        <v>5350</v>
+      </c>
+      <c r="C527" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A527,"***")</f>
         <v>REM SUBROUTINE ***GETMENUORIG***</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A527" s="18"/>
-      <c r="B527" s="24">
-        <v>5350</v>
-      </c>
-      <c r="C527" t="str">
-        <f>IF(ISBLANK(E527),_xlfn.CONCAT("SUB ",A526),_xlfn.CONCAT("SUB ",A526,"(",E527,")"))</f>
-        <v>SUB GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="E527" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="18"/>
-      <c r="B528" s="24">
+      <c r="B528">
         <v>5360</v>
       </c>
-      <c r="C528" t="s">
-        <v>718</v>
+      <c r="C528" t="str">
+        <f>IF(ISBLANK(E528),_xlfn.CONCAT("SUB ",A527),_xlfn.CONCAT("SUB ",A527,"(",E528,")"))</f>
+        <v>SUB GETMENUORIG(ROW,COL)</v>
+      </c>
+      <c r="E528" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="18"/>
-      <c r="B529" s="24">
+      <c r="B529">
         <v>5370</v>
       </c>
-      <c r="C529" s="5" t="s">
+      <c r="C529" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530" s="18"/>
+      <c r="B530">
+        <v>5380</v>
+      </c>
+      <c r="C530" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A530" s="18" t="s">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="B530" s="24">
-        <v>5380</v>
-      </c>
-      <c r="C530" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A530,"***")</f>
+      <c r="B531">
+        <v>5390</v>
+      </c>
+      <c r="C531" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A531,"***")</f>
         <v>REM SUBROUTINE ***GETDEBUGFLAG***</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A531" s="18"/>
-      <c r="B531" s="24">
-        <v>5390</v>
-      </c>
-      <c r="C531" t="str">
-        <f>IF(ISBLANK(E531),_xlfn.CONCAT("SUB ",A530),_xlfn.CONCAT("SUB ",A530,"(",E531,")"))</f>
-        <v>SUB GETDEBUGFLAG(DEBUG)</v>
-      </c>
-      <c r="E531" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="18"/>
-      <c r="B532" s="24">
+      <c r="B532">
         <v>5400</v>
       </c>
-      <c r="C532" s="5" t="s">
-        <v>626</v>
+      <c r="C532" t="str">
+        <f>IF(ISBLANK(E532),_xlfn.CONCAT("SUB ",A531),_xlfn.CONCAT("SUB ",A531,"(",E532,")"))</f>
+        <v>SUB GETDEBUGFLAG(DEBUG)</v>
+      </c>
+      <c r="E532" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="18"/>
-      <c r="B533" s="24">
+      <c r="B533">
         <v>5410</v>
       </c>
       <c r="C533" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534" s="18"/>
+      <c r="B534">
+        <v>5420</v>
+      </c>
+      <c r="C534" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="F533" t="str">
-        <f>_xlfn.IFNA(MATCH(D533,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C537" s="5"/>
+      <c r="F534" t="str">
+        <f>_xlfn.IFNA(MATCH(D534,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C538" s="5"/>
@@ -9845,7 +10107,6 @@
       <c r="C541" s="5"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A542"/>
       <c r="C542" s="5"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
@@ -9876,64 +10137,65 @@
       <c r="A549"/>
       <c r="C549" s="5"/>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570"/>
-      <c r="C570" s="5"/>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550"/>
+      <c r="C550" s="5"/>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571"/>
       <c r="C571" s="5"/>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575"/>
-      <c r="C575" s="5"/>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578"/>
-      <c r="C578" s="5"/>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584"/>
-      <c r="C584" s="5"/>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588"/>
-      <c r="C588" s="5"/>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592"/>
-      <c r="C592" s="5"/>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596"/>
-      <c r="C596" s="5"/>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606"/>
-      <c r="C606" s="5"/>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613"/>
-      <c r="C613" s="5"/>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617"/>
-      <c r="C617" s="5"/>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C622" s="5"/>
-    </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C628" s="5"/>
-    </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C634" s="5"/>
-    </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C637" s="5"/>
-    </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C659" s="5"/>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572"/>
+      <c r="C572" s="5"/>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576"/>
+      <c r="C576" s="5"/>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579"/>
+      <c r="C579" s="5"/>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585"/>
+      <c r="C585" s="5"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589"/>
+      <c r="C589" s="5"/>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593"/>
+      <c r="C593" s="5"/>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597"/>
+      <c r="C597" s="5"/>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607"/>
+      <c r="C607" s="5"/>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614"/>
+      <c r="C614" s="5"/>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618"/>
+      <c r="C618" s="5"/>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C623" s="5"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C629" s="5"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C635" s="5"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C638" s="5"/>
     </row>
     <row r="660" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C660" s="5"/>
@@ -9956,8 +10218,8 @@
     <row r="666" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C666" s="5"/>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C671" s="5"/>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C667" s="5"/>
     </row>
     <row r="672" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C672" s="5"/>
@@ -9974,14 +10236,14 @@
     <row r="676" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C676" s="5"/>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C678" s="5"/>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C677" s="5"/>
     </row>
     <row r="679" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C679" s="5"/>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C692" s="1"/>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C680" s="5"/>
     </row>
     <row r="693" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C693" s="1"/>
@@ -9995,41 +10257,41 @@
     <row r="696" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C696" s="1"/>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C698" s="1"/>
-    </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C700" s="1"/>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C697" s="1"/>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C699" s="1"/>
     </row>
     <row r="701" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C701" s="1"/>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C703" s="1"/>
-    </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C705" s="1"/>
-    </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C709" s="1"/>
-    </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C713" s="1"/>
-    </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C715" s="1"/>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C702" s="1"/>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C704" s="1"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C706" s="1"/>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C710" s="1"/>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C714" s="1"/>
     </row>
     <row r="716" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C716" s="1"/>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C721" s="5"/>
-    </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C734" s="5"/>
-    </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C738" s="5"/>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C717" s="1"/>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C722" s="5"/>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C735" s="5"/>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C739" s="5"/>
@@ -10040,8 +10302,11 @@
     <row r="741" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C741" s="5"/>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C744" s="5"/>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C742" s="5"/>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C745" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10049,15 +10314,1865 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F8EE47-B396-374B-86FE-D1595446850D}">
+  <dimension ref="A1:H162"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="194.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>IF(ISBLANK(E5),_xlfn.CONCAT("CALL ",D5),_xlfn.CONCAT("CALL ",D5,"(",E5,")"))</f>
+        <v>CALL MOCK(SHIPS(,,))</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>A8</f>
+        <v>MOCK</v>
+      </c>
+      <c r="E5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>IF(ISBLANK(E6),_xlfn.CONCAT("CALL ",D6),_xlfn.CONCAT("CALL ",D6,"(",E6,")"))</f>
+        <v>CALL TEST(SHIPS(,,))</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>A27</f>
+        <v>TEST</v>
+      </c>
+      <c r="E6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A8,"***")</f>
+        <v>REM SUBROUTINE ***MOCK***</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9">
+        <v>170</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(ISBLANK(E9),_xlfn.CONCAT("SUB ",A8),_xlfn.CONCAT("SUB ",A8,"(",E9,")"))</f>
+        <v>SUB MOCK(SHIPS(,,))</v>
+      </c>
+      <c r="E9" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14">
+        <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15">
+        <v>230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>IF(ISBLANK(E16),_xlfn.CONCAT("CALL ",D16),_xlfn.CONCAT("CALL ",D16,"(",E16,")"))</f>
+        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>A72</f>
+        <v>GETNUMSHIPS</v>
+      </c>
+      <c r="E16" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18">
+        <v>260</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>IF(ISBLANK(E18),_xlfn.CONCAT("CALL ",D18),_xlfn.CONCAT("CALL ",D18,"(",E18,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,I)</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>A76</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E18" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23">
+        <v>310</v>
+      </c>
+      <c r="C23" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25">
+        <v>330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26">
+        <v>340</v>
+      </c>
+      <c r="C26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B27">
+        <v>350</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A27,"***")</f>
+        <v>REM SUBROUTINE ***TEST***</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28">
+        <v>360</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(ISBLANK(E28),_xlfn.CONCAT("SUB ",A27),_xlfn.CONCAT("SUB ",A27,"(",E28,")"))</f>
+        <v>SUB TEST(SHIPS(,,))</v>
+      </c>
+      <c r="E28" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29">
+        <v>370</v>
+      </c>
+      <c r="C29" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30">
+        <v>380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31">
+        <v>390</v>
+      </c>
+      <c r="C31" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>IF(ISBLANK(E32),_xlfn.CONCAT("CALL ",D32),_xlfn.CONCAT("CALL ",D32,"(",E32,")"))</f>
+        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f>A72</f>
+        <v>GETNUMSHIPS</v>
+      </c>
+      <c r="E32" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33">
+        <v>410</v>
+      </c>
+      <c r="C33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34">
+        <v>420</v>
+      </c>
+      <c r="C34" s="18" t="str">
+        <f>IF(ISBLANK(E34),_xlfn.CONCAT("CALL ",D34),_xlfn.CONCAT("CALL ",D34,"(",E34,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,I)</v>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f>A76</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E34" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35">
+        <v>430</v>
+      </c>
+      <c r="C35" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36">
+        <v>440</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37">
+        <v>450</v>
+      </c>
+      <c r="C37" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38">
+        <v>460</v>
+      </c>
+      <c r="C38" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39">
+        <v>470</v>
+      </c>
+      <c r="C39" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40">
+        <v>480</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41">
+        <v>490</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42">
+        <v>500</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43">
+        <v>510</v>
+      </c>
+      <c r="C43" s="36" t="str">
+        <f>IF(ISBLANK(E43),_xlfn.CONCAT("REM CALL ",D43),_xlfn.CONCAT("REM CALL ",D43,"(",E43,")"))</f>
+        <v>REM CALL CHECKHIT(HIT,SHIP,(LOC),0,SHIPS(,,))</v>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f>A87</f>
+        <v>CHECKHIT</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44">
+        <v>520</v>
+      </c>
+      <c r="C44" s="36" t="str">
+        <f>_xlfn.CONCAT("REM IF HIT=1 THEN CALL ",D44,"(",E44,") :: HITSLEFT(0,SHIP)=HITSLEFT(0,SHIP)-1")</f>
+        <v>REM IF HIT=1 THEN CALL QUEUEADD(Q(),QLEN,(LOC),ERRVAL) :: HITSLEFT(0,SHIP)=HITSLEFT(0,SHIP)-1</v>
+      </c>
+      <c r="D44" s="23" t="str">
+        <f>A116</f>
+        <v>QUEUEADD</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B45">
+        <v>530</v>
+      </c>
+      <c r="C45" s="29" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A45,"***")</f>
+        <v>REM LABEL ***TESTLOOP***</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46">
+        <v>540</v>
+      </c>
+      <c r="C46" s="24" t="str">
+        <f>IF(ISBLANK(E46),_xlfn.CONCAT("CALL ",D46),_xlfn.CONCAT("CALL ",D46,"(",E46,")"))</f>
+        <v>CALL GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+      </c>
+      <c r="D46" s="23" t="str">
+        <f>A133</f>
+        <v>GAMEAI</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47">
+        <v>550</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48">
+        <v>560</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49">
+        <v>570</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50">
+        <v>580</v>
+      </c>
+      <c r="C50" s="24" t="str">
+        <f>IF(ISBLANK(E50),_xlfn.CONCAT("CALL ",D50),_xlfn.CONCAT("CALL ",D50,"(",E50,")"))</f>
+        <v>CALL CHECKHIT(HIT,SHIP,(LOC),0,SHIPS(,,))</v>
+      </c>
+      <c r="D50" s="18" t="str">
+        <f>A87</f>
+        <v>CHECKHIT</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51">
+        <v>590</v>
+      </c>
+      <c r="C51" s="24" t="str">
+        <f>_xlfn.CONCAT("IF HIT=1 THEN CALL ",D51,"(",E51,")")</f>
+        <v>IF HIT=1 THEN CALL QUEUEADD(Q(),QLEN,(LOC),ERRVAL)</v>
+      </c>
+      <c r="D51" s="23" t="str">
+        <f>A116</f>
+        <v>QUEUEADD</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52">
+        <v>600</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53">
+        <v>610</v>
+      </c>
+      <c r="C53" s="6" t="str">
+        <f>_xlfn.CONCAT("IF HIT=0 THEN ",INDEX(B:B,MATCH(D53,A:A,0),0)," :: REM GOTO ",D53)</f>
+        <v>IF HIT=0 THEN 530 :: REM GOTO TESTLOOP</v>
+      </c>
+      <c r="D53" s="20" t="str">
+        <f>A45</f>
+        <v>TESTLOOP</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54">
+        <v>620</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55">
+        <v>630</v>
+      </c>
+      <c r="C55" s="6" t="str">
+        <f>_xlfn.CONCAT("IF HITSLEFT(0,SHIP)&gt;0 THEN ",INDEX(B:B,MATCH(D55,A:A,0),0)," :: REM GOTO ",D55)</f>
+        <v>IF HITSLEFT(0,SHIP)&gt;0 THEN 530 :: REM GOTO TESTLOOP</v>
+      </c>
+      <c r="D55" s="20" t="str">
+        <f>A45</f>
+        <v>TESTLOOP</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56">
+        <v>640</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57">
+        <v>650</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58">
+        <v>660</v>
+      </c>
+      <c r="C58" s="6" t="str">
+        <f>_xlfn.CONCAT("IF SHIPSLEFT(0)=0 THEN ",INDEX(B:B,MATCH(D58,A:A,0),0)," :: REM GOTO ",D58)</f>
+        <v>IF SHIPSLEFT(0)=0 THEN 750 :: REM GOTO FINISHED</v>
+      </c>
+      <c r="D58" s="20" t="str">
+        <f>A67</f>
+        <v>FINISHED</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59">
+        <v>670</v>
+      </c>
+      <c r="C59" s="24" t="str">
+        <f>IF(ISBLANK(E59),_xlfn.CONCAT("CALL ",D59),_xlfn.CONCAT("CALL ",D59,"(",E59,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,SHIP)</v>
+      </c>
+      <c r="D59" s="18" t="str">
+        <f>D34</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60">
+        <v>680</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61">
+        <v>690</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62">
+        <v>700</v>
+      </c>
+      <c r="C62" s="24" t="str">
+        <f>IF(ISBLANK(E62),_xlfn.CONCAT("CALL ",D62),_xlfn.CONCAT("CALL ",D62,"(",E62,")"))</f>
+        <v>CALL QUEUEDEL(Q(),QLEN,(LOC),ERRVAL)</v>
+      </c>
+      <c r="D62" s="18" t="str">
+        <f>A121</f>
+        <v>QUEUEDEL</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63">
+        <v>710</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64">
+        <v>720</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65">
+        <v>730</v>
+      </c>
+      <c r="C65" s="24" t="str">
+        <f>IF(ISBLANK(E65),_xlfn.CONCAT("CALL ",D65),_xlfn.CONCAT("CALL ",D65,"(",E65,")"))</f>
+        <v>CALL QUEUEPRINT(Q(),QLEN)</v>
+      </c>
+      <c r="D65" s="18" t="str">
+        <f>A98</f>
+        <v>QUEUEPRINT</v>
+      </c>
+      <c r="E65" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>740</v>
+      </c>
+      <c r="C66" s="6" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D66,A:A,0),0)," :: REM GOTO ",D66,"")</f>
+        <v>GOTO 530 :: REM GOTO TESTLOOP</v>
+      </c>
+      <c r="D66" s="18" t="str">
+        <f>A45</f>
+        <v>TESTLOOP</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B67">
+        <v>750</v>
+      </c>
+      <c r="C67" s="29" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A67,"***")</f>
+        <v>REM LABEL ***FINISHED***</v>
+      </c>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>760</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="18"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69">
+        <v>770</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70">
+        <v>780</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71">
+        <v>790</v>
+      </c>
+      <c r="C71" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B72">
+        <v>800</v>
+      </c>
+      <c r="C72" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A72,"***")</f>
+        <v>REM SUBROUTINE ***GETNUMSHIPS***</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73">
+        <v>810</v>
+      </c>
+      <c r="C73" t="str">
+        <f>IF(ISBLANK(E73),_xlfn.CONCAT("SUB ",A72),_xlfn.CONCAT("SUB ",A72,"(",E73,")"))</f>
+        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="E73" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74">
+        <v>820</v>
+      </c>
+      <c r="C74" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75">
+        <v>830</v>
+      </c>
+      <c r="C75" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="B76">
+        <v>840</v>
+      </c>
+      <c r="C76" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A76,"***")</f>
+        <v>REM SUBROUTINE ***GETSHIPLEN***</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+      <c r="B77">
+        <v>850</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IF(ISBLANK(E77),_xlfn.CONCAT("SUB ",A76),_xlfn.CONCAT("SUB ",A76,"(",E77,")"))</f>
+        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
+      </c>
+      <c r="E77" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
+      <c r="B78">
+        <v>860</v>
+      </c>
+      <c r="C78" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
+      <c r="B79">
+        <v>870</v>
+      </c>
+      <c r="C79" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80">
+        <v>880</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="B81">
+        <v>890</v>
+      </c>
+      <c r="C81" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A81,"***")</f>
+        <v>REM SUBROUTINE ***CHECKVALIDSHOT***</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82">
+        <v>900</v>
+      </c>
+      <c r="C82" t="str">
+        <f>IF(ISBLANK(E82),_xlfn.CONCAT("SUB ",A81),_xlfn.CONCAT("SUB ",A81,"(",E82,")"))</f>
+        <v>SUB CHECKVALIDSHOT(ERRORVAL,ROW,COL,PLAYER,SHOTS(,,))</v>
+      </c>
+      <c r="E82" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83">
+        <v>910</v>
+      </c>
+      <c r="C83" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+      <c r="B84">
+        <v>920</v>
+      </c>
+      <c r="C84" t="str">
+        <f>_xlfn.CONCAT("IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  ",INDEX(B:B,MATCH(D84,A:A,0),0)," :: REM GOTO SUBEND")</f>
+        <v>IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  940 :: REM GOTO SUBEND</v>
+      </c>
+      <c r="D84" s="20" t="str">
+        <f>A86</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85">
+        <v>930</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D85" s="20"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="20" t="str">
+        <f>_xlfn.CONCAT(A81,".SUBEND")</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
+      <c r="B86">
+        <v>940</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="B87">
+        <v>950</v>
+      </c>
+      <c r="C87" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A87,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHIT***</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+      <c r="B88">
+        <v>960</v>
+      </c>
+      <c r="C88" t="str">
+        <f>IF(ISBLANK(E88),_xlfn.CONCAT("SUB ",A87),_xlfn.CONCAT("SUB ",A87,"(",E88,")"))</f>
+        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
+      </c>
+      <c r="E88" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
+      <c r="B89">
+        <v>970</v>
+      </c>
+      <c r="C89" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90">
+        <v>980</v>
+      </c>
+      <c r="C90" s="18" t="str">
+        <f t="shared" ref="C90:C92" si="0">IF(ISBLANK(E90),_xlfn.CONCAT("CALL ",D90),_xlfn.CONCAT("CALL ",D90,"(",E90,")"))</f>
+        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="D90" s="18" t="str">
+        <f>A72</f>
+        <v>GETNUMSHIPS</v>
+      </c>
+      <c r="E90" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91">
+        <v>990</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92">
+        <v>1000</v>
+      </c>
+      <c r="C92" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+      </c>
+      <c r="D92" s="18" t="str">
+        <f>A76</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E92" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93">
+        <v>1010</v>
+      </c>
+      <c r="C93" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+      <c r="B94">
+        <v>1020</v>
+      </c>
+      <c r="C94" s="5" t="str">
+        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D94,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 1050 :: REM SUBEND</v>
+      </c>
+      <c r="D94" s="20" t="str">
+        <f>A97</f>
+        <v>CHECKHIT.SUBEND</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95">
+        <v>1030</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+      <c r="B96">
+        <v>1040</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="str">
+        <f>_xlfn.CONCAT(A87,".SUBEND")</f>
+        <v>CHECKHIT.SUBEND</v>
+      </c>
+      <c r="B97">
+        <v>1050</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="B98">
+        <v>1060</v>
+      </c>
+      <c r="C98" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A98,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEPRINT***</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+      <c r="B99">
+        <v>1070</v>
+      </c>
+      <c r="C99" t="str">
+        <f>IF(ISBLANK(E99),_xlfn.CONCAT("SUB ",A98),_xlfn.CONCAT("SUB ",A98,"(",E99,")"))</f>
+        <v>SUB QUEUEPRINT(Q(),QLEN)</v>
+      </c>
+      <c r="E99" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+      <c r="B100">
+        <v>1080</v>
+      </c>
+      <c r="C100" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="18"/>
+      <c r="B101">
+        <v>1090</v>
+      </c>
+      <c r="C101" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="18"/>
+      <c r="B102">
+        <v>1100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="18"/>
+      <c r="B103">
+        <v>1110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+      <c r="B104">
+        <v>1120</v>
+      </c>
+      <c r="C104" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="18"/>
+      <c r="B105">
+        <v>1130</v>
+      </c>
+      <c r="C105" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="26" t="s">
+        <v>973</v>
+      </c>
+      <c r="B106">
+        <v>1140</v>
+      </c>
+      <c r="C106" s="29" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A106,"***")</f>
+        <v>REM SUBROUTINE ***QUEUESIZE***</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107">
+        <v>1150</v>
+      </c>
+      <c r="C107" s="29" t="str">
+        <f>IF(ISBLANK(E107),_xlfn.CONCAT("SUB ",A106),_xlfn.CONCAT("SUB ",A106,"(",E107,")"))</f>
+        <v>SUB QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="E107" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
+      <c r="B108">
+        <v>1160</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109">
+        <v>1170</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="B110">
+        <v>1180</v>
+      </c>
+      <c r="C110" s="29" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A110,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEINIT***</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="26"/>
+      <c r="B111">
+        <v>1190</v>
+      </c>
+      <c r="C111" s="29" t="str">
+        <f>IF(ISBLANK(E111),_xlfn.CONCAT("SUB ",A110),_xlfn.CONCAT("SUB ",A110,"(",E111,")"))</f>
+        <v>SUB QUEUEINIT(Q(),QLEN)</v>
+      </c>
+      <c r="E111" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112">
+        <v>1200</v>
+      </c>
+      <c r="C112" s="28" t="str">
+        <f>IF(ISBLANK(E112),_xlfn.CONCAT("CALL ",D112),_xlfn.CONCAT("CALL ",D112,"(",E112,")"))</f>
+        <v>CALL QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D112" s="18" t="str">
+        <f>A106</f>
+        <v>QUEUESIZE</v>
+      </c>
+      <c r="E112" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="26"/>
+      <c r="B113">
+        <v>1210</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="26"/>
+      <c r="B114">
+        <v>1220</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="26"/>
+      <c r="B115">
+        <v>1230</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="B116">
+        <v>1240</v>
+      </c>
+      <c r="C116" s="29" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A116,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEADD***</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="26"/>
+      <c r="B117">
+        <v>1250</v>
+      </c>
+      <c r="C117" s="29" t="str">
+        <f>IF(ISBLANK(E117),_xlfn.CONCAT("SUB ",A116),_xlfn.CONCAT("SUB ",A116,"(",E117,")"))</f>
+        <v>SUB QUEUEADD(Q(),QLEN,VALUE,ERRVAL)</v>
+      </c>
+      <c r="E117" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="26"/>
+      <c r="B118">
+        <v>1260</v>
+      </c>
+      <c r="C118" s="28" t="str">
+        <f>IF(ISBLANK(E118),_xlfn.CONCAT("CALL ",D118),_xlfn.CONCAT("CALL ",D118,"(",E118,")"))</f>
+        <v>CALL QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D118" s="18" t="str">
+        <f>A106</f>
+        <v>QUEUESIZE</v>
+      </c>
+      <c r="E118" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="26"/>
+      <c r="B119">
+        <v>1270</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="26"/>
+      <c r="B120">
+        <v>1280</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="B121">
+        <v>1290</v>
+      </c>
+      <c r="C121" s="29" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A121,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEDEL***</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="26"/>
+      <c r="B122">
+        <v>1300</v>
+      </c>
+      <c r="C122" s="29" t="str">
+        <f>IF(ISBLANK(E122),_xlfn.CONCAT("SUB ",A121),_xlfn.CONCAT("SUB ",A121,"(",E122,")"))</f>
+        <v>SUB QUEUEDEL(Q(),QLEN,VALUE,ERRVAL)</v>
+      </c>
+      <c r="E122" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="26"/>
+      <c r="B123">
+        <v>1310</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="26"/>
+      <c r="B124">
+        <v>1320</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="26"/>
+      <c r="B125">
+        <v>1330</v>
+      </c>
+      <c r="C125" s="29" t="str">
+        <f>_xlfn.CONCAT("IF VALUE=Q(I) THEN DINDEX=I :: GOTO ",INDEX(B:B,MATCH(D125,A:A,0),0)," :: REM GOTO ",D125)</f>
+        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 1350 :: REM GOTO QUEUEDELFOUND</v>
+      </c>
+      <c r="D125" s="20" t="str">
+        <f>A127</f>
+        <v>QUEUEDELFOUND</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="26"/>
+      <c r="B126">
+        <v>1340</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="27" t="s">
+        <v>983</v>
+      </c>
+      <c r="B127">
+        <v>1350</v>
+      </c>
+      <c r="C127" s="29" t="str">
+        <f>_xlfn.CONCAT("IF DINDEX=-1 THEN ",INDEX(B:B,MATCH(D127,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF DINDEX=-1 THEN 1400 :: REM SUBEND</v>
+      </c>
+      <c r="D127" s="20" t="str">
+        <f>A132</f>
+        <v>QUEUEDEL.SUBEND</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="25"/>
+      <c r="B128">
+        <v>1360</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="25"/>
+      <c r="B129">
+        <v>1370</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="25"/>
+      <c r="B130">
+        <v>1380</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="25"/>
+      <c r="B131">
+        <v>1390</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="27" t="str">
+        <f>_xlfn.CONCAT(A121,".SUBEND")</f>
+        <v>QUEUEDEL.SUBEND</v>
+      </c>
+      <c r="B132">
+        <v>1400</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="B133">
+        <v>1410</v>
+      </c>
+      <c r="C133" s="29" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A133,"***")</f>
+        <v>REM SUBROUTINE ***GAMEAI***</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="32"/>
+      <c r="B134">
+        <v>1420</v>
+      </c>
+      <c r="C134" s="29" t="str">
+        <f>IF(ISBLANK(E134),_xlfn.CONCAT("SUB ",A133),_xlfn.CONCAT("SUB ",A133,"(",E134,")"))</f>
+        <v>SUB GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B135">
+        <v>1430</v>
+      </c>
+      <c r="C135" s="29" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A135,"***")</f>
+        <v>REM LABEL ***AISTART***</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="33"/>
+      <c r="B136">
+        <v>1440</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="33"/>
+      <c r="B137">
+        <v>1450</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="32"/>
+      <c r="B138">
+        <v>1460</v>
+      </c>
+      <c r="C138" s="29" t="str">
+        <f>_xlfn.CONCAT("IF QLEN=0 THEN GOSUB ",INDEX(B:B,MATCH(D138,A:A,0),0)," :: REM GOSUB ",D138,)</f>
+        <v>IF QLEN=0 THEN GOSUB 1560 :: REM GOSUB EMPTYQUEUE</v>
+      </c>
+      <c r="D138" s="17" t="str">
+        <f>A148</f>
+        <v>EMPTYQUEUE</v>
+      </c>
+      <c r="E138" s="20" t="str">
+        <f>A144</f>
+        <v>VALIDATESHOT</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="32"/>
+      <c r="B139">
+        <v>1470</v>
+      </c>
+      <c r="C139" s="29" t="str">
+        <f>_xlfn.CONCAT("IF QLEN=0 THEN GOTO ",INDEX(B:B,MATCH(E138,A:A,0),0)," :: REM GOTO ",E138)</f>
+        <v>IF QLEN=0 THEN GOTO 1520 :: REM GOTO VALIDATESHOT</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="20"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="32"/>
+      <c r="B140">
+        <v>1480</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D140" s="20" t="str">
+        <f>A144</f>
+        <v>VALIDATESHOT</v>
+      </c>
+      <c r="E140" s="17"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="32"/>
+      <c r="B141">
+        <v>1490</v>
+      </c>
+      <c r="C141" s="29" t="str">
+        <f>_xlfn.CONCAT("IF OFFSET=0 THEN GOSUB ",INDEX(B:B,MATCH(D141,A:A,0),0)," :: REM GOSUB ",D141)</f>
+        <v>IF OFFSET=0 THEN GOSUB 1600 :: REM GOSUB OFFSETZERO</v>
+      </c>
+      <c r="D141" s="17" t="str">
+        <f>A152</f>
+        <v>OFFSETZERO</v>
+      </c>
+      <c r="E141" s="17"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="32"/>
+      <c r="B142">
+        <v>1500</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>995</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="32"/>
+      <c r="B143">
+        <v>1510</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="33" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B144">
+        <v>1520</v>
+      </c>
+      <c r="C144" s="29" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A144,"***")</f>
+        <v>REM LABEL ***VALIDATESHOT***</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="32"/>
+      <c r="B145">
+        <v>1530</v>
+      </c>
+      <c r="C145" s="28" t="str">
+        <f>IF(ISBLANK(E145),_xlfn.CONCAT("CALL ",D145),_xlfn.CONCAT("CALL ",D145,"(",E145,")"))</f>
+        <v>CALL CHECKVALIDSHOT(ERRORVAL,(ROW),(COL),0,SHOTS(,,))</v>
+      </c>
+      <c r="D145" s="17" t="str">
+        <f>A81</f>
+        <v>CHECKVALIDSHOT</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="32"/>
+      <c r="B146">
+        <v>1540</v>
+      </c>
+      <c r="C146" s="29" t="str">
+        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN OFFSET=0 :: GOTO ",INDEX(B:B,MATCH(D146,A:A,0),0)," :: REM GOTO ",D146,"")</f>
+        <v>IF ERRORVAL=1 THEN OFFSET=0 :: GOTO 1430 :: REM GOTO AISTART</v>
+      </c>
+      <c r="D146" s="20" t="str">
+        <f>A135</f>
+        <v>AISTART</v>
+      </c>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="32"/>
+      <c r="B147">
+        <v>1550</v>
+      </c>
+      <c r="C147" s="29" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D147,A:A,0),0)," :: REM GOTO SUBEND")</f>
+        <v>GOTO 1680 :: REM GOTO SUBEND</v>
+      </c>
+      <c r="D147" s="20" t="str">
+        <f>A160</f>
+        <v>GAMEAI.SUBEND</v>
+      </c>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="34" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B148">
+        <v>1560</v>
+      </c>
+      <c r="C148" s="29" t="str">
+        <f>_xlfn.CONCAT("REM GOSUB ***",A148,"***")</f>
+        <v>REM GOSUB ***EMPTYQUEUE***</v>
+      </c>
+      <c r="D148" s="20"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="32"/>
+      <c r="B149">
+        <v>1570</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="32"/>
+      <c r="B150">
+        <v>1580</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="32"/>
+      <c r="B151">
+        <v>1590</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B152">
+        <v>1600</v>
+      </c>
+      <c r="C152" s="29" t="str">
+        <f>_xlfn.CONCAT("REM GOSUB ***",A152,"***")</f>
+        <v>REM GOSUB ***OFFSETZERO***</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="34"/>
+      <c r="B153">
+        <v>1610</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="32"/>
+      <c r="B154">
+        <v>1620</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="32"/>
+      <c r="B155">
+        <v>1630</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="32"/>
+      <c r="B156">
+        <v>1640</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="32"/>
+      <c r="B157">
+        <v>1650</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="D157" s="18"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="32"/>
+      <c r="B158">
+        <v>1660</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="32"/>
+      <c r="B159">
+        <v>1670</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="33" t="str">
+        <f>_xlfn.CONCAT(A133,".SUBEND")</f>
+        <v>GAMEAI.SUBEND</v>
+      </c>
+      <c r="B160">
+        <v>1680</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="33"/>
+      <c r="B161">
+        <v>1690</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="32"/>
+      <c r="B162">
+        <v>1700</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7127DFE6-769A-A84A-A3B0-95C51DFC60FE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C387" sqref="C387"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D9F27F-087C-5D45-BED7-41188B1A1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3314A-6972-6340-9C7E-FA2BC526FFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1041">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -2761,9 +2761,6 @@
     <t>PLAYERTURN</t>
   </si>
   <si>
-    <t>PLAYER=1-PLAYER</t>
-  </si>
-  <si>
     <t>TURNLOOP</t>
   </si>
   <si>
@@ -3118,35 +3115,62 @@
     <t>IF QLEN&lt;=OLDQLEN THEN OFFSET=0</t>
   </si>
   <si>
+    <t>GETAUTOPLAY</t>
+  </si>
+  <si>
+    <t>AUTOPLAY</t>
+  </si>
+  <si>
+    <t>CALL GETSHIPLEN(SHIPLEN,(SHIP))</t>
+  </si>
+  <si>
+    <t>SUNKLOC=SHIPS(0,SHIP,I)</t>
+  </si>
+  <si>
+    <t>Q(),QLEN,(SUNKLOC),ERRVAL</t>
+  </si>
+  <si>
+    <t>ROW,COL,SHOTS(,,)</t>
+  </si>
+  <si>
+    <t>INPUTLOOP</t>
+  </si>
+  <si>
+    <t>WINNER,(ROW),(COL),(PLAYER),HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN</t>
+  </si>
+  <si>
     <t>WINNER,ROW,COL,PLAYER,HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN</t>
   </si>
   <si>
-    <t>WINNER,(ROW),(COL),(PLAYER),HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN</t>
-  </si>
-  <si>
-    <t>SUNKLOC=SHIPS(0,SHIP,I)</t>
-  </si>
-  <si>
-    <t>Q(),QLEN,(SUNKLOC),ERRVAL</t>
-  </si>
-  <si>
-    <t>ROW,COL,SHOTS(,,)</t>
-  </si>
-  <si>
-    <t>INPUTLOOP</t>
-  </si>
-  <si>
     <t>ERRORVAL,(ROW),(COL),1,SHOTS(,,)</t>
   </si>
   <si>
     <t>DEBUG=0</t>
+  </si>
+  <si>
+    <t>IF AUTOPLAY=0 THEN PLAYER=1-PLAYER</t>
+  </si>
+  <si>
+    <t>AUTOPLAY=0</t>
+  </si>
+  <si>
+    <t>IF AUTOPLAY=1 THEN PLAYER=1 ELSE PLAYER=0</t>
+  </si>
+  <si>
+    <t>ASKAUTO</t>
+  </si>
+  <si>
+    <t>REM LABEL ***GETROW***</t>
+  </si>
+  <si>
+    <t>ASKPLAYAGAIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3236,6 +3260,14 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3299,7 +3331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3334,13 +3366,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3675,7 +3701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:H809"/>
+  <dimension ref="A1:H813"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3714,16 +3740,18 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>944</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>945</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -3731,8 +3759,9 @@
         <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>946</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
@@ -3740,8 +3769,9 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>947</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
@@ -3749,8 +3779,9 @@
         <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>945</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
@@ -3758,8 +3789,9 @@
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>948</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -3767,8 +3799,9 @@
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>949</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
@@ -3776,8 +3809,9 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>945</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
@@ -3785,8 +3819,9 @@
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>950</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
@@ -3794,8 +3829,9 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>951</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
@@ -3803,8 +3839,9 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>945</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
@@ -3814,6 +3851,7 @@
       <c r="C13" t="s">
         <v>0</v>
       </c>
+      <c r="D13" s="18"/>
       <c r="H13" t="str">
         <f>_xlfn.IFNA(MATCH(F13,C:C,0),"")</f>
         <v/>
@@ -3827,6 +3865,7 @@
       <c r="C14" t="s">
         <v>632</v>
       </c>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -3836,6 +3875,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
@@ -3845,6 +3885,7 @@
       <c r="C16" t="s">
         <v>783</v>
       </c>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
@@ -3957,6 +3998,7 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
@@ -3969,6 +4011,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A25,"***")</f>
         <v>REM SUBROUTINE ***SETCHARS***</v>
       </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
@@ -3979,6 +4022,7 @@
         <f>IF(ISBLANK(D26),_xlfn.CONCAT("SUB ",A25),_xlfn.CONCAT("SUB ",A25,"(",D26,")"))</f>
         <v>SUB SETCHARS</v>
       </c>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
@@ -3990,7 +4034,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D27" s="18" t="str">
-        <f>A541</f>
+        <f>A545</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E27" t="s">
@@ -4005,6 +4049,7 @@
       <c r="C28" s="5" t="s">
         <v>765</v>
       </c>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
@@ -4016,7 +4061,7 @@
         <v>CALL GETFILLCHAR(FILLCHAR)</v>
       </c>
       <c r="D29" s="18" t="str">
-        <f>A545</f>
+        <f>A549</f>
         <v>GETFILLCHAR</v>
       </c>
       <c r="E29" t="s">
@@ -4031,6 +4076,7 @@
       <c r="C30" s="5" t="s">
         <v>766</v>
       </c>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -4042,7 +4088,7 @@
         <v>CALL GETHITCHAR(HITCHAR)</v>
       </c>
       <c r="D31" s="18" t="str">
-        <f>A549</f>
+        <f>A553</f>
         <v>GETHITCHAR</v>
       </c>
       <c r="E31" t="s">
@@ -4057,6 +4103,7 @@
       <c r="C32" t="s">
         <v>838</v>
       </c>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
@@ -4068,7 +4115,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D33" s="18" t="str">
-        <f>A553</f>
+        <f>A557</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E33" t="s">
@@ -4083,6 +4130,7 @@
       <c r="C34" s="5" t="s">
         <v>767</v>
       </c>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
@@ -4094,7 +4142,7 @@
         <v>CALL GETTENCHAR(TENCHAR)</v>
       </c>
       <c r="D35" s="18" t="str">
-        <f>A557</f>
+        <f>A561</f>
         <v>GETTENCHAR</v>
       </c>
       <c r="E35" t="s">
@@ -4109,6 +4157,7 @@
       <c r="C36" t="s">
         <v>768</v>
       </c>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
@@ -4120,7 +4169,7 @@
         <v>CALL GETMISSCHAR(MISSCHAR)</v>
       </c>
       <c r="D37" s="18" t="str">
-        <f>A561</f>
+        <f>A565</f>
         <v>GETMISSCHAR</v>
       </c>
       <c r="E37" t="s">
@@ -4135,6 +4184,7 @@
       <c r="C38" s="5" t="s">
         <v>840</v>
       </c>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
@@ -4146,7 +4196,7 @@
         <v>CALL GETSUNKCHAR(SUNKCHAR)</v>
       </c>
       <c r="D39" s="18" t="str">
-        <f>A565</f>
+        <f>A569</f>
         <v>GETSUNKCHAR</v>
       </c>
       <c r="E39" t="s">
@@ -4161,6 +4211,7 @@
       <c r="C40" s="5" t="s">
         <v>841</v>
       </c>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
@@ -4170,6 +4221,7 @@
       <c r="C41" t="s">
         <v>555</v>
       </c>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
@@ -4182,6 +4234,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A42,"***")</f>
         <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
       </c>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
@@ -4192,6 +4245,7 @@
         <f>IF(ISBLANK(D43),_xlfn.CONCAT("SUB ",A42),_xlfn.CONCAT("SUB ",A42,"(",D43,")"))</f>
         <v>SUB SETCOLORSCHEME</v>
       </c>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
@@ -4201,6 +4255,7 @@
       <c r="C44" s="5" t="s">
         <v>627</v>
       </c>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
@@ -4210,6 +4265,7 @@
       <c r="C45" s="5" t="s">
         <v>839</v>
       </c>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
@@ -4219,6 +4275,7 @@
       <c r="C46" s="5" t="s">
         <v>628</v>
       </c>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
@@ -4228,6 +4285,7 @@
       <c r="C47" s="5" t="s">
         <v>626</v>
       </c>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
@@ -4237,6 +4295,7 @@
       <c r="C48" t="s">
         <v>842</v>
       </c>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
@@ -4246,6 +4305,7 @@
       <c r="C49" t="s">
         <v>843</v>
       </c>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
@@ -4255,6 +4315,7 @@
       <c r="C50" t="s">
         <v>555</v>
       </c>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
@@ -4267,6 +4328,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A51,"***")</f>
         <v>REM SUBROUTINE ***DEPLOYSHIPS***</v>
       </c>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
@@ -4277,6 +4339,7 @@
         <f>IF(ISBLANK(E52),_xlfn.CONCAT("SUB ",A51),_xlfn.CONCAT("SUB ",A51,"(",E52,")"))</f>
         <v>SUB DEPLOYSHIPS(SHIPS(,,))</v>
       </c>
+      <c r="D52" s="18"/>
       <c r="E52" t="s">
         <v>720</v>
       </c>
@@ -4323,6 +4386,7 @@
       <c r="C55" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
@@ -4335,6 +4399,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A56,"***")</f>
         <v>REM SUBROUTINE ***DELOYPLAYER***</v>
       </c>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
@@ -4345,6 +4410,7 @@
         <f>IF(ISBLANK(E57),_xlfn.CONCAT("SUB ",A56),_xlfn.CONCAT("SUB ",A56,"(",E57,")"))</f>
         <v>SUB DELOYPLAYER(SHIPS(,,))</v>
       </c>
+      <c r="D57" s="18"/>
       <c r="E57" t="s">
         <v>720</v>
       </c>
@@ -4359,7 +4425,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f>A569</f>
+        <f>A573</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E58" t="s">
@@ -4458,7 +4524,7 @@
         <v>CALL MENUDEPLOYING</v>
       </c>
       <c r="D64" s="18" t="str">
-        <f>A387</f>
+        <f>A389</f>
         <v>MENUDEPLOYING</v>
       </c>
     </row>
@@ -4470,6 +4536,7 @@
       <c r="C65" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
@@ -4482,6 +4549,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A66,"***")</f>
         <v>REM SUBROUTINE ***DEPLOYAUTO***</v>
       </c>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
@@ -4492,6 +4560,7 @@
         <f>IF(ISBLANK(E67),_xlfn.CONCAT("SUB ",A66),_xlfn.CONCAT("SUB ",A66,"(",E67,")"))</f>
         <v>SUB DEPLOYAUTO(SHIPS(,,))</v>
       </c>
+      <c r="D67" s="18"/>
       <c r="E67" t="s">
         <v>720</v>
       </c>
@@ -4506,7 +4575,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D68" s="18" t="str">
-        <f>A591</f>
+        <f>A595</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E68" t="s">
@@ -4591,7 +4660,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D73" s="18" t="str">
-        <f>A569</f>
+        <f>A573</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E73" t="s">
@@ -4606,6 +4675,7 @@
       <c r="C74" s="5" t="s">
         <v>577</v>
       </c>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
@@ -4617,7 +4687,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D75" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E75" t="s">
@@ -4632,6 +4702,7 @@
       <c r="C76" t="s">
         <v>730</v>
       </c>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
@@ -4641,6 +4712,7 @@
       <c r="C77" s="5" t="s">
         <v>681</v>
       </c>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
@@ -4650,6 +4722,7 @@
       <c r="C78" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
@@ -4659,6 +4732,7 @@
       <c r="C79" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
@@ -4668,6 +4742,7 @@
       <c r="C80" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="18" t="s">
@@ -4680,6 +4755,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A81,"***")</f>
         <v>REM SUBROUTINE ***DEPLOYMANUAL***</v>
       </c>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
@@ -4690,6 +4766,7 @@
         <f>IF(ISBLANK(E82),_xlfn.CONCAT("SUB ",A81),_xlfn.CONCAT("SUB ",A81,"(",E82,")"))</f>
         <v>SUB DEPLOYMANUAL(SHIPS(,,))</v>
       </c>
+      <c r="D82" s="18"/>
       <c r="E82" t="s">
         <v>720</v>
       </c>
@@ -4728,7 +4805,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D85" s="18" t="str">
-        <f>A569</f>
+        <f>A573</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E85" t="s">
@@ -4743,6 +4820,7 @@
       <c r="C86" s="5" t="s">
         <v>576</v>
       </c>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
@@ -4755,6 +4833,7 @@
         <f>_xlfn.CONCAT("REM LABEL ***",A87,"***")</f>
         <v>REM LABEL ***DEPLOYMANSHIP***</v>
       </c>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
@@ -4766,7 +4845,7 @@
         <v>CALL MENUDEPLOY((CURRENTSHIP))</v>
       </c>
       <c r="D88" s="18" t="str">
-        <f>A362</f>
+        <f>A364</f>
         <v>MENUDEPLOY</v>
       </c>
       <c r="E88" t="s">
@@ -4783,7 +4862,7 @@
         <v>CALL INPUTSHIP(SHIP(),(CURRENTSHIP))</v>
       </c>
       <c r="D89" s="18" t="str">
-        <f>A423</f>
+        <f>A427</f>
         <v>INPUTSHIP</v>
       </c>
       <c r="E89" t="s">
@@ -4798,6 +4877,7 @@
       <c r="C90" t="s">
         <v>624</v>
       </c>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
@@ -4807,6 +4887,7 @@
       <c r="C91" t="s">
         <v>561</v>
       </c>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
@@ -4818,7 +4899,7 @@
         <v>CALL CHECKVALIDSHIP(SHIPERR,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
       </c>
       <c r="D92" s="18" t="str">
-        <f>A439</f>
+        <f>A443</f>
         <v>CHECKVALIDSHIP</v>
       </c>
       <c r="E92" t="s">
@@ -4849,7 +4930,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D94" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E94" t="s">
@@ -4864,6 +4945,7 @@
       <c r="C95" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
@@ -4873,6 +4955,7 @@
       <c r="C96" s="5" t="s">
         <v>683</v>
       </c>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
@@ -4882,6 +4965,7 @@
       <c r="C97" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
@@ -4908,6 +4992,7 @@
       <c r="C99" s="5" t="s">
         <v>552</v>
       </c>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="18"/>
@@ -4917,6 +5002,7 @@
       <c r="C100" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
@@ -4929,6 +5015,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A101,"***")</f>
         <v>REM SUBROUTINE ***DEPLOYCOMPUTER***</v>
       </c>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
@@ -4939,6 +5026,7 @@
         <f>IF(ISBLANK(E102),_xlfn.CONCAT("SUB ",A101),_xlfn.CONCAT("SUB ",A101,"(",E102,")"))</f>
         <v>SUB DEPLOYCOMPUTER(VISIBLE,SHIPS(,,))</v>
       </c>
+      <c r="D102" s="18"/>
       <c r="E102" t="s">
         <v>794</v>
       </c>
@@ -4951,6 +5039,7 @@
       <c r="C103" t="s">
         <v>885</v>
       </c>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="18"/>
@@ -4962,7 +5051,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D104" s="18" t="str">
-        <f>A569</f>
+        <f>A573</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E104" t="s">
@@ -4979,7 +5068,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D105" s="18" t="str">
-        <f>A583</f>
+        <f>A587</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E105" t="s">
@@ -4996,7 +5085,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D106" s="18" t="str">
-        <f>A553</f>
+        <f>A557</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E106" t="s">
@@ -5011,6 +5100,7 @@
       <c r="C107" t="s">
         <v>576</v>
       </c>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
@@ -5023,6 +5113,7 @@
         <f>_xlfn.CONCAT("REM LABEL ***",A108,"***")</f>
         <v>REM LABEL ***DEPLOYCOMPSHIP***</v>
       </c>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="18"/>
@@ -5034,7 +5125,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D109" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E109" t="s">
@@ -5049,6 +5140,7 @@
       <c r="C110" t="s">
         <v>622</v>
       </c>
+      <c r="D110" s="18"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
@@ -5058,6 +5150,7 @@
       <c r="C111" t="s">
         <v>735</v>
       </c>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
@@ -5067,6 +5160,7 @@
       <c r="C112" t="s">
         <v>623</v>
       </c>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="18"/>
@@ -5076,6 +5170,7 @@
       <c r="C113" t="s">
         <v>733</v>
       </c>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="18"/>
@@ -5085,6 +5180,7 @@
       <c r="C114" t="s">
         <v>684</v>
       </c>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
@@ -5094,6 +5190,7 @@
       <c r="C115" t="s">
         <v>1</v>
       </c>
+      <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="18"/>
@@ -5103,6 +5200,7 @@
       <c r="C116" s="5" t="s">
         <v>625</v>
       </c>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="18"/>
@@ -5112,6 +5210,7 @@
       <c r="C117" s="5" t="s">
         <v>561</v>
       </c>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="18"/>
@@ -5123,7 +5222,7 @@
         <v>CALL CHECKOVERLAP(SHIPERR,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
       </c>
       <c r="D118" s="18" t="str">
-        <f>A499</f>
+        <f>A503</f>
         <v>CHECKOVERLAP</v>
       </c>
       <c r="E118" t="s">
@@ -5152,6 +5251,7 @@
       <c r="C120" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="18"/>
@@ -5161,6 +5261,7 @@
       <c r="C121" s="5" t="s">
         <v>685</v>
       </c>
+      <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="18"/>
@@ -5170,6 +5271,7 @@
       <c r="C122" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="18"/>
@@ -5181,7 +5283,7 @@
         <v>CALL GETDEBUGFLAG(DEBUG)</v>
       </c>
       <c r="D123" s="18" t="str">
-        <f>A595</f>
+        <f>A599</f>
         <v>GETDEBUGFLAG</v>
       </c>
       <c r="E123" t="s">
@@ -5224,6 +5326,7 @@
       <c r="C126" t="s">
         <v>552</v>
       </c>
+      <c r="D126" s="18"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="18"/>
@@ -5233,6 +5336,7 @@
       <c r="C127" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D127" s="18"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
@@ -5245,6 +5349,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A128,"***")</f>
         <v>REM SUBROUTINE ***PLAYGAME***</v>
       </c>
+      <c r="D128" s="18"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="18"/>
@@ -5255,6 +5360,7 @@
         <f>IF(ISBLANK(E129),_xlfn.CONCAT("SUB ",A128),_xlfn.CONCAT("SUB ",A128,"(",E129,")"))</f>
         <v>SUB PLAYGAME(SHIPS(,,))</v>
       </c>
+      <c r="D129" s="18"/>
       <c r="E129" t="s">
         <v>720</v>
       </c>
@@ -5283,7 +5389,7 @@
         <v>CALL MENUTARGET</v>
       </c>
       <c r="D131" s="18" t="str">
-        <f>A378</f>
+        <f>A380</f>
         <v>MENUTARGET</v>
       </c>
     </row>
@@ -5295,6 +5401,7 @@
       <c r="C132" t="s">
         <v>689</v>
       </c>
+      <c r="D132" s="18"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="18"/>
@@ -5304,6 +5411,7 @@
       <c r="C133" t="s">
         <v>887</v>
       </c>
+      <c r="D133" s="18"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="18"/>
@@ -5313,6 +5421,7 @@
       <c r="C134" t="s">
         <v>846</v>
       </c>
+      <c r="D134" s="18"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="18"/>
@@ -5324,7 +5433,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D135" s="18" t="str">
-        <f>A569</f>
+        <f>A573</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E135" t="s">
@@ -5339,6 +5448,7 @@
       <c r="C136" t="s">
         <v>577</v>
       </c>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="18"/>
@@ -5350,7 +5460,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,I)</v>
       </c>
       <c r="D137" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E137" t="s">
@@ -5365,6 +5475,7 @@
       <c r="C138" t="s">
         <v>853</v>
       </c>
+      <c r="D138" s="18"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="18"/>
@@ -5374,6 +5485,7 @@
       <c r="C139" t="s">
         <v>1</v>
       </c>
+      <c r="D139" s="18"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="18"/>
@@ -5383,6 +5495,7 @@
       <c r="C140" t="s">
         <v>859</v>
       </c>
+      <c r="D140" s="18"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="18"/>
@@ -5392,6 +5505,7 @@
       <c r="C141" t="s">
         <v>858</v>
       </c>
+      <c r="D141" s="18"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="18"/>
@@ -5403,11 +5517,11 @@
         <v>CALL QUEUEINIT(Q(),QLEN)</v>
       </c>
       <c r="D142" s="18" t="str">
-        <f>A518</f>
+        <f>A522</f>
         <v>QUEUEINIT</v>
       </c>
       <c r="E142" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -5418,44 +5532,47 @@
       <c r="C143" s="5" t="s">
         <v>878</v>
       </c>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="18"/>
       <c r="B144">
         <v>1520</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>624</v>
+      <c r="C144" s="18" t="str">
+        <f>IF(ISBLANK(E144),_xlfn.CONCAT("CALL ",D144),_xlfn.CONCAT("CALL ",D144,"(",E144,")"))</f>
+        <v>CALL GETAUTOPLAY(AUTOPLAY)</v>
+      </c>
+      <c r="D144" s="18" t="str">
+        <f>A603</f>
+        <v>GETAUTOPLAY</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
-        <v>907</v>
-      </c>
+      <c r="A145" s="18"/>
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A145,"***")</f>
-        <v>REM LABEL ***TURNLOOP***</v>
-      </c>
+      <c r="C145" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D145" s="18"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="20"/>
+      <c r="A146" s="20" t="s">
+        <v>906</v>
+      </c>
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" s="18" t="str">
-        <f>_xlfn.CONCAT("IF PLAYER=0 THEN CALL ",D146,"(",E146,")")</f>
-        <v>IF PLAYER=0 THEN CALL PLAYERTURN(ROW,COL,SHOTS(,,))</v>
-      </c>
-      <c r="D146" s="18" t="str">
-        <f>A162</f>
-        <v>PLAYERTURN</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1029</v>
-      </c>
+      <c r="C146" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A146,"***")</f>
+        <v>REM LABEL ***TURNLOOP***</v>
+      </c>
+      <c r="D146" s="18"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="20"/>
@@ -5463,15 +5580,15 @@
         <v>1550</v>
       </c>
       <c r="C147" s="18" t="str">
-        <f>_xlfn.CONCAT("IF PLAYER=1 THEN CALL ",D147,"(",E147,")")</f>
-        <v>IF PLAYER=1 THEN CALL COMPUTERTURN(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+        <f>_xlfn.CONCAT("IF PLAYER=0 THEN CALL ",D147,"(",E147,")")</f>
+        <v>IF PLAYER=0 THEN CALL PLAYERTURN(ROW,COL,SHOTS(,,))</v>
       </c>
       <c r="D147" s="18" t="str">
-        <f>A170</f>
-        <v>COMPUTERTURN</v>
+        <f>A164</f>
+        <v>PLAYERTURN</v>
       </c>
       <c r="E147" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -5479,236 +5596,250 @@
       <c r="B148">
         <v>1560</v>
       </c>
-      <c r="C148" s="21" t="s">
-        <v>787</v>
-      </c>
-      <c r="D148" s="20"/>
+      <c r="C148" s="18" t="str">
+        <f>_xlfn.CONCAT("IF PLAYER=1 THEN CALL ",D148,"(",E148,")")</f>
+        <v>IF PLAYER=1 THEN CALL COMPUTERTURN(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+      </c>
+      <c r="D148" s="18" t="str">
+        <f>A172</f>
+        <v>COMPUTERTURN</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="20"/>
       <c r="B149">
         <v>1570</v>
       </c>
-      <c r="C149" s="5" t="str">
-        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN ",INDEX(B:B,MATCH(D149,A:A,0),0)," :: REM GOTO ",D149,"")</f>
-        <v>IF ERRORVAL=1 THEN 1530 :: REM GOTO TURNLOOP</v>
-      </c>
-      <c r="D149" s="20" t="str">
-        <f>A145</f>
-        <v>TURNLOOP</v>
-      </c>
+      <c r="C149" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="20"/>
       <c r="B150">
         <v>1580</v>
       </c>
-      <c r="C150" s="21" t="s">
-        <v>792</v>
-      </c>
-      <c r="D150" s="20"/>
+      <c r="C150" s="5" t="str">
+        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN ",INDEX(B:B,MATCH(D150,A:A,0),0)," :: REM GOTO ",D150,"")</f>
+        <v>IF ERRORVAL=1 THEN 1540 :: REM GOTO TURNLOOP</v>
+      </c>
+      <c r="D150" s="20" t="str">
+        <f>A146</f>
+        <v>TURNLOOP</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="20"/>
       <c r="B151">
         <v>1590</v>
       </c>
-      <c r="C151" s="18" t="str">
-        <f>IF(ISBLANK(E151),_xlfn.CONCAT("CALL ",D151),_xlfn.CONCAT("CALL ",D151,"(",E151,")"))</f>
-        <v>CALL PROCESSSHOT(WINNER,(ROW),(COL),(PLAYER),HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN)</v>
-      </c>
-      <c r="D151" s="18" t="str">
-        <f>A178</f>
-        <v>PROCESSSHOT</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1026</v>
-      </c>
+      <c r="C151" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="D151" s="18"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
+      <c r="A152" s="20"/>
       <c r="B152">
         <v>1600</v>
       </c>
-      <c r="C152" s="5" t="str">
-        <f>_xlfn.CONCAT("IF WINNER=0 OR WINNER=1 THEN ",INDEX(B:B,MATCH(D152,A:A,0),0)," :: REM GOTO ",D152,"")</f>
-        <v>IF WINNER=0 OR WINNER=1 THEN 1630 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D152" s="20" t="str">
-        <f>A155</f>
-        <v>GAMEOVER</v>
+      <c r="C152" s="18" t="str">
+        <f>IF(ISBLANK(E152),_xlfn.CONCAT("CALL ",D152),_xlfn.CONCAT("CALL ",D152,"(",E152,")"))</f>
+        <v>CALL PROCESSSHOT(WINNER,(ROW),(COL),(PLAYER),HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN)</v>
+      </c>
+      <c r="D152" s="18" t="str">
+        <f>A180</f>
+        <v>PROCESSSHOT</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="20"/>
+      <c r="A153" s="18"/>
       <c r="B153">
         <v>1610</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="D153" s="20"/>
+      <c r="C153" s="5" t="str">
+        <f>_xlfn.CONCAT("IF WINNER=0 OR WINNER=1 THEN ",INDEX(B:B,MATCH(D153,A:A,0),0)," :: REM GOTO ",D153,"")</f>
+        <v>IF WINNER=0 OR WINNER=1 THEN 1650 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D153" s="20" t="str">
+        <f>A157</f>
+        <v>GAMEOVER</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="18"/>
       <c r="B154">
         <v>1620</v>
       </c>
-      <c r="C154" s="5" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D154,A:A,0),0)," :: REM GOTO ",D154,"")</f>
-        <v>GOTO 1530 :: REM GOTO TURNLOOP</v>
+      <c r="C154" s="18" t="str">
+        <f>IF(ISBLANK(E154),_xlfn.CONCAT("CALL ",D154),_xlfn.CONCAT("CALL ",D154,"(",E154,")"))</f>
+        <v>CALL GETAUTOPLAY(AUTOPLAY)</v>
       </c>
       <c r="D154" s="20" t="str">
-        <f>A145</f>
-        <v>TURNLOOP</v>
+        <f>A603</f>
+        <v>GETAUTOPLAY</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="20" t="s">
-        <v>677</v>
-      </c>
+      <c r="A155" s="20"/>
       <c r="B155">
         <v>1630</v>
       </c>
-      <c r="C155" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A155,"***")</f>
-        <v>REM LABEL ***GAMEOVER***</v>
-      </c>
-      <c r="D155" s="20"/>
+      <c r="C155" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="20"/>
+      <c r="A156" s="18"/>
       <c r="B156">
         <v>1640</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="D156" s="20"/>
+      <c r="C156" s="5" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D156,A:A,0),0)," :: REM GOTO ",D156,"")</f>
+        <v>GOTO 1540 :: REM GOTO TURNLOOP</v>
+      </c>
+      <c r="D156" s="20" t="str">
+        <f>A146</f>
+        <v>TURNLOOP</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="18"/>
+      <c r="A157" s="20" t="s">
+        <v>677</v>
+      </c>
       <c r="B157">
         <v>1650</v>
       </c>
-      <c r="C157" s="18" t="str">
-        <f>IF(ISBLANK(E157),_xlfn.CONCAT("CALL ",D157),_xlfn.CONCAT("CALL ",D157,"(",E157,")"))</f>
-        <v>CALL MENUGAMEOVER(PLAYAGAIN$,(WINNER))</v>
-      </c>
-      <c r="D157" s="18" t="str">
-        <f>A398</f>
-        <v>MENUGAMEOVER</v>
-      </c>
-      <c r="E157" t="s">
-        <v>901</v>
-      </c>
+      <c r="C157" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A157,"***")</f>
+        <v>REM LABEL ***GAMEOVER***</v>
+      </c>
+      <c r="D157" s="18"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="18"/>
+      <c r="A158" s="20"/>
       <c r="B158">
         <v>1660</v>
       </c>
-      <c r="C158" s="21" t="str">
-        <f>_xlfn.CONCAT("IF PLAYAGAIN$=""Y"" THEN ",INDEX(B:B,MATCH(D158,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF PLAYAGAIN$="Y" THEN 1690 :: REM SUBEND</v>
-      </c>
-      <c r="D158" s="20" t="str">
-        <f>A161</f>
-        <v>PLAYGAME.SUBEND</v>
-      </c>
+      <c r="C158" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="D158" s="18"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="18"/>
       <c r="B159">
         <v>1670</v>
       </c>
-      <c r="C159" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" s="20"/>
+      <c r="C159" s="18" t="str">
+        <f>IF(ISBLANK(E159),_xlfn.CONCAT("CALL ",D159),_xlfn.CONCAT("CALL ",D159,"(",E159,")"))</f>
+        <v>CALL MENUGAMEOVER(PLAYAGAIN$,(WINNER))</v>
+      </c>
+      <c r="D159" s="18" t="str">
+        <f>A400</f>
+        <v>MENUGAMEOVER</v>
+      </c>
+      <c r="E159" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="18"/>
       <c r="B160">
         <v>1680</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="21" t="str">
+        <f>_xlfn.CONCAT("IF PLAYAGAIN$=""Y"" THEN ",INDEX(B:B,MATCH(D160,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF PLAYAGAIN$="Y" THEN 1710 :: REM SUBEND</v>
+      </c>
+      <c r="D160" s="20" t="str">
+        <f>A163</f>
+        <v>PLAYGAME.SUBEND</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="18"/>
+      <c r="B161">
+        <v>1690</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" s="18"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="18"/>
+      <c r="B162">
+        <v>1700</v>
+      </c>
+      <c r="C162" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="20"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="20" t="str">
+      <c r="D162" s="18"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="20" t="str">
         <f>_xlfn.CONCAT(A128,".SUBEND")</f>
         <v>PLAYGAME.SUBEND</v>
       </c>
-      <c r="B161">
-        <v>1690</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="B162">
-        <v>1700</v>
-      </c>
-      <c r="C162" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A162,"***")</f>
-        <v>REM SUBROUTINE ***PLAYERTURN***</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="20"/>
       <c r="B163">
         <v>1710</v>
       </c>
-      <c r="C163" t="str">
-        <f>IF(ISBLANK(E163),_xlfn.CONCAT("SUB ",A162),_xlfn.CONCAT("SUB ",A162,"(",E163,")"))</f>
-        <v>SUB PLAYERTURN(ROW,COL,SHOTS(,,))</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1029</v>
-      </c>
+      <c r="C163" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D163" s="18"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="20" t="s">
-        <v>1030</v>
+      <c r="A164" s="18" t="s">
+        <v>905</v>
       </c>
       <c r="B164">
         <v>1720</v>
       </c>
-      <c r="C164" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A164,"***")</f>
-        <v>REM LABEL ***INPUTLOOP***</v>
-      </c>
+      <c r="C164" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A164,"***")</f>
+        <v>REM SUBROUTINE ***PLAYERTURN***</v>
+      </c>
+      <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="20"/>
       <c r="B165">
         <v>1730</v>
       </c>
-      <c r="C165" s="18" t="str">
-        <f>IF(ISBLANK(E165),_xlfn.CONCAT("CALL ",D165),_xlfn.CONCAT("CALL ",D165,"(",E165,")"))</f>
-        <v>CALL INPUTTARGET(ROW$,COL)</v>
-      </c>
-      <c r="D165" s="18" t="str">
-        <f>A433</f>
-        <v>INPUTTARGET</v>
-      </c>
+      <c r="C165" t="str">
+        <f>IF(ISBLANK(E165),_xlfn.CONCAT("SUB ",A164),_xlfn.CONCAT("SUB ",A164,"(",E165,")"))</f>
+        <v>SUB PLAYERTURN(ROW,COL,SHOTS(,,))</v>
+      </c>
+      <c r="D165" s="18"/>
       <c r="E165" t="s">
-        <v>776</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="20" t="s">
+        <v>1030</v>
+      </c>
       <c r="B166">
         <v>1740</v>
       </c>
-      <c r="C166" t="s">
-        <v>777</v>
-      </c>
+      <c r="C166" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A166,"***")</f>
+        <v>REM LABEL ***INPUTLOOP***</v>
+      </c>
+      <c r="D166" s="18"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B167">
@@ -5716,48 +5847,52 @@
       </c>
       <c r="C167" s="18" t="str">
         <f>IF(ISBLANK(E167),_xlfn.CONCAT("CALL ",D167),_xlfn.CONCAT("CALL ",D167,"(",E167,")"))</f>
-        <v>CALL CHECKVALIDSHOT(ERRORVAL,(ROW),(COL),0,SHOTS(,,))</v>
+        <v>CALL INPUTTARGET(ROW$,COL)</v>
       </c>
       <c r="D167" s="18" t="str">
-        <f>A454</f>
-        <v>CHECKVALIDSHOT</v>
+        <f>A437</f>
+        <v>INPUTTARGET</v>
       </c>
       <c r="E167" t="s">
-        <v>1002</v>
+        <v>776</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B168">
         <v>1760</v>
       </c>
-      <c r="C168" s="5" t="str">
-        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM GOTO ",D168,"")</f>
-        <v>IF ERRORVAL=1 THEN 1720 :: REM GOTO INPUTLOOP</v>
-      </c>
-      <c r="D168" s="20" t="str">
-        <f>A164</f>
-        <v>INPUTLOOP</v>
-      </c>
+      <c r="C168" t="s">
+        <v>777</v>
+      </c>
+      <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="20"/>
       <c r="B169">
         <v>1770</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>555</v>
+      <c r="C169" s="18" t="str">
+        <f>IF(ISBLANK(E169),_xlfn.CONCAT("CALL ",D169),_xlfn.CONCAT("CALL ",D169,"(",E169,")"))</f>
+        <v>CALL CHECKVALIDSHOT(ERRORVAL,(ROW),(COL),0,SHOTS(,,))</v>
+      </c>
+      <c r="D169" s="18" t="str">
+        <f>A458</f>
+        <v>CHECKVALIDSHOT</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="18" t="s">
-        <v>680</v>
-      </c>
       <c r="B170">
         <v>1780</v>
       </c>
-      <c r="C170" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A170,"***")</f>
-        <v>REM SUBROUTINE ***COMPUTERTURN***</v>
+      <c r="C170" s="5" t="str">
+        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN ",INDEX(B:B,MATCH(D170,A:A,0),0)," :: REM GOTO ",D170,"")</f>
+        <v>IF ERRORVAL=1 THEN 1740 :: REM GOTO INPUTLOOP</v>
+      </c>
+      <c r="D170" s="20" t="str">
+        <f>A166</f>
+        <v>INPUTLOOP</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5765,46 +5900,36 @@
       <c r="B171">
         <v>1790</v>
       </c>
-      <c r="C171" t="str">
-        <f>IF(ISBLANK(E171),_xlfn.CONCAT("SUB ",A170),_xlfn.CONCAT("SUB ",A170,"(",E171,")"))</f>
-        <v>SUB COMPUTERTURN(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1022</v>
-      </c>
+      <c r="C171" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D171" s="18"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="20"/>
+      <c r="A172" s="18" t="s">
+        <v>680</v>
+      </c>
       <c r="B172">
         <v>1800</v>
       </c>
-      <c r="C172" s="18" t="str">
-        <f>IF(ISBLANK(E172),_xlfn.CONCAT("CALL ",D172),_xlfn.CONCAT("CALL ",D172,"(",E172,")"))</f>
-        <v>CALL GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
-      </c>
-      <c r="D172" s="18" t="str">
-        <f>A198</f>
-        <v>GAMEAI</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1022</v>
-      </c>
+      <c r="C172" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A172,"***")</f>
+        <v>REM SUBROUTINE ***COMPUTERTURN***</v>
+      </c>
+      <c r="D172" s="18"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="20"/>
       <c r="B173">
         <v>1810</v>
       </c>
-      <c r="C173" s="18" t="str">
-        <f>IF(ISBLANK(E173),_xlfn.CONCAT("CALL ",D173),_xlfn.CONCAT("CALL ",D173,"(",E173,")"))</f>
-        <v>CALL GETMENUORIG(MROW,MCOL)</v>
-      </c>
-      <c r="D173" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
+      <c r="C173" t="str">
+        <f>IF(ISBLANK(E173),_xlfn.CONCAT("SUB ",A172),_xlfn.CONCAT("SUB ",A172,"(",E173,")"))</f>
+        <v>SUB COMPUTERTURN(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+      </c>
+      <c r="D173" s="18"/>
       <c r="E173" t="s">
-        <v>909</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5812,37 +5937,44 @@
       <c r="B174">
         <v>1820</v>
       </c>
-      <c r="C174" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="D174" s="18"/>
+      <c r="C174" s="18" t="str">
+        <f>IF(ISBLANK(E174),_xlfn.CONCAT("CALL ",D174),_xlfn.CONCAT("CALL ",D174,"(",E174,")"))</f>
+        <v>CALL GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+      </c>
+      <c r="D174" s="18" t="str">
+        <f>A200</f>
+        <v>GAMEAI</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="20"/>
       <c r="B175">
         <v>1830</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="D175" s="18"/>
+      <c r="C175" s="18" t="str">
+        <f>IF(ISBLANK(E175),_xlfn.CONCAT("CALL ",D175),_xlfn.CONCAT("CALL ",D175,"(",E175,")"))</f>
+        <v>CALL GETMENUORIG(MROW,MCOL)</v>
+      </c>
+      <c r="D175" s="18" t="str">
+        <f>A595</f>
+        <v>GETMENUORIG</v>
+      </c>
+      <c r="E175" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="20"/>
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" s="18" t="str">
-        <f>IF(ISBLANK(E176),_xlfn.CONCAT("CALL ",D176),_xlfn.CONCAT("CALL ",D176,"(",E176,")"))</f>
-        <v>CALL RENDERTEXT(TEXT$,MROW+8,MCOL)</v>
-      </c>
-      <c r="D176" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="C176" s="5" t="s">
         <v>910</v>
       </c>
+      <c r="D176" s="18"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="20"/>
@@ -5850,50 +5982,62 @@
         <v>1850</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>911</v>
+      </c>
+      <c r="D177" s="18"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="18" t="s">
-        <v>879</v>
-      </c>
+      <c r="A178" s="20"/>
       <c r="B178">
         <v>1860</v>
       </c>
-      <c r="C178" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A178,"***")</f>
-        <v>REM SUBROUTINE ***PROCESSSHOT***</v>
+      <c r="C178" s="18" t="str">
+        <f>IF(ISBLANK(E178),_xlfn.CONCAT("CALL ",D178),_xlfn.CONCAT("CALL ",D178,"(",E178,")"))</f>
+        <v>CALL RENDERTEXT(TEXT$,MROW+8,MCOL)</v>
+      </c>
+      <c r="D178" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E178" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="18"/>
+      <c r="A179" s="20"/>
       <c r="B179">
         <v>1870</v>
       </c>
-      <c r="C179" t="str">
-        <f>IF(ISBLANK(E179),_xlfn.CONCAT("SUB ",A178),_xlfn.CONCAT("SUB ",A178,"(",E179,")"))</f>
-        <v>SUB PROCESSSHOT(WINNER,ROW,COL,PLAYER,HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN)</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1025</v>
-      </c>
+      <c r="C179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D179" s="18"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="18"/>
+      <c r="A180" s="18" t="s">
+        <v>879</v>
+      </c>
       <c r="B180">
         <v>1880</v>
       </c>
-      <c r="C180" s="21" t="s">
-        <v>880</v>
-      </c>
+      <c r="C180" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A180,"***")</f>
+        <v>REM SUBROUTINE ***PROCESSSHOT***</v>
+      </c>
+      <c r="D180" s="18"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="18"/>
       <c r="B181">
         <v>1890</v>
       </c>
-      <c r="C181" s="21" t="s">
-        <v>784</v>
+      <c r="C181" t="str">
+        <f>IF(ISBLANK(E181),_xlfn.CONCAT("SUB ",A180),_xlfn.CONCAT("SUB ",A180,"(",E181,")"))</f>
+        <v>SUB PROCESSSHOT(WINNER,ROW,COL,PLAYER,HITSLEFT(,),SHIPSLEFT(),SHIPS(,,),Q(),QLEN)</v>
+      </c>
+      <c r="D181" s="18"/>
+      <c r="E181" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -5901,34 +6045,20 @@
       <c r="B182">
         <v>1900</v>
       </c>
-      <c r="C182" s="18" t="str">
-        <f>IF(ISBLANK(E182),_xlfn.CONCAT("CALL ",D182),_xlfn.CONCAT("CALL ",D182,"(",E182,")"))</f>
-        <v>CALL CHECKHIT(HIT,SHIP,(LOC),(1-PLAYER),SHIPS(,,))</v>
-      </c>
-      <c r="D182" s="18" t="str">
-        <f>A460</f>
-        <v>CHECKHIT</v>
-      </c>
-      <c r="E182" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="34"/>
+      <c r="C182" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="D182" s="18"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="18"/>
       <c r="B183">
         <v>1910</v>
       </c>
-      <c r="C183" s="34" t="str">
-        <f>_xlfn.CONCAT("IF PLAYER=1 AND HIT=1 THEN CALL ",D183,"(",E183,")")</f>
-        <v>IF PLAYER=1 AND HIT=1 THEN CALL QUEUEADD(Q(),QLEN,(LOC),ERRVAL)</v>
-      </c>
-      <c r="D183" s="37" t="str">
-        <f>A524</f>
-        <v>QUEUEADD</v>
-      </c>
-      <c r="E183" s="38" t="s">
-        <v>1003</v>
-      </c>
+      <c r="C183" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D183" s="18"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="18"/>
@@ -5937,14 +6067,14 @@
       </c>
       <c r="C184" s="18" t="str">
         <f>IF(ISBLANK(E184),_xlfn.CONCAT("CALL ",D184),_xlfn.CONCAT("CALL ",D184,"(",E184,")"))</f>
-        <v>CALL RENDERSHOT((PLAYER),(HIT),(ROW),(COL))</v>
+        <v>CALL CHECKHIT(HIT,SHIP,(LOC),(1-PLAYER),SHIPS(,,))</v>
       </c>
       <c r="D184" s="18" t="str">
-        <f>A312</f>
-        <v>RENDERSHOT</v>
+        <f>A464</f>
+        <v>CHECKHIT</v>
       </c>
       <c r="E184" t="s">
-        <v>795</v>
+        <v>860</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -5952,13 +6082,16 @@
       <c r="B185">
         <v>1930</v>
       </c>
-      <c r="C185" s="5" t="str">
-        <f>_xlfn.CONCAT("IF HIT=0 THEN ",INDEX(B:B,MATCH(D185,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF HIT=0 THEN 2050 :: REM SUBEND</v>
-      </c>
-      <c r="D185" s="20" t="str">
-        <f>A197</f>
-        <v>PROCESSSHOT.SUBEND</v>
+      <c r="C185" s="18" t="str">
+        <f>_xlfn.CONCAT("IF PLAYER=1 AND HIT=1 THEN CALL ",D185,"(",E185,")")</f>
+        <v>IF PLAYER=1 AND HIT=1 THEN CALL QUEUEADD(Q(),QLEN,(LOC),ERRVAL)</v>
+      </c>
+      <c r="D185" s="18" t="str">
+        <f>A528</f>
+        <v>QUEUEADD</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5966,8 +6099,16 @@
       <c r="B186">
         <v>1940</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>862</v>
+      <c r="C186" s="18" t="str">
+        <f>IF(ISBLANK(E186),_xlfn.CONCAT("CALL ",D186),_xlfn.CONCAT("CALL ",D186,"(",E186,")"))</f>
+        <v>CALL RENDERSHOT((PLAYER),(HIT),(ROW),(COL))</v>
+      </c>
+      <c r="D186" s="18" t="str">
+        <f>A312</f>
+        <v>RENDERSHOT</v>
+      </c>
+      <c r="E186" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -5976,11 +6117,11 @@
         <v>1950</v>
       </c>
       <c r="C187" s="5" t="str">
-        <f>_xlfn.CONCAT("IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN ",INDEX(B:B,MATCH(D187,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN 2050 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF HIT=0 THEN ",INDEX(B:B,MATCH(D187,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF HIT=0 THEN 2070 :: REM SUBEND</v>
       </c>
       <c r="D187" s="20" t="str">
-        <f>A197</f>
+        <f>A199</f>
         <v>PROCESSSHOT.SUBEND</v>
       </c>
     </row>
@@ -5990,24 +6131,22 @@
         <v>1960</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>861</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="D188" s="18"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="18"/>
       <c r="B189">
         <v>1970</v>
       </c>
-      <c r="C189" s="18" t="str">
-        <f>IF(ISBLANK(E189),_xlfn.CONCAT("CALL ",D189),_xlfn.CONCAT("CALL ",D189,"(",E189,")"))</f>
-        <v>CALL RENDERSUNK((1-PLAYER),(SHIP),SHIPS(,,))</v>
-      </c>
-      <c r="D189" s="18" t="str">
-        <f>A326</f>
-        <v>RENDERSUNK</v>
-      </c>
-      <c r="E189" t="s">
-        <v>863</v>
+      <c r="C189" s="5" t="str">
+        <f>_xlfn.CONCAT("IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN ",INDEX(B:B,MATCH(D189,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF HITSLEFT(1-PLAYER,SHIP)&gt;0 THEN 2070 :: REM SUBEND</v>
+      </c>
+      <c r="D189" s="20" t="str">
+        <f>A199</f>
+        <v>PROCESSSHOT.SUBEND</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -6015,22 +6154,26 @@
       <c r="B190">
         <v>1980</v>
       </c>
-      <c r="C190" s="21" t="s">
-        <v>877</v>
-      </c>
+      <c r="C190" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="D190" s="18"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="18"/>
       <c r="B191">
         <v>1990</v>
       </c>
-      <c r="C191" s="5" t="str">
-        <f>_xlfn.CONCAT("IF PLAYER=0 THEN ",INDEX(B:B,MATCH(D191,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF PLAYER=0 THEN 2050 :: REM SUBEND</v>
-      </c>
-      <c r="D191" s="20" t="str">
-        <f>A197</f>
-        <v>PROCESSSHOT.SUBEND</v>
+      <c r="C191" s="18" t="str">
+        <f>IF(ISBLANK(E191),_xlfn.CONCAT("CALL ",D191),_xlfn.CONCAT("CALL ",D191,"(",E191,")"))</f>
+        <v>CALL RENDERSUNK((1-PLAYER),(SHIP),SHIPS(,,))</v>
+      </c>
+      <c r="D191" s="18" t="str">
+        <f>A326</f>
+        <v>RENDERSUNK</v>
+      </c>
+      <c r="E191" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -6038,25 +6181,23 @@
       <c r="B192">
         <v>2000</v>
       </c>
-      <c r="C192" s="34" t="str">
-        <f>IF(ISBLANK(E192),_xlfn.CONCAT("CALL ",D192),_xlfn.CONCAT("CALL ",D192,"(",E192,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(SHIP))</v>
-      </c>
-      <c r="D192" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E192" t="s">
-        <v>850</v>
-      </c>
+      <c r="C192" s="18" t="s">
+        <v>877</v>
+      </c>
+      <c r="D192" s="18"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="18"/>
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" s="39" t="s">
-        <v>733</v>
+      <c r="C193" s="5" t="str">
+        <f>_xlfn.CONCAT("IF PLAYER=0 THEN ",INDEX(B:B,MATCH(D193,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF PLAYER=0 THEN 2070 :: REM SUBEND</v>
+      </c>
+      <c r="D193" s="20" t="str">
+        <f>A199</f>
+        <v>PROCESSSHOT.SUBEND</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -6064,390 +6205,409 @@
       <c r="B194">
         <v>2020</v>
       </c>
-      <c r="C194" s="39" t="s">
-        <v>1027</v>
-      </c>
+      <c r="C194" s="18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D194" s="18"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="18"/>
       <c r="B195">
         <v>2030</v>
       </c>
-      <c r="C195" s="34" t="str">
-        <f>IF(ISBLANK(E195),_xlfn.CONCAT("CALL ",D195),_xlfn.CONCAT("CALL ",D195,"(",E195,")"))</f>
-        <v>CALL QUEUEDEL(Q(),QLEN,(SUNKLOC),ERRVAL)</v>
-      </c>
-      <c r="D195" s="23" t="str">
-        <f>A529</f>
-        <v>QUEUEDEL</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1028</v>
-      </c>
+      <c r="C195" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D195" s="18"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="18"/>
       <c r="B196">
         <v>2040</v>
       </c>
-      <c r="C196" s="39" t="s">
-        <v>1</v>
-      </c>
+      <c r="C196" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D196" s="18"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="20" t="str">
-        <f>_xlfn.CONCAT(A178,".SUBEND")</f>
-        <v>PROCESSSHOT.SUBEND</v>
-      </c>
+      <c r="A197" s="18"/>
       <c r="B197">
         <v>2050</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>555</v>
+      <c r="C197" s="18" t="str">
+        <f>IF(ISBLANK(E197),_xlfn.CONCAT("CALL ",D197),_xlfn.CONCAT("CALL ",D197,"(",E197,")"))</f>
+        <v>CALL QUEUEDEL(Q(),QLEN,(SUNKLOC),ERRVAL)</v>
+      </c>
+      <c r="D197" s="18" t="str">
+        <f>A533</f>
+        <v>QUEUEDEL</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="34" t="s">
-        <v>987</v>
-      </c>
+      <c r="A198" s="18"/>
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A198,"***")</f>
-        <v>REM SUBROUTINE ***GAMEAI***</v>
-      </c>
+      <c r="C198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" s="18"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="35"/>
+      <c r="A199" s="20" t="str">
+        <f>_xlfn.CONCAT(A180,".SUBEND")</f>
+        <v>PROCESSSHOT.SUBEND</v>
+      </c>
       <c r="B199">
         <v>2070</v>
       </c>
-      <c r="C199" t="str">
-        <f>IF(ISBLANK(E199),_xlfn.CONCAT("SUB ",A198),_xlfn.CONCAT("SUB ",A198,"(",E199,")"))</f>
-        <v>SUB GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1022</v>
-      </c>
+      <c r="C199" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D199" s="18"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="36" t="s">
-        <v>994</v>
+      <c r="A200" s="18" t="s">
+        <v>986</v>
       </c>
       <c r="B200">
         <v>2080</v>
       </c>
       <c r="C200" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A200,"***")</f>
-        <v>REM LABEL ***AISTART***</v>
-      </c>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A200,"***")</f>
+        <v>REM SUBROUTINE ***GAMEAI***</v>
+      </c>
+      <c r="D200" s="18"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="36"/>
+      <c r="A201"/>
       <c r="B201">
         <v>2090</v>
       </c>
-      <c r="C201" t="s">
-        <v>1008</v>
+      <c r="C201" t="str">
+        <f>IF(ISBLANK(E201),_xlfn.CONCAT("SUB ",A200),_xlfn.CONCAT("SUB ",A200,"(",E201,")"))</f>
+        <v>SUB GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
+      </c>
+      <c r="D201" s="18"/>
+      <c r="E201" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="36"/>
+      <c r="A202" s="20" t="s">
+        <v>993</v>
+      </c>
       <c r="B202">
         <v>2100</v>
       </c>
-      <c r="C202" t="s">
-        <v>1024</v>
-      </c>
+      <c r="C202" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A202,"***")</f>
+        <v>REM LABEL ***AISTART***</v>
+      </c>
+      <c r="D202" s="18"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="35"/>
+      <c r="A203" s="20"/>
       <c r="B203">
         <v>2110</v>
       </c>
-      <c r="C203" t="str">
-        <f>_xlfn.CONCAT("IF QLEN=0 THEN GOSUB ",INDEX(B:B,MATCH(D203,A:A,0),0)," :: REM GOSUB ",D203,)</f>
-        <v>IF QLEN=0 THEN GOSUB 2210 :: REM GOSUB EMPTYQUEUE</v>
-      </c>
-      <c r="D203" s="17" t="str">
-        <f>A213</f>
-        <v>EMPTYQUEUE</v>
-      </c>
-      <c r="E203" s="20" t="str">
-        <f>A209</f>
-        <v>VALIDATESHOT</v>
-      </c>
+      <c r="C203" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D203" s="18"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="35"/>
+      <c r="A204"/>
       <c r="B204">
         <v>2120</v>
       </c>
       <c r="C204" t="str">
-        <f>_xlfn.CONCAT("IF QLEN=0 THEN GOTO ",INDEX(B:B,MATCH(E203,A:A,0),0)," :: REM GOTO ",E203)</f>
-        <v>IF QLEN=0 THEN GOTO 2170 :: REM GOTO VALIDATESHOT</v>
-      </c>
-      <c r="D204" s="17"/>
+        <f>_xlfn.CONCAT("IF QLEN=0 THEN GOSUB ",INDEX(B:B,MATCH(D204,A:A,0),0)," :: REM GOSUB ",D204,)</f>
+        <v>IF QLEN=0 THEN GOSUB 2230 :: REM GOSUB EMPTYQUEUE</v>
+      </c>
+      <c r="D204" s="17" t="str">
+        <f>A215</f>
+        <v>EMPTYQUEUE</v>
+      </c>
       <c r="E204" s="20"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="35"/>
+      <c r="A205"/>
       <c r="B205">
         <v>2130</v>
       </c>
-      <c r="C205" t="s">
-        <v>1004</v>
+      <c r="C205" t="str">
+        <f>_xlfn.CONCAT("IF QLEN=0 THEN GOTO ",INDEX(B:B,MATCH(D205,A:A,0),0)," :: REM GOTO ",D205)</f>
+        <v>IF QLEN=0 THEN GOTO 2180 :: REM GOTO VALIDATESHOT</v>
       </c>
       <c r="D205" s="20" t="str">
-        <f>A209</f>
+        <f>A210</f>
         <v>VALIDATESHOT</v>
       </c>
-      <c r="E205" s="17"/>
+      <c r="E205" s="20"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="35"/>
+      <c r="A206"/>
       <c r="B206">
         <v>2140</v>
       </c>
-      <c r="C206" t="str">
-        <f>_xlfn.CONCAT("IF OFFSET=0 THEN GOSUB ",INDEX(B:B,MATCH(D206,A:A,0),0)," :: REM GOSUB ",D206)</f>
-        <v>IF OFFSET=0 THEN GOSUB 2250 :: REM GOSUB OFFSETZERO</v>
-      </c>
-      <c r="D206" s="17" t="str">
-        <f>A217</f>
-        <v>OFFSETZERO</v>
+      <c r="C206" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D206" s="20" t="str">
+        <f>A210</f>
+        <v>VALIDATESHOT</v>
       </c>
       <c r="E206" s="17"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="35"/>
+      <c r="A207"/>
       <c r="B207">
         <v>2150</v>
       </c>
-      <c r="C207" t="s">
-        <v>988</v>
-      </c>
-      <c r="D207" s="17"/>
-      <c r="E207" s="5"/>
+      <c r="C207" t="str">
+        <f>_xlfn.CONCAT("IF OFFSET=0 THEN GOSUB ",INDEX(B:B,MATCH(D207,A:A,0),0)," :: REM GOSUB ",D207)</f>
+        <v>IF OFFSET=0 THEN GOSUB 2270 :: REM GOSUB OFFSETZERO</v>
+      </c>
+      <c r="D207" s="17" t="str">
+        <f>A219</f>
+        <v>OFFSETZERO</v>
+      </c>
+      <c r="E207" s="17"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="35"/>
+      <c r="A208"/>
       <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" t="s">
-        <v>995</v>
-      </c>
-      <c r="D208" s="17"/>
+        <v>987</v>
+      </c>
+      <c r="D208" s="18"/>
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="36" t="s">
-        <v>1005</v>
-      </c>
+      <c r="A209"/>
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A209,"***")</f>
-        <v>REM LABEL ***VALIDATESHOT***</v>
-      </c>
-      <c r="D209" s="17"/>
+      <c r="C209" t="s">
+        <v>994</v>
+      </c>
+      <c r="D209" s="18"/>
       <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="35"/>
+      <c r="A210" s="20" t="s">
+        <v>1004</v>
+      </c>
       <c r="B210">
         <v>2180</v>
       </c>
-      <c r="C210" s="18" t="str">
-        <f>IF(ISBLANK(E210),_xlfn.CONCAT("CALL ",D210),_xlfn.CONCAT("CALL ",D210,"(",E210,")"))</f>
-        <v>CALL CHECKVALIDSHOT(ERRORVAL,(ROW),(COL),1,SHOTS(,,))</v>
-      </c>
-      <c r="D210" s="18" t="str">
-        <f>A454</f>
-        <v>CHECKVALIDSHOT</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1031</v>
-      </c>
+      <c r="C210" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A210,"***")</f>
+        <v>REM LABEL ***VALIDATESHOT***</v>
+      </c>
+      <c r="D210" s="18"/>
+      <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="35"/>
+      <c r="A211"/>
       <c r="B211">
         <v>2190</v>
       </c>
-      <c r="C211" t="str">
-        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN OFFSET=0 :: GOTO ",INDEX(B:B,MATCH(D211,A:A,0),0)," :: REM GOTO ",D211,"")</f>
-        <v>IF ERRORVAL=1 THEN OFFSET=0 :: GOTO 2080 :: REM GOTO AISTART</v>
-      </c>
-      <c r="D211" s="20" t="str">
-        <f>A200</f>
-        <v>AISTART</v>
-      </c>
-      <c r="E211" s="5"/>
+      <c r="C211" s="18" t="str">
+        <f>IF(ISBLANK(E211),_xlfn.CONCAT("CALL ",D211),_xlfn.CONCAT("CALL ",D211,"(",E211,")"))</f>
+        <v>CALL CHECKVALIDSHOT(ERRORVAL,(ROW),(COL),1,SHOTS(,,))</v>
+      </c>
+      <c r="D211" s="18" t="str">
+        <f>A458</f>
+        <v>CHECKVALIDSHOT</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="35"/>
+      <c r="A212"/>
       <c r="B212">
         <v>2200</v>
       </c>
       <c r="C212" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D212,A:A,0),0)," :: REM GOTO SUBEND")</f>
-        <v>GOTO 2330 :: REM GOTO SUBEND</v>
+        <f>_xlfn.CONCAT("IF ERRORVAL=1 THEN OFFSET=0 :: GOTO ",INDEX(B:B,MATCH(D212,A:A,0),0)," :: REM GOTO ",D212,"")</f>
+        <v>IF ERRORVAL=1 THEN OFFSET=0 :: GOTO 2100 :: REM GOTO AISTART</v>
       </c>
       <c r="D212" s="20" t="str">
-        <f>A225</f>
-        <v>GAMEAI.SUBEND</v>
+        <f>A202</f>
+        <v>AISTART</v>
       </c>
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="40" t="s">
-        <v>996</v>
-      </c>
       <c r="B213">
         <v>2210</v>
       </c>
-      <c r="C213" t="str">
-        <f>_xlfn.CONCAT("REM GOSUB ***",A213,"***")</f>
-        <v>REM GOSUB ***EMPTYQUEUE***</v>
-      </c>
-      <c r="D213" s="20"/>
+      <c r="C213" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D213" s="18"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="35"/>
+      <c r="A214"/>
       <c r="B214">
         <v>2220</v>
       </c>
-      <c r="C214" t="s">
-        <v>908</v>
-      </c>
+      <c r="C214" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D214,A:A,0),0)," :: REM GOTO SUBEND")</f>
+        <v>GOTO 2350 :: REM GOTO SUBEND</v>
+      </c>
+      <c r="D214" s="20" t="str">
+        <f>A227</f>
+        <v>GAMEAI.SUBEND</v>
+      </c>
+      <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="35"/>
+      <c r="A215" s="17" t="s">
+        <v>995</v>
+      </c>
       <c r="B215">
         <v>2230</v>
       </c>
-      <c r="C215" t="s">
-        <v>1000</v>
-      </c>
+      <c r="C215" t="str">
+        <f>_xlfn.CONCAT("REM GOSUB ***",A215,"***")</f>
+        <v>REM GOSUB ***EMPTYQUEUE***</v>
+      </c>
+      <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="35"/>
+      <c r="A216"/>
       <c r="B216">
         <v>2240</v>
       </c>
       <c r="C216" t="s">
-        <v>992</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="D216" s="18"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="40" t="s">
-        <v>993</v>
-      </c>
+      <c r="A217"/>
       <c r="B217">
         <v>2250</v>
       </c>
-      <c r="C217" t="str">
-        <f>_xlfn.CONCAT("REM GOSUB ***",A217,"***")</f>
-        <v>REM GOSUB ***OFFSETZERO***</v>
-      </c>
+      <c r="C217" t="s">
+        <v>999</v>
+      </c>
+      <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="40"/>
+      <c r="A218"/>
       <c r="B218">
         <v>2260</v>
       </c>
       <c r="C218" t="s">
-        <v>997</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="D218" s="18"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="35"/>
+      <c r="A219" s="17" t="s">
+        <v>992</v>
+      </c>
       <c r="B219">
         <v>2270</v>
       </c>
-      <c r="C219" t="s">
-        <v>998</v>
-      </c>
+      <c r="C219" t="str">
+        <f>_xlfn.CONCAT("REM GOSUB ***",A219,"***")</f>
+        <v>REM GOSUB ***OFFSETZERO***</v>
+      </c>
+      <c r="D219" s="18"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="35"/>
       <c r="B220">
         <v>2280</v>
       </c>
       <c r="C220" t="s">
-        <v>999</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="D220" s="18"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="35"/>
+      <c r="A221"/>
       <c r="B221">
         <v>2290</v>
       </c>
       <c r="C221" t="s">
-        <v>991</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="D221" s="18"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="35"/>
+      <c r="A222"/>
       <c r="B222">
         <v>2300</v>
       </c>
       <c r="C222" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="35"/>
+      <c r="A223"/>
       <c r="B223">
         <v>2310</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>1001</v>
-      </c>
+      <c r="C223" t="s">
+        <v>990</v>
+      </c>
+      <c r="D223" s="18"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="35"/>
+      <c r="A224"/>
       <c r="B224">
         <v>2320</v>
       </c>
       <c r="C224" t="s">
-        <v>992</v>
-      </c>
+        <v>988</v>
+      </c>
+      <c r="D224" s="18"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="36" t="str">
-        <f>_xlfn.CONCAT(A198,".SUBEND")</f>
-        <v>GAMEAI.SUBEND</v>
-      </c>
+      <c r="A225"/>
       <c r="B225">
         <v>2330</v>
       </c>
-      <c r="C225" t="s">
-        <v>1010</v>
-      </c>
+      <c r="C225" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D225" s="18"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="36"/>
+      <c r="A226"/>
       <c r="B226">
         <v>2340</v>
       </c>
       <c r="C226" t="s">
-        <v>1007</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="D226" s="18"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="35"/>
+      <c r="A227" s="20" t="str">
+        <f>_xlfn.CONCAT(A200,".SUBEND")</f>
+        <v>GAMEAI.SUBEND</v>
+      </c>
       <c r="B227">
         <v>2350</v>
       </c>
       <c r="C227" t="s">
         <v>555</v>
       </c>
+      <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="18" t="s">
@@ -6460,6 +6620,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A228,"***")</f>
         <v>REM SUBROUTINE ***RENDERTEXT***</v>
       </c>
+      <c r="D228" s="18"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="18"/>
@@ -6470,6 +6631,7 @@
         <f>IF(ISBLANK(E229),_xlfn.CONCAT("SUB ",A228),_xlfn.CONCAT("SUB ",A228,"(",E229,")"))</f>
         <v>SUB RENDERTEXT(TEXT$,ROW,COL)</v>
       </c>
+      <c r="D229" s="18"/>
       <c r="E229" t="s">
         <v>691</v>
       </c>
@@ -6482,6 +6644,7 @@
       <c r="C230" s="5" t="s">
         <v>554</v>
       </c>
+      <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="18"/>
@@ -6491,6 +6654,7 @@
       <c r="C231" s="5" t="s">
         <v>556</v>
       </c>
+      <c r="D231" s="18"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="18"/>
@@ -6500,6 +6664,7 @@
       <c r="C232" s="5" t="s">
         <v>557</v>
       </c>
+      <c r="D232" s="18"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="18"/>
@@ -6509,6 +6674,7 @@
       <c r="C233" s="5" t="s">
         <v>558</v>
       </c>
+      <c r="D233" s="18"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="18"/>
@@ -6518,6 +6684,7 @@
       <c r="C234" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D234" s="18"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="18"/>
@@ -6527,6 +6694,7 @@
       <c r="C235" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D235" s="18"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="18" t="s">
@@ -6539,6 +6707,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A236,"***")</f>
         <v>REM SUBROUTINE ***RENDERBOARDS***</v>
       </c>
+      <c r="D236" s="18"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="18"/>
@@ -6549,6 +6718,7 @@
         <f>IF(ISBLANK(D237),_xlfn.CONCAT("SUB ",A236),_xlfn.CONCAT("SUB ",A236,"(",D237,")"))</f>
         <v>SUB RENDERBOARDS</v>
       </c>
+      <c r="D237" s="18"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="18"/>
@@ -6558,6 +6728,7 @@
       <c r="C238" t="s">
         <v>0</v>
       </c>
+      <c r="D238" s="18"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="18"/>
@@ -6567,6 +6738,7 @@
       <c r="C239" t="s">
         <v>560</v>
       </c>
+      <c r="D239" s="18"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="18"/>
@@ -6604,6 +6776,7 @@
       <c r="C242" t="s">
         <v>555</v>
       </c>
+      <c r="D242" s="18"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="18" t="s">
@@ -6616,6 +6789,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A243,"***")</f>
         <v>REM SUBROUTINE ***RENDERBOARD***</v>
       </c>
+      <c r="D243" s="18"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="18"/>
@@ -6626,6 +6800,7 @@
         <f>IF(ISBLANK(D244),_xlfn.CONCAT("SUB ",A243),_xlfn.CONCAT("SUB ",A243,"(",D244,")"))</f>
         <v>SUB RENDERBOARD</v>
       </c>
+      <c r="D244" s="18"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="18"/>
@@ -6677,6 +6852,7 @@
       <c r="C248" t="s">
         <v>555</v>
       </c>
+      <c r="D248" s="18"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="18" t="s">
@@ -6689,6 +6865,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A249,"***")</f>
         <v>REM SUBROUTINE ***RENDERBACKBOARD***</v>
       </c>
+      <c r="D249" s="18"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="18"/>
@@ -6699,6 +6876,7 @@
         <f>IF(ISBLANK(D250),_xlfn.CONCAT("SUB ",A249),_xlfn.CONCAT("SUB ",A249,"(",D250,")"))</f>
         <v>SUB RENDERBACKBOARD</v>
       </c>
+      <c r="D250" s="18"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="18"/>
@@ -6710,7 +6888,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D251" s="18" t="str">
-        <f>A583</f>
+        <f>A587</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E251" t="s">
@@ -6727,7 +6905,7 @@
         <v>CALL GETFILLCHAR(FILLCHAR)</v>
       </c>
       <c r="D252" s="18" t="str">
-        <f>A545</f>
+        <f>A549</f>
         <v>GETFILLCHAR</v>
       </c>
       <c r="E252" t="s">
@@ -6742,6 +6920,7 @@
       <c r="C253" t="s">
         <v>631</v>
       </c>
+      <c r="D253" s="18"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="18"/>
@@ -6751,6 +6930,7 @@
       <c r="C254" s="5" t="s">
         <v>773</v>
       </c>
+      <c r="D254" s="18"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="18"/>
@@ -6760,6 +6940,7 @@
       <c r="C255" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D255" s="18"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="18"/>
@@ -6769,6 +6950,7 @@
       <c r="C256" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D256" s="18"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="18" t="s">
@@ -6781,6 +6963,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A257,"***")</f>
         <v>REM SUBROUTINE ***RENDERHOLES***</v>
       </c>
+      <c r="D257" s="18"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="18"/>
@@ -6791,6 +6974,7 @@
         <f>IF(ISBLANK(D258),_xlfn.CONCAT("SUB ",A257),_xlfn.CONCAT("SUB ",A257,"(",D258,")"))</f>
         <v>SUB RENDERHOLES</v>
       </c>
+      <c r="D258" s="18"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="18"/>
@@ -6802,7 +6986,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D259" s="18" t="str">
-        <f>A583</f>
+        <f>A587</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E259" t="s">
@@ -6819,7 +7003,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D260" s="18" t="str">
-        <f>A541</f>
+        <f>A545</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E260" t="s">
@@ -6834,6 +7018,7 @@
       <c r="C261" s="5" t="s">
         <v>573</v>
       </c>
+      <c r="D261" s="18"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="18"/>
@@ -6843,6 +7028,7 @@
       <c r="C262" s="5" t="s">
         <v>549</v>
       </c>
+      <c r="D262" s="18"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="18"/>
@@ -6852,6 +7038,7 @@
       <c r="C263" s="5" t="s">
         <v>755</v>
       </c>
+      <c r="D263" s="18"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="18"/>
@@ -6861,6 +7048,7 @@
       <c r="C264" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D264" s="18"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="18"/>
@@ -6870,6 +7058,7 @@
       <c r="C265" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D265" s="18"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
@@ -6879,6 +7068,7 @@
       <c r="C266" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D266" s="18"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="18" t="s">
@@ -6891,6 +7081,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A267,"***")</f>
         <v>REM SUBROUTINE ***RENDERAXES***</v>
       </c>
+      <c r="D267" s="18"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
@@ -6901,6 +7092,7 @@
         <f>IF(ISBLANK(D268),_xlfn.CONCAT("SUB ",A267),_xlfn.CONCAT("SUB ",A267,"(",D268,")"))</f>
         <v>SUB RENDERAXES</v>
       </c>
+      <c r="D268" s="18"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
@@ -6912,7 +7104,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D269" s="18" t="str">
-        <f>A583</f>
+        <f>A587</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E269" t="s">
@@ -6929,7 +7121,7 @@
         <v>CALL GETTENCHAR(TENCHAR)</v>
       </c>
       <c r="D270" s="18" t="str">
-        <f>A557</f>
+        <f>A561</f>
         <v>GETTENCHAR</v>
       </c>
       <c r="E270" t="s">
@@ -6944,6 +7136,7 @@
       <c r="C271" s="5" t="s">
         <v>575</v>
       </c>
+      <c r="D271" s="18"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="18"/>
@@ -6953,6 +7146,7 @@
       <c r="C272" s="5" t="s">
         <v>548</v>
       </c>
+      <c r="D272" s="18"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="18"/>
@@ -6962,6 +7156,7 @@
       <c r="C273" s="5" t="s">
         <v>746</v>
       </c>
+      <c r="D273" s="18"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="18"/>
@@ -6971,6 +7166,7 @@
       <c r="C274" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D274" s="18"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="18"/>
@@ -6980,6 +7176,7 @@
       <c r="C275" s="5" t="s">
         <v>747</v>
       </c>
+      <c r="D275" s="18"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="18"/>
@@ -6989,6 +7186,7 @@
       <c r="C276" s="5" t="s">
         <v>574</v>
       </c>
+      <c r="D276" s="18"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="18"/>
@@ -6998,6 +7196,7 @@
       <c r="C277" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="D277" s="18"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="18"/>
@@ -7007,6 +7206,7 @@
       <c r="C278" s="5" t="s">
         <v>748</v>
       </c>
+      <c r="D278" s="18"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="18"/>
@@ -7016,6 +7216,7 @@
       <c r="C279" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D279" s="18"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="18"/>
@@ -7025,6 +7226,7 @@
       <c r="C280" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D280" s="18"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="18" t="s">
@@ -7037,6 +7239,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A281,"***")</f>
         <v>REM SUBROUTINE ***RENDERAUX***</v>
       </c>
+      <c r="D281" s="18"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="18"/>
@@ -7047,6 +7250,7 @@
         <f>IF(ISBLANK(D282),_xlfn.CONCAT("SUB ",A281),_xlfn.CONCAT("SUB ",A281,"(",D282,")"))</f>
         <v>SUB RENDERAUX</v>
       </c>
+      <c r="D282" s="18"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="18"/>
@@ -7058,7 +7262,7 @@
         <v>CALL GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D283" s="18" t="str">
-        <f>A587</f>
+        <f>A591</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E283" t="s">
@@ -7075,7 +7279,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D284" s="18" t="str">
-        <f>A541</f>
+        <f>A545</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E284" t="s">
@@ -7090,6 +7294,7 @@
       <c r="C285" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="D285" s="18"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="18"/>
@@ -7099,6 +7304,7 @@
       <c r="C286" s="5" t="s">
         <v>743</v>
       </c>
+      <c r="D286" s="18"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="18"/>
@@ -7108,6 +7314,7 @@
       <c r="C287" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D287" s="18"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="18"/>
@@ -7117,6 +7324,7 @@
       <c r="C288" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D288" s="18"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="18" t="s">
@@ -7129,6 +7337,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A289,"***")</f>
         <v>REM SUBROUTINE ***RENDERSHIP***</v>
       </c>
+      <c r="D289" s="18"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="18"/>
@@ -7139,6 +7348,7 @@
         <f>IF(ISBLANK(E290),_xlfn.CONCAT("SUB ",A289),_xlfn.CONCAT("SUB ",A289,"(",E290,")"))</f>
         <v>SUB RENDERSHIP(CURRENTSHIP,SHIP())</v>
       </c>
+      <c r="D290" s="18"/>
       <c r="E290" t="s">
         <v>734</v>
       </c>
@@ -7153,7 +7363,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D291" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E291" t="s">
@@ -7170,7 +7380,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D292" s="18" t="str">
-        <f>A553</f>
+        <f>A557</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E292" t="s">
@@ -7187,7 +7397,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D293" s="18" t="str">
-        <f>A583</f>
+        <f>A587</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E293" t="s">
@@ -7202,6 +7412,7 @@
       <c r="C294" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="D294" s="18"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="18"/>
@@ -7211,6 +7422,7 @@
       <c r="C295" s="5" t="s">
         <v>696</v>
       </c>
+      <c r="D295" s="18"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="18"/>
@@ -7220,6 +7432,7 @@
       <c r="C296" s="5" t="s">
         <v>697</v>
       </c>
+      <c r="D296" s="18"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="18"/>
@@ -7229,6 +7442,7 @@
       <c r="C297" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D297" s="18"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="18"/>
@@ -7238,6 +7452,7 @@
       <c r="C298" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D298" s="18"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="18" t="s">
@@ -7250,6 +7465,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A299,"***")</f>
         <v>REM SUBROUTINE ***RENDERSHIPSAUX***</v>
       </c>
+      <c r="D299" s="18"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="18"/>
@@ -7260,6 +7476,7 @@
         <f>IF(ISBLANK(E300),_xlfn.CONCAT("SUB ",A299),_xlfn.CONCAT("SUB ",A299,"(",E300,")"))</f>
         <v>SUB RENDERSHIPSAUX(SHIPS(,,))</v>
       </c>
+      <c r="D300" s="18"/>
       <c r="E300" t="s">
         <v>720</v>
       </c>
@@ -7274,7 +7491,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D301" s="18" t="str">
-        <f>A569</f>
+        <f>A573</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E301" t="s">
@@ -7291,7 +7508,7 @@
         <v>CALL GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D302" s="18" t="str">
-        <f>A587</f>
+        <f>A591</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E302" t="s">
@@ -7308,7 +7525,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D303" s="18" t="str">
-        <f>A553</f>
+        <f>A557</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E303" t="s">
@@ -7323,6 +7540,7 @@
       <c r="C304" s="5" t="s">
         <v>577</v>
       </c>
+      <c r="D304" s="18"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="18"/>
@@ -7334,7 +7552,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D305" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E305" t="s">
@@ -7349,6 +7567,7 @@
       <c r="C306" t="s">
         <v>730</v>
       </c>
+      <c r="D306" s="18"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="18"/>
@@ -7358,6 +7577,7 @@
       <c r="C307" s="5" t="s">
         <v>694</v>
       </c>
+      <c r="D307" s="18"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="18"/>
@@ -7367,6 +7587,7 @@
       <c r="C308" s="5" t="s">
         <v>695</v>
       </c>
+      <c r="D308" s="18"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="18"/>
@@ -7376,6 +7597,7 @@
       <c r="C309" t="s">
         <v>14</v>
       </c>
+      <c r="D309" s="18"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="18"/>
@@ -7385,6 +7607,7 @@
       <c r="C310" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D310" s="18"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="18"/>
@@ -7394,6 +7617,7 @@
       <c r="C311" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D311" s="18"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="18" t="s">
@@ -7406,6 +7630,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A312,"***")</f>
         <v>REM SUBROUTINE ***RENDERSHOT***</v>
       </c>
+      <c r="D312" s="18"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="18"/>
@@ -7416,6 +7641,7 @@
         <f>IF(ISBLANK(E313),_xlfn.CONCAT("SUB ",A312),_xlfn.CONCAT("SUB ",A312,"(",E313,")"))</f>
         <v>SUB RENDERSHOT(PLAYER,HIT,SROW,SCOL)</v>
       </c>
+      <c r="D313" s="18"/>
       <c r="E313" t="s">
         <v>782</v>
       </c>
@@ -7430,7 +7656,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D314" s="18" t="str">
-        <f>A591</f>
+        <f>A595</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E314" t="s">
@@ -7445,6 +7671,7 @@
       <c r="C315" s="5" t="s">
         <v>780</v>
       </c>
+      <c r="D315" s="18"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="18"/>
@@ -7454,6 +7681,7 @@
       <c r="C316" s="5" t="s">
         <v>903</v>
       </c>
+      <c r="D316" s="18"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="18"/>
@@ -7463,6 +7691,7 @@
       <c r="C317" s="5" t="s">
         <v>793</v>
       </c>
+      <c r="D317" s="18"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="18"/>
@@ -7491,7 +7720,7 @@
         <v>IF HIT=1 THEN CALL GETHITCHAR(CHARVAL) ELSE CALL GETMISSCHAR(CHARVAL)</v>
       </c>
       <c r="D319" s="18" t="str">
-        <f>A549</f>
+        <f>A553</f>
         <v>GETHITCHAR</v>
       </c>
       <c r="E319" s="18" t="s">
@@ -7511,11 +7740,11 @@
         <v>IF PLAYER=1 THEN CALL GETAUXORIG(ROW,COL) ELSE CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D320" s="18" t="str">
+        <f>A591</f>
+        <v>GETAUXORIG</v>
+      </c>
+      <c r="E320" s="18" t="str">
         <f>A587</f>
-        <v>GETAUXORIG</v>
-      </c>
-      <c r="E320" s="18" t="str">
-        <f>A583</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="F320" t="s">
@@ -7574,6 +7803,7 @@
       <c r="C325" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D325" s="18"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="18" t="s">
@@ -7586,6 +7816,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A326,"***")</f>
         <v>REM SUBROUTINE ***RENDERSUNK***</v>
       </c>
+      <c r="D326" s="18"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="18"/>
@@ -7596,6 +7827,7 @@
         <f>IF(ISBLANK(E327),_xlfn.CONCAT("SUB ",A326),_xlfn.CONCAT("SUB ",A326,"(",E327,")"))</f>
         <v>SUB RENDERSUNK(PLAYER,SHIP,SHIPS(,,))</v>
       </c>
+      <c r="D327" s="18"/>
       <c r="E327" t="s">
         <v>848</v>
       </c>
@@ -7610,7 +7842,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(SHIP))</v>
       </c>
       <c r="D328" s="18" t="str">
-        <f>A573</f>
+        <f>A577</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E328" t="s">
@@ -7627,11 +7859,11 @@
         <v>IF PLAYER=0 THEN CALL GETAUXORIG(ROW,COL) ELSE CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D329" s="18" t="str">
+        <f>A591</f>
+        <v>GETAUXORIG</v>
+      </c>
+      <c r="E329" s="18" t="str">
         <f>A587</f>
-        <v>GETAUXORIG</v>
-      </c>
-      <c r="E329" s="18" t="str">
-        <f>A583</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="F329" t="s">
@@ -7648,7 +7880,7 @@
         <v>CALL GETSUNKCHAR(SUNKCHAR)</v>
       </c>
       <c r="D330" s="18" t="str">
-        <f>A565</f>
+        <f>A569</f>
         <v>GETSUNKCHAR</v>
       </c>
       <c r="E330" s="5" t="s">
@@ -7663,6 +7895,7 @@
       <c r="C331" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="D331" s="18"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="18"/>
@@ -7672,6 +7905,7 @@
       <c r="C332" s="5" t="s">
         <v>851</v>
       </c>
+      <c r="D332" s="18"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="18"/>
@@ -7681,6 +7915,7 @@
       <c r="C333" s="5" t="s">
         <v>855</v>
       </c>
+      <c r="D333" s="18"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="18"/>
@@ -7690,6 +7925,7 @@
       <c r="C334" s="5" t="s">
         <v>854</v>
       </c>
+      <c r="D334" s="18"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="18"/>
@@ -7699,6 +7935,7 @@
       <c r="C335" s="5" t="s">
         <v>852</v>
       </c>
+      <c r="D335" s="18"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="18"/>
@@ -7708,6 +7945,7 @@
       <c r="C336" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D336" s="18"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="18"/>
@@ -7719,7 +7957,7 @@
         <v>CALL GETSHIPNAME(SHIPNAME$,SHIP)</v>
       </c>
       <c r="D337" s="18" t="str">
-        <f>A578</f>
+        <f>A582</f>
         <v>GETSHIPNAME</v>
       </c>
       <c r="E337" t="s">
@@ -7736,7 +7974,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D338" s="18" t="str">
-        <f>A591</f>
+        <f>A595</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E338" t="s">
@@ -7751,6 +7989,7 @@
       <c r="C339" s="5" t="s">
         <v>883</v>
       </c>
+      <c r="D339" s="18"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="18"/>
@@ -7760,6 +7999,7 @@
       <c r="C340" s="5" t="s">
         <v>793</v>
       </c>
+      <c r="D340" s="18"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="18"/>
@@ -7786,6 +8026,7 @@
       <c r="C342" s="5" t="s">
         <v>793</v>
       </c>
+      <c r="D342" s="18"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="18"/>
@@ -7812,6 +8053,7 @@
       <c r="C344" s="5" t="s">
         <v>857</v>
       </c>
+      <c r="D344" s="18"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="18"/>
@@ -7821,6 +8063,7 @@
       <c r="C345" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D345" s="18"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="18" t="s">
@@ -7833,6 +8076,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A346,"***")</f>
         <v>REM SUBROUTINE ***MENUCLEAR***</v>
       </c>
+      <c r="D346" s="18"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="18"/>
@@ -7843,6 +8087,7 @@
         <f>IF(ISBLANK(D347),_xlfn.CONCAT("SUB ",A346),_xlfn.CONCAT("SUB ",A346,"(",D347,")"))</f>
         <v>SUB MENUCLEAR</v>
       </c>
+      <c r="D347" s="18"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="18"/>
@@ -7854,7 +8099,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D348" s="18" t="str">
-        <f>A591</f>
+        <f>A595</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E348" t="s">
@@ -7869,6 +8114,7 @@
       <c r="C349" s="5" t="s">
         <v>693</v>
       </c>
+      <c r="D349" s="18"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="18"/>
@@ -7878,6 +8124,7 @@
       <c r="C350" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D350" s="18"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="18" t="s">
@@ -7890,6 +8137,7 @@
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A351,"***")</f>
         <v>REM SUBROUTINE ***MENUAUTODEPLOY***</v>
       </c>
+      <c r="D351" s="18"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="18"/>
@@ -7900,6 +8148,7 @@
         <f>IF(ISBLANK(E352),_xlfn.CONCAT("SUB ",A351),_xlfn.CONCAT("SUB ",A351,"(",E352,")"))</f>
         <v>SUB MENUAUTODEPLOY(AUTODEPLOY$)</v>
       </c>
+      <c r="D352" s="18"/>
       <c r="E352" t="s">
         <v>897</v>
       </c>
@@ -7914,7 +8163,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D353" s="18" t="str">
-        <f>A591</f>
+        <f>A595</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E353" t="s">
@@ -8021,13 +8270,17 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="18"/>
+      <c r="A360" s="20" t="s">
+        <v>1038</v>
+      </c>
       <c r="B360">
         <v>3680</v>
       </c>
-      <c r="C360" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="C360" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A360,"***")</f>
+        <v>REM LABEL ***ASKAUTO***</v>
+      </c>
+      <c r="D360" s="18"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="18"/>
@@ -8035,19 +8288,22 @@
         <v>3690</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="D361" s="18"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="18" t="s">
-        <v>869</v>
-      </c>
+      <c r="A362" s="18"/>
       <c r="B362">
         <v>3700</v>
       </c>
-      <c r="C362" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A362,"***")</f>
-        <v>REM SUBROUTINE ***MENUDEPLOY***</v>
+      <c r="C362" s="5" t="str">
+        <f>_xlfn.CONCAT("IF AUTODEPLOY$="""" THEN  ",INDEX(B:B,MATCH(D362,A:A,0),0)," :: REM GOTO ",D362,"")</f>
+        <v>IF AUTODEPLOY$="" THEN  3680 :: REM GOTO ASKAUTO</v>
+      </c>
+      <c r="D362" s="20" t="str">
+        <f>A360</f>
+        <v>ASKAUTO</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -8055,46 +8311,36 @@
       <c r="B363">
         <v>3710</v>
       </c>
-      <c r="C363" t="str">
-        <f>IF(ISBLANK(E363),_xlfn.CONCAT("SUB ",A362),_xlfn.CONCAT("SUB ",A362,"(",E363,")"))</f>
-        <v>SUB MENUDEPLOY(CURRENTSHIP)</v>
-      </c>
-      <c r="E363" t="s">
-        <v>738</v>
-      </c>
+      <c r="C363" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D363" s="18"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="18"/>
+      <c r="A364" s="18" t="s">
+        <v>869</v>
+      </c>
       <c r="B364">
         <v>3720</v>
       </c>
-      <c r="C364" s="18" t="str">
-        <f t="shared" ref="C364:C372" si="2">IF(ISBLANK(E364),_xlfn.CONCAT("CALL ",D364),_xlfn.CONCAT("CALL ",D364,"(",E364,")"))</f>
-        <v>CALL GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="D364" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
-      <c r="E364" t="s">
-        <v>692</v>
-      </c>
+      <c r="C364" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A364,"***")</f>
+        <v>REM SUBROUTINE ***MENUDEPLOY***</v>
+      </c>
+      <c r="D364" s="18"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="18"/>
       <c r="B365">
         <v>3730</v>
       </c>
-      <c r="C365" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>CALL RENDERTEXT("INPUT THE",(ROW),(COL))</v>
-      </c>
-      <c r="D365" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
+      <c r="C365" t="str">
+        <f>IF(ISBLANK(E365),_xlfn.CONCAT("SUB ",A364),_xlfn.CONCAT("SUB ",A364,"(",E365,")"))</f>
+        <v>SUB MENUDEPLOY(CURRENTSHIP)</v>
+      </c>
+      <c r="D365" s="18"/>
       <c r="E365" t="s">
-        <v>817</v>
+        <v>738</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -8103,15 +8349,15 @@
         <v>3740</v>
       </c>
       <c r="C366" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>CALL RENDERTEXT("LOCATIONS",(ROW+1),(COL))</v>
+        <f t="shared" ref="C366:C374" si="2">IF(ISBLANK(E366),_xlfn.CONCAT("CALL ",D366),_xlfn.CONCAT("CALL ",D366,"(",E366,")"))</f>
+        <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D366" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
+        <f>A595</f>
+        <v>GETMENUORIG</v>
       </c>
       <c r="E366" t="s">
-        <v>818</v>
+        <v>692</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -8121,14 +8367,14 @@
       </c>
       <c r="C367" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>CALL RENDERTEXT("FOR YOUR",(ROW+2),(COL))</v>
+        <v>CALL RENDERTEXT("INPUT THE",(ROW),(COL))</v>
       </c>
       <c r="D367" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E367" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -8138,14 +8384,14 @@
       </c>
       <c r="C368" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>CALL RENDERTEXT("          ",(ROW+3),(COL))</v>
+        <v>CALL RENDERTEXT("LOCATIONS",(ROW+1),(COL))</v>
       </c>
       <c r="D368" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E368" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -8155,14 +8401,14 @@
       </c>
       <c r="C369" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>CALL GETSHIPNAME(SHIPNAME$,(CURRENTSHIP))</v>
+        <v>CALL RENDERTEXT("FOR YOUR",(ROW+2),(COL))</v>
       </c>
       <c r="D369" s="18" t="str">
-        <f>A578</f>
-        <v>GETSHIPNAME</v>
+        <f>A228</f>
+        <v>RENDERTEXT</v>
       </c>
       <c r="E369" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -8172,14 +8418,14 @@
       </c>
       <c r="C370" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>CALL RENDERTEXT((SHIPNAME$),(ROW+3),(COL))</v>
+        <v>CALL RENDERTEXT("          ",(ROW+3),(COL))</v>
       </c>
       <c r="D370" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E370" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -8189,14 +8435,14 @@
       </c>
       <c r="C371" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>CALL RENDERTEXT("[IE. C3]:",(ROW+4),(COL))</v>
+        <v>CALL GETSHIPNAME(SHIPNAME$,(CURRENTSHIP))</v>
       </c>
       <c r="D371" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
+        <f>A582</f>
+        <v>GETSHIPNAME</v>
       </c>
       <c r="E371" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -8206,14 +8452,14 @@
       </c>
       <c r="C372" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+        <v>CALL RENDERTEXT((SHIPNAME$),(ROW+3),(COL))</v>
       </c>
       <c r="D372" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
+        <f>A228</f>
+        <v>RENDERTEXT</v>
       </c>
       <c r="E372" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -8221,8 +8467,16 @@
       <c r="B373">
         <v>3810</v>
       </c>
-      <c r="C373" s="5" t="s">
-        <v>3</v>
+      <c r="C373" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>CALL RENDERTEXT("[IE. C3]:",(ROW+4),(COL))</v>
+      </c>
+      <c r="D373" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E373" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -8230,8 +8484,16 @@
       <c r="B374">
         <v>3820</v>
       </c>
-      <c r="C374" s="5" t="s">
-        <v>737</v>
+      <c r="C374" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D374" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E374" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -8239,17 +8501,10 @@
       <c r="B375">
         <v>3830</v>
       </c>
-      <c r="C375" s="18" t="str">
-        <f>IF(ISBLANK(E375),_xlfn.CONCAT("CALL ",D375),_xlfn.CONCAT("CALL ",D375,"(",E375,")"))</f>
-        <v>CALL RENDERTEXT((TEXT$),(ROW+4+I),(COL))</v>
-      </c>
-      <c r="D375" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
-      <c r="E375" t="s">
-        <v>823</v>
-      </c>
+      <c r="C375" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D375" s="18"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="18"/>
@@ -8257,73 +8512,70 @@
         <v>3840</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="D376" s="18"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="18"/>
       <c r="B377">
         <v>3850</v>
       </c>
-      <c r="C377" s="5" t="s">
-        <v>555</v>
+      <c r="C377" s="18" t="str">
+        <f>IF(ISBLANK(E377),_xlfn.CONCAT("CALL ",D377),_xlfn.CONCAT("CALL ",D377,"(",E377,")"))</f>
+        <v>CALL RENDERTEXT((TEXT$),(ROW+4+I),(COL))</v>
+      </c>
+      <c r="D377" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E377" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="18" t="s">
-        <v>868</v>
-      </c>
+      <c r="A378" s="18"/>
       <c r="B378">
         <v>3860</v>
       </c>
-      <c r="C378" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A378,"***")</f>
-        <v>REM SUBROUTINE ***MENUTARGET***</v>
-      </c>
+      <c r="C378" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378" s="18"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="18"/>
       <c r="B379">
         <v>3870</v>
       </c>
-      <c r="C379" t="str">
-        <f>IF(ISBLANK(D379),_xlfn.CONCAT("SUB ",A378),_xlfn.CONCAT("SUB ",A378,"(",D379,")"))</f>
-        <v>SUB MENUTARGET</v>
-      </c>
+      <c r="C379" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D379" s="18"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="18"/>
+      <c r="A380" s="18" t="s">
+        <v>868</v>
+      </c>
       <c r="B380">
         <v>3880</v>
       </c>
-      <c r="C380" s="18" t="str">
-        <f t="shared" ref="C380:C385" si="3">IF(ISBLANK(E380),_xlfn.CONCAT("CALL ",D380),_xlfn.CONCAT("CALL ",D380,"(",E380,")"))</f>
-        <v>CALL GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="D380" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
-      <c r="E380" t="s">
-        <v>692</v>
-      </c>
+      <c r="C380" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A380,"***")</f>
+        <v>REM SUBROUTINE ***MENUTARGET***</v>
+      </c>
+      <c r="D380" s="18"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="18"/>
       <c r="B381">
         <v>3890</v>
       </c>
-      <c r="C381" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL RENDERTEXT("PLAYER",(ROW),(COL))</v>
-      </c>
-      <c r="D381" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
-      <c r="E381" t="s">
-        <v>799</v>
-      </c>
+      <c r="C381" t="str">
+        <f>IF(ISBLANK(D381),_xlfn.CONCAT("SUB ",A380),_xlfn.CONCAT("SUB ",A380,"(",D381,")"))</f>
+        <v>SUB MENUTARGET</v>
+      </c>
+      <c r="D381" s="18"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="18"/>
@@ -8331,15 +8583,15 @@
         <v>3900</v>
       </c>
       <c r="C382" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>CALL RENDERTEXT("TARGET",(ROW+1),(COL))</v>
+        <f t="shared" ref="C382:C387" si="3">IF(ISBLANK(E382),_xlfn.CONCAT("CALL ",D382),_xlfn.CONCAT("CALL ",D382,"(",E382,")"))</f>
+        <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D382" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
+        <f>A595</f>
+        <v>GETMENUORIG</v>
       </c>
       <c r="E382" t="s">
-        <v>800</v>
+        <v>692</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -8349,14 +8601,14 @@
       </c>
       <c r="C383" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>CALL RENDERTEXT("[IE. C3]",(ROW+2),(COL))</v>
+        <v>CALL RENDERTEXT("PLAYER",(ROW),(COL))</v>
       </c>
       <c r="D383" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E383" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -8366,14 +8618,14 @@
       </c>
       <c r="C384" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>CALL RENDERTEXT("COMPUTER",(ROW+6),(COL))</v>
+        <v>CALL RENDERTEXT("TARGET",(ROW+1),(COL))</v>
       </c>
       <c r="D384" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E384" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -8383,14 +8635,14 @@
       </c>
       <c r="C385" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>CALL RENDERTEXT("TARGET",(ROW+7),(COL))</v>
+        <v>CALL RENDERTEXT("[IE. C3]",(ROW+2),(COL))</v>
       </c>
       <c r="D385" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E385" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -8398,20 +8650,33 @@
       <c r="B386">
         <v>3940</v>
       </c>
-      <c r="C386" s="5" t="s">
-        <v>555</v>
+      <c r="C386" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL RENDERTEXT("COMPUTER",(ROW+6),(COL))</v>
+      </c>
+      <c r="D386" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E386" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="18" t="s">
-        <v>873</v>
-      </c>
+      <c r="A387" s="18"/>
       <c r="B387">
         <v>3950</v>
       </c>
-      <c r="C387" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A387,"***")</f>
-        <v>REM SUBROUTINE ***MENUDEPLOYING***</v>
+      <c r="C387" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>CALL RENDERTEXT("TARGET",(ROW+7),(COL))</v>
+      </c>
+      <c r="D387" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E387" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -8419,41 +8684,34 @@
       <c r="B388">
         <v>3960</v>
       </c>
-      <c r="C388" t="str">
-        <f>IF(ISBLANK(D388),_xlfn.CONCAT("SUB ",A387),_xlfn.CONCAT("SUB ",A387,"(",D388,")"))</f>
-        <v>SUB MENUDEPLOYING</v>
-      </c>
+      <c r="C388" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D388" s="18"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="18"/>
+      <c r="A389" s="18" t="s">
+        <v>873</v>
+      </c>
       <c r="B389">
         <v>3970</v>
       </c>
-      <c r="C389" s="18" t="str">
-        <f>IF(ISBLANK(E389),_xlfn.CONCAT("CALL ",D389),_xlfn.CONCAT("CALL ",D389,"(",E389,")"))</f>
-        <v>CALL GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="D389" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
-      <c r="E389" t="s">
-        <v>692</v>
-      </c>
+      <c r="C389" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A389,"***")</f>
+        <v>REM SUBROUTINE ***MENUDEPLOYING***</v>
+      </c>
+      <c r="D389" s="18"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="18"/>
       <c r="B390">
         <v>3980</v>
       </c>
-      <c r="C390" s="18" t="str">
-        <f t="shared" ref="C390:C396" si="4">IF(ISBLANK(E390),_xlfn.CONCAT("CALL ",D390),_xlfn.CONCAT("CALL ",D390,"(",E390,")"))</f>
-        <v>CALL MENUCLEAR</v>
-      </c>
-      <c r="D390" s="18" t="str">
-        <f>A346</f>
-        <v>MENUCLEAR</v>
-      </c>
+      <c r="C390" t="str">
+        <f>IF(ISBLANK(D390),_xlfn.CONCAT("SUB ",A389),_xlfn.CONCAT("SUB ",A389,"(",D390,")"))</f>
+        <v>SUB MENUDEPLOYING</v>
+      </c>
+      <c r="D390" s="18"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="18"/>
@@ -8461,15 +8719,15 @@
         <v>3990</v>
       </c>
       <c r="C391" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>CALL RENDERTEXT("PLAYER'S",(ROW),(COL))</v>
+        <f>IF(ISBLANK(E391),_xlfn.CONCAT("CALL ",D391),_xlfn.CONCAT("CALL ",D391,"(",E391,")"))</f>
+        <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D391" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
+        <f>A595</f>
+        <v>GETMENUORIG</v>
       </c>
       <c r="E391" t="s">
-        <v>827</v>
+        <v>692</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -8478,15 +8736,12 @@
         <v>4000</v>
       </c>
       <c r="C392" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>CALL RENDERTEXT("SHIPS",(ROW+1),(COL))</v>
+        <f t="shared" ref="C392:C398" si="4">IF(ISBLANK(E392),_xlfn.CONCAT("CALL ",D392),_xlfn.CONCAT("CALL ",D392,"(",E392,")"))</f>
+        <v>CALL MENUCLEAR</v>
       </c>
       <c r="D392" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
-      <c r="E392" t="s">
-        <v>828</v>
+        <f>A346</f>
+        <v>MENUCLEAR</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -8496,13 +8751,14 @@
       </c>
       <c r="C393" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>CALL RENDERTEXT("DEPLOYED.",(ROW+2),(COL))</v>
-      </c>
-      <c r="D393" s="18" t="s">
-        <v>553</v>
+        <v>CALL RENDERTEXT("PLAYER'S",(ROW),(COL))</v>
+      </c>
+      <c r="D393" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
       </c>
       <c r="E393" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -8512,14 +8768,14 @@
       </c>
       <c r="C394" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>CALL RENDERTEXT("COMPUTER",(ROW+4),(COL))</v>
+        <v>CALL RENDERTEXT("SHIPS",(ROW+1),(COL))</v>
       </c>
       <c r="D394" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E394" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -8529,13 +8785,13 @@
       </c>
       <c r="C395" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>CALL RENDERTEXT("DEPLOYING",(ROW+5),(COL))</v>
+        <v>CALL RENDERTEXT("DEPLOYED.",(ROW+2),(COL))</v>
       </c>
       <c r="D395" s="18" t="s">
         <v>553</v>
       </c>
       <c r="E395" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -8545,14 +8801,14 @@
       </c>
       <c r="C396" s="18" t="str">
         <f t="shared" si="4"/>
-        <v>CALL RENDERTEXT("SHIPS...",(ROW+6),(COL))</v>
+        <v>CALL RENDERTEXT("COMPUTER",(ROW+4),(COL))</v>
       </c>
       <c r="D396" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E396" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -8560,20 +8816,32 @@
       <c r="B397">
         <v>4050</v>
       </c>
-      <c r="C397" s="5" t="s">
-        <v>555</v>
+      <c r="C397" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>CALL RENDERTEXT("DEPLOYING",(ROW+5),(COL))</v>
+      </c>
+      <c r="D397" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="E397" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="18" t="s">
-        <v>888</v>
-      </c>
+      <c r="A398" s="18"/>
       <c r="B398">
         <v>4060</v>
       </c>
-      <c r="C398" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A398,"***")</f>
-        <v>REM SUBROUTINE ***MENUGAMEOVER***</v>
+      <c r="C398" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>CALL RENDERTEXT("SHIPS...",(ROW+6),(COL))</v>
+      </c>
+      <c r="D398" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E398" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -8581,43 +8849,35 @@
       <c r="B399">
         <v>4070</v>
       </c>
-      <c r="C399" t="str">
-        <f>IF(ISBLANK(D399),_xlfn.CONCAT("SUB ",A398),_xlfn.CONCAT("SUB ",A398,"(",D399,")"))</f>
-        <v>SUB MENUGAMEOVER(PLAYAGAIN$,WINNER)</v>
-      </c>
-      <c r="D399" t="s">
-        <v>889</v>
-      </c>
+      <c r="C399" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D399" s="18"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="18"/>
+      <c r="A400" s="18" t="s">
+        <v>888</v>
+      </c>
       <c r="B400">
         <v>4080</v>
       </c>
-      <c r="C400" s="18" t="str">
-        <f t="shared" ref="C400" si="5">IF(ISBLANK(E400),_xlfn.CONCAT("CALL ",D400),_xlfn.CONCAT("CALL ",D400,"(",E400,")"))</f>
-        <v>CALL GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="D400" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
-      <c r="E400" t="s">
-        <v>692</v>
-      </c>
+      <c r="C400" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A400,"***")</f>
+        <v>REM SUBROUTINE ***MENUGAMEOVER***</v>
+      </c>
+      <c r="D400" s="18"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="18"/>
       <c r="B401">
         <v>4090</v>
       </c>
-      <c r="C401" s="18" t="str">
-        <f>IF(ISBLANK(E401),_xlfn.CONCAT("CALL ",D401),_xlfn.CONCAT("CALL ",D401,"(",E401,")"))</f>
-        <v>CALL MENUCLEAR</v>
-      </c>
-      <c r="D401" s="18" t="str">
-        <f>A346</f>
-        <v>MENUCLEAR</v>
+      <c r="C401" t="str">
+        <f>IF(ISBLANK(D401),_xlfn.CONCAT("SUB ",A400),_xlfn.CONCAT("SUB ",A400,"(",D401,")"))</f>
+        <v>SUB MENUGAMEOVER(PLAYAGAIN$,WINNER)</v>
+      </c>
+      <c r="D401" s="18" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -8626,15 +8886,15 @@
         <v>4100</v>
       </c>
       <c r="C402" s="18" t="str">
-        <f t="shared" ref="C402:C408" si="6">IF(ISBLANK(E402),_xlfn.CONCAT("CALL ",D402),_xlfn.CONCAT("CALL ",D402,"(",E402,")"))</f>
-        <v>CALL RENDERTEXT("GAME OVER",(ROW),(COL))</v>
+        <f t="shared" ref="C402" si="5">IF(ISBLANK(E402),_xlfn.CONCAT("CALL ",D402),_xlfn.CONCAT("CALL ",D402,"(",E402,")"))</f>
+        <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D402" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
+        <f>A595</f>
+        <v>GETMENUORIG</v>
       </c>
       <c r="E402" t="s">
-        <v>890</v>
+        <v>692</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -8643,15 +8903,12 @@
         <v>4110</v>
       </c>
       <c r="C403" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>CALL RENDERTEXT("WINNER:",(ROW+1),(COL))</v>
+        <f>IF(ISBLANK(E403),_xlfn.CONCAT("CALL ",D403),_xlfn.CONCAT("CALL ",D403,"(",E403,")"))</f>
+        <v>CALL MENUCLEAR</v>
       </c>
       <c r="D403" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
-      <c r="E403" t="s">
-        <v>891</v>
+        <f>A346</f>
+        <v>MENUCLEAR</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -8659,10 +8916,17 @@
       <c r="B404">
         <v>4120</v>
       </c>
-      <c r="C404" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="D404" s="18"/>
+      <c r="C404" s="18" t="str">
+        <f t="shared" ref="C404:C410" si="6">IF(ISBLANK(E404),_xlfn.CONCAT("CALL ",D404),_xlfn.CONCAT("CALL ",D404,"(",E404,")"))</f>
+        <v>CALL RENDERTEXT("GAME OVER",(ROW),(COL))</v>
+      </c>
+      <c r="D404" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E404" t="s">
+        <v>890</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="18"/>
@@ -8671,14 +8935,14 @@
       </c>
       <c r="C405" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>CALL RENDERTEXT(TEXT$,(ROW+2),(COL))</v>
+        <v>CALL RENDERTEXT("WINNER:",(ROW+1),(COL))</v>
       </c>
       <c r="D405" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E405" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -8686,17 +8950,10 @@
       <c r="B406">
         <v>4140</v>
       </c>
-      <c r="C406" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>CALL RENDERTEXT("PLAY", (ROW+4),(COL))</v>
-      </c>
-      <c r="D406" s="18" t="str">
-        <f>A228</f>
-        <v>RENDERTEXT</v>
-      </c>
-      <c r="E406" t="s">
-        <v>894</v>
-      </c>
+      <c r="C406" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="D406" s="18"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="18"/>
@@ -8705,14 +8962,14 @@
       </c>
       <c r="C407" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>CALL RENDERTEXT("AGAIN?",(ROW+5),(COL))</v>
+        <v>CALL RENDERTEXT(TEXT$,(ROW+2),(COL))</v>
       </c>
       <c r="D407" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E407" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -8722,14 +8979,14 @@
       </c>
       <c r="C408" s="18" t="str">
         <f t="shared" si="6"/>
-        <v>CALL RENDERTEXT("[Y/N]:",(ROW+6),(COL))</v>
+        <v>CALL RENDERTEXT("PLAY", (ROW+4),(COL))</v>
       </c>
       <c r="D408" s="18" t="str">
         <f>A228</f>
         <v>RENDERTEXT</v>
       </c>
       <c r="E408" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -8737,123 +8994,140 @@
       <c r="B409">
         <v>4170</v>
       </c>
-      <c r="C409" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="D409" s="18"/>
+      <c r="C409" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>CALL RENDERTEXT("AGAIN?",(ROW+5),(COL))</v>
+      </c>
+      <c r="D409" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E409" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="18"/>
       <c r="B410">
         <v>4180</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>555</v>
+      <c r="C410" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>CALL RENDERTEXT("[Y/N]:",(ROW+6),(COL))</v>
+      </c>
+      <c r="D410" s="18" t="str">
+        <f>A228</f>
+        <v>RENDERTEXT</v>
+      </c>
+      <c r="E410" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="18" t="s">
-        <v>709</v>
+      <c r="A411" s="20" t="s">
+        <v>1040</v>
       </c>
       <c r="B411">
         <v>4190</v>
       </c>
-      <c r="C411" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A411,"***")</f>
-        <v>REM SUBROUTINE ***INPUTPOS***</v>
-      </c>
+      <c r="C411" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D411" s="18"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="18"/>
       <c r="B412">
         <v>4200</v>
       </c>
-      <c r="C412" t="str">
-        <f>IF(ISBLANK(E412),_xlfn.CONCAT("SUB ",A411),_xlfn.CONCAT("SUB ",A411,"(",E412,")"))</f>
-        <v>SUB INPUTPOS(ROW,COL,INPUTROW$,INPUTCOL)</v>
-      </c>
-      <c r="E412" t="s">
-        <v>703</v>
-      </c>
+      <c r="C412" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D412" s="18"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="18"/>
       <c r="B413">
         <v>4210</v>
       </c>
-      <c r="C413" s="5" t="s">
-        <v>22</v>
+      <c r="C413" s="5" t="str">
+        <f>_xlfn.CONCAT("IF PLAYAGAIN$="""" THEN  ",INDEX(B:B,MATCH(D413,A:A,0),0)," :: REM GOTO ",D413,"")</f>
+        <v>IF PLAYAGAIN$="" THEN  4190 :: REM GOTO ASKPLAYAGAIN</v>
+      </c>
+      <c r="D413" s="20" t="str">
+        <f>A411</f>
+        <v>ASKPLAYAGAIN</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" s="19" t="s">
-        <v>705</v>
-      </c>
+      <c r="A414" s="18"/>
       <c r="B414">
         <v>4220</v>
       </c>
-      <c r="C414" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A414,"***")</f>
-        <v>REM LABEL ***GETROW***</v>
-      </c>
+      <c r="C414" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D414" s="18"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A415" s="18"/>
+      <c r="A415" s="18" t="s">
+        <v>709</v>
+      </c>
       <c r="B415">
         <v>4230</v>
       </c>
-      <c r="C415" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="C415" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A415,"***")</f>
+        <v>REM SUBROUTINE ***INPUTPOS***</v>
+      </c>
+      <c r="D415" s="18"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="18"/>
       <c r="B416">
         <v>4240</v>
       </c>
-      <c r="C416" s="5" t="str">
-        <f>_xlfn.CONCAT("IF INPUTROW$="""" THEN  ",INDEX(B:B,MATCH(D416,A:A,0),0)," :: REM GOTO ",D416,"")</f>
-        <v>IF INPUTROW$="" THEN  4220 :: REM GOTO GETROW</v>
-      </c>
-      <c r="D416" s="20" t="str">
-        <f>A414</f>
-        <v>GETROW</v>
+      <c r="C416" t="str">
+        <f>IF(ISBLANK(E416),_xlfn.CONCAT("SUB ",A415),_xlfn.CONCAT("SUB ",A415,"(",E416,")"))</f>
+        <v>SUB INPUTPOS(ROW,COL,INPUTROW$,INPUTCOL)</v>
+      </c>
+      <c r="D416" s="18"/>
+      <c r="E416" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="19" t="s">
-        <v>704</v>
-      </c>
+      <c r="A417" s="18"/>
       <c r="B417">
         <v>4250</v>
       </c>
-      <c r="C417" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A417,"***")</f>
-        <v>REM LABEL ***GETCOL***</v>
-      </c>
+      <c r="C417" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D417" s="18"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" s="18"/>
+      <c r="A418" s="19" t="s">
+        <v>705</v>
+      </c>
       <c r="B418">
         <v>4260</v>
       </c>
-      <c r="C418" s="5" t="s">
-        <v>736</v>
-      </c>
+      <c r="C418" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A418,"***")</f>
+        <v>REM LABEL ***GETROW***</v>
+      </c>
+      <c r="D418" s="18"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="18"/>
       <c r="B419">
         <v>4270</v>
       </c>
-      <c r="C419" s="5" t="str">
-        <f>_xlfn.CONCAT("IF INPUTCOL&gt;10 THEN  ",INDEX(B:B,MATCH(D419,A:A,0),0)," :: REM GOTO ",D419,"")</f>
-        <v>IF INPUTCOL&gt;10 THEN  4250 :: REM GOTO GETCOL</v>
-      </c>
-      <c r="D419" s="20" t="str">
-        <f>A417</f>
-        <v>GETCOL</v>
-      </c>
+      <c r="C419" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D419" s="18"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="18"/>
@@ -8861,22 +9135,26 @@
         <v>4280</v>
       </c>
       <c r="C420" s="5" t="str">
-        <f>_xlfn.CONCAT("IF INPUTCOL&lt;1 THEN  ",INDEX(B:B,MATCH(D420,A:A,0),0)," :: REM GOTO ",D420,"")</f>
-        <v>IF INPUTCOL&lt;1 THEN  4250 :: REM GOTO GETCOL</v>
+        <f>_xlfn.CONCAT("IF INPUTROW$="""" THEN  ",INDEX(B:B,MATCH(D420,A:A,0),0)," :: REM GOTO ",D420,"")</f>
+        <v>IF INPUTROW$="" THEN  4260 :: REM GOTO GETROW</v>
       </c>
       <c r="D420" s="20" t="str">
-        <f>A417</f>
-        <v>GETCOL</v>
+        <f>A418</f>
+        <v>GETROW</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421" s="18"/>
+      <c r="A421" s="19" t="s">
+        <v>704</v>
+      </c>
       <c r="B421">
         <v>4290</v>
       </c>
-      <c r="C421" s="5" t="s">
-        <v>559</v>
-      </c>
+      <c r="C421" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A421,"***")</f>
+        <v>REM LABEL ***GETCOL***</v>
+      </c>
+      <c r="D421" s="18"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="18"/>
@@ -8884,19 +9162,22 @@
         <v>4300</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="D422" s="18"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="18" t="s">
-        <v>526</v>
-      </c>
+      <c r="A423" s="18"/>
       <c r="B423">
         <v>4310</v>
       </c>
-      <c r="C423" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A423,"***")</f>
-        <v>REM SUBROUTINE ***INPUTSHIP***</v>
+      <c r="C423" s="5" t="str">
+        <f>_xlfn.CONCAT("IF INPUTCOL&gt;10 THEN  ",INDEX(B:B,MATCH(D423,A:A,0),0)," :: REM GOTO ",D423,"")</f>
+        <v>IF INPUTCOL&gt;10 THEN  4290 :: REM GOTO GETCOL</v>
+      </c>
+      <c r="D423" s="20" t="str">
+        <f>A421</f>
+        <v>GETCOL</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -8904,12 +9185,13 @@
       <c r="B424">
         <v>4320</v>
       </c>
-      <c r="C424" t="str">
-        <f>IF(ISBLANK(E424),_xlfn.CONCAT("SUB ",A423),_xlfn.CONCAT("SUB ",A423,"(",E424,")"))</f>
-        <v>SUB INPUTSHIP(SHIP(),CURRENTSHIP)</v>
-      </c>
-      <c r="E424" t="s">
-        <v>742</v>
+      <c r="C424" s="5" t="str">
+        <f>_xlfn.CONCAT("IF INPUTCOL&lt;1 THEN  ",INDEX(B:B,MATCH(D424,A:A,0),0)," :: REM GOTO ",D424,"")</f>
+        <v>IF INPUTCOL&lt;1 THEN  4290 :: REM GOTO GETCOL</v>
+      </c>
+      <c r="D424" s="20" t="str">
+        <f>A421</f>
+        <v>GETCOL</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -8917,51 +9199,46 @@
       <c r="B425">
         <v>4330</v>
       </c>
-      <c r="C425" s="18" t="str">
-        <f>IF(ISBLANK(E425),_xlfn.CONCAT("CALL ",D425),_xlfn.CONCAT("CALL ",D425,"(",E425,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D425" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E425" t="s">
-        <v>815</v>
-      </c>
+      <c r="C425" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D425" s="18"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="18"/>
       <c r="B426">
         <v>4340</v>
       </c>
-      <c r="C426" s="18" t="str">
-        <f>IF(ISBLANK(E426),_xlfn.CONCAT("CALL ",D426),_xlfn.CONCAT("CALL ",D426,"(",E426,")"))</f>
-        <v>CALL GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="D426" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
-      <c r="E426" t="s">
-        <v>692</v>
-      </c>
+      <c r="C426" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D426" s="18"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A427" s="18"/>
+      <c r="A427" s="18" t="s">
+        <v>526</v>
+      </c>
       <c r="B427">
         <v>4350</v>
       </c>
-      <c r="C427" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="C427" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A427,"***")</f>
+        <v>REM SUBROUTINE ***INPUTSHIP***</v>
+      </c>
+      <c r="D427" s="18"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="18"/>
       <c r="B428">
         <v>4360</v>
       </c>
-      <c r="C428" s="5" t="s">
-        <v>708</v>
+      <c r="C428" t="str">
+        <f>IF(ISBLANK(E428),_xlfn.CONCAT("SUB ",A427),_xlfn.CONCAT("SUB ",A427,"(",E428,")"))</f>
+        <v>SUB INPUTSHIP(SHIP(),CURRENTSHIP)</v>
+      </c>
+      <c r="D428" s="18"/>
+      <c r="E428" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -8971,14 +9248,14 @@
       </c>
       <c r="C429" s="18" t="str">
         <f>IF(ISBLANK(E429),_xlfn.CONCAT("CALL ",D429),_xlfn.CONCAT("CALL ",D429,"(",E429,")"))</f>
-        <v>CALL INPUTPOS((ROW+5+I),(COL+5),INPUTROW$,INPUTCOL)</v>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D429" s="18" t="str">
-        <f>A411</f>
-        <v>INPUTPOS</v>
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
       </c>
       <c r="E429" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -8986,8 +9263,16 @@
       <c r="B430">
         <v>4380</v>
       </c>
-      <c r="C430" s="5" t="s">
-        <v>707</v>
+      <c r="C430" s="18" t="str">
+        <f>IF(ISBLANK(E430),_xlfn.CONCAT("CALL ",D430),_xlfn.CONCAT("CALL ",D430,"(",E430,")"))</f>
+        <v>CALL GETMENUORIG(ROW,COL)</v>
+      </c>
+      <c r="D430" s="18" t="str">
+        <f>A595</f>
+        <v>GETMENUORIG</v>
+      </c>
+      <c r="E430" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -8996,8 +9281,9 @@
         <v>4390</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="D431" s="18"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="18"/>
@@ -9005,19 +9291,25 @@
         <v>4400</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="D432" s="18"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433" s="18" t="s">
-        <v>774</v>
-      </c>
+      <c r="A433" s="18"/>
       <c r="B433">
         <v>4410</v>
       </c>
-      <c r="C433" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A433,"***")</f>
-        <v>REM SUBROUTINE ***INPUTTARGET***</v>
+      <c r="C433" s="18" t="str">
+        <f>IF(ISBLANK(E433),_xlfn.CONCAT("CALL ",D433),_xlfn.CONCAT("CALL ",D433,"(",E433,")"))</f>
+        <v>CALL INPUTPOS((ROW+5+I),(COL+5),INPUTROW$,INPUTCOL)</v>
+      </c>
+      <c r="D433" s="18" t="str">
+        <f>A415</f>
+        <v>INPUTPOS</v>
+      </c>
+      <c r="E433" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -9025,30 +9317,20 @@
       <c r="B434">
         <v>4420</v>
       </c>
-      <c r="C434" t="str">
-        <f>IF(ISBLANK(E434),_xlfn.CONCAT("SUB ",A433),_xlfn.CONCAT("SUB ",A433,"(",E434,")"))</f>
-        <v>SUB INPUTTARGET(TARGETROW$,TARGETCOL)</v>
-      </c>
-      <c r="E434" t="s">
-        <v>775</v>
-      </c>
+      <c r="C434" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D434" s="18"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="18"/>
       <c r="B435">
         <v>4430</v>
       </c>
-      <c r="C435" s="18" t="str">
-        <f>IF(ISBLANK(E435),_xlfn.CONCAT("CALL ",D435),_xlfn.CONCAT("CALL ",D435,"(",E435,")"))</f>
-        <v>CALL GETMENUORIG(ROW,COL)</v>
-      </c>
-      <c r="D435" s="18" t="str">
-        <f>A591</f>
-        <v>GETMENUORIG</v>
-      </c>
-      <c r="E435" t="s">
-        <v>692</v>
-      </c>
+      <c r="C435" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D435" s="18"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="18"/>
@@ -9056,45 +9338,52 @@
         <v>4440</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="D436" s="18"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437" s="18"/>
+      <c r="A437" s="18" t="s">
+        <v>774</v>
+      </c>
       <c r="B437">
         <v>4450</v>
       </c>
-      <c r="C437" s="18" t="str">
-        <f>IF(ISBLANK(E437),_xlfn.CONCAT("CALL ",D437),_xlfn.CONCAT("CALL ",D437,"(",E437,")"))</f>
-        <v>CALL INPUTPOS((ROW+3),(COL),TARGETROW$,TARGETCOL)</v>
-      </c>
-      <c r="D437" s="18" t="str">
-        <f>A411</f>
-        <v>INPUTPOS</v>
-      </c>
-      <c r="E437" t="s">
-        <v>798</v>
-      </c>
+      <c r="C437" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A437,"***")</f>
+        <v>REM SUBROUTINE ***INPUTTARGET***</v>
+      </c>
+      <c r="D437" s="18"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="18"/>
       <c r="B438">
         <v>4460</v>
       </c>
-      <c r="C438" s="5" t="s">
-        <v>555</v>
+      <c r="C438" t="str">
+        <f>IF(ISBLANK(E438),_xlfn.CONCAT("SUB ",A437),_xlfn.CONCAT("SUB ",A437,"(",E438,")"))</f>
+        <v>SUB INPUTTARGET(TARGETROW$,TARGETCOL)</v>
+      </c>
+      <c r="D438" s="18"/>
+      <c r="E438" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439" s="18" t="s">
-        <v>864</v>
-      </c>
+      <c r="A439" s="18"/>
       <c r="B439">
         <v>4470</v>
       </c>
-      <c r="C439" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A439,"***")</f>
-        <v>REM SUBROUTINE ***CHECKVALIDSHIP***</v>
+      <c r="C439" s="18" t="str">
+        <f>IF(ISBLANK(E439),_xlfn.CONCAT("CALL ",D439),_xlfn.CONCAT("CALL ",D439,"(",E439,")"))</f>
+        <v>CALL GETMENUORIG(ROW,COL)</v>
+      </c>
+      <c r="D439" s="18" t="str">
+        <f>A595</f>
+        <v>GETMENUORIG</v>
+      </c>
+      <c r="E439" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -9102,21 +9391,26 @@
       <c r="B440">
         <v>4480</v>
       </c>
-      <c r="C440" t="str">
-        <f>IF(ISBLANK(E440),_xlfn.CONCAT("SUB ",A439),_xlfn.CONCAT("SUB ",A439,"(",E440,")"))</f>
-        <v>SUB CHECKVALIDSHIP(SHIPERR,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
-      </c>
-      <c r="E440" t="s">
-        <v>732</v>
-      </c>
+      <c r="C440" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D440" s="18"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="18"/>
       <c r="B441">
         <v>4490</v>
       </c>
-      <c r="C441" s="5" t="s">
-        <v>561</v>
+      <c r="C441" s="18" t="str">
+        <f>IF(ISBLANK(E441),_xlfn.CONCAT("CALL ",D441),_xlfn.CONCAT("CALL ",D441,"(",E441,")"))</f>
+        <v>CALL INPUTPOS((ROW+3),(COL),TARGETROW$,TARGETCOL)</v>
+      </c>
+      <c r="D441" s="18" t="str">
+        <f>A415</f>
+        <v>INPUTPOS</v>
+      </c>
+      <c r="E441" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -9125,41 +9419,35 @@
         <v>4500</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>566</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="D442" s="18"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="18"/>
+      <c r="A443" s="18" t="s">
+        <v>864</v>
+      </c>
       <c r="B443">
         <v>4510</v>
       </c>
-      <c r="C443" s="18" t="str">
-        <f>IF(ISBLANK(E443),_xlfn.CONCAT("CALL ",D443),_xlfn.CONCAT("CALL ",D443,"(",E443,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D443" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E443" t="s">
-        <v>815</v>
-      </c>
+      <c r="C443" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A443,"***")</f>
+        <v>REM SUBROUTINE ***CHECKVALIDSHIP***</v>
+      </c>
+      <c r="D443" s="18"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="18"/>
       <c r="B444">
         <v>4520</v>
       </c>
-      <c r="C444" s="18" t="str">
-        <f>IF(ISBLANK(E444),_xlfn.CONCAT("CALL ",D444),_xlfn.CONCAT("CALL ",D444,"(",E444,")"))</f>
-        <v>CALL CHECKHORIZONTAL(HORIZONTAL,(CURRENTSHIP),SHIP())</v>
-      </c>
-      <c r="D444" s="18" t="str">
-        <f>A471</f>
-        <v>CHECKHORIZONTAL</v>
-      </c>
+      <c r="C444" t="str">
+        <f>IF(ISBLANK(E444),_xlfn.CONCAT("SUB ",A443),_xlfn.CONCAT("SUB ",A443,"(",E444,")"))</f>
+        <v>SUB CHECKVALIDSHIP(SHIPERR,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
+      </c>
+      <c r="D444" s="18"/>
       <c r="E444" t="s">
-        <v>825</v>
+        <v>732</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -9167,9 +9455,10 @@
       <c r="B445">
         <v>4530</v>
       </c>
-      <c r="C445" s="1" t="s">
-        <v>886</v>
-      </c>
+      <c r="C445" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D445" s="18"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="18"/>
@@ -9177,16 +9466,25 @@
         <v>4540</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>733</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="D446" s="18"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="18"/>
       <c r="B447">
         <v>4550</v>
       </c>
-      <c r="C447" s="5" t="s">
-        <v>686</v>
+      <c r="C447" s="18" t="str">
+        <f>IF(ISBLANK(E447),_xlfn.CONCAT("CALL ",D447),_xlfn.CONCAT("CALL ",D447,"(",E447,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D447" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E447" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -9194,8 +9492,16 @@
       <c r="B448">
         <v>4560</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>698</v>
+      <c r="C448" s="18" t="str">
+        <f>IF(ISBLANK(E448),_xlfn.CONCAT("CALL ",D448),_xlfn.CONCAT("CALL ",D448,"(",E448,")"))</f>
+        <v>CALL CHECKHORIZONTAL(HORIZONTAL,(CURRENTSHIP),SHIP())</v>
+      </c>
+      <c r="D448" s="18" t="str">
+        <f>A475</f>
+        <v>CHECKHORIZONTAL</v>
+      </c>
+      <c r="E448" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -9203,80 +9509,66 @@
       <c r="B449">
         <v>4570</v>
       </c>
-      <c r="C449" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C449" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D449" s="18"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="18"/>
       <c r="B450">
         <v>4580</v>
       </c>
-      <c r="C450" s="18" t="str">
-        <f>IF(ISBLANK(E450),_xlfn.CONCAT("CALL ",D450),_xlfn.CONCAT("CALL ",D450,"(",E450,")"))</f>
-        <v>CALL CHECKSEQUENTIAL(SHIPERR,(CURRENTSHIP),SEQUENCE())</v>
-      </c>
-      <c r="D450" s="18" t="str">
-        <f>A481</f>
-        <v>CHECKSEQUENTIAL</v>
-      </c>
-      <c r="E450" t="s">
-        <v>826</v>
-      </c>
+      <c r="C450" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D450" s="18"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="18"/>
       <c r="B451">
         <v>4590</v>
       </c>
-      <c r="C451" t="str">
-        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D451,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF SHIPERR=1 THEN 4610 :: REM SUBEND</v>
-      </c>
-      <c r="D451" s="20" t="str">
-        <f>A453</f>
-        <v>CHECKVALIDSHIP.SUBEND</v>
-      </c>
+      <c r="C451" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D451" s="18"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="18"/>
       <c r="B452">
         <v>4600</v>
       </c>
-      <c r="C452" s="18" t="str">
-        <f>IF(ISBLANK(E452),_xlfn.CONCAT("CALL ",D452),_xlfn.CONCAT("CALL ",D452,"(",E452,")"))</f>
-        <v>CALL CHECKOVERLAP(SHIPERR,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
-      </c>
-      <c r="D452" s="18" t="str">
-        <f>A499</f>
-        <v>CHECKOVERLAP</v>
-      </c>
-      <c r="E452" t="s">
-        <v>814</v>
-      </c>
+      <c r="C452" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D452" s="18"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A453" s="20" t="str">
-        <f>_xlfn.CONCAT(A439,".SUBEND")</f>
-        <v>CHECKVALIDSHIP.SUBEND</v>
-      </c>
+      <c r="A453" s="18"/>
       <c r="B453">
         <v>4610</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D453" s="18"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A454" s="18" t="s">
-        <v>865</v>
-      </c>
+      <c r="A454" s="18"/>
       <c r="B454">
         <v>4620</v>
       </c>
-      <c r="C454" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A454,"***")</f>
-        <v>REM SUBROUTINE ***CHECKVALIDSHOT***</v>
+      <c r="C454" s="18" t="str">
+        <f>IF(ISBLANK(E454),_xlfn.CONCAT("CALL ",D454),_xlfn.CONCAT("CALL ",D454,"(",E454,")"))</f>
+        <v>CALL CHECKSEQUENTIAL(SHIPERR,(CURRENTSHIP),SEQUENCE())</v>
+      </c>
+      <c r="D454" s="18" t="str">
+        <f>A485</f>
+        <v>CHECKSEQUENTIAL</v>
+      </c>
+      <c r="E454" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -9285,11 +9577,12 @@
         <v>4630</v>
       </c>
       <c r="C455" t="str">
-        <f>IF(ISBLANK(E455),_xlfn.CONCAT("SUB ",A454),_xlfn.CONCAT("SUB ",A454,"(",E455,")"))</f>
-        <v>SUB CHECKVALIDSHOT(ERRORVAL,ROW,COL,PLAYER,SHOTS(,,))</v>
-      </c>
-      <c r="E455" t="s">
-        <v>786</v>
+        <f>_xlfn.CONCAT("IF SHIPERR=1 THEN ",INDEX(B:B,MATCH(D455,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF SHIPERR=1 THEN 4650 :: REM SUBEND</v>
+      </c>
+      <c r="D455" s="20" t="str">
+        <f>A457</f>
+        <v>CHECKVALIDSHIP.SUBEND</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -9297,57 +9590,67 @@
       <c r="B456">
         <v>4640</v>
       </c>
-      <c r="C456" t="s">
-        <v>787</v>
+      <c r="C456" s="18" t="str">
+        <f>IF(ISBLANK(E456),_xlfn.CONCAT("CALL ",D456),_xlfn.CONCAT("CALL ",D456,"(",E456,")"))</f>
+        <v>CALL CHECKOVERLAP(SHIPERR,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
+      </c>
+      <c r="D456" s="18" t="str">
+        <f>A503</f>
+        <v>CHECKOVERLAP</v>
+      </c>
+      <c r="E456" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457" s="18"/>
+      <c r="A457" s="20" t="str">
+        <f>_xlfn.CONCAT(A443,".SUBEND")</f>
+        <v>CHECKVALIDSHIP.SUBEND</v>
+      </c>
       <c r="B457">
         <v>4650</v>
       </c>
-      <c r="C457" t="str">
-        <f>_xlfn.CONCAT("IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  ",INDEX(B:B,MATCH(D457,A:A,0),0)," :: REM GOTO SUBEND")</f>
-        <v>IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  4670 :: REM GOTO SUBEND</v>
-      </c>
-      <c r="D457" t="str">
-        <f>A459</f>
-        <v>CHECKVALIDSHOT.SUBEND</v>
-      </c>
+      <c r="C457" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D457" s="18"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A458" s="18"/>
+      <c r="A458" s="18" t="s">
+        <v>865</v>
+      </c>
       <c r="B458">
         <v>4660</v>
       </c>
-      <c r="C458" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="D458" s="20"/>
+      <c r="C458" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A458,"***")</f>
+        <v>REM SUBROUTINE ***CHECKVALIDSHOT***</v>
+      </c>
+      <c r="D458" s="18"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A459" s="20" t="str">
-        <f>_xlfn.CONCAT(A454,".SUBEND")</f>
-        <v>CHECKVALIDSHOT.SUBEND</v>
-      </c>
+      <c r="A459" s="18"/>
       <c r="B459">
         <v>4670</v>
       </c>
-      <c r="C459" s="5" t="s">
-        <v>555</v>
+      <c r="C459" t="str">
+        <f>IF(ISBLANK(E459),_xlfn.CONCAT("SUB ",A458),_xlfn.CONCAT("SUB ",A458,"(",E459,")"))</f>
+        <v>SUB CHECKVALIDSHOT(ERRORVAL,ROW,COL,PLAYER,SHOTS(,,))</v>
+      </c>
+      <c r="D459" s="18"/>
+      <c r="E459" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A460" s="18" t="s">
-        <v>779</v>
-      </c>
+      <c r="A460" s="18"/>
       <c r="B460">
         <v>4680</v>
       </c>
-      <c r="C460" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A460,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHIT***</v>
-      </c>
+      <c r="C460" t="s">
+        <v>787</v>
+      </c>
+      <c r="D460" s="18"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" s="18"/>
@@ -9355,11 +9658,12 @@
         <v>4690</v>
       </c>
       <c r="C461" t="str">
-        <f>IF(ISBLANK(E461),_xlfn.CONCAT("SUB ",A460),_xlfn.CONCAT("SUB ",A460,"(",E461,")"))</f>
-        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
-      </c>
-      <c r="E461" t="s">
-        <v>785</v>
+        <f>_xlfn.CONCAT("IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  ",INDEX(B:B,MATCH(D461,A:A,0),0)," :: REM GOTO SUBEND")</f>
+        <v>IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRORVAL=1 :: GOTO  4710 :: REM GOTO SUBEND</v>
+      </c>
+      <c r="D461" s="20" t="str">
+        <f>A463</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -9367,51 +9671,49 @@
       <c r="B462">
         <v>4700</v>
       </c>
-      <c r="C462" t="s">
-        <v>778</v>
-      </c>
+      <c r="C462" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D462" s="18"/>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A463" s="18"/>
+      <c r="A463" s="20" t="str">
+        <f>_xlfn.CONCAT(A458,".SUBEND")</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
       <c r="B463">
         <v>4710</v>
       </c>
-      <c r="C463" s="18" t="str">
-        <f t="shared" ref="C463:C465" si="7">IF(ISBLANK(E463),_xlfn.CONCAT("CALL ",D463),_xlfn.CONCAT("CALL ",D463,"(",E463,")"))</f>
-        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
-      </c>
-      <c r="D463" s="18" t="str">
-        <f>A569</f>
-        <v>GETNUMSHIPS</v>
-      </c>
-      <c r="E463" t="s">
-        <v>711</v>
-      </c>
+      <c r="C463" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D463" s="18"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A464" s="18"/>
+      <c r="A464" s="18" t="s">
+        <v>779</v>
+      </c>
       <c r="B464">
         <v>4720</v>
       </c>
-      <c r="C464" s="5" t="s">
-        <v>577</v>
-      </c>
+      <c r="C464" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A464,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHIT***</v>
+      </c>
+      <c r="D464" s="18"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="18"/>
       <c r="B465">
         <v>4730</v>
       </c>
-      <c r="C465" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
-      </c>
-      <c r="D465" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
+      <c r="C465" t="str">
+        <f>IF(ISBLANK(E465),_xlfn.CONCAT("SUB ",A464),_xlfn.CONCAT("SUB ",A464,"(",E465,")"))</f>
+        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
+      </c>
+      <c r="D465" s="18"/>
       <c r="E465" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -9420,21 +9722,25 @@
         <v>4740</v>
       </c>
       <c r="C466" t="s">
-        <v>730</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D466" s="18"/>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="18"/>
       <c r="B467">
         <v>4750</v>
       </c>
-      <c r="C467" s="5" t="str">
-        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D467,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 4780 :: REM SUBEND</v>
-      </c>
-      <c r="D467" s="20" t="str">
-        <f>A470</f>
-        <v>CHECKHIT.SUBEND</v>
+      <c r="C467" s="18" t="str">
+        <f t="shared" ref="C467:C469" si="7">IF(ISBLANK(E467),_xlfn.CONCAT("CALL ",D467),_xlfn.CONCAT("CALL ",D467,"(",E467,")"))</f>
+        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="D467" s="18" t="str">
+        <f>A573</f>
+        <v>GETNUMSHIPS</v>
+      </c>
+      <c r="E467" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -9443,40 +9749,49 @@
         <v>4760</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D468" s="18"/>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="18"/>
       <c r="B469">
         <v>4770</v>
       </c>
-      <c r="C469" s="5" t="s">
-        <v>1</v>
+      <c r="C469" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+      </c>
+      <c r="D469" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E469" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="20" t="str">
-        <f>_xlfn.CONCAT(A460,".SUBEND")</f>
-        <v>CHECKHIT.SUBEND</v>
-      </c>
+      <c r="A470" s="18"/>
       <c r="B470">
         <v>4780</v>
       </c>
-      <c r="C470" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="C470" t="s">
+        <v>730</v>
+      </c>
+      <c r="D470" s="18"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A471" s="18" t="s">
-        <v>565</v>
-      </c>
+      <c r="A471" s="18"/>
       <c r="B471">
         <v>4790</v>
       </c>
-      <c r="C471" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A471,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
+      <c r="C471" s="5" t="str">
+        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D471,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 4820 :: REM SUBEND</v>
+      </c>
+      <c r="D471" s="20" t="str">
+        <f>A474</f>
+        <v>CHECKHIT.SUBEND</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -9484,56 +9799,59 @@
       <c r="B472">
         <v>4800</v>
       </c>
-      <c r="C472" t="str">
-        <f>IF(ISBLANK(E472),_xlfn.CONCAT("SUB ",A471),_xlfn.CONCAT("SUB ",A471,"(",E472,")"))</f>
-        <v>SUB CHECKHORIZONTAL(HORIZONTAL,CURRENTSHIP,SHIP())</v>
-      </c>
-      <c r="E472" t="s">
-        <v>729</v>
-      </c>
+      <c r="C472" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D472" s="18"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="18"/>
       <c r="B473">
         <v>4810</v>
       </c>
-      <c r="C473" t="s">
-        <v>566</v>
-      </c>
+      <c r="C473" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D473" s="18"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="18"/>
+      <c r="A474" s="20" t="str">
+        <f>_xlfn.CONCAT(A464,".SUBEND")</f>
+        <v>CHECKHIT.SUBEND</v>
+      </c>
       <c r="B474">
         <v>4820</v>
       </c>
-      <c r="C474" s="18" t="str">
-        <f>IF(ISBLANK(E474),_xlfn.CONCAT("CALL ",D474),_xlfn.CONCAT("CALL ",D474,"(",E474,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D474" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E474" t="s">
-        <v>815</v>
-      </c>
+      <c r="C474" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D474" s="18"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="18"/>
+      <c r="A475" s="18" t="s">
+        <v>565</v>
+      </c>
       <c r="B475">
         <v>4830</v>
       </c>
-      <c r="C475" t="s">
-        <v>728</v>
-      </c>
+      <c r="C475" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A475,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
+      </c>
+      <c r="D475" s="18"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="18"/>
       <c r="B476">
         <v>4840</v>
       </c>
-      <c r="C476" s="5" t="s">
-        <v>688</v>
+      <c r="C476" t="str">
+        <f>IF(ISBLANK(E476),_xlfn.CONCAT("SUB ",A475),_xlfn.CONCAT("SUB ",A475,"(",E476,")"))</f>
+        <v>SUB CHECKHORIZONTAL(HORIZONTAL,CURRENTSHIP,SHIP())</v>
+      </c>
+      <c r="D476" s="18"/>
+      <c r="E476" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -9541,22 +9859,26 @@
       <c r="B477">
         <v>4850</v>
       </c>
-      <c r="C477" t="str">
-        <f>_xlfn.CONCAT("IF PREV&lt;&gt;CURR THEN ",INDEX(B:B,MATCH(D477,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF PREV&lt;&gt;CURR THEN 4880 :: REM SUBEND</v>
-      </c>
-      <c r="D477" s="20" t="str">
-        <f>A480</f>
-        <v>CHECKHORIZONTAL.SUBEND</v>
-      </c>
+      <c r="C477" t="s">
+        <v>566</v>
+      </c>
+      <c r="D477" s="18"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="18"/>
       <c r="B478">
         <v>4860</v>
       </c>
-      <c r="C478" t="s">
-        <v>1</v>
+      <c r="C478" s="18" t="str">
+        <f>IF(ISBLANK(E478),_xlfn.CONCAT("CALL ",D478),_xlfn.CONCAT("CALL ",D478,"(",E478,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D478" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E478" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -9564,32 +9886,33 @@
       <c r="B479">
         <v>4870</v>
       </c>
-      <c r="C479" s="5" t="s">
-        <v>567</v>
-      </c>
+      <c r="C479" t="s">
+        <v>728</v>
+      </c>
+      <c r="D479" s="18"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A480" s="20" t="str">
-        <f>_xlfn.CONCAT(A471,".SUBEND")</f>
-        <v>CHECKHORIZONTAL.SUBEND</v>
-      </c>
+      <c r="A480" s="18"/>
       <c r="B480">
         <v>4880</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="D480" s="18"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A481" s="18" t="s">
-        <v>866</v>
-      </c>
+      <c r="A481" s="18"/>
       <c r="B481">
         <v>4890</v>
       </c>
       <c r="C481" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A481,"***")</f>
-        <v>REM SUBROUTINE ***CHECKSEQUENTIAL***</v>
+        <f>_xlfn.CONCAT("IF PREV&lt;&gt;CURR THEN ",INDEX(B:B,MATCH(D481,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF PREV&lt;&gt;CURR THEN 4920 :: REM SUBEND</v>
+      </c>
+      <c r="D481" s="20" t="str">
+        <f>A484</f>
+        <v>CHECKHORIZONTAL.SUBEND</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -9597,56 +9920,59 @@
       <c r="B482">
         <v>4900</v>
       </c>
-      <c r="C482" t="str">
-        <f>IF(ISBLANK(E482),_xlfn.CONCAT("SUB ",A481),_xlfn.CONCAT("SUB ",A481,"(",E482,")"))</f>
-        <v>SUB CHECKSEQUENTIAL(SHIPERR,CURRENTSHIP,SEQUENCE())</v>
-      </c>
-      <c r="E482" t="s">
-        <v>721</v>
-      </c>
+      <c r="C482" t="s">
+        <v>1</v>
+      </c>
+      <c r="D482" s="18"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="18"/>
       <c r="B483">
         <v>4910</v>
       </c>
-      <c r="C483" t="s">
-        <v>561</v>
-      </c>
+      <c r="C483" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D483" s="18"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="18"/>
+      <c r="A484" s="20" t="str">
+        <f>_xlfn.CONCAT(A475,".SUBEND")</f>
+        <v>CHECKHORIZONTAL.SUBEND</v>
+      </c>
       <c r="B484">
         <v>4920</v>
       </c>
-      <c r="C484" s="18" t="str">
-        <f>IF(ISBLANK(E484),_xlfn.CONCAT("CALL ",D484),_xlfn.CONCAT("CALL ",D484,"(",E484,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D484" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E484" t="s">
-        <v>815</v>
-      </c>
+      <c r="C484" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D484" s="18"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="18"/>
+      <c r="A485" s="18" t="s">
+        <v>866</v>
+      </c>
       <c r="B485">
         <v>4930</v>
       </c>
-      <c r="C485" t="s">
-        <v>699</v>
-      </c>
+      <c r="C485" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A485,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSEQUENTIAL***</v>
+      </c>
+      <c r="D485" s="18"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="18"/>
       <c r="B486">
         <v>4940</v>
       </c>
-      <c r="C486" s="5" t="s">
-        <v>728</v>
+      <c r="C486" t="str">
+        <f>IF(ISBLANK(E486),_xlfn.CONCAT("SUB ",A485),_xlfn.CONCAT("SUB ",A485,"(",E486,")"))</f>
+        <v>SUB CHECKSEQUENTIAL(SHIPERR,CURRENTSHIP,SEQUENCE())</v>
+      </c>
+      <c r="D486" s="18"/>
+      <c r="E486" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -9654,17 +9980,26 @@
       <c r="B487">
         <v>4950</v>
       </c>
-      <c r="C487" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="C487" t="s">
+        <v>561</v>
+      </c>
+      <c r="D487" s="18"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="18"/>
       <c r="B488">
         <v>4960</v>
       </c>
-      <c r="C488" s="5" t="s">
-        <v>1</v>
+      <c r="C488" s="18" t="str">
+        <f>IF(ISBLANK(E488),_xlfn.CONCAT("CALL ",D488),_xlfn.CONCAT("CALL ",D488,"(",E488,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D488" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E488" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -9672,9 +10007,10 @@
       <c r="B489">
         <v>4970</v>
       </c>
-      <c r="C489" s="5" t="s">
-        <v>562</v>
-      </c>
+      <c r="C489" t="s">
+        <v>699</v>
+      </c>
+      <c r="D489" s="18"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="18"/>
@@ -9684,6 +10020,7 @@
       <c r="C490" s="5" t="s">
         <v>728</v>
       </c>
+      <c r="D490" s="18"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="18"/>
@@ -9691,8 +10028,9 @@
         <v>4990</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>564</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="D491" s="18"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="18"/>
@@ -9702,6 +10040,7 @@
       <c r="C492" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D492" s="18"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="18"/>
@@ -9709,8 +10048,9 @@
         <v>5010</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="D493" s="18"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="18"/>
@@ -9720,6 +10060,7 @@
       <c r="C494" s="5" t="s">
         <v>728</v>
       </c>
+      <c r="D494" s="18"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="18"/>
@@ -9727,8 +10068,9 @@
         <v>5030</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>701</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="D495" s="18"/>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="18"/>
@@ -9738,6 +10080,7 @@
       <c r="C496" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D496" s="18"/>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="18"/>
@@ -9745,8 +10088,9 @@
         <v>5050</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>563</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="D497" s="18"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="18"/>
@@ -9754,33 +10098,29 @@
         <v>5060</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>555</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="D498" s="18"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="18" t="s">
-        <v>568</v>
-      </c>
+      <c r="A499" s="18"/>
       <c r="B499">
         <v>5070</v>
       </c>
-      <c r="C499" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A499,"***")</f>
-        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
-      </c>
+      <c r="C499" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D499" s="18"/>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="18"/>
       <c r="B500">
         <v>5080</v>
       </c>
-      <c r="C500" t="str">
-        <f>IF(ISBLANK(E500),_xlfn.CONCAT("SUB ",A499),_xlfn.CONCAT("SUB ",A499,"(",E500,")"))</f>
-        <v>SUB CHECKOVERLAP(SHIPERR,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
-      </c>
-      <c r="E500" t="s">
-        <v>732</v>
-      </c>
+      <c r="C500" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D500" s="18"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="18"/>
@@ -9788,50 +10128,45 @@
         <v>5090</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>561</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="D501" s="18"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="18"/>
       <c r="B502">
         <v>5100</v>
       </c>
-      <c r="C502" s="18" t="str">
-        <f>IF(ISBLANK(E502),_xlfn.CONCAT("CALL ",D502),_xlfn.CONCAT("CALL ",D502,"(",E502,")"))</f>
-        <v>CALL GETSHIPLEN(CURRENTSHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D502" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E502" t="s">
-        <v>833</v>
-      </c>
+      <c r="C502" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D502" s="18"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="18"/>
+      <c r="A503" s="18" t="s">
+        <v>568</v>
+      </c>
       <c r="B503">
         <v>5110</v>
       </c>
-      <c r="C503" t="s">
-        <v>569</v>
-      </c>
+      <c r="C503" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A503,"***")</f>
+        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
+      </c>
+      <c r="D503" s="18"/>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="18"/>
       <c r="B504">
         <v>5120</v>
       </c>
-      <c r="C504" s="18" t="str">
-        <f>IF(ISBLANK(E504),_xlfn.CONCAT("CALL ",D504),_xlfn.CONCAT("CALL ",D504,"(",E504,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
-      </c>
-      <c r="D504" s="18" t="str">
-        <f>A573</f>
-        <v>GETSHIPLEN</v>
-      </c>
+      <c r="C504" t="str">
+        <f>IF(ISBLANK(E504),_xlfn.CONCAT("SUB ",A503),_xlfn.CONCAT("SUB ",A503,"(",E504,")"))</f>
+        <v>SUB CHECKOVERLAP(SHIPERR,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
+      </c>
+      <c r="D504" s="18"/>
       <c r="E504" t="s">
-        <v>797</v>
+        <v>732</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -9839,17 +10174,26 @@
       <c r="B505">
         <v>5130</v>
       </c>
-      <c r="C505" t="s">
-        <v>730</v>
-      </c>
+      <c r="C505" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D505" s="18"/>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="18"/>
       <c r="B506">
         <v>5140</v>
       </c>
-      <c r="C506" t="s">
-        <v>682</v>
+      <c r="C506" s="18" t="str">
+        <f>IF(ISBLANK(E506),_xlfn.CONCAT("CALL ",D506),_xlfn.CONCAT("CALL ",D506,"(",E506,")"))</f>
+        <v>CALL GETSHIPLEN(CURRENTSHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D506" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E506" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -9858,16 +10202,25 @@
         <v>5150</v>
       </c>
       <c r="C507" t="s">
-        <v>731</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="D507" s="18"/>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="18"/>
       <c r="B508">
         <v>5160</v>
       </c>
-      <c r="C508" t="s">
-        <v>687</v>
+      <c r="C508" s="18" t="str">
+        <f>IF(ISBLANK(E508),_xlfn.CONCAT("CALL ",D508),_xlfn.CONCAT("CALL ",D508,"(",E508,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+      </c>
+      <c r="D508" s="18" t="str">
+        <f>A577</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E508" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -9875,14 +10228,10 @@
       <c r="B509">
         <v>5170</v>
       </c>
-      <c r="C509" s="5" t="str">
-        <f>_xlfn.CONCAT("IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO ",INDEX(B:B,MATCH(D509,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO 5210 :: REM SUBEND</v>
-      </c>
-      <c r="D509" s="20" t="str">
-        <f>A513</f>
-        <v>CHECKOVERLAP.SUBEND</v>
-      </c>
+      <c r="C509" t="s">
+        <v>730</v>
+      </c>
+      <c r="D509" s="18"/>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="18"/>
@@ -9890,8 +10239,9 @@
         <v>5180</v>
       </c>
       <c r="C510" t="s">
-        <v>84</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="D510" s="18"/>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="18"/>
@@ -9899,8 +10249,9 @@
         <v>5190</v>
       </c>
       <c r="C511" t="s">
-        <v>14</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="D511" s="18"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="18"/>
@@ -9908,373 +10259,404 @@
         <v>5200</v>
       </c>
       <c r="C512" t="s">
-        <v>1</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="D512" s="18"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A513" s="20" t="str">
-        <f>_xlfn.CONCAT(A499,".SUBEND")</f>
-        <v>CHECKOVERLAP.SUBEND</v>
-      </c>
+      <c r="A513" s="18"/>
       <c r="B513">
         <v>5210</v>
       </c>
-      <c r="C513" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="34" t="s">
-        <v>966</v>
-      </c>
+      <c r="C513" s="5" t="str">
+        <f>_xlfn.CONCAT("IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO ",INDEX(B:B,MATCH(D513,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF LOC=STOREDLOC THEN SHIPERR=1 :: GOTO 5250 :: REM SUBEND</v>
+      </c>
+      <c r="D513" s="20" t="str">
+        <f>A517</f>
+        <v>CHECKOVERLAP.SUBEND</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514" s="18"/>
       <c r="B514">
         <v>5220</v>
       </c>
-      <c r="C514" s="35" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A514,"***")</f>
-        <v>REM SUBROUTINE ***QUEUESIZE***</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="34"/>
+      <c r="C514" t="s">
+        <v>84</v>
+      </c>
+      <c r="D514" s="18"/>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515" s="18"/>
       <c r="B515">
         <v>5230</v>
       </c>
-      <c r="C515" s="35" t="str">
-        <f>IF(ISBLANK(E515),_xlfn.CONCAT("SUB ",A514),_xlfn.CONCAT("SUB ",A514,"(",E515,")"))</f>
-        <v>SUB QUEUESIZE(QSIZE)</v>
-      </c>
-      <c r="E515" s="35" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="34"/>
+      <c r="C515" t="s">
+        <v>14</v>
+      </c>
+      <c r="D515" s="18"/>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516" s="18"/>
       <c r="B516">
         <v>5240</v>
       </c>
-      <c r="C516" s="35" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="34"/>
+      <c r="C516" t="s">
+        <v>1</v>
+      </c>
+      <c r="D516" s="18"/>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A517" s="20" t="str">
+        <f>_xlfn.CONCAT(A503,".SUBEND")</f>
+        <v>CHECKOVERLAP.SUBEND</v>
+      </c>
       <c r="B517">
         <v>5250</v>
       </c>
-      <c r="C517" s="35" t="s">
+      <c r="C517" s="5" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A518" s="34" t="s">
+      <c r="D517" s="18"/>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A518" s="18" t="s">
         <v>965</v>
       </c>
       <c r="B518">
         <v>5260</v>
       </c>
-      <c r="C518" s="35" t="str">
+      <c r="C518" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A518,"***")</f>
-        <v>REM SUBROUTINE ***QUEUEINIT***</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A519" s="34"/>
+        <v>REM SUBROUTINE ***QUEUESIZE***</v>
+      </c>
+      <c r="D518" s="18"/>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519" s="18"/>
       <c r="B519">
         <v>5270</v>
       </c>
-      <c r="C519" s="35" t="str">
+      <c r="C519" t="str">
         <f>IF(ISBLANK(E519),_xlfn.CONCAT("SUB ",A518),_xlfn.CONCAT("SUB ",A518,"(",E519,")"))</f>
-        <v>SUB QUEUEINIT(Q(),QLEN)</v>
-      </c>
-      <c r="E519" s="35" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A520" s="34"/>
+        <v>SUB QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D519" s="18"/>
+      <c r="E519" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" s="18"/>
       <c r="B520">
         <v>5280</v>
       </c>
-      <c r="C520" s="34" t="str">
-        <f>IF(ISBLANK(E520),_xlfn.CONCAT("CALL ",D520),_xlfn.CONCAT("CALL ",D520,"(",E520,")"))</f>
-        <v>CALL QUEUESIZE(QSIZE)</v>
-      </c>
-      <c r="D520" s="34" t="str">
-        <f>A514</f>
-        <v>QUEUESIZE</v>
-      </c>
-      <c r="E520" s="35" t="s">
+      <c r="C520" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="34"/>
+      <c r="D520" s="18"/>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" s="18"/>
       <c r="B521">
         <v>5290</v>
       </c>
-      <c r="C521" s="35" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A522" s="34"/>
+      <c r="C521" t="s">
+        <v>555</v>
+      </c>
+      <c r="D521" s="18"/>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" s="18" t="s">
+        <v>964</v>
+      </c>
       <c r="B522">
         <v>5300</v>
       </c>
-      <c r="C522" s="35" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A523" s="34"/>
+      <c r="C522" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A522,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEINIT***</v>
+      </c>
+      <c r="D522" s="18"/>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523" s="18"/>
       <c r="B523">
         <v>5310</v>
       </c>
-      <c r="C523" s="35" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="34" t="s">
-        <v>957</v>
-      </c>
+      <c r="C523" t="str">
+        <f>IF(ISBLANK(E523),_xlfn.CONCAT("SUB ",A522),_xlfn.CONCAT("SUB ",A522,"(",E523,")"))</f>
+        <v>SUB QUEUEINIT(Q(),QLEN)</v>
+      </c>
+      <c r="D523" s="18"/>
+      <c r="E523" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524" s="18"/>
       <c r="B524">
         <v>5320</v>
       </c>
-      <c r="C524" s="35" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A524,"***")</f>
-        <v>REM SUBROUTINE ***QUEUEADD***</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A525" s="34"/>
+      <c r="C524" s="18" t="str">
+        <f>IF(ISBLANK(E524),_xlfn.CONCAT("CALL ",D524),_xlfn.CONCAT("CALL ",D524,"(",E524,")"))</f>
+        <v>CALL QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D524" s="18" t="str">
+        <f>A518</f>
+        <v>QUEUESIZE</v>
+      </c>
+      <c r="E524" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" s="18"/>
       <c r="B525">
         <v>5330</v>
       </c>
-      <c r="C525" s="35" t="str">
-        <f>IF(ISBLANK(E525),_xlfn.CONCAT("SUB ",A524),_xlfn.CONCAT("SUB ",A524,"(",E525,")"))</f>
-        <v>SUB QUEUEADD(Q(),QLEN,VALUE,ERRVAL)</v>
-      </c>
-      <c r="E525" s="35" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A526" s="34"/>
+      <c r="C525" t="s">
+        <v>974</v>
+      </c>
+      <c r="D525" s="18"/>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" s="18"/>
       <c r="B526">
         <v>5340</v>
       </c>
-      <c r="C526" s="34" t="str">
-        <f>IF(ISBLANK(E526),_xlfn.CONCAT("CALL ",D526),_xlfn.CONCAT("CALL ",D526,"(",E526,")"))</f>
-        <v>CALL QUEUESIZE(QSIZE)</v>
-      </c>
-      <c r="D526" s="34" t="str">
-        <f>A514</f>
-        <v>QUEUESIZE</v>
-      </c>
-      <c r="E526" s="35" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A527" s="34"/>
+      <c r="C526" t="s">
+        <v>969</v>
+      </c>
+      <c r="D526" s="18"/>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" s="18"/>
       <c r="B527">
         <v>5350</v>
       </c>
-      <c r="C527" s="35" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="34"/>
+      <c r="C527" t="s">
+        <v>555</v>
+      </c>
+      <c r="D527" s="18"/>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" s="18" t="s">
+        <v>956</v>
+      </c>
       <c r="B528">
         <v>5360</v>
       </c>
-      <c r="C528" s="35" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A529" s="34" t="s">
-        <v>971</v>
-      </c>
+      <c r="C528" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A528,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEADD***</v>
+      </c>
+      <c r="D528" s="18"/>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" s="18"/>
       <c r="B529">
         <v>5370</v>
       </c>
-      <c r="C529" s="35" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A529,"***")</f>
-        <v>REM SUBROUTINE ***QUEUEDEL***</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A530" s="34"/>
+      <c r="C529" t="str">
+        <f>IF(ISBLANK(E529),_xlfn.CONCAT("SUB ",A528),_xlfn.CONCAT("SUB ",A528,"(",E529,")"))</f>
+        <v>SUB QUEUEADD(Q(),QLEN,VALUE,ERRVAL)</v>
+      </c>
+      <c r="D529" s="18"/>
+      <c r="E529" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" s="18"/>
       <c r="B530">
         <v>5380</v>
       </c>
-      <c r="C530" s="35" t="str">
-        <f>IF(ISBLANK(E530),_xlfn.CONCAT("SUB ",A529),_xlfn.CONCAT("SUB ",A529,"(",E530,")"))</f>
-        <v>SUB QUEUEDEL(Q(),QLEN,VALUE,ERRVAL)</v>
-      </c>
-      <c r="E530" s="35" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="34"/>
+      <c r="C530" s="18" t="str">
+        <f>IF(ISBLANK(E530),_xlfn.CONCAT("CALL ",D530),_xlfn.CONCAT("CALL ",D530,"(",E530,")"))</f>
+        <v>CALL QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D530" s="18" t="str">
+        <f>A518</f>
+        <v>QUEUESIZE</v>
+      </c>
+      <c r="E530" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" s="18"/>
       <c r="B531">
         <v>5390</v>
       </c>
-      <c r="C531" s="35" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="34"/>
+      <c r="C531" t="s">
+        <v>982</v>
+      </c>
+      <c r="D531" s="18"/>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532" s="18"/>
       <c r="B532">
         <v>5400</v>
       </c>
-      <c r="C532" s="35" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="34"/>
+      <c r="C532" t="s">
+        <v>555</v>
+      </c>
+      <c r="D532" s="18"/>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" s="18" t="s">
+        <v>970</v>
+      </c>
       <c r="B533">
         <v>5410</v>
       </c>
-      <c r="C533" s="35" t="str">
-        <f>_xlfn.CONCAT("IF VALUE=Q(I) THEN DINDEX=I :: GOTO ",INDEX(B:B,MATCH(D533,A:A,0),0)," :: REM GOTO ",D533)</f>
-        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 5430 :: REM GOTO QUEUEDELFOUND</v>
-      </c>
-      <c r="D533" s="36" t="str">
-        <f>A535</f>
-        <v>QUEUEDELFOUND</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="34"/>
+      <c r="C533" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A533,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEDEL***</v>
+      </c>
+      <c r="D533" s="18"/>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" s="18"/>
       <c r="B534">
         <v>5420</v>
       </c>
-      <c r="C534" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="36" t="s">
-        <v>976</v>
-      </c>
+      <c r="C534" t="str">
+        <f>IF(ISBLANK(E534),_xlfn.CONCAT("SUB ",A533),_xlfn.CONCAT("SUB ",A533,"(",E534,")"))</f>
+        <v>SUB QUEUEDEL(Q(),QLEN,VALUE,ERRVAL)</v>
+      </c>
+      <c r="D534" s="18"/>
+      <c r="E534" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" s="18"/>
       <c r="B535">
         <v>5430</v>
       </c>
-      <c r="C535" s="35" t="str">
-        <f>_xlfn.CONCAT("IF DINDEX=-1 THEN ",INDEX(B:B,MATCH(D535,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF DINDEX=-1 THEN 5480 :: REM SUBEND</v>
-      </c>
-      <c r="D535" s="36" t="str">
-        <f>A540</f>
-        <v>QUEUEDEL.SUBEND</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C535" t="s">
+        <v>972</v>
+      </c>
+      <c r="D535" s="18"/>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" s="18"/>
       <c r="B536">
         <v>5440</v>
       </c>
-      <c r="C536" s="35" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C536" t="s">
+        <v>971</v>
+      </c>
+      <c r="D536" s="18"/>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" s="18"/>
       <c r="B537">
         <v>5450</v>
       </c>
-      <c r="C537" s="35" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C537" t="str">
+        <f>_xlfn.CONCAT("IF VALUE=Q(I) THEN DINDEX=I :: GOTO ",INDEX(B:B,MATCH(D537,A:A,0),0)," :: REM GOTO ",D537)</f>
+        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 5470 :: REM GOTO QUEUEDELFOUND</v>
+      </c>
+      <c r="D537" s="20" t="str">
+        <f>A539</f>
+        <v>QUEUEDELFOUND</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" s="18"/>
       <c r="B538">
         <v>5460</v>
       </c>
-      <c r="C538" s="35" t="s">
+      <c r="C538" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D538" s="18"/>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539" s="20" t="s">
+        <v>975</v>
+      </c>
       <c r="B539">
         <v>5470</v>
       </c>
-      <c r="C539" s="35" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A540" s="36" t="str">
-        <f>_xlfn.CONCAT(A529,".SUBEND")</f>
+      <c r="C539" t="str">
+        <f>_xlfn.CONCAT("IF DINDEX=-1 THEN ",INDEX(B:B,MATCH(D539,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF DINDEX=-1 THEN 5520 :: REM SUBEND</v>
+      </c>
+      <c r="D539" s="20" t="str">
+        <f>A544</f>
         <v>QUEUEDEL.SUBEND</v>
       </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540"/>
       <c r="B540">
         <v>5480</v>
       </c>
-      <c r="C540" s="35" t="s">
-        <v>555</v>
-      </c>
+      <c r="C540" t="s">
+        <v>963</v>
+      </c>
+      <c r="D540" s="18"/>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A541" s="18" t="s">
-        <v>744</v>
-      </c>
+      <c r="A541"/>
       <c r="B541">
         <v>5490</v>
       </c>
-      <c r="C541" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A541,"***")</f>
-        <v>REM SUBROUTINE ***GETHOLECHAR***</v>
-      </c>
+      <c r="C541" t="s">
+        <v>973</v>
+      </c>
+      <c r="D541" s="18"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A542" s="18"/>
+      <c r="A542"/>
       <c r="B542">
         <v>5500</v>
       </c>
-      <c r="C542" t="str">
-        <f>IF(ISBLANK(E542),_xlfn.CONCAT("SUB ",A541),_xlfn.CONCAT("SUB ",A541,"(",E542,")"))</f>
-        <v>SUB GETHOLECHAR(CHARVAL)</v>
-      </c>
-      <c r="E542" t="s">
-        <v>754</v>
-      </c>
+      <c r="C542" t="s">
+        <v>1</v>
+      </c>
+      <c r="D542" s="18"/>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A543" s="18"/>
+      <c r="A543"/>
       <c r="B543">
         <v>5510</v>
       </c>
-      <c r="C543" s="5" t="s">
-        <v>752</v>
-      </c>
+      <c r="C543" t="s">
+        <v>981</v>
+      </c>
+      <c r="D543" s="18"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A544" s="18"/>
+      <c r="A544" s="20" t="str">
+        <f>_xlfn.CONCAT(A533,".SUBEND")</f>
+        <v>QUEUEDEL.SUBEND</v>
+      </c>
       <c r="B544">
         <v>5520</v>
       </c>
-      <c r="C544" s="5" t="s">
+      <c r="C544" t="s">
         <v>555</v>
       </c>
+      <c r="D544" s="18"/>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="18" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="B545">
         <v>5530</v>
       </c>
       <c r="C545" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A545,"***")</f>
-        <v>REM SUBROUTINE ***GETFILLCHAR***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETHOLECHAR***</v>
+      </c>
+      <c r="D545" s="18"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="18"/>
@@ -10283,8 +10665,9 @@
       </c>
       <c r="C546" t="str">
         <f>IF(ISBLANK(E546),_xlfn.CONCAT("SUB ",A545),_xlfn.CONCAT("SUB ",A545,"(",E546,")"))</f>
-        <v>SUB GETFILLCHAR(CHARVAL)</v>
-      </c>
+        <v>SUB GETHOLECHAR(CHARVAL)</v>
+      </c>
+      <c r="D546" s="18"/>
       <c r="E546" t="s">
         <v>754</v>
       </c>
@@ -10295,8 +10678,9 @@
         <v>5550</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>757</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="D547" s="18"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="18"/>
@@ -10306,18 +10690,20 @@
       <c r="C548" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D548" s="18"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="18" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B549">
         <v>5570</v>
       </c>
       <c r="C549" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A549,"***")</f>
-        <v>REM SUBROUTINE ***GETHITCHAR***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETFILLCHAR***</v>
+      </c>
+      <c r="D549" s="18"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="18"/>
@@ -10326,8 +10712,9 @@
       </c>
       <c r="C550" t="str">
         <f>IF(ISBLANK(E550),_xlfn.CONCAT("SUB ",A549),_xlfn.CONCAT("SUB ",A549,"(",E550,")"))</f>
-        <v>SUB GETHITCHAR(CHARVAL)</v>
-      </c>
+        <v>SUB GETFILLCHAR(CHARVAL)</v>
+      </c>
+      <c r="D550" s="18"/>
       <c r="E550" t="s">
         <v>754</v>
       </c>
@@ -10338,8 +10725,9 @@
         <v>5590</v>
       </c>
       <c r="C551" s="5" t="s">
-        <v>761</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="D551" s="18"/>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="18"/>
@@ -10349,18 +10737,20 @@
       <c r="C552" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D552" s="18"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="18" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="B553">
         <v>5610</v>
       </c>
       <c r="C553" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A553,"***")</f>
-        <v>REM SUBROUTINE ***GETSHIPCHAR***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETHITCHAR***</v>
+      </c>
+      <c r="D553" s="18"/>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="18"/>
@@ -10369,8 +10759,9 @@
       </c>
       <c r="C554" t="str">
         <f>IF(ISBLANK(E554),_xlfn.CONCAT("SUB ",A553),_xlfn.CONCAT("SUB ",A553,"(",E554,")"))</f>
-        <v>SUB GETSHIPCHAR(CHARVAL)</v>
-      </c>
+        <v>SUB GETHITCHAR(CHARVAL)</v>
+      </c>
+      <c r="D554" s="18"/>
       <c r="E554" t="s">
         <v>754</v>
       </c>
@@ -10381,8 +10772,9 @@
         <v>5630</v>
       </c>
       <c r="C555" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="D555" s="18"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="18"/>
@@ -10392,18 +10784,20 @@
       <c r="C556" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D556" s="18"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="18" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="B557">
         <v>5650</v>
       </c>
       <c r="C557" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A557,"***")</f>
-        <v>REM SUBROUTINE ***GETTENCHAR***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETSHIPCHAR***</v>
+      </c>
+      <c r="D557" s="18"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="18"/>
@@ -10412,8 +10806,9 @@
       </c>
       <c r="C558" t="str">
         <f>IF(ISBLANK(E558),_xlfn.CONCAT("SUB ",A557),_xlfn.CONCAT("SUB ",A557,"(",E558,")"))</f>
-        <v>SUB GETTENCHAR(CHARVAL)</v>
-      </c>
+        <v>SUB GETSHIPCHAR(CHARVAL)</v>
+      </c>
+      <c r="D558" s="18"/>
       <c r="E558" t="s">
         <v>754</v>
       </c>
@@ -10424,8 +10819,9 @@
         <v>5670</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>753</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="D559" s="18"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="18"/>
@@ -10435,18 +10831,20 @@
       <c r="C560" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D560" s="18"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="18" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="B561">
         <v>5690</v>
       </c>
       <c r="C561" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A561,"***")</f>
-        <v>REM SUBROUTINE ***GETMISSCHAR***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETTENCHAR***</v>
+      </c>
+      <c r="D561" s="18"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="18"/>
@@ -10455,8 +10853,9 @@
       </c>
       <c r="C562" t="str">
         <f>IF(ISBLANK(E562),_xlfn.CONCAT("SUB ",A561),_xlfn.CONCAT("SUB ",A561,"(",E562,")"))</f>
-        <v>SUB GETMISSCHAR(CHARVAL)</v>
-      </c>
+        <v>SUB GETTENCHAR(CHARVAL)</v>
+      </c>
+      <c r="D562" s="18"/>
       <c r="E562" t="s">
         <v>754</v>
       </c>
@@ -10467,8 +10866,9 @@
         <v>5710</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="D563" s="18"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="18"/>
@@ -10478,18 +10878,20 @@
       <c r="C564" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D564" s="18"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="18" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B565">
         <v>5730</v>
       </c>
       <c r="C565" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A565,"***")</f>
-        <v>REM SUBROUTINE ***GETSUNKCHAR***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETMISSCHAR***</v>
+      </c>
+      <c r="D565" s="18"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="18"/>
@@ -10498,8 +10900,9 @@
       </c>
       <c r="C566" t="str">
         <f>IF(ISBLANK(E566),_xlfn.CONCAT("SUB ",A565),_xlfn.CONCAT("SUB ",A565,"(",E566,")"))</f>
-        <v>SUB GETSUNKCHAR(CHARVAL)</v>
-      </c>
+        <v>SUB GETMISSCHAR(CHARVAL)</v>
+      </c>
+      <c r="D566" s="18"/>
       <c r="E566" t="s">
         <v>754</v>
       </c>
@@ -10510,8 +10913,9 @@
         <v>5750</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>770</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="D567" s="18"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="18"/>
@@ -10521,18 +10925,20 @@
       <c r="C568" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D568" s="18"/>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" s="18" t="s">
-        <v>710</v>
+        <v>769</v>
       </c>
       <c r="B569">
         <v>5770</v>
       </c>
       <c r="C569" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A569,"***")</f>
-        <v>REM SUBROUTINE ***GETNUMSHIPS***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETSUNKCHAR***</v>
+      </c>
+      <c r="D569" s="18"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="18"/>
@@ -10541,10 +10947,11 @@
       </c>
       <c r="C570" t="str">
         <f>IF(ISBLANK(E570),_xlfn.CONCAT("SUB ",A569),_xlfn.CONCAT("SUB ",A569,"(",E570,")"))</f>
-        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
-      </c>
+        <v>SUB GETSUNKCHAR(CHARVAL)</v>
+      </c>
+      <c r="D570" s="18"/>
       <c r="E570" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -10552,30 +10959,33 @@
       <c r="B571">
         <v>5790</v>
       </c>
-      <c r="C571" t="s">
-        <v>550</v>
-      </c>
+      <c r="C571" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D571" s="18"/>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="18"/>
       <c r="B572">
         <v>5800</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C572" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D572" s="18"/>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" s="18" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="B573">
         <v>5810</v>
       </c>
       <c r="C573" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A573,"***")</f>
-        <v>REM SUBROUTINE ***GETSHIPLEN***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETNUMSHIPS***</v>
+      </c>
+      <c r="D573" s="18"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" s="18"/>
@@ -10584,10 +10994,11 @@
       </c>
       <c r="C574" t="str">
         <f>IF(ISBLANK(E574),_xlfn.CONCAT("SUB ",A573),_xlfn.CONCAT("SUB ",A573,"(",E574,")"))</f>
-        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
-      </c>
+        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
+      </c>
+      <c r="D574" s="18"/>
       <c r="E574" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
@@ -10596,8 +11007,9 @@
         <v>5830</v>
       </c>
       <c r="C575" t="s">
-        <v>616</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="D575" s="18"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="18"/>
@@ -10605,28 +11017,35 @@
         <v>5840</v>
       </c>
       <c r="C576" t="s">
-        <v>727</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="D576" s="18"/>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A577" s="18"/>
+      <c r="A577" s="18" t="s">
+        <v>723</v>
+      </c>
       <c r="B577">
         <v>5850</v>
       </c>
-      <c r="C577" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="C577" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A577,"***")</f>
+        <v>REM SUBROUTINE ***GETSHIPLEN***</v>
+      </c>
+      <c r="D577" s="18"/>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A578" s="18" t="s">
-        <v>722</v>
-      </c>
+      <c r="A578" s="18"/>
       <c r="B578">
         <v>5860</v>
       </c>
       <c r="C578" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A578,"***")</f>
-        <v>REM SUBROUTINE ***GETSHIPNAME***</v>
+        <f>IF(ISBLANK(E578),_xlfn.CONCAT("SUB ",A577),_xlfn.CONCAT("SUB ",A577,"(",E578,")"))</f>
+        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
+      </c>
+      <c r="D578" s="18"/>
+      <c r="E578" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -10634,13 +11053,10 @@
       <c r="B579">
         <v>5870</v>
       </c>
-      <c r="C579" t="str">
-        <f>IF(ISBLANK(E579),_xlfn.CONCAT("SUB ",A578),_xlfn.CONCAT("SUB ",A578,"(",E579,")"))</f>
-        <v>SUB GETSHIPNAME(SHIPNAME$,INDEX)</v>
-      </c>
-      <c r="E579" t="s">
-        <v>725</v>
-      </c>
+      <c r="C579" t="s">
+        <v>616</v>
+      </c>
+      <c r="D579" s="18"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="18"/>
@@ -10648,37 +11064,45 @@
         <v>5880</v>
       </c>
       <c r="C580" t="s">
-        <v>617</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="D580" s="18"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="18"/>
       <c r="B581">
         <v>5890</v>
       </c>
-      <c r="C581" t="s">
-        <v>726</v>
-      </c>
+      <c r="C581" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D581" s="18"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A582" s="18"/>
+      <c r="A582" s="18" t="s">
+        <v>722</v>
+      </c>
       <c r="B582">
         <v>5900</v>
       </c>
-      <c r="C582" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="C582" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A582,"***")</f>
+        <v>REM SUBROUTINE ***GETSHIPNAME***</v>
+      </c>
+      <c r="D582" s="18"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A583" s="18" t="s">
-        <v>712</v>
-      </c>
+      <c r="A583" s="18"/>
       <c r="B583">
         <v>5910</v>
       </c>
       <c r="C583" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A583,"***")</f>
-        <v>REM SUBROUTINE ***GETBOARDORIG***</v>
+        <f>IF(ISBLANK(E583),_xlfn.CONCAT("SUB ",A582),_xlfn.CONCAT("SUB ",A582,"(",E583,")"))</f>
+        <v>SUB GETSHIPNAME(SHIPNAME$,INDEX)</v>
+      </c>
+      <c r="D583" s="18"/>
+      <c r="E583" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
@@ -10686,13 +11110,10 @@
       <c r="B584">
         <v>5920</v>
       </c>
-      <c r="C584" t="str">
-        <f>IF(ISBLANK(E584),_xlfn.CONCAT("SUB ",A583),_xlfn.CONCAT("SUB ",A583,"(",E584,")"))</f>
-        <v>SUB GETBOARDORIG(ROW,COL)</v>
-      </c>
-      <c r="E584" t="s">
-        <v>692</v>
-      </c>
+      <c r="C584" t="s">
+        <v>617</v>
+      </c>
+      <c r="D584" s="18"/>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" s="18"/>
@@ -10700,8 +11121,9 @@
         <v>5930</v>
       </c>
       <c r="C585" t="s">
-        <v>713</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D585" s="18"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" s="18"/>
@@ -10711,18 +11133,20 @@
       <c r="C586" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D586" s="18"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" s="18" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B587">
         <v>5950</v>
       </c>
       <c r="C587" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A587,"***")</f>
-        <v>REM SUBROUTINE ***GETAUXORIG***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETBOARDORIG***</v>
+      </c>
+      <c r="D587" s="18"/>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" s="18"/>
@@ -10731,8 +11155,9 @@
       </c>
       <c r="C588" t="str">
         <f>IF(ISBLANK(E588),_xlfn.CONCAT("SUB ",A587),_xlfn.CONCAT("SUB ",A587,"(",E588,")"))</f>
-        <v>SUB GETAUXORIG(ROW,COL)</v>
-      </c>
+        <v>SUB GETBOARDORIG(ROW,COL)</v>
+      </c>
+      <c r="D588" s="18"/>
       <c r="E588" t="s">
         <v>692</v>
       </c>
@@ -10743,8 +11168,9 @@
         <v>5970</v>
       </c>
       <c r="C589" t="s">
-        <v>714</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="D589" s="18"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" s="18"/>
@@ -10754,18 +11180,20 @@
       <c r="C590" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D590" s="18"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" s="18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B591">
         <v>5990</v>
       </c>
       <c r="C591" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A591,"***")</f>
-        <v>REM SUBROUTINE ***GETMENUORIG***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETAUXORIG***</v>
+      </c>
+      <c r="D591" s="18"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="18"/>
@@ -10774,8 +11202,9 @@
       </c>
       <c r="C592" t="str">
         <f>IF(ISBLANK(E592),_xlfn.CONCAT("SUB ",A591),_xlfn.CONCAT("SUB ",A591,"(",E592,")"))</f>
-        <v>SUB GETMENUORIG(ROW,COL)</v>
-      </c>
+        <v>SUB GETAUXORIG(ROW,COL)</v>
+      </c>
+      <c r="D592" s="18"/>
       <c r="E592" t="s">
         <v>692</v>
       </c>
@@ -10786,8 +11215,9 @@
         <v>6010</v>
       </c>
       <c r="C593" t="s">
-        <v>717</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="D593" s="18"/>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="18"/>
@@ -10797,18 +11227,20 @@
       <c r="C594" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="D594" s="18"/>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="18" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="B595">
         <v>6030</v>
       </c>
       <c r="C595" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A595,"***")</f>
-        <v>REM SUBROUTINE ***GETDEBUGFLAG***</v>
-      </c>
+        <v>REM SUBROUTINE ***GETMENUORIG***</v>
+      </c>
+      <c r="D595" s="18"/>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="18"/>
@@ -10817,10 +11249,11 @@
       </c>
       <c r="C596" t="str">
         <f>IF(ISBLANK(E596),_xlfn.CONCAT("SUB ",A595),_xlfn.CONCAT("SUB ",A595,"(",E596,")"))</f>
-        <v>SUB GETDEBUGFLAG(DEBUG)</v>
-      </c>
+        <v>SUB GETMENUORIG(ROW,COL)</v>
+      </c>
+      <c r="D596" s="18"/>
       <c r="E596" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -10828,9 +11261,10 @@
       <c r="B597">
         <v>6050</v>
       </c>
-      <c r="C597" s="5" t="s">
-        <v>1032</v>
-      </c>
+      <c r="C597" t="s">
+        <v>717</v>
+      </c>
+      <c r="D597" s="18"/>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="18"/>
@@ -10840,40 +11274,120 @@
       <c r="C598" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="F598" t="str">
-        <f>_xlfn.IFNA(MATCH(D598,A:A,0),"")</f>
-        <v/>
-      </c>
+      <c r="D598" s="18"/>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A599" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B599">
+        <v>6070</v>
+      </c>
+      <c r="C599" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A599,"***")</f>
+        <v>REM SUBROUTINE ***GETDEBUGFLAG***</v>
+      </c>
+      <c r="D599" s="18"/>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A600" s="18"/>
+      <c r="B600">
+        <v>6080</v>
+      </c>
+      <c r="C600" t="str">
+        <f>IF(ISBLANK(E600),_xlfn.CONCAT("SUB ",A599),_xlfn.CONCAT("SUB ",A599,"(",E600,")"))</f>
+        <v>SUB GETDEBUGFLAG(DEBUG)</v>
+      </c>
+      <c r="D600" s="18"/>
+      <c r="E600" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A601" s="18"/>
+      <c r="B601">
+        <v>6090</v>
+      </c>
+      <c r="C601" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D601" s="18"/>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C602" s="5"/>
+      <c r="A602" s="18"/>
+      <c r="B602">
+        <v>6100</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D602" s="18"/>
+      <c r="F602" t="str">
+        <f>_xlfn.IFNA(MATCH(D602,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C603" s="5"/>
+      <c r="A603" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B603">
+        <v>6110</v>
+      </c>
+      <c r="C603" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A603,"***")</f>
+        <v>REM SUBROUTINE ***GETAUTOPLAY***</v>
+      </c>
+      <c r="D603" s="18"/>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C604" s="5"/>
+      <c r="A604" s="18"/>
+      <c r="B604">
+        <v>6120</v>
+      </c>
+      <c r="C604" t="str">
+        <f>IF(ISBLANK(E604),_xlfn.CONCAT("SUB ",A603),_xlfn.CONCAT("SUB ",A603,"(",E604,")"))</f>
+        <v>SUB GETAUTOPLAY(AUTOPLAY)</v>
+      </c>
+      <c r="D604" s="18"/>
+      <c r="E604" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C605" s="5"/>
+      <c r="A605" s="18"/>
+      <c r="B605">
+        <v>6130</v>
+      </c>
+      <c r="C605" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D605" s="18"/>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C606" s="5"/>
+      <c r="A606" s="18"/>
+      <c r="B606">
+        <v>6140</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D606" s="18"/>
+      <c r="F606" t="str">
+        <f>_xlfn.IFNA(MATCH(D606,A:A,0),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A607"/>
       <c r="C607" s="5"/>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A608"/>
       <c r="C608" s="5"/>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609"/>
       <c r="C609" s="5"/>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610"/>
       <c r="C610" s="5"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -10892,25 +11406,37 @@
       <c r="A614"/>
       <c r="C614" s="5"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A635"/>
-      <c r="C635" s="5"/>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636"/>
-      <c r="C636" s="5"/>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615"/>
+      <c r="C615" s="5"/>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616"/>
+      <c r="C616" s="5"/>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617"/>
+      <c r="C617" s="5"/>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618"/>
+      <c r="C618" s="5"/>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A639"/>
+      <c r="C639" s="5"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640"/>
       <c r="C640" s="5"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A643"/>
-      <c r="C643" s="5"/>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A649"/>
-      <c r="C649" s="5"/>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A644"/>
+      <c r="C644" s="5"/>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A647"/>
+      <c r="C647" s="5"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653"/>
@@ -10924,41 +11450,33 @@
       <c r="A661"/>
       <c r="C661" s="5"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A671"/>
-      <c r="C671" s="5"/>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A678"/>
-      <c r="C678" s="5"/>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665"/>
+      <c r="C665" s="5"/>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675"/>
+      <c r="C675" s="5"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682"/>
       <c r="C682" s="5"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C687" s="5"/>
-    </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C693" s="5"/>
-    </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C699" s="5"/>
-    </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C702" s="5"/>
-    </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C724" s="5"/>
-    </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C725" s="5"/>
-    </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C726" s="5"/>
-    </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C727" s="5"/>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686"/>
+      <c r="C686" s="5"/>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C691" s="5"/>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C697" s="5"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C703" s="5"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C706" s="5"/>
     </row>
     <row r="728" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C728" s="5"/>
@@ -10972,17 +11490,17 @@
     <row r="731" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C731" s="5"/>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C736" s="5"/>
-    </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C737" s="5"/>
-    </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C738" s="5"/>
-    </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C739" s="5"/>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C732" s="5"/>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C733" s="5"/>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C734" s="5"/>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C735" s="5"/>
     </row>
     <row r="740" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C740" s="5"/>
@@ -10990,80 +11508,89 @@
     <row r="741" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C741" s="5"/>
     </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C742" s="5"/>
+    </row>
     <row r="743" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C743" s="5"/>
     </row>
     <row r="744" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C744" s="5"/>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C757" s="1"/>
-    </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C758" s="1"/>
-    </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C759" s="1"/>
-    </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C760" s="1"/>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C745" s="5"/>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C747" s="5"/>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C748" s="5"/>
     </row>
     <row r="761" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C761" s="1"/>
     </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C762" s="1"/>
+    </row>
     <row r="763" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C763" s="1"/>
     </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C764" s="1"/>
+    </row>
     <row r="765" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C765" s="1"/>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C766" s="1"/>
-    </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C768" s="1"/>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C767" s="1"/>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C769" s="1"/>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C770" s="1"/>
     </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C772" s="1"/>
+    </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C774" s="1"/>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C778" s="1"/>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C780" s="1"/>
-    </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C781" s="1"/>
-    </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C786" s="5"/>
-    </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C799" s="5"/>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C782" s="1"/>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C784" s="1"/>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C785" s="1"/>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C790" s="5"/>
     </row>
     <row r="803" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C803" s="5"/>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C804" s="5"/>
-    </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C805" s="5"/>
-    </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C806" s="5"/>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C807" s="5"/>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C808" s="5"/>
     </row>
     <row r="809" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C809" s="5"/>
     </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C810" s="5"/>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C813" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C183" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -11173,7 +11700,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B8">
         <v>160</v>
@@ -11202,7 +11729,7 @@
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -11211,7 +11738,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -11220,7 +11747,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -11229,7 +11756,7 @@
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -11238,7 +11765,7 @@
         <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -11247,7 +11774,7 @@
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -11309,7 +11836,7 @@
         <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11318,7 +11845,7 @@
         <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11327,7 +11854,7 @@
         <v>300</v>
       </c>
       <c r="C22" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11336,7 +11863,7 @@
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11368,7 +11895,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B27">
         <v>350</v>
@@ -11503,7 +12030,7 @@
         <v>470</v>
       </c>
       <c r="C39" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -11512,7 +12039,7 @@
         <v>480</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -11521,7 +12048,7 @@
         <v>490</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -11530,7 +12057,7 @@
         <v>500</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -11547,7 +12074,7 @@
         <v>CHECKHIT</v>
       </c>
       <c r="E43" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -11564,12 +12091,12 @@
         <v>QUEUEADD</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B45">
         <v>530</v>
@@ -11595,7 +12122,7 @@
         <v>GAMEAI</v>
       </c>
       <c r="E46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -11604,7 +12131,7 @@
         <v>550</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D47" s="23"/>
     </row>
@@ -11614,7 +12141,7 @@
         <v>560</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D48" s="18"/>
     </row>
@@ -11624,7 +12151,7 @@
         <v>570</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D49" s="18"/>
     </row>
@@ -11642,7 +12169,7 @@
         <v>CHECKHIT</v>
       </c>
       <c r="E50" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -11659,7 +12186,7 @@
         <v>QUEUEADD</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -11668,7 +12195,7 @@
         <v>600</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="1"/>
@@ -11693,7 +12220,7 @@
         <v>620</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -11716,7 +12243,7 @@
         <v>640</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -11725,7 +12252,7 @@
         <v>650</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D57" s="20"/>
     </row>
@@ -11757,7 +12284,7 @@
         <v>GETSHIPLEN</v>
       </c>
       <c r="E59" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -11775,7 +12302,7 @@
         <v>690</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -11787,12 +12314,12 @@
         <f>IF(ISBLANK(E62),_xlfn.CONCAT("CALL ",D62),_xlfn.CONCAT("CALL ",D62,"(",E62,")"))</f>
         <v>CALL QUEUEDEL(Q(),QLEN,(LOC),ERRVAL)</v>
       </c>
-      <c r="D62" s="23" t="str">
+      <c r="D62" s="18" t="str">
         <f>A121</f>
         <v>QUEUEDEL</v>
       </c>
       <c r="E62" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -11823,12 +12350,12 @@
         <f>IF(ISBLANK(E65),_xlfn.CONCAT("CALL ",D65),_xlfn.CONCAT("CALL ",D65,"(",E65,")"))</f>
         <v>CALL QUEUEPRINT(Q(),QLEN)</v>
       </c>
-      <c r="D65" s="23" t="str">
+      <c r="D65" s="18" t="str">
         <f>A98</f>
         <v>QUEUEPRINT</v>
       </c>
       <c r="E65" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -11846,7 +12373,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B67">
         <v>750</v>
@@ -11872,7 +12399,7 @@
         <v>770</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D69" s="18"/>
     </row>
@@ -12192,7 +12719,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B98">
         <v>1060</v>
@@ -12212,7 +12739,7 @@
         <v>SUB QUEUEPRINT(Q(),QLEN)</v>
       </c>
       <c r="E99" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -12221,7 +12748,7 @@
         <v>1080</v>
       </c>
       <c r="C100" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -12230,7 +12757,7 @@
         <v>1090</v>
       </c>
       <c r="C101" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -12248,7 +12775,7 @@
         <v>1110</v>
       </c>
       <c r="C103" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -12266,12 +12793,12 @@
         <v>1130</v>
       </c>
       <c r="C105" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B106">
         <v>1140</v>
@@ -12291,7 +12818,7 @@
         <v>SUB QUEUESIZE(QSIZE)</v>
       </c>
       <c r="E107" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -12300,7 +12827,7 @@
         <v>1160</v>
       </c>
       <c r="C108" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -12314,7 +12841,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="26" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B110">
         <v>1180</v>
@@ -12334,7 +12861,7 @@
         <v>SUB QUEUEINIT(Q(),QLEN)</v>
       </c>
       <c r="E111" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -12351,7 +12878,7 @@
         <v>QUEUESIZE</v>
       </c>
       <c r="E112" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -12360,7 +12887,7 @@
         <v>1210</v>
       </c>
       <c r="C113" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -12369,7 +12896,7 @@
         <v>1220</v>
       </c>
       <c r="C114" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -12383,7 +12910,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B116">
         <v>1240</v>
@@ -12403,7 +12930,7 @@
         <v>SUB QUEUEADD(Q(),QLEN,VALUE,ERRVAL)</v>
       </c>
       <c r="E117" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -12420,7 +12947,7 @@
         <v>QUEUESIZE</v>
       </c>
       <c r="E118" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -12429,7 +12956,7 @@
         <v>1270</v>
       </c>
       <c r="C119" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -12443,7 +12970,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B121">
         <v>1290</v>
@@ -12463,7 +12990,7 @@
         <v>SUB QUEUEDEL(Q(),QLEN,VALUE,ERRVAL)</v>
       </c>
       <c r="E122" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -12472,7 +12999,7 @@
         <v>1310</v>
       </c>
       <c r="C123" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -12481,7 +13008,7 @@
         <v>1320</v>
       </c>
       <c r="C124" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -12509,7 +13036,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B127">
         <v>1350</v>
@@ -12529,7 +13056,7 @@
         <v>1360</v>
       </c>
       <c r="C128" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -12538,7 +13065,7 @@
         <v>1370</v>
       </c>
       <c r="C129" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -12556,7 +13083,7 @@
         <v>1390</v>
       </c>
       <c r="C131" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -12573,7 +13100,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B133">
         <v>1410</v>
@@ -12593,12 +13120,12 @@
         <v>SUB GAMEAI(ROW,COL,Q(),QLEN,SHOTS(,,))</v>
       </c>
       <c r="E134" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B135">
         <v>1430</v>
@@ -12614,7 +13141,7 @@
         <v>1440</v>
       </c>
       <c r="C136" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -12623,7 +13150,7 @@
         <v>1450</v>
       </c>
       <c r="C137" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -12662,7 +13189,7 @@
         <v>1480</v>
       </c>
       <c r="C140" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D140" s="20" t="str">
         <f>A144</f>
@@ -12691,7 +13218,7 @@
         <v>1500</v>
       </c>
       <c r="C142" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="5"/>
@@ -12702,14 +13229,14 @@
         <v>1510</v>
       </c>
       <c r="C143" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B144">
         <v>1520</v>
@@ -12735,7 +13262,7 @@
         <v>CHECKVALIDSHOT</v>
       </c>
       <c r="E145" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -12770,7 +13297,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="31" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B148">
         <v>1560</v>
@@ -12787,7 +13314,7 @@
         <v>1570</v>
       </c>
       <c r="C149" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -12796,7 +13323,7 @@
         <v>1580</v>
       </c>
       <c r="C150" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -12805,12 +13332,12 @@
         <v>1590</v>
       </c>
       <c r="C151" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="31" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B152">
         <v>1600</v>
@@ -12826,7 +13353,7 @@
         <v>1610</v>
       </c>
       <c r="C153" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -12835,7 +13362,7 @@
         <v>1620</v>
       </c>
       <c r="C154" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -12844,7 +13371,7 @@
         <v>1630</v>
       </c>
       <c r="C155" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -12853,7 +13380,7 @@
         <v>1640</v>
       </c>
       <c r="C156" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -12862,7 +13389,7 @@
         <v>1650</v>
       </c>
       <c r="C157" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D157" s="18"/>
     </row>
@@ -12872,7 +13399,7 @@
         <v>1660</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -12881,7 +13408,7 @@
         <v>1670</v>
       </c>
       <c r="C159" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -12893,7 +13420,7 @@
         <v>1680</v>
       </c>
       <c r="C160" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -12902,7 +13429,7 @@
         <v>1690</v>
       </c>
       <c r="C161" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -18750,7 +19277,7 @@
         <v>RANDOMDIRECTION</v>
       </c>
       <c r="F322" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -18833,7 +19360,7 @@
         <v/>
       </c>
       <c r="F327" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -18852,7 +19379,7 @@
         <v/>
       </c>
       <c r="F328" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -18871,7 +19398,7 @@
         <v/>
       </c>
       <c r="F329" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -18890,7 +19417,7 @@
         <v/>
       </c>
       <c r="F330" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -18911,7 +19438,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B332" s="2">
         <v>3380</v>
@@ -18928,7 +19455,7 @@
         <v/>
       </c>
       <c r="F332" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -18947,7 +19474,7 @@
         <v/>
       </c>
       <c r="F333" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -18982,7 +19509,7 @@
         <v/>
       </c>
       <c r="F335" s="22" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -19001,7 +19528,7 @@
         <v/>
       </c>
       <c r="F336" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -19105,7 +19632,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B343" s="2">
         <v>3490</v>
@@ -19140,7 +19667,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B345" s="2">
         <v>3510</v>
@@ -19175,7 +19702,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B347" s="2">
         <v>3530</v>
@@ -19272,7 +19799,7 @@
         <v/>
       </c>
       <c r="F352" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -19291,7 +19818,7 @@
         <v/>
       </c>
       <c r="F353" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -19328,7 +19855,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B356" s="2">
         <v>3620</v>
@@ -19341,7 +19868,7 @@
         <v/>
       </c>
       <c r="F356" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -19376,7 +19903,7 @@
         <v/>
       </c>
       <c r="F358" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
@@ -19411,7 +19938,7 @@
         <v/>
       </c>
       <c r="F360" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -19446,7 +19973,7 @@
         <v/>
       </c>
       <c r="F362" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
@@ -19481,12 +20008,12 @@
         <v/>
       </c>
       <c r="F364" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B365" s="2">
         <v>3710</v>
@@ -19567,7 +20094,7 @@
         <v/>
       </c>
       <c r="F369" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -19602,7 +20129,7 @@
         <v/>
       </c>
       <c r="F371" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -19623,7 +20150,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B373" s="2">
         <v>3790</v>
@@ -19640,7 +20167,7 @@
         <v/>
       </c>
       <c r="F373" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -19675,7 +20202,7 @@
         <v/>
       </c>
       <c r="F375" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -19694,7 +20221,7 @@
         <v/>
       </c>
       <c r="F376" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -19745,7 +20272,7 @@
         <v/>
       </c>
       <c r="F379" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -19764,7 +20291,7 @@
         <v/>
       </c>
       <c r="F380" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -19799,7 +20326,7 @@
         <v>RANDOMDIRECTION</v>
       </c>
       <c r="F382" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -19818,7 +20345,7 @@
         <v>RANDOMDIRECTION</v>
       </c>
       <c r="F383" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -19837,7 +20364,7 @@
         <v>RANDOMDIRECTION</v>
       </c>
       <c r="F384" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.2">
@@ -19856,7 +20383,7 @@
         <v>RANDOMDIRECTION</v>
       </c>
       <c r="F385" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.2">

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28807A27-B579-754A-A9EE-A921B48357F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C830A30-5DDB-2D44-ABC5-236308CEF771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -3940,20 +3940,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>874</v>
-      </c>
       <c r="B19">
         <v>270</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A19,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A20,"***")</f>
         <v>REM LABEL ***GAMELOOP***</v>
       </c>
       <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20" t="s">
+        <v>874</v>
+      </c>
       <c r="B20">
         <v>280</v>
       </c>
@@ -4007,10 +4006,10 @@
       </c>
       <c r="C23" s="5" t="str">
         <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
-        <v>GOTO 270 :: REM GOTO GAMELOOP</v>
+        <v>GOTO 280 :: REM GOTO GAMELOOP</v>
       </c>
       <c r="D23" s="20" t="str">
-        <f>A19</f>
+        <f>A20</f>
         <v>GAMELOOP</v>
       </c>
     </row>
@@ -4847,20 +4846,19 @@
       <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
-        <v>865</v>
-      </c>
       <c r="B87">
         <v>950</v>
       </c>
       <c r="C87" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A87,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A88,"***")</f>
         <v>REM LABEL ***DEPLOYMANSHIP***</v>
       </c>
       <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="20" t="s">
+        <v>865</v>
+      </c>
       <c r="B88">
         <v>960</v>
       </c>
@@ -4937,10 +4935,10 @@
       </c>
       <c r="C93" s="5" t="str">
         <f>_xlfn.CONCAT("IF ERRVAL=1 THEN ",INDEX(B:B,MATCH(D93,A:A,0),0)," :: REM GOTO ",D93,"")</f>
-        <v>IF ERRVAL=1 THEN 950 :: REM GOTO DEPLOYMANSHIP</v>
+        <v>IF ERRVAL=1 THEN 960 :: REM GOTO DEPLOYMANSHIP</v>
       </c>
       <c r="D93" s="20" t="str">
-        <f>A87</f>
+        <f>A88</f>
         <v>DEPLOYMANSHIP</v>
       </c>
     </row>
@@ -5127,20 +5125,19 @@
       <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
-        <v>866</v>
-      </c>
       <c r="B108">
         <v>1160</v>
       </c>
       <c r="C108" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A108,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A109,"***")</f>
         <v>REM LABEL ***DEPLOYCOMPSHIP***</v>
       </c>
       <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="18"/>
+      <c r="A109" s="20" t="s">
+        <v>866</v>
+      </c>
       <c r="B109">
         <v>1170</v>
       </c>
@@ -5260,10 +5257,10 @@
       </c>
       <c r="C119" t="str">
         <f>_xlfn.CONCAT("IF ERRVAL=1 THEN ",INDEX(B:B,MATCH(D119,A:A,0),0)," :: REM GOTO ",D119,"")</f>
-        <v>IF ERRVAL=1 THEN 1160 :: REM GOTO DEPLOYCOMPSHIP</v>
+        <v>IF ERRVAL=1 THEN 1170 :: REM GOTO DEPLOYCOMPSHIP</v>
       </c>
       <c r="D119" s="20" t="str">
-        <f>A108</f>
+        <f>A109</f>
         <v>DEPLOYCOMPSHIP</v>
       </c>
     </row>
@@ -5586,20 +5583,19 @@
       <c r="D145" s="18"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="20" t="s">
-        <v>896</v>
-      </c>
       <c r="B146">
         <v>1540</v>
       </c>
       <c r="C146" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A146,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A147,"***")</f>
         <v>REM LABEL ***TURNLOOP***</v>
       </c>
       <c r="D146" s="18"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="20"/>
+      <c r="A147" s="20" t="s">
+        <v>896</v>
+      </c>
       <c r="B147">
         <v>1550</v>
       </c>
@@ -5666,10 +5662,10 @@
       </c>
       <c r="C151" s="5" t="str">
         <f>_xlfn.CONCAT("IF WINNER=0 OR WINNER=1 THEN ",INDEX(B:B,MATCH(D151,A:A,0),0)," :: REM GOTO ",D151,"")</f>
-        <v>IF WINNER=0 OR WINNER=1 THEN 1630 :: REM GOTO GAMEOVER</v>
+        <v>IF WINNER=0 OR WINNER=1 THEN 1640 :: REM GOTO GAMEOVER</v>
       </c>
       <c r="D151" s="20" t="str">
-        <f>A155</f>
+        <f>A156</f>
         <v>GAMEOVER</v>
       </c>
     </row>
@@ -5707,28 +5703,27 @@
       </c>
       <c r="C154" s="5" t="str">
         <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D154,A:A,0),0)," :: REM GOTO ",D154,"")</f>
-        <v>GOTO 1540 :: REM GOTO TURNLOOP</v>
+        <v>GOTO 1550 :: REM GOTO TURNLOOP</v>
       </c>
       <c r="D154" s="20" t="str">
-        <f>A146</f>
+        <f>A147</f>
         <v>TURNLOOP</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="20" t="s">
-        <v>675</v>
-      </c>
       <c r="B155">
         <v>1630</v>
       </c>
       <c r="C155" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A155,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A156,"***")</f>
         <v>REM LABEL ***GAMEOVER***</v>
       </c>
       <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="20"/>
+      <c r="A156" s="20" t="s">
+        <v>675</v>
+      </c>
       <c r="B156">
         <v>1640</v>
       </c>
@@ -5829,19 +5824,19 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="20" t="s">
-        <v>1019</v>
-      </c>
       <c r="B164">
         <v>1720</v>
       </c>
       <c r="C164" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A164,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A165,"***")</f>
         <v>REM LABEL ***INPUTLOOP***</v>
       </c>
       <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="20" t="s">
+        <v>1019</v>
+      </c>
       <c r="B165">
         <v>1730</v>
       </c>
@@ -5888,10 +5883,10 @@
       </c>
       <c r="C168" s="5" t="str">
         <f>_xlfn.CONCAT("IF ERRVAL=1 THEN ",INDEX(B:B,MATCH(D168,A:A,0),0)," :: REM GOTO ",D168,"")</f>
-        <v>IF ERRVAL=1 THEN 1720 :: REM GOTO INPUTLOOP</v>
+        <v>IF ERRVAL=1 THEN 1730 :: REM GOTO INPUTLOOP</v>
       </c>
       <c r="D168" s="20" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>INPUTLOOP</v>
       </c>
     </row>
@@ -6298,20 +6293,19 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="20" t="s">
-        <v>982</v>
-      </c>
       <c r="B200">
         <v>2080</v>
       </c>
       <c r="C200" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A200,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A201,"***")</f>
         <v>REM LABEL ***AISTART***</v>
       </c>
       <c r="D200" s="18"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="20"/>
+      <c r="A201" s="20" t="s">
+        <v>982</v>
+      </c>
       <c r="B201">
         <v>2090</v>
       </c>
@@ -6327,10 +6321,10 @@
       </c>
       <c r="C202" t="str">
         <f>_xlfn.CONCAT("IF QLEN=0 THEN GOSUB ",INDEX(B:B,MATCH(D202,A:A,0),0)," :: REM GOSUB ",D202,)</f>
-        <v>IF QLEN=0 THEN GOSUB 2210 :: REM GOSUB EMPTYQUEUE</v>
+        <v>IF QLEN=0 THEN GOSUB 2220 :: REM GOSUB EMPTYQUEUE</v>
       </c>
       <c r="D202" s="17" t="str">
-        <f>A213</f>
+        <f>A214</f>
         <v>EMPTYQUEUE</v>
       </c>
       <c r="E202" s="20"/>
@@ -6342,10 +6336,10 @@
       </c>
       <c r="C203" t="str">
         <f>_xlfn.CONCAT("IF QLEN=0 THEN GOTO ",INDEX(B:B,MATCH(D203,A:A,0),0)," :: REM GOTO ",D203)</f>
-        <v>IF QLEN=0 THEN GOTO 2160 :: REM GOTO VALIDATESHOT</v>
+        <v>IF QLEN=0 THEN GOTO 2170 :: REM GOTO VALIDATESHOT</v>
       </c>
       <c r="D203" s="20" t="str">
-        <f>A208</f>
+        <f>A209</f>
         <v>VALIDATESHOT</v>
       </c>
       <c r="E203" s="20"/>
@@ -6357,10 +6351,10 @@
       </c>
       <c r="C204" t="str">
         <f>_xlfn.CONCAT("IF OFFSET=0 THEN GOSUB ",INDEX(B:B,MATCH(D204,A:A,0),0)," :: REM GOSUB ",D204)</f>
-        <v>IF OFFSET=0 THEN GOSUB 2250 :: REM GOSUB OFFSETZERO</v>
+        <v>IF OFFSET=0 THEN GOSUB 2260 :: REM GOSUB OFFSETZERO</v>
       </c>
       <c r="D204" s="20" t="str">
-        <f>A217</f>
+        <f>A218</f>
         <v>OFFSETZERO</v>
       </c>
       <c r="E204" s="17"/>
@@ -6374,7 +6368,7 @@
         <v>1044</v>
       </c>
       <c r="D205" s="17" t="str">
-        <f>A217</f>
+        <f>A218</f>
         <v>OFFSETZERO</v>
       </c>
       <c r="E205" s="17"/>
@@ -6402,21 +6396,20 @@
       <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="20" t="s">
-        <v>993</v>
-      </c>
       <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A208,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A209,"***")</f>
         <v>REM LABEL ***VALIDATESHOT***</v>
       </c>
       <c r="D208" s="18"/>
       <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209"/>
+      <c r="A209" s="20" t="s">
+        <v>993</v>
+      </c>
       <c r="B209">
         <v>2170</v>
       </c>
@@ -6439,10 +6432,10 @@
       </c>
       <c r="C210" t="str">
         <f>_xlfn.CONCAT("IF ERRVAL=1 THEN OFFSET=0 :: GOTO ",INDEX(B:B,MATCH(D210,A:A,0),0)," :: REM GOTO ",D210,"")</f>
-        <v>IF ERRVAL=1 THEN OFFSET=0 :: GOTO 2080 :: REM GOTO AISTART</v>
+        <v>IF ERRVAL=1 THEN OFFSET=0 :: GOTO 2090 :: REM GOTO AISTART</v>
       </c>
       <c r="D210" s="20" t="str">
-        <f>A200</f>
+        <f>A201</f>
         <v>AISTART</v>
       </c>
       <c r="E210" s="5"/>
@@ -6472,20 +6465,19 @@
       <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="17" t="s">
-        <v>984</v>
-      </c>
       <c r="B213">
         <v>2210</v>
       </c>
       <c r="C213" t="str">
-        <f>_xlfn.CONCAT("REM GOSUB ***",A213,"***")</f>
+        <f>_xlfn.CONCAT("REM GOSUB ***",A214,"***")</f>
         <v>REM GOSUB ***EMPTYQUEUE***</v>
       </c>
       <c r="D213" s="18"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214"/>
+      <c r="A214" s="17" t="s">
+        <v>984</v>
+      </c>
       <c r="B214">
         <v>2220</v>
       </c>
@@ -6515,19 +6507,19 @@
       <c r="D216" s="18"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="17" t="s">
-        <v>981</v>
-      </c>
       <c r="B217">
         <v>2250</v>
       </c>
       <c r="C217" t="str">
-        <f>_xlfn.CONCAT("REM GOSUB ***",A217,"***")</f>
+        <f>_xlfn.CONCAT("REM GOSUB ***",A218,"***")</f>
         <v>REM GOSUB ***OFFSETZERO***</v>
       </c>
       <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="17" t="s">
+        <v>981</v>
+      </c>
       <c r="B218">
         <v>2260</v>
       </c>
@@ -8270,20 +8262,19 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="20" t="s">
-        <v>1026</v>
-      </c>
       <c r="B358">
         <v>3660</v>
       </c>
       <c r="C358" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A358,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A359,"***")</f>
         <v>REM LABEL ***ASKAUTO***</v>
       </c>
       <c r="D358" s="18"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="18"/>
+      <c r="A359" s="20" t="s">
+        <v>1026</v>
+      </c>
       <c r="B359">
         <v>3670</v>
       </c>
@@ -8299,10 +8290,10 @@
       </c>
       <c r="C360" s="5" t="str">
         <f>_xlfn.CONCAT("IF AUTODEPLOY$="""" THEN  ",INDEX(B:B,MATCH(D360,A:A,0),0)," :: REM GOTO ",D360,"")</f>
-        <v>IF AUTODEPLOY$="" THEN  3660 :: REM GOTO ASKAUTO</v>
+        <v>IF AUTODEPLOY$="" THEN  3670 :: REM GOTO ASKAUTO</v>
       </c>
       <c r="D360" s="20" t="str">
-        <f>A358</f>
+        <f>A359</f>
         <v>ASKAUTO</v>
       </c>
     </row>
@@ -9024,20 +9015,19 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="20" t="s">
-        <v>1027</v>
-      </c>
       <c r="B409">
         <v>4170</v>
       </c>
       <c r="C409" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A409,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A410,"***")</f>
         <v>REM LABEL ***ASKPLAYAGAIN***</v>
       </c>
       <c r="D409" s="18"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="18"/>
+      <c r="A410" s="20" t="s">
+        <v>1027</v>
+      </c>
       <c r="B410">
         <v>4180</v>
       </c>
@@ -9053,10 +9043,10 @@
       </c>
       <c r="C411" s="5" t="str">
         <f>_xlfn.CONCAT("IF PLAYAGAIN$="""" THEN  ",INDEX(B:B,MATCH(D411,A:A,0),0)," :: REM GOTO ",D411,"")</f>
-        <v>IF PLAYAGAIN$="" THEN  4170 :: REM GOTO ASKPLAYAGAIN</v>
+        <v>IF PLAYAGAIN$="" THEN  4180 :: REM GOTO ASKPLAYAGAIN</v>
       </c>
       <c r="D411" s="20" t="str">
-        <f>A409</f>
+        <f>A410</f>
         <v>ASKPLAYAGAIN</v>
       </c>
     </row>
@@ -9108,20 +9098,19 @@
       <c r="D415" s="18"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="19" t="s">
-        <v>700</v>
-      </c>
       <c r="B416">
         <v>4240</v>
       </c>
       <c r="C416" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A416,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A417,"***")</f>
         <v>REM LABEL ***GETROW***</v>
       </c>
       <c r="D416" s="18"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="18"/>
+      <c r="A417" s="19" t="s">
+        <v>700</v>
+      </c>
       <c r="B417">
         <v>4250</v>
       </c>
@@ -9137,28 +9126,27 @@
       </c>
       <c r="C418" s="5" t="str">
         <f>_xlfn.CONCAT("IF INPUTROW$="""" THEN  ",INDEX(B:B,MATCH(D418,A:A,0),0)," :: REM GOTO ",D418,"")</f>
-        <v>IF INPUTROW$="" THEN  4240 :: REM GOTO GETROW</v>
+        <v>IF INPUTROW$="" THEN  4250 :: REM GOTO GETROW</v>
       </c>
       <c r="D418" s="20" t="str">
-        <f>A416</f>
+        <f>A417</f>
         <v>GETROW</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" s="19" t="s">
-        <v>699</v>
-      </c>
       <c r="B419">
         <v>4270</v>
       </c>
       <c r="C419" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A419,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A420,"***")</f>
         <v>REM LABEL ***GETCOL***</v>
       </c>
       <c r="D419" s="18"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" s="18"/>
+      <c r="A420" s="19" t="s">
+        <v>699</v>
+      </c>
       <c r="B420">
         <v>4280</v>
       </c>
@@ -9174,10 +9162,10 @@
       </c>
       <c r="C421" s="5" t="str">
         <f>_xlfn.CONCAT("IF INPUTCOL&gt;10 THEN  ",INDEX(B:B,MATCH(D421,A:A,0),0)," :: REM GOTO ",D421,"")</f>
-        <v>IF INPUTCOL&gt;10 THEN  4270 :: REM GOTO GETCOL</v>
+        <v>IF INPUTCOL&gt;10 THEN  4280 :: REM GOTO GETCOL</v>
       </c>
       <c r="D421" s="20" t="str">
-        <f>A419</f>
+        <f>A420</f>
         <v>GETCOL</v>
       </c>
     </row>
@@ -9188,10 +9176,10 @@
       </c>
       <c r="C422" s="5" t="str">
         <f>_xlfn.CONCAT("IF INPUTCOL&lt;1 THEN  ",INDEX(B:B,MATCH(D422,A:A,0),0)," :: REM GOTO ",D422,"")</f>
-        <v>IF INPUTCOL&lt;1 THEN  4270 :: REM GOTO GETCOL</v>
+        <v>IF INPUTCOL&lt;1 THEN  4280 :: REM GOTO GETCOL</v>
       </c>
       <c r="D422" s="20" t="str">
-        <f>A419</f>
+        <f>A420</f>
         <v>GETCOL</v>
       </c>
     </row>
@@ -10560,10 +10548,10 @@
       </c>
       <c r="C535" t="str">
         <f>_xlfn.CONCAT("IF VALUE=Q(I) THEN DINDEX=I :: GOTO ",INDEX(B:B,MATCH(D535,A:A,0),0)," :: REM GOTO ",D535)</f>
-        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 5460 :: REM GOTO CONTRACT</v>
+        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 5470 :: REM GOTO CONTRACT</v>
       </c>
       <c r="D535" s="20" t="str">
-        <f>A538</f>
+        <f>A539</f>
         <v>CONTRACT</v>
       </c>
     </row>
@@ -10592,20 +10580,19 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A538" s="20" t="s">
-        <v>1043</v>
-      </c>
       <c r="B538">
         <v>5460</v>
       </c>
       <c r="C538" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A538,"***")</f>
+        <f>_xlfn.CONCAT("REM LABEL ***",A539,"***")</f>
         <v>REM LABEL ***CONTRACT***</v>
       </c>
       <c r="D538" s="20"/>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A539"/>
+      <c r="A539" s="20" t="s">
+        <v>1043</v>
+      </c>
       <c r="B539">
         <v>5470</v>
       </c>

--- a/battleship.xlsx
+++ b/battleship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C830A30-5DDB-2D44-ABC5-236308CEF771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB9A0-C575-2A41-A996-6B40A18CAEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1053">
   <si>
     <t>CALL CLEAR</t>
   </si>
@@ -3188,6 +3188,18 @@
   </si>
   <si>
     <t>REVERSED=0</t>
+  </si>
+  <si>
+    <t>ERRVAL,(CURRENTSHIP),SHIP()</t>
+  </si>
+  <si>
+    <t>CHECKSTRAIGHT</t>
+  </si>
+  <si>
+    <t>PROW=INT(SHIP(I-1)/16) ::PCOL=SHIP(I-1)-INT(SHIP(I-1)/16)*16</t>
+  </si>
+  <si>
+    <t>ERRVAL,CURRENTSHIP,SHIP()</t>
   </si>
 </sst>
 </file>
@@ -3725,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:H812"/>
+  <dimension ref="A1:H824"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4057,7 +4069,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D27" s="18" t="str">
-        <f>A544</f>
+        <f>A556</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E27" t="s">
@@ -4084,7 +4096,7 @@
         <v>CALL GETFILLCHAR(FILLCHAR)</v>
       </c>
       <c r="D29" s="18" t="str">
-        <f>A548</f>
+        <f>A560</f>
         <v>GETFILLCHAR</v>
       </c>
       <c r="E29" t="s">
@@ -4111,7 +4123,7 @@
         <v>CALL GETHITCHAR(HITCHAR)</v>
       </c>
       <c r="D31" s="18" t="str">
-        <f>A552</f>
+        <f>A564</f>
         <v>GETHITCHAR</v>
       </c>
       <c r="E31" t="s">
@@ -4138,7 +4150,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D33" s="18" t="str">
-        <f>A556</f>
+        <f>A568</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E33" t="s">
@@ -4165,7 +4177,7 @@
         <v>CALL GETTENCHAR(TENCHAR)</v>
       </c>
       <c r="D35" s="18" t="str">
-        <f>A560</f>
+        <f>A572</f>
         <v>GETTENCHAR</v>
       </c>
       <c r="E35" t="s">
@@ -4192,7 +4204,7 @@
         <v>CALL GETMISSCHAR(MISSCHAR)</v>
       </c>
       <c r="D37" s="18" t="str">
-        <f>A564</f>
+        <f>A576</f>
         <v>GETMISSCHAR</v>
       </c>
       <c r="E37" t="s">
@@ -4219,7 +4231,7 @@
         <v>CALL GETSUNKCHAR(SUNKCHAR)</v>
       </c>
       <c r="D39" s="18" t="str">
-        <f>A568</f>
+        <f>A580</f>
         <v>GETSUNKCHAR</v>
       </c>
       <c r="E39" t="s">
@@ -4448,7 +4460,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D58" s="18" t="str">
-        <f>A572</f>
+        <f>A584</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E58" t="s">
@@ -4598,7 +4610,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D68" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E68" t="s">
@@ -4683,7 +4695,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D73" s="18" t="str">
-        <f>A572</f>
+        <f>A584</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E73" t="s">
@@ -4710,7 +4722,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D75" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E75" t="s">
@@ -4828,7 +4840,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D85" s="18" t="str">
-        <f>A572</f>
+        <f>A584</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E85" t="s">
@@ -4952,7 +4964,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D94" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E94" t="s">
@@ -5073,7 +5085,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D104" s="18" t="str">
-        <f>A572</f>
+        <f>A584</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E104" t="s">
@@ -5090,7 +5102,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D105" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E105" t="s">
@@ -5107,7 +5119,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D106" s="18" t="str">
-        <f>A556</f>
+        <f>A568</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E106" t="s">
@@ -5146,7 +5158,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D109" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E109" t="s">
@@ -5243,7 +5255,7 @@
         <v>CALL CHECKOVERLAP(ERRVAL,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
       </c>
       <c r="D118" s="18" t="str">
-        <f>A501</f>
+        <f>A513</f>
         <v>CHECKOVERLAP</v>
       </c>
       <c r="E118" t="s">
@@ -5304,7 +5316,7 @@
         <v>CALL GETDEBUGFLAG(DEBUG)</v>
       </c>
       <c r="D123" s="18" t="str">
-        <f>A598</f>
+        <f>A610</f>
         <v>GETDEBUGFLAG</v>
       </c>
       <c r="E123" t="s">
@@ -5454,7 +5466,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D135" s="18" t="str">
-        <f>A572</f>
+        <f>A584</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E135" t="s">
@@ -5481,7 +5493,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D137" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E137" t="s">
@@ -5538,7 +5550,7 @@
         <v>CALL QUEUEINIT(Q(),QLEN)</v>
       </c>
       <c r="D142" s="18" t="str">
-        <f>A520</f>
+        <f>A532</f>
         <v>QUEUEINIT</v>
       </c>
       <c r="E142" t="s">
@@ -5565,7 +5577,7 @@
         <v>CALL GETAUTOPLAY(AUTOPLAY)</v>
       </c>
       <c r="D144" s="18" t="str">
-        <f>A602</f>
+        <f>A614</f>
         <v>GETAUTOPLAY</v>
       </c>
       <c r="E144" t="s">
@@ -5679,7 +5691,7 @@
         <v>CALL GETAUTOPLAY(AUTOPLAY)</v>
       </c>
       <c r="D152" s="20" t="str">
-        <f>A602</f>
+        <f>A614</f>
         <v>GETAUTOPLAY</v>
       </c>
       <c r="E152" t="s">
@@ -5870,7 +5882,7 @@
         <v>CALL CHECKVALIDSHOT(ERRVAL,(ROW),(COL),0,SHOTS(,,))</v>
       </c>
       <c r="D167" s="18" t="str">
-        <f>A456</f>
+        <f>A458</f>
         <v>CHECKVALIDSHOT</v>
       </c>
       <c r="E167" t="s">
@@ -5954,7 +5966,7 @@
         <v>CALL GETMENUORIG(MROW,MCOL)</v>
       </c>
       <c r="D173" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E173" t="s">
@@ -6065,7 +6077,7 @@
         <v>CALL CHECKHIT(HIT,SHIP,(LOC),(1-PLAYER),SHIPS(,,))</v>
       </c>
       <c r="D182" s="18" t="str">
-        <f>A462</f>
+        <f>A464</f>
         <v>CHECKHIT</v>
       </c>
       <c r="E182" t="s">
@@ -6082,7 +6094,7 @@
         <v>IF PLAYER=1 AND HIT=1 THEN CALL QUEUEADD(Q(),QLEN,(LOC),ERRVAL)</v>
       </c>
       <c r="D183" s="18" t="str">
-        <f>A526</f>
+        <f>A538</f>
         <v>QUEUEADD</v>
       </c>
       <c r="E183" t="s">
@@ -6235,7 +6247,7 @@
         <v>CALL QUEUEDEL(Q(),QLEN,(SUNKLOC),ERRVAL)</v>
       </c>
       <c r="D195" s="18" t="str">
-        <f>A531</f>
+        <f>A543</f>
         <v>QUEUEDEL</v>
       </c>
       <c r="E195" t="s">
@@ -6418,7 +6430,7 @@
         <v>CALL CHECKVALIDSHOT(ERRVAL,(ROW),(COL),1,SHOTS(,,))</v>
       </c>
       <c r="D209" s="18" t="str">
-        <f>A456</f>
+        <f>A458</f>
         <v>CHECKVALIDSHOT</v>
       </c>
       <c r="E209" t="s">
@@ -6880,7 +6892,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D249" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E249" t="s">
@@ -6897,7 +6909,7 @@
         <v>CALL GETFILLCHAR(FILLCHAR)</v>
       </c>
       <c r="D250" s="18" t="str">
-        <f>A548</f>
+        <f>A560</f>
         <v>GETFILLCHAR</v>
       </c>
       <c r="E250" t="s">
@@ -6978,7 +6990,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D257" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E257" t="s">
@@ -6995,7 +7007,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D258" s="18" t="str">
-        <f>A544</f>
+        <f>A556</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E258" t="s">
@@ -7096,7 +7108,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D267" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E267" t="s">
@@ -7113,7 +7125,7 @@
         <v>CALL GETTENCHAR(TENCHAR)</v>
       </c>
       <c r="D268" s="18" t="str">
-        <f>A560</f>
+        <f>A572</f>
         <v>GETTENCHAR</v>
       </c>
       <c r="E268" t="s">
@@ -7254,7 +7266,7 @@
         <v>CALL GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D281" s="18" t="str">
-        <f>A590</f>
+        <f>A602</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E281" t="s">
@@ -7271,7 +7283,7 @@
         <v>CALL GETHOLECHAR(HOLECHAR)</v>
       </c>
       <c r="D282" s="18" t="str">
-        <f>A544</f>
+        <f>A556</f>
         <v>GETHOLECHAR</v>
       </c>
       <c r="E282" t="s">
@@ -7355,7 +7367,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D289" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E289" t="s">
@@ -7372,7 +7384,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D290" s="18" t="str">
-        <f>A556</f>
+        <f>A568</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E290" t="s">
@@ -7389,7 +7401,7 @@
         <v>CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D291" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="E291" t="s">
@@ -7483,7 +7495,7 @@
         <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D299" s="18" t="str">
-        <f>A572</f>
+        <f>A584</f>
         <v>GETNUMSHIPS</v>
       </c>
       <c r="E299" t="s">
@@ -7500,7 +7512,7 @@
         <v>CALL GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D300" s="18" t="str">
-        <f>A590</f>
+        <f>A602</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E300" t="s">
@@ -7517,7 +7529,7 @@
         <v>CALL GETSHIPCHAR(SHIPCHAR)</v>
       </c>
       <c r="D301" s="18" t="str">
-        <f>A556</f>
+        <f>A568</f>
         <v>GETSHIPCHAR</v>
       </c>
       <c r="E301" t="s">
@@ -7544,7 +7556,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
       </c>
       <c r="D303" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E303" t="s">
@@ -7648,7 +7660,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D312" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E312" t="s">
@@ -7712,7 +7724,7 @@
         <v>IF HIT=1 THEN CALL GETHITCHAR(CHARVAL) ELSE CALL GETMISSCHAR(CHARVAL)</v>
       </c>
       <c r="D317" s="18" t="str">
-        <f>A552</f>
+        <f>A564</f>
         <v>GETHITCHAR</v>
       </c>
       <c r="E317" s="18" t="s">
@@ -7732,11 +7744,11 @@
         <v>IF PLAYER=1 THEN CALL GETAUXORIG(ROW,COL) ELSE CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D318" s="18" t="str">
-        <f>A590</f>
+        <f>A602</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E318" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="F318" t="s">
@@ -7834,7 +7846,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(SHIP))</v>
       </c>
       <c r="D326" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E326" t="s">
@@ -7851,11 +7863,11 @@
         <v>IF PLAYER=0 THEN CALL GETAUXORIG(ROW,COL) ELSE CALL GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D327" s="18" t="str">
-        <f>A590</f>
+        <f>A602</f>
         <v>GETAUXORIG</v>
       </c>
       <c r="E327" s="18" t="str">
-        <f>A586</f>
+        <f>A598</f>
         <v>GETBOARDORIG</v>
       </c>
       <c r="F327" t="s">
@@ -7872,7 +7884,7 @@
         <v>CALL GETSUNKCHAR(SUNKCHAR)</v>
       </c>
       <c r="D328" s="18" t="str">
-        <f>A568</f>
+        <f>A580</f>
         <v>GETSUNKCHAR</v>
       </c>
       <c r="E328" s="5" t="s">
@@ -7949,7 +7961,7 @@
         <v>CALL GETSHIPNAME(SHIPNAME$,(SHIP))</v>
       </c>
       <c r="D335" s="18" t="str">
-        <f>A581</f>
+        <f>A593</f>
         <v>GETSHIPNAME</v>
       </c>
       <c r="E335" t="s">
@@ -7966,7 +7978,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D336" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E336" t="s">
@@ -8091,7 +8103,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D346" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E346" t="s">
@@ -8155,7 +8167,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D351" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E351" t="s">
@@ -8344,7 +8356,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D364" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E364" t="s">
@@ -8429,7 +8441,7 @@
         <v>CALL GETSHIPNAME(SHIPNAME$,(CURRENTSHIP))</v>
       </c>
       <c r="D369" s="18" t="str">
-        <f>A581</f>
+        <f>A593</f>
         <v>GETSHIPNAME</v>
       </c>
       <c r="E369" t="s">
@@ -8480,7 +8492,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D372" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E372" t="s">
@@ -8578,7 +8590,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D380" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E380" t="s">
@@ -8714,7 +8726,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D389" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E389" t="s">
@@ -8881,7 +8893,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D400" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E400" t="s">
@@ -9240,7 +9252,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D427" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E427" t="s">
@@ -9257,7 +9269,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D428" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E428" t="s">
@@ -9368,7 +9380,7 @@
         <v>CALL GETMENUORIG(ROW,COL)</v>
       </c>
       <c r="D437" s="18" t="str">
-        <f>A594</f>
+        <f>A606</f>
         <v>GETMENUORIG</v>
       </c>
       <c r="E437" t="s">
@@ -9469,7 +9481,7 @@
         <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
       </c>
       <c r="D445" s="18" t="str">
-        <f>A576</f>
+        <f>A588</f>
         <v>GETSHIPLEN</v>
       </c>
       <c r="E445" t="s">
@@ -9483,14 +9495,14 @@
       </c>
       <c r="C446" s="18" t="str">
         <f>IF(ISBLANK(E446),_xlfn.CONCAT("CALL ",D446),_xlfn.CONCAT("CALL ",D446,"(",E446,")"))</f>
-        <v>CALL CHECKHORIZONTAL(HORIZONTAL,(CURRENTSHIP),SHIP())</v>
+        <v>CALL CHECKSTRAIGHT(ERRVAL,(CURRENTSHIP),SHIP())</v>
       </c>
       <c r="D446" s="18" t="str">
-        <f>A473</f>
-        <v>CHECKHORIZONTAL</v>
+        <f>A485</f>
+        <v>CHECKSTRAIGHT</v>
       </c>
       <c r="E446" t="s">
-        <v>817</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -9498,28 +9510,39 @@
       <c r="B447">
         <v>4550</v>
       </c>
-      <c r="C447" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D447" s="18"/>
+      <c r="C447" t="str">
+        <f>_xlfn.CONCAT("IF ERRVAL=1 THEN ",INDEX(B:B,MATCH(D447,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF ERRVAL=1 THEN 4650 :: REM SUBEND</v>
+      </c>
+      <c r="D447" s="20" t="str">
+        <f>A457</f>
+        <v>CHECKVALIDSHIP.SUBEND</v>
+      </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="18"/>
       <c r="B448">
         <v>4560</v>
       </c>
-      <c r="C448" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D448" s="18"/>
+      <c r="C448" s="18" t="str">
+        <f>IF(ISBLANK(E448),_xlfn.CONCAT("CALL ",D448),_xlfn.CONCAT("CALL ",D448,"(",E448,")"))</f>
+        <v>CALL CHECKHORIZONTAL(HORIZONTAL,(CURRENTSHIP),SHIP())</v>
+      </c>
+      <c r="D448" s="18" t="str">
+        <f>A475</f>
+        <v>CHECKHORIZONTAL</v>
+      </c>
+      <c r="E448" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="18"/>
       <c r="B449">
         <v>4570</v>
       </c>
-      <c r="C449" s="5" t="s">
-        <v>1040</v>
+      <c r="C449" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="D449" s="18"/>
     </row>
@@ -9529,7 +9552,7 @@
         <v>4580</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
       <c r="D450" s="18"/>
     </row>
@@ -9539,7 +9562,7 @@
         <v>4590</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>1</v>
+        <v>1040</v>
       </c>
       <c r="D451" s="18"/>
     </row>
@@ -9548,31 +9571,20 @@
       <c r="B452">
         <v>4600</v>
       </c>
-      <c r="C452" s="18" t="str">
-        <f>IF(ISBLANK(E452),_xlfn.CONCAT("CALL ",D452),_xlfn.CONCAT("CALL ",D452,"(",E452,")"))</f>
-        <v>CALL CHECKSEQUENTIAL(ERRVAL,(CURRENTSHIP),SEQUENCE())</v>
-      </c>
-      <c r="D452" s="18" t="str">
-        <f>A483</f>
-        <v>CHECKSEQUENTIAL</v>
-      </c>
-      <c r="E452" t="s">
-        <v>1034</v>
-      </c>
+      <c r="C452" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="D452" s="18"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="18"/>
       <c r="B453">
         <v>4610</v>
       </c>
-      <c r="C453" t="str">
-        <f>_xlfn.CONCAT("IF ERRVAL=1 THEN ",INDEX(B:B,MATCH(D453,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF ERRVAL=1 THEN 4630 :: REM SUBEND</v>
-      </c>
-      <c r="D453" s="20" t="str">
-        <f>A455</f>
-        <v>CHECKVALIDSHIP.SUBEND</v>
-      </c>
+      <c r="C453" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D453" s="18"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="18"/>
@@ -9581,63 +9593,70 @@
       </c>
       <c r="C454" s="18" t="str">
         <f>IF(ISBLANK(E454),_xlfn.CONCAT("CALL ",D454),_xlfn.CONCAT("CALL ",D454,"(",E454,")"))</f>
+        <v>CALL CHECKSEQUENTIAL(ERRVAL,(CURRENTSHIP),SEQUENCE())</v>
+      </c>
+      <c r="D454" s="18" t="str">
+        <f>A495</f>
+        <v>CHECKSEQUENTIAL</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="18"/>
+      <c r="B455">
+        <v>4630</v>
+      </c>
+      <c r="C455" t="str">
+        <f>_xlfn.CONCAT("IF ERRVAL=1 THEN ",INDEX(B:B,MATCH(D455,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF ERRVAL=1 THEN 4650 :: REM SUBEND</v>
+      </c>
+      <c r="D455" s="20" t="str">
+        <f>A457</f>
+        <v>CHECKVALIDSHIP.SUBEND</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="18"/>
+      <c r="B456">
+        <v>4640</v>
+      </c>
+      <c r="C456" s="18" t="str">
+        <f>IF(ISBLANK(E456),_xlfn.CONCAT("CALL ",D456),_xlfn.CONCAT("CALL ",D456,"(",E456,")"))</f>
         <v>CALL CHECKOVERLAP(ERRVAL,(PLAYER),(CURRENTSHIP),SHIP(),SHIPS(,,))</v>
       </c>
-      <c r="D454" s="18" t="str">
-        <f>A501</f>
+      <c r="D456" s="18" t="str">
+        <f>A513</f>
         <v>CHECKOVERLAP</v>
       </c>
-      <c r="E454" t="s">
+      <c r="E456" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A455" s="20" t="str">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="20" t="str">
         <f>_xlfn.CONCAT(A441,".SUBEND")</f>
         <v>CHECKVALIDSHIP.SUBEND</v>
       </c>
-      <c r="B455">
-        <v>4630</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D455" s="18"/>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A456" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="B456">
-        <v>4640</v>
-      </c>
-      <c r="C456" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A456,"***")</f>
-        <v>REM SUBROUTINE ***CHECKVALIDSHOT***</v>
-      </c>
-      <c r="D456" s="18"/>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A457" s="18"/>
       <c r="B457">
         <v>4650</v>
       </c>
-      <c r="C457" t="str">
-        <f>IF(ISBLANK(E457),_xlfn.CONCAT("SUB ",A456),_xlfn.CONCAT("SUB ",A456,"(",E457,")"))</f>
-        <v>SUB CHECKVALIDSHOT(ERRVAL,ROW,COL,PLAYER,SHOTS(,,))</v>
+      <c r="C457" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D457" s="18"/>
-      <c r="E457" t="s">
-        <v>1030</v>
-      </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A458" s="18"/>
+      <c r="A458" s="18" t="s">
+        <v>856</v>
+      </c>
       <c r="B458">
         <v>4660</v>
       </c>
-      <c r="C458" t="s">
-        <v>1031</v>
+      <c r="C458" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A458,"***")</f>
+        <v>REM SUBROUTINE ***CHECKVALIDSHOT***</v>
       </c>
       <c r="D458" s="18"/>
     </row>
@@ -9647,12 +9666,12 @@
         <v>4670</v>
       </c>
       <c r="C459" t="str">
-        <f>_xlfn.CONCAT("IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRVAL=1 :: GOTO  ",INDEX(B:B,MATCH(D459,A:A,0),0)," :: REM GOTO SUBEND")</f>
-        <v>IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRVAL=1 :: GOTO  4690 :: REM GOTO SUBEND</v>
-      </c>
-      <c r="D459" s="20" t="str">
-        <f>A461</f>
-        <v>CHECKVALIDSHOT.SUBEND</v>
+        <f>IF(ISBLANK(E459),_xlfn.CONCAT("SUB ",A458),_xlfn.CONCAT("SUB ",A458,"(",E459,")"))</f>
+        <v>SUB CHECKVALIDSHOT(ERRVAL,ROW,COL,PLAYER,SHOTS(,,))</v>
+      </c>
+      <c r="D459" s="18"/>
+      <c r="E459" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -9660,58 +9679,58 @@
       <c r="B460">
         <v>4680</v>
       </c>
-      <c r="C460" s="5" t="s">
-        <v>1032</v>
+      <c r="C460" t="s">
+        <v>1031</v>
       </c>
       <c r="D460" s="18"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A461" s="20" t="str">
-        <f>_xlfn.CONCAT(A456,".SUBEND")</f>
-        <v>CHECKVALIDSHOT.SUBEND</v>
-      </c>
+      <c r="A461" s="18"/>
       <c r="B461">
         <v>4690</v>
       </c>
-      <c r="C461" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D461" s="18"/>
+      <c r="C461" t="str">
+        <f>_xlfn.CONCAT("IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRVAL=1 :: GOTO  ",INDEX(B:B,MATCH(D461,A:A,0),0)," :: REM GOTO SUBEND")</f>
+        <v>IF ROW&lt;1 OR ROW&gt;10 OR COL&lt;1 OR COL&gt;10 THEN ERRVAL=1 :: GOTO  4710 :: REM GOTO SUBEND</v>
+      </c>
+      <c r="D461" s="20" t="str">
+        <f>A463</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A462" s="18" t="s">
-        <v>772</v>
-      </c>
+      <c r="A462" s="18"/>
       <c r="B462">
         <v>4700</v>
       </c>
-      <c r="C462" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A462,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHIT***</v>
+      <c r="C462" s="5" t="s">
+        <v>1032</v>
       </c>
       <c r="D462" s="18"/>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A463" s="18"/>
+      <c r="A463" s="20" t="str">
+        <f>_xlfn.CONCAT(A458,".SUBEND")</f>
+        <v>CHECKVALIDSHOT.SUBEND</v>
+      </c>
       <c r="B463">
         <v>4710</v>
       </c>
-      <c r="C463" t="str">
-        <f>IF(ISBLANK(E463),_xlfn.CONCAT("SUB ",A462),_xlfn.CONCAT("SUB ",A462,"(",E463,")"))</f>
-        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
+      <c r="C463" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D463" s="18"/>
-      <c r="E463" t="s">
-        <v>778</v>
-      </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A464" s="18"/>
+      <c r="A464" s="18" t="s">
+        <v>772</v>
+      </c>
       <c r="B464">
         <v>4720</v>
       </c>
-      <c r="C464" t="s">
-        <v>771</v>
+      <c r="C464" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A464,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHIT***</v>
       </c>
       <c r="D464" s="18"/>
     </row>
@@ -9720,16 +9739,13 @@
       <c r="B465">
         <v>4730</v>
       </c>
-      <c r="C465" s="18" t="str">
-        <f t="shared" ref="C465:C467" si="7">IF(ISBLANK(E465),_xlfn.CONCAT("CALL ",D465),_xlfn.CONCAT("CALL ",D465,"(",E465,")"))</f>
-        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
-      </c>
-      <c r="D465" s="18" t="str">
-        <f>A572</f>
-        <v>GETNUMSHIPS</v>
-      </c>
+      <c r="C465" t="str">
+        <f>IF(ISBLANK(E465),_xlfn.CONCAT("SUB ",A464),_xlfn.CONCAT("SUB ",A464,"(",E465,")"))</f>
+        <v>SUB CHECKHIT(HIT,SHIP,LOC,PLAYER,SHIPS(,,))</v>
+      </c>
+      <c r="D465" s="18"/>
       <c r="E465" t="s">
-        <v>706</v>
+        <v>778</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -9737,8 +9753,8 @@
       <c r="B466">
         <v>4740</v>
       </c>
-      <c r="C466" s="5" t="s">
-        <v>575</v>
+      <c r="C466" t="s">
+        <v>771</v>
       </c>
       <c r="D466" s="18"/>
     </row>
@@ -9748,15 +9764,15 @@
         <v>4750</v>
       </c>
       <c r="C467" s="18" t="str">
-        <f t="shared" si="7"/>
-        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+        <f t="shared" ref="C467:C469" si="7">IF(ISBLANK(E467),_xlfn.CONCAT("CALL ",D467),_xlfn.CONCAT("CALL ",D467,"(",E467,")"))</f>
+        <v>CALL GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D467" s="18" t="str">
-        <f>A576</f>
-        <v>GETSHIPLEN</v>
+        <f>A584</f>
+        <v>GETNUMSHIPS</v>
       </c>
       <c r="E467" t="s">
-        <v>790</v>
+        <v>706</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -9764,8 +9780,8 @@
       <c r="B468">
         <v>4760</v>
       </c>
-      <c r="C468" t="s">
-        <v>724</v>
+      <c r="C468" s="5" t="s">
+        <v>575</v>
       </c>
       <c r="D468" s="18"/>
     </row>
@@ -9774,13 +9790,16 @@
       <c r="B469">
         <v>4770</v>
       </c>
-      <c r="C469" s="5" t="str">
-        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D469,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 4800 :: REM SUBEND</v>
-      </c>
-      <c r="D469" s="20" t="str">
-        <f>A472</f>
-        <v>CHECKHIT.SUBEND</v>
+      <c r="C469" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+      </c>
+      <c r="D469" s="18" t="str">
+        <f>A588</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E469" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -9788,8 +9807,8 @@
       <c r="B470">
         <v>4780</v>
       </c>
-      <c r="C470" s="5" t="s">
-        <v>14</v>
+      <c r="C470" t="s">
+        <v>724</v>
       </c>
       <c r="D470" s="18"/>
     </row>
@@ -9798,58 +9817,58 @@
       <c r="B471">
         <v>4790</v>
       </c>
-      <c r="C471" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D471" s="18"/>
+      <c r="C471" s="5" t="str">
+        <f>_xlfn.CONCAT("IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO ",INDEX(B:B,MATCH(D471,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF SHIPS(PLAYER,I,J)=LOC THEN HIT=1 :: SHIP=I :: GOTO 4820 :: REM SUBEND</v>
+      </c>
+      <c r="D471" s="20" t="str">
+        <f>A474</f>
+        <v>CHECKHIT.SUBEND</v>
+      </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="20" t="str">
-        <f>_xlfn.CONCAT(A462,".SUBEND")</f>
-        <v>CHECKHIT.SUBEND</v>
-      </c>
+      <c r="A472" s="18"/>
       <c r="B472">
         <v>4800</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>555</v>
+        <v>14</v>
       </c>
       <c r="D472" s="18"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="18" t="s">
-        <v>563</v>
-      </c>
+      <c r="A473" s="18"/>
       <c r="B473">
         <v>4810</v>
       </c>
-      <c r="C473" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A473,"***")</f>
-        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
+      <c r="C473" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D473" s="18"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="18"/>
+      <c r="A474" s="20" t="str">
+        <f>_xlfn.CONCAT(A464,".SUBEND")</f>
+        <v>CHECKHIT.SUBEND</v>
+      </c>
       <c r="B474">
         <v>4820</v>
       </c>
-      <c r="C474" t="str">
-        <f>IF(ISBLANK(E474),_xlfn.CONCAT("SUB ",A473),_xlfn.CONCAT("SUB ",A473,"(",E474,")"))</f>
-        <v>SUB CHECKHORIZONTAL(HORIZONTAL,CURRENTSHIP,SHIP())</v>
+      <c r="C474" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D474" s="18"/>
-      <c r="E474" t="s">
-        <v>723</v>
-      </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="18"/>
+      <c r="A475" s="18" t="s">
+        <v>563</v>
+      </c>
       <c r="B475">
         <v>4830</v>
       </c>
-      <c r="C475" t="s">
-        <v>564</v>
+      <c r="C475" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A475,"***")</f>
+        <v>REM SUBROUTINE ***CHECKHORIZONTAL***</v>
       </c>
       <c r="D475" s="18"/>
     </row>
@@ -9858,16 +9877,13 @@
       <c r="B476">
         <v>4840</v>
       </c>
-      <c r="C476" s="18" t="str">
-        <f>IF(ISBLANK(E476),_xlfn.CONCAT("CALL ",D476),_xlfn.CONCAT("CALL ",D476,"(",E476,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D476" s="18" t="str">
-        <f>A576</f>
-        <v>GETSHIPLEN</v>
-      </c>
+      <c r="C476" t="str">
+        <f>IF(ISBLANK(E476),_xlfn.CONCAT("SUB ",A475),_xlfn.CONCAT("SUB ",A475,"(",E476,")"))</f>
+        <v>SUB CHECKHORIZONTAL(HORIZONTAL,CURRENTSHIP,SHIP())</v>
+      </c>
+      <c r="D476" s="18"/>
       <c r="E476" t="s">
-        <v>807</v>
+        <v>723</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -9876,7 +9892,7 @@
         <v>4850</v>
       </c>
       <c r="C477" t="s">
-        <v>722</v>
+        <v>564</v>
       </c>
       <c r="D477" s="18"/>
     </row>
@@ -9885,32 +9901,35 @@
       <c r="B478">
         <v>4860</v>
       </c>
-      <c r="C478" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="D478" s="18"/>
+      <c r="C478" s="18" t="str">
+        <f>IF(ISBLANK(E478),_xlfn.CONCAT("CALL ",D478),_xlfn.CONCAT("CALL ",D478,"(",E478,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D478" s="18" t="str">
+        <f>A588</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E478" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="18"/>
       <c r="B479">
         <v>4870</v>
       </c>
-      <c r="C479" t="str">
-        <f>_xlfn.CONCAT("IF PREV&lt;&gt;CURR THEN ",INDEX(B:B,MATCH(D479,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF PREV&lt;&gt;CURR THEN 4900 :: REM SUBEND</v>
-      </c>
-      <c r="D479" s="20" t="str">
-        <f>A482</f>
-        <v>CHECKHORIZONTAL.SUBEND</v>
-      </c>
+      <c r="C479" t="s">
+        <v>722</v>
+      </c>
+      <c r="D479" s="18"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="18"/>
       <c r="B480">
         <v>4880</v>
       </c>
-      <c r="C480" t="s">
-        <v>1</v>
+      <c r="C480" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="D480" s="18"/>
     </row>
@@ -9919,165 +9938,179 @@
       <c r="B481">
         <v>4890</v>
       </c>
-      <c r="C481" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D481" s="18"/>
+      <c r="C481" t="str">
+        <f>_xlfn.CONCAT("IF PREV&lt;&gt;CURR THEN ",INDEX(B:B,MATCH(D481,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF PREV&lt;&gt;CURR THEN 4920 :: REM SUBEND</v>
+      </c>
+      <c r="D481" s="20" t="str">
+        <f>A484</f>
+        <v>CHECKHORIZONTAL.SUBEND</v>
+      </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A482" s="20" t="str">
-        <f>_xlfn.CONCAT(A473,".SUBEND")</f>
-        <v>CHECKHORIZONTAL.SUBEND</v>
-      </c>
+      <c r="A482" s="18"/>
       <c r="B482">
         <v>4900</v>
       </c>
-      <c r="C482" s="5" t="s">
-        <v>555</v>
+      <c r="C482" t="s">
+        <v>1</v>
       </c>
       <c r="D482" s="18"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A483" s="18" t="s">
-        <v>857</v>
-      </c>
+      <c r="A483" s="18"/>
       <c r="B483">
         <v>4910</v>
       </c>
-      <c r="C483" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A483,"***")</f>
-        <v>REM SUBROUTINE ***CHECKSEQUENTIAL***</v>
+      <c r="C483" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="D483" s="18"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="18"/>
+      <c r="A484" s="20" t="str">
+        <f>_xlfn.CONCAT(A475,".SUBEND")</f>
+        <v>CHECKHORIZONTAL.SUBEND</v>
+      </c>
       <c r="B484">
         <v>4920</v>
       </c>
-      <c r="C484" t="str">
-        <f>IF(ISBLANK(E484),_xlfn.CONCAT("SUB ",A483),_xlfn.CONCAT("SUB ",A483,"(",E484,")"))</f>
-        <v>SUB CHECKSEQUENTIAL(ERRVAL,CURRENTSHIP,SEQUENCE())</v>
+      <c r="C484" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D484" s="18"/>
-      <c r="E484" t="s">
-        <v>1036</v>
-      </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A485" s="18"/>
+      <c r="A485" s="18" t="s">
+        <v>1050</v>
+      </c>
       <c r="B485">
         <v>4930</v>
       </c>
-      <c r="C485" t="s">
-        <v>1031</v>
+      <c r="C485" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A485,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSTRAIGHT***</v>
       </c>
       <c r="D485" s="18"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A486" s="18"/>
+      <c r="A486" s="20"/>
       <c r="B486">
         <v>4940</v>
       </c>
-      <c r="C486" s="18" t="str">
-        <f>IF(ISBLANK(E486),_xlfn.CONCAT("CALL ",D486),_xlfn.CONCAT("CALL ",D486,"(",E486,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D486" s="18" t="str">
-        <f>A576</f>
-        <v>GETSHIPLEN</v>
-      </c>
+      <c r="C486" t="str">
+        <f>IF(ISBLANK(E486),_xlfn.CONCAT("SUB ",A485),_xlfn.CONCAT("SUB ",A485,"(",E486,")"))</f>
+        <v>SUB CHECKSTRAIGHT(ERRVAL,CURRENTSHIP,SHIP())</v>
+      </c>
+      <c r="D486" s="18"/>
       <c r="E486" t="s">
-        <v>807</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A487" s="18"/>
+      <c r="A487" s="20"/>
       <c r="B487">
         <v>4950</v>
       </c>
       <c r="C487" t="s">
-        <v>694</v>
+        <v>1031</v>
       </c>
       <c r="D487" s="18"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A488" s="18"/>
+      <c r="A488" s="20"/>
       <c r="B488">
         <v>4960</v>
       </c>
-      <c r="C488" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="D488" s="18"/>
+      <c r="C488" s="18" t="str">
+        <f>IF(ISBLANK(E488),_xlfn.CONCAT("CALL ",D488),_xlfn.CONCAT("CALL ",D488,"(",E488,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D488" s="18" t="str">
+        <f>A588</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E488" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="18"/>
+      <c r="A489" s="20"/>
       <c r="B489">
         <v>4970</v>
       </c>
-      <c r="C489" s="5" t="s">
-        <v>697</v>
+      <c r="C489" t="s">
+        <v>722</v>
       </c>
       <c r="D489" s="18"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="18"/>
+      <c r="A490" s="20"/>
       <c r="B490">
         <v>4980</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>1</v>
+        <v>1040</v>
       </c>
       <c r="D490" s="18"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A491" s="18"/>
+      <c r="A491" s="20"/>
       <c r="B491">
         <v>4990</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>561</v>
+        <v>1051</v>
       </c>
       <c r="D491" s="18"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="18"/>
+      <c r="A492" s="20"/>
       <c r="B492">
         <v>5000</v>
       </c>
-      <c r="C492" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="D492" s="18"/>
+      <c r="C492" t="str">
+        <f>_xlfn.CONCAT("IF (ROW&lt;&gt;PROW) AND (COL&lt;&gt;PCOL) THEN ERRVAL=1 :: GOTO ",INDEX(B:B,MATCH(D492,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF (ROW&lt;&gt;PROW) AND (COL&lt;&gt;PCOL) THEN ERRVAL=1 :: GOTO 5020 :: REM SUBEND</v>
+      </c>
+      <c r="D492" s="20" t="str">
+        <f>A494</f>
+        <v>CHECKSTRAIGHT.SUBEND</v>
+      </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="18"/>
+      <c r="A493" s="20"/>
       <c r="B493">
         <v>5010</v>
       </c>
-      <c r="C493" s="5" t="s">
-        <v>562</v>
+      <c r="C493" t="s">
+        <v>1</v>
       </c>
       <c r="D493" s="18"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="18"/>
+      <c r="A494" s="20" t="str">
+        <f>_xlfn.CONCAT(A485,".SUBEND")</f>
+        <v>CHECKSTRAIGHT.SUBEND</v>
+      </c>
       <c r="B494">
         <v>5020</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>1</v>
+        <v>555</v>
       </c>
       <c r="D494" s="18"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="18"/>
+      <c r="A495" s="18" t="s">
+        <v>857</v>
+      </c>
       <c r="B495">
         <v>5030</v>
       </c>
-      <c r="C495" s="5" t="s">
-        <v>695</v>
+      <c r="C495" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A495,"***")</f>
+        <v>REM SUBROUTINE ***CHECKSEQUENTIAL***</v>
       </c>
       <c r="D495" s="18"/>
     </row>
@@ -10086,18 +10119,22 @@
       <c r="B496">
         <v>5040</v>
       </c>
-      <c r="C496" s="5" t="s">
-        <v>722</v>
+      <c r="C496" t="str">
+        <f>IF(ISBLANK(E496),_xlfn.CONCAT("SUB ",A495),_xlfn.CONCAT("SUB ",A495,"(",E496,")"))</f>
+        <v>SUB CHECKSEQUENTIAL(ERRVAL,CURRENTSHIP,SEQUENCE())</v>
       </c>
       <c r="D496" s="18"/>
+      <c r="E496" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="18"/>
       <c r="B497">
         <v>5050</v>
       </c>
-      <c r="C497" s="5" t="s">
-        <v>696</v>
+      <c r="C497" t="s">
+        <v>1031</v>
       </c>
       <c r="D497" s="18"/>
     </row>
@@ -10106,18 +10143,25 @@
       <c r="B498">
         <v>5060</v>
       </c>
-      <c r="C498" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D498" s="18"/>
+      <c r="C498" s="18" t="str">
+        <f>IF(ISBLANK(E498),_xlfn.CONCAT("CALL ",D498),_xlfn.CONCAT("CALL ",D498,"(",E498,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D498" s="18" t="str">
+        <f>A588</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E498" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="18"/>
       <c r="B499">
         <v>5070</v>
       </c>
-      <c r="C499" s="5" t="s">
-        <v>1037</v>
+      <c r="C499" t="s">
+        <v>694</v>
       </c>
       <c r="D499" s="18"/>
     </row>
@@ -10127,20 +10171,17 @@
         <v>5080</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>555</v>
+        <v>722</v>
       </c>
       <c r="D500" s="18"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="18" t="s">
-        <v>566</v>
-      </c>
+      <c r="A501" s="18"/>
       <c r="B501">
         <v>5090</v>
       </c>
-      <c r="C501" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A501,"***")</f>
-        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
+      <c r="C501" s="5" t="s">
+        <v>697</v>
       </c>
       <c r="D501" s="18"/>
     </row>
@@ -10149,14 +10190,10 @@
       <c r="B502">
         <v>5100</v>
       </c>
-      <c r="C502" t="str">
-        <f>IF(ISBLANK(E502),_xlfn.CONCAT("SUB ",A501),_xlfn.CONCAT("SUB ",A501,"(",E502,")"))</f>
-        <v>SUB CHECKOVERLAP(ERRVAL,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
+      <c r="C502" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D502" s="18"/>
-      <c r="E502" t="s">
-        <v>1033</v>
-      </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="18"/>
@@ -10164,7 +10201,7 @@
         <v>5110</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>1031</v>
+        <v>561</v>
       </c>
       <c r="D503" s="18"/>
     </row>
@@ -10173,25 +10210,18 @@
       <c r="B504">
         <v>5120</v>
       </c>
-      <c r="C504" s="18" t="str">
-        <f>IF(ISBLANK(E504),_xlfn.CONCAT("CALL ",D504),_xlfn.CONCAT("CALL ",D504,"(",E504,")"))</f>
-        <v>CALL GETSHIPLEN(CURRENTSHIPLEN,(CURRENTSHIP))</v>
-      </c>
-      <c r="D504" s="18" t="str">
-        <f>A576</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E504" t="s">
-        <v>824</v>
-      </c>
+      <c r="C504" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="D504" s="18"/>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="18"/>
       <c r="B505">
         <v>5130</v>
       </c>
-      <c r="C505" t="s">
-        <v>567</v>
+      <c r="C505" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="D505" s="18"/>
     </row>
@@ -10200,25 +10230,18 @@
       <c r="B506">
         <v>5140</v>
       </c>
-      <c r="C506" s="18" t="str">
-        <f>IF(ISBLANK(E506),_xlfn.CONCAT("CALL ",D506),_xlfn.CONCAT("CALL ",D506,"(",E506,")"))</f>
-        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
-      </c>
-      <c r="D506" s="18" t="str">
-        <f>A576</f>
-        <v>GETSHIPLEN</v>
-      </c>
-      <c r="E506" t="s">
-        <v>790</v>
-      </c>
+      <c r="C506" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D506" s="18"/>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="18"/>
       <c r="B507">
         <v>5150</v>
       </c>
-      <c r="C507" t="s">
-        <v>724</v>
+      <c r="C507" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="D507" s="18"/>
     </row>
@@ -10227,8 +10250,8 @@
       <c r="B508">
         <v>5160</v>
       </c>
-      <c r="C508" t="s">
-        <v>680</v>
+      <c r="C508" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="D508" s="18"/>
     </row>
@@ -10237,8 +10260,8 @@
       <c r="B509">
         <v>5170</v>
       </c>
-      <c r="C509" t="s">
-        <v>725</v>
+      <c r="C509" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="D509" s="18"/>
     </row>
@@ -10247,8 +10270,8 @@
       <c r="B510">
         <v>5180</v>
       </c>
-      <c r="C510" t="s">
-        <v>684</v>
+      <c r="C510" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D510" s="18"/>
     </row>
@@ -10257,32 +10280,31 @@
       <c r="B511">
         <v>5190</v>
       </c>
-      <c r="C511" s="5" t="str">
-        <f>_xlfn.CONCAT("IF LOC=STOREDLOC THEN ERRVAL=1 :: GOTO ",INDEX(B:B,MATCH(D511,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF LOC=STOREDLOC THEN ERRVAL=1 :: GOTO 5230 :: REM SUBEND</v>
-      </c>
-      <c r="D511" s="20" t="str">
-        <f>A515</f>
-        <v>CHECKOVERLAP.SUBEND</v>
-      </c>
+      <c r="C511" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D511" s="18"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="18"/>
       <c r="B512">
         <v>5200</v>
       </c>
-      <c r="C512" t="s">
-        <v>84</v>
+      <c r="C512" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D512" s="18"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A513" s="18"/>
+      <c r="A513" s="18" t="s">
+        <v>566</v>
+      </c>
       <c r="B513">
         <v>5210</v>
       </c>
-      <c r="C513" t="s">
-        <v>14</v>
+      <c r="C513" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A513,"***")</f>
+        <v>REM SUBROUTINE ***CHECKOVERLAP***</v>
       </c>
       <c r="D513" s="18"/>
     </row>
@@ -10291,60 +10313,68 @@
       <c r="B514">
         <v>5220</v>
       </c>
-      <c r="C514" t="s">
-        <v>1</v>
+      <c r="C514" t="str">
+        <f>IF(ISBLANK(E514),_xlfn.CONCAT("SUB ",A513),_xlfn.CONCAT("SUB ",A513,"(",E514,")"))</f>
+        <v>SUB CHECKOVERLAP(ERRVAL,PLAYER,CURRENTSHIP,SHIP(),SHIPS(,,))</v>
       </c>
       <c r="D514" s="18"/>
+      <c r="E514" t="s">
+        <v>1033</v>
+      </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A515" s="20" t="str">
-        <f>_xlfn.CONCAT(A501,".SUBEND")</f>
-        <v>CHECKOVERLAP.SUBEND</v>
-      </c>
+      <c r="A515" s="18"/>
       <c r="B515">
         <v>5230</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>555</v>
+        <v>1031</v>
       </c>
       <c r="D515" s="18"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A516" s="18" t="s">
-        <v>954</v>
-      </c>
+      <c r="A516" s="18"/>
       <c r="B516">
         <v>5240</v>
       </c>
-      <c r="C516" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A516,"***")</f>
-        <v>REM SUBROUTINE ***QUEUESIZE***</v>
-      </c>
-      <c r="D516" s="18"/>
+      <c r="C516" s="18" t="str">
+        <f>IF(ISBLANK(E516),_xlfn.CONCAT("CALL ",D516),_xlfn.CONCAT("CALL ",D516,"(",E516,")"))</f>
+        <v>CALL GETSHIPLEN(CURRENTSHIPLEN,(CURRENTSHIP))</v>
+      </c>
+      <c r="D516" s="18" t="str">
+        <f>A588</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E516" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="18"/>
       <c r="B517">
         <v>5250</v>
       </c>
-      <c r="C517" t="str">
-        <f>IF(ISBLANK(E517),_xlfn.CONCAT("SUB ",A516),_xlfn.CONCAT("SUB ",A516,"(",E517,")"))</f>
-        <v>SUB QUEUESIZE(QSIZE)</v>
+      <c r="C517" t="s">
+        <v>567</v>
       </c>
       <c r="D517" s="18"/>
-      <c r="E517" t="s">
-        <v>955</v>
-      </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="18"/>
       <c r="B518">
         <v>5260</v>
       </c>
-      <c r="C518" t="s">
-        <v>956</v>
-      </c>
-      <c r="D518" s="18"/>
+      <c r="C518" s="18" t="str">
+        <f>IF(ISBLANK(E518),_xlfn.CONCAT("CALL ",D518),_xlfn.CONCAT("CALL ",D518,"(",E518,")"))</f>
+        <v>CALL GETSHIPLEN(SHIPLEN,(I))</v>
+      </c>
+      <c r="D518" s="18" t="str">
+        <f>A588</f>
+        <v>GETSHIPLEN</v>
+      </c>
+      <c r="E518" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="18"/>
@@ -10352,20 +10382,17 @@
         <v>5270</v>
       </c>
       <c r="C519" t="s">
-        <v>555</v>
+        <v>724</v>
       </c>
       <c r="D519" s="18"/>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A520" s="18" t="s">
-        <v>953</v>
-      </c>
+      <c r="A520" s="18"/>
       <c r="B520">
         <v>5280</v>
       </c>
-      <c r="C520" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A520,"***")</f>
-        <v>REM SUBROUTINE ***QUEUEINIT***</v>
+      <c r="C520" t="s">
+        <v>680</v>
       </c>
       <c r="D520" s="18"/>
     </row>
@@ -10374,41 +10401,34 @@
       <c r="B521">
         <v>5290</v>
       </c>
-      <c r="C521" t="str">
-        <f>IF(ISBLANK(E521),_xlfn.CONCAT("SUB ",A520),_xlfn.CONCAT("SUB ",A520,"(",E521,")"))</f>
-        <v>SUB QUEUEINIT(Q(),QLEN)</v>
+      <c r="C521" t="s">
+        <v>725</v>
       </c>
       <c r="D521" s="18"/>
-      <c r="E521" t="s">
-        <v>944</v>
-      </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="18"/>
       <c r="B522">
         <v>5300</v>
       </c>
-      <c r="C522" s="18" t="str">
-        <f>IF(ISBLANK(E522),_xlfn.CONCAT("CALL ",D522),_xlfn.CONCAT("CALL ",D522,"(",E522,")"))</f>
-        <v>CALL QUEUESIZE(QSIZE)</v>
-      </c>
-      <c r="D522" s="18" t="str">
-        <f>A516</f>
-        <v>QUEUESIZE</v>
-      </c>
-      <c r="E522" t="s">
-        <v>955</v>
-      </c>
+      <c r="C522" t="s">
+        <v>684</v>
+      </c>
+      <c r="D522" s="18"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="18"/>
       <c r="B523">
         <v>5310</v>
       </c>
-      <c r="C523" t="s">
-        <v>963</v>
-      </c>
-      <c r="D523" s="18"/>
+      <c r="C523" s="5" t="str">
+        <f>_xlfn.CONCAT("IF LOC=STOREDLOC THEN ERRVAL=1 :: GOTO ",INDEX(B:B,MATCH(D523,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF LOC=STOREDLOC THEN ERRVAL=1 :: GOTO 5350 :: REM SUBEND</v>
+      </c>
+      <c r="D523" s="20" t="str">
+        <f>A527</f>
+        <v>CHECKOVERLAP.SUBEND</v>
+      </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="18"/>
@@ -10416,7 +10436,7 @@
         <v>5320</v>
       </c>
       <c r="C524" t="s">
-        <v>958</v>
+        <v>84</v>
       </c>
       <c r="D524" s="18"/>
     </row>
@@ -10426,63 +10446,59 @@
         <v>5330</v>
       </c>
       <c r="C525" t="s">
-        <v>555</v>
+        <v>14</v>
       </c>
       <c r="D525" s="18"/>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A526" s="18" t="s">
-        <v>945</v>
-      </c>
+      <c r="A526" s="18"/>
       <c r="B526">
         <v>5340</v>
       </c>
-      <c r="C526" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A526,"***")</f>
-        <v>REM SUBROUTINE ***QUEUEADD***</v>
+      <c r="C526" t="s">
+        <v>1</v>
       </c>
       <c r="D526" s="18"/>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A527" s="18"/>
+      <c r="A527" s="20" t="str">
+        <f>_xlfn.CONCAT(A513,".SUBEND")</f>
+        <v>CHECKOVERLAP.SUBEND</v>
+      </c>
       <c r="B527">
         <v>5350</v>
       </c>
-      <c r="C527" t="str">
-        <f>IF(ISBLANK(E527),_xlfn.CONCAT("SUB ",A526),_xlfn.CONCAT("SUB ",A526,"(",E527,")"))</f>
-        <v>SUB QUEUEADD(Q(),QLEN,VALUE,ERRVAL)</v>
+      <c r="C527" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D527" s="18"/>
-      <c r="E527" t="s">
-        <v>968</v>
-      </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A528" s="18"/>
+      <c r="A528" s="18" t="s">
+        <v>954</v>
+      </c>
       <c r="B528">
         <v>5360</v>
       </c>
-      <c r="C528" s="18" t="str">
-        <f>IF(ISBLANK(E528),_xlfn.CONCAT("CALL ",D528),_xlfn.CONCAT("CALL ",D528,"(",E528,")"))</f>
-        <v>CALL QUEUESIZE(QSIZE)</v>
-      </c>
-      <c r="D528" s="18" t="str">
-        <f>A516</f>
-        <v>QUEUESIZE</v>
-      </c>
-      <c r="E528" t="s">
-        <v>955</v>
-      </c>
+      <c r="C528" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A528,"***")</f>
+        <v>REM SUBROUTINE ***QUEUESIZE***</v>
+      </c>
+      <c r="D528" s="18"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="18"/>
       <c r="B529">
         <v>5370</v>
       </c>
-      <c r="C529" t="s">
-        <v>971</v>
+      <c r="C529" t="str">
+        <f>IF(ISBLANK(E529),_xlfn.CONCAT("SUB ",A528),_xlfn.CONCAT("SUB ",A528,"(",E529,")"))</f>
+        <v>SUB QUEUESIZE(QSIZE)</v>
       </c>
       <c r="D529" s="18"/>
+      <c r="E529" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="18"/>
@@ -10490,70 +10506,73 @@
         <v>5380</v>
       </c>
       <c r="C530" t="s">
-        <v>555</v>
+        <v>956</v>
       </c>
       <c r="D530" s="18"/>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A531" s="18" t="s">
-        <v>959</v>
-      </c>
+      <c r="A531" s="18"/>
       <c r="B531">
         <v>5390</v>
       </c>
-      <c r="C531" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A531,"***")</f>
-        <v>REM SUBROUTINE ***QUEUEDEL***</v>
+      <c r="C531" t="s">
+        <v>555</v>
       </c>
       <c r="D531" s="18"/>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A532" s="18"/>
+      <c r="A532" s="18" t="s">
+        <v>953</v>
+      </c>
       <c r="B532">
         <v>5400</v>
       </c>
       <c r="C532" t="str">
-        <f>IF(ISBLANK(E532),_xlfn.CONCAT("SUB ",A531),_xlfn.CONCAT("SUB ",A531,"(",E532,")"))</f>
-        <v>SUB QUEUEDEL(Q(),QLEN,VALUE,ERRVAL)</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A532,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEINIT***</v>
       </c>
       <c r="D532" s="18"/>
-      <c r="E532" t="s">
-        <v>968</v>
-      </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="18"/>
       <c r="B533">
         <v>5410</v>
       </c>
-      <c r="C533" t="s">
-        <v>961</v>
+      <c r="C533" t="str">
+        <f>IF(ISBLANK(E533),_xlfn.CONCAT("SUB ",A532),_xlfn.CONCAT("SUB ",A532,"(",E533,")"))</f>
+        <v>SUB QUEUEINIT(Q(),QLEN)</v>
       </c>
       <c r="D533" s="18"/>
+      <c r="E533" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="18"/>
       <c r="B534">
         <v>5420</v>
       </c>
-      <c r="C534" t="s">
-        <v>960</v>
-      </c>
-      <c r="D534" s="18"/>
+      <c r="C534" s="18" t="str">
+        <f>IF(ISBLANK(E534),_xlfn.CONCAT("CALL ",D534),_xlfn.CONCAT("CALL ",D534,"(",E534,")"))</f>
+        <v>CALL QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D534" s="18" t="str">
+        <f>A528</f>
+        <v>QUEUESIZE</v>
+      </c>
+      <c r="E534" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="18"/>
       <c r="B535">
         <v>5430</v>
       </c>
-      <c r="C535" t="str">
-        <f>_xlfn.CONCAT("IF VALUE=Q(I) THEN DINDEX=I :: GOTO ",INDEX(B:B,MATCH(D535,A:A,0),0)," :: REM GOTO ",D535)</f>
-        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 5470 :: REM GOTO CONTRACT</v>
-      </c>
-      <c r="D535" s="20" t="str">
-        <f>A539</f>
-        <v>CONTRACT</v>
-      </c>
+      <c r="C535" t="s">
+        <v>963</v>
+      </c>
+      <c r="D535" s="18"/>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="18"/>
@@ -10561,123 +10580,128 @@
         <v>5440</v>
       </c>
       <c r="C536" t="s">
-        <v>1</v>
+        <v>958</v>
       </c>
       <c r="D536" s="18"/>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A537" s="20"/>
+      <c r="A537" s="18"/>
       <c r="B537">
         <v>5450</v>
       </c>
-      <c r="C537" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D537,A:A,0),0)," :: REM SUBEND")</f>
-        <v>GOTO 5510 :: REM SUBEND</v>
-      </c>
-      <c r="D537" s="20" t="str">
-        <f>A543</f>
-        <v>QUEUEDEL.SUBEND</v>
-      </c>
+      <c r="C537" t="s">
+        <v>555</v>
+      </c>
+      <c r="D537" s="18"/>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" s="18" t="s">
+        <v>945</v>
+      </c>
       <c r="B538">
         <v>5460</v>
       </c>
-      <c r="C538" s="5" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A539,"***")</f>
-        <v>REM LABEL ***CONTRACT***</v>
-      </c>
-      <c r="D538" s="20"/>
+      <c r="C538" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A538,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEADD***</v>
+      </c>
+      <c r="D538" s="18"/>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A539" s="20" t="s">
-        <v>1043</v>
-      </c>
+      <c r="A539" s="18"/>
       <c r="B539">
         <v>5470</v>
       </c>
-      <c r="C539" t="s">
-        <v>952</v>
+      <c r="C539" t="str">
+        <f>IF(ISBLANK(E539),_xlfn.CONCAT("SUB ",A538),_xlfn.CONCAT("SUB ",A538,"(",E539,")"))</f>
+        <v>SUB QUEUEADD(Q(),QLEN,VALUE,ERRVAL)</v>
       </c>
       <c r="D539" s="18"/>
+      <c r="E539" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A540"/>
+      <c r="A540" s="18"/>
       <c r="B540">
         <v>5480</v>
       </c>
-      <c r="C540" t="s">
-        <v>962</v>
-      </c>
-      <c r="D540" s="18"/>
+      <c r="C540" s="18" t="str">
+        <f>IF(ISBLANK(E540),_xlfn.CONCAT("CALL ",D540),_xlfn.CONCAT("CALL ",D540,"(",E540,")"))</f>
+        <v>CALL QUEUESIZE(QSIZE)</v>
+      </c>
+      <c r="D540" s="18" t="str">
+        <f>A528</f>
+        <v>QUEUESIZE</v>
+      </c>
+      <c r="E540" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A541"/>
+      <c r="A541" s="18"/>
       <c r="B541">
         <v>5490</v>
       </c>
       <c r="C541" t="s">
-        <v>1</v>
+        <v>971</v>
       </c>
       <c r="D541" s="18"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A542"/>
+      <c r="A542" s="18"/>
       <c r="B542">
         <v>5500</v>
       </c>
       <c r="C542" t="s">
-        <v>970</v>
+        <v>555</v>
       </c>
       <c r="D542" s="18"/>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A543" s="20" t="str">
-        <f>_xlfn.CONCAT(A531,".SUBEND")</f>
-        <v>QUEUEDEL.SUBEND</v>
+      <c r="A543" s="18" t="s">
+        <v>959</v>
       </c>
       <c r="B543">
         <v>5510</v>
       </c>
-      <c r="C543" t="s">
-        <v>555</v>
+      <c r="C543" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A543,"***")</f>
+        <v>REM SUBROUTINE ***QUEUEDEL***</v>
       </c>
       <c r="D543" s="18"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A544" s="18" t="s">
-        <v>737</v>
-      </c>
+      <c r="A544" s="18"/>
       <c r="B544">
         <v>5520</v>
       </c>
       <c r="C544" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A544,"***")</f>
-        <v>REM SUBROUTINE ***GETHOLECHAR***</v>
+        <f>IF(ISBLANK(E544),_xlfn.CONCAT("SUB ",A543),_xlfn.CONCAT("SUB ",A543,"(",E544,")"))</f>
+        <v>SUB QUEUEDEL(Q(),QLEN,VALUE,ERRVAL)</v>
       </c>
       <c r="D544" s="18"/>
+      <c r="E544" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="18"/>
       <c r="B545">
         <v>5530</v>
       </c>
-      <c r="C545" t="str">
-        <f>IF(ISBLANK(E545),_xlfn.CONCAT("SUB ",A544),_xlfn.CONCAT("SUB ",A544,"(",E545,")"))</f>
-        <v>SUB GETHOLECHAR(CHARVAL)</v>
+      <c r="C545" t="s">
+        <v>961</v>
       </c>
       <c r="D545" s="18"/>
-      <c r="E545" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="18"/>
       <c r="B546">
         <v>5540</v>
       </c>
-      <c r="C546" s="5" t="s">
-        <v>745</v>
+      <c r="C546" t="s">
+        <v>960</v>
       </c>
       <c r="D546" s="18"/>
     </row>
@@ -10686,115 +10710,114 @@
       <c r="B547">
         <v>5550</v>
       </c>
-      <c r="C547" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="D547" s="18"/>
+      <c r="C547" t="str">
+        <f>_xlfn.CONCAT("IF VALUE=Q(I) THEN DINDEX=I :: GOTO ",INDEX(B:B,MATCH(D547,A:A,0),0)," :: REM GOTO ",D547)</f>
+        <v>IF VALUE=Q(I) THEN DINDEX=I :: GOTO 5590 :: REM GOTO CONTRACT</v>
+      </c>
+      <c r="D547" s="20" t="str">
+        <f>A551</f>
+        <v>CONTRACT</v>
+      </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A548" s="18" t="s">
-        <v>749</v>
-      </c>
+      <c r="A548" s="18"/>
       <c r="B548">
         <v>5560</v>
       </c>
-      <c r="C548" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A548,"***")</f>
-        <v>REM SUBROUTINE ***GETFILLCHAR***</v>
+      <c r="C548" t="s">
+        <v>1</v>
       </c>
       <c r="D548" s="18"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A549" s="18"/>
+      <c r="A549" s="20"/>
       <c r="B549">
         <v>5570</v>
       </c>
       <c r="C549" t="str">
-        <f>IF(ISBLANK(E549),_xlfn.CONCAT("SUB ",A548),_xlfn.CONCAT("SUB ",A548,"(",E549,")"))</f>
-        <v>SUB GETFILLCHAR(CHARVAL)</v>
-      </c>
-      <c r="D549" s="18"/>
-      <c r="E549" t="s">
-        <v>747</v>
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D549,A:A,0),0)," :: REM SUBEND")</f>
+        <v>GOTO 5630 :: REM SUBEND</v>
+      </c>
+      <c r="D549" s="20" t="str">
+        <f>A555</f>
+        <v>QUEUEDEL.SUBEND</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A550" s="18"/>
       <c r="B550">
         <v>5580</v>
       </c>
-      <c r="C550" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="D550" s="18"/>
+      <c r="C550" s="5" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A551,"***")</f>
+        <v>REM LABEL ***CONTRACT***</v>
+      </c>
+      <c r="D550" s="20"/>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A551" s="18"/>
+      <c r="A551" s="20" t="s">
+        <v>1043</v>
+      </c>
       <c r="B551">
         <v>5590</v>
       </c>
-      <c r="C551" s="5" t="s">
-        <v>555</v>
+      <c r="C551" t="s">
+        <v>952</v>
       </c>
       <c r="D551" s="18"/>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A552" s="18" t="s">
-        <v>753</v>
-      </c>
+      <c r="A552"/>
       <c r="B552">
         <v>5600</v>
       </c>
-      <c r="C552" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A552,"***")</f>
-        <v>REM SUBROUTINE ***GETHITCHAR***</v>
+      <c r="C552" t="s">
+        <v>962</v>
       </c>
       <c r="D552" s="18"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A553" s="18"/>
+      <c r="A553"/>
       <c r="B553">
         <v>5610</v>
       </c>
-      <c r="C553" t="str">
-        <f>IF(ISBLANK(E553),_xlfn.CONCAT("SUB ",A552),_xlfn.CONCAT("SUB ",A552,"(",E553,")"))</f>
-        <v>SUB GETHITCHAR(CHARVAL)</v>
+      <c r="C553" t="s">
+        <v>1</v>
       </c>
       <c r="D553" s="18"/>
-      <c r="E553" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A554" s="18"/>
+      <c r="A554"/>
       <c r="B554">
         <v>5620</v>
       </c>
-      <c r="C554" s="5" t="s">
-        <v>754</v>
+      <c r="C554" t="s">
+        <v>970</v>
       </c>
       <c r="D554" s="18"/>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A555" s="18"/>
+      <c r="A555" s="20" t="str">
+        <f>_xlfn.CONCAT(A543,".SUBEND")</f>
+        <v>QUEUEDEL.SUBEND</v>
+      </c>
       <c r="B555">
         <v>5630</v>
       </c>
-      <c r="C555" s="5" t="s">
+      <c r="C555" t="s">
         <v>555</v>
       </c>
       <c r="D555" s="18"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="18" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="B556">
         <v>5640</v>
       </c>
       <c r="C556" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A556,"***")</f>
-        <v>REM SUBROUTINE ***GETSHIPCHAR***</v>
+        <v>REM SUBROUTINE ***GETHOLECHAR***</v>
       </c>
       <c r="D556" s="18"/>
     </row>
@@ -10805,7 +10828,7 @@
       </c>
       <c r="C557" t="str">
         <f>IF(ISBLANK(E557),_xlfn.CONCAT("SUB ",A556),_xlfn.CONCAT("SUB ",A556,"(",E557,")"))</f>
-        <v>SUB GETSHIPCHAR(CHARVAL)</v>
+        <v>SUB GETHOLECHAR(CHARVAL)</v>
       </c>
       <c r="D557" s="18"/>
       <c r="E557" t="s">
@@ -10818,7 +10841,7 @@
         <v>5660</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D558" s="18"/>
     </row>
@@ -10834,14 +10857,14 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="18" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B560">
         <v>5680</v>
       </c>
       <c r="C560" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A560,"***")</f>
-        <v>REM SUBROUTINE ***GETTENCHAR***</v>
+        <v>REM SUBROUTINE ***GETFILLCHAR***</v>
       </c>
       <c r="D560" s="18"/>
     </row>
@@ -10852,7 +10875,7 @@
       </c>
       <c r="C561" t="str">
         <f>IF(ISBLANK(E561),_xlfn.CONCAT("SUB ",A560),_xlfn.CONCAT("SUB ",A560,"(",E561,")"))</f>
-        <v>SUB GETTENCHAR(CHARVAL)</v>
+        <v>SUB GETFILLCHAR(CHARVAL)</v>
       </c>
       <c r="D561" s="18"/>
       <c r="E561" t="s">
@@ -10865,7 +10888,7 @@
         <v>5700</v>
       </c>
       <c r="C562" s="5" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D562" s="18"/>
     </row>
@@ -10881,14 +10904,14 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B564">
         <v>5720</v>
       </c>
       <c r="C564" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A564,"***")</f>
-        <v>REM SUBROUTINE ***GETMISSCHAR***</v>
+        <v>REM SUBROUTINE ***GETHITCHAR***</v>
       </c>
       <c r="D564" s="18"/>
     </row>
@@ -10899,7 +10922,7 @@
       </c>
       <c r="C565" t="str">
         <f>IF(ISBLANK(E565),_xlfn.CONCAT("SUB ",A564),_xlfn.CONCAT("SUB ",A564,"(",E565,")"))</f>
-        <v>SUB GETMISSCHAR(CHARVAL)</v>
+        <v>SUB GETHITCHAR(CHARVAL)</v>
       </c>
       <c r="D565" s="18"/>
       <c r="E565" t="s">
@@ -10912,7 +10935,7 @@
         <v>5740</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D566" s="18"/>
     </row>
@@ -10928,14 +10951,14 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="18" t="s">
-        <v>762</v>
+        <v>713</v>
       </c>
       <c r="B568">
         <v>5760</v>
       </c>
       <c r="C568" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A568,"***")</f>
-        <v>REM SUBROUTINE ***GETSUNKCHAR***</v>
+        <v>REM SUBROUTINE ***GETSHIPCHAR***</v>
       </c>
       <c r="D568" s="18"/>
     </row>
@@ -10946,7 +10969,7 @@
       </c>
       <c r="C569" t="str">
         <f>IF(ISBLANK(E569),_xlfn.CONCAT("SUB ",A568),_xlfn.CONCAT("SUB ",A568,"(",E569,")"))</f>
-        <v>SUB GETSUNKCHAR(CHARVAL)</v>
+        <v>SUB GETSHIPCHAR(CHARVAL)</v>
       </c>
       <c r="D569" s="18"/>
       <c r="E569" t="s">
@@ -10959,7 +10982,7 @@
         <v>5780</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="D570" s="18"/>
     </row>
@@ -10975,14 +10998,14 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="18" t="s">
-        <v>705</v>
+        <v>743</v>
       </c>
       <c r="B572">
         <v>5800</v>
       </c>
       <c r="C572" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A572,"***")</f>
-        <v>REM SUBROUTINE ***GETNUMSHIPS***</v>
+        <v>REM SUBROUTINE ***GETTENCHAR***</v>
       </c>
       <c r="D572" s="18"/>
     </row>
@@ -10993,11 +11016,11 @@
       </c>
       <c r="C573" t="str">
         <f>IF(ISBLANK(E573),_xlfn.CONCAT("SUB ",A572),_xlfn.CONCAT("SUB ",A572,"(",E573,")"))</f>
-        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
+        <v>SUB GETTENCHAR(CHARVAL)</v>
       </c>
       <c r="D573" s="18"/>
       <c r="E573" t="s">
-        <v>706</v>
+        <v>747</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
@@ -11005,8 +11028,8 @@
       <c r="B574">
         <v>5820</v>
       </c>
-      <c r="C574" t="s">
-        <v>550</v>
+      <c r="C574" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="D574" s="18"/>
     </row>
@@ -11015,21 +11038,21 @@
       <c r="B575">
         <v>5830</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C575" s="5" t="s">
         <v>555</v>
       </c>
       <c r="D575" s="18"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="18" t="s">
-        <v>717</v>
+        <v>755</v>
       </c>
       <c r="B576">
         <v>5840</v>
       </c>
       <c r="C576" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A576,"***")</f>
-        <v>REM SUBROUTINE ***GETSHIPLEN***</v>
+        <v>REM SUBROUTINE ***GETMISSCHAR***</v>
       </c>
       <c r="D576" s="18"/>
     </row>
@@ -11040,11 +11063,11 @@
       </c>
       <c r="C577" t="str">
         <f>IF(ISBLANK(E577),_xlfn.CONCAT("SUB ",A576),_xlfn.CONCAT("SUB ",A576,"(",E577,")"))</f>
-        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
+        <v>SUB GETMISSCHAR(CHARVAL)</v>
       </c>
       <c r="D577" s="18"/>
       <c r="E577" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
@@ -11052,8 +11075,8 @@
       <c r="B578">
         <v>5860</v>
       </c>
-      <c r="C578" t="s">
-        <v>614</v>
+      <c r="C578" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="D578" s="18"/>
     </row>
@@ -11062,65 +11085,68 @@
       <c r="B579">
         <v>5870</v>
       </c>
-      <c r="C579" t="s">
-        <v>721</v>
+      <c r="C579" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D579" s="18"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A580" s="18"/>
+      <c r="A580" s="18" t="s">
+        <v>762</v>
+      </c>
       <c r="B580">
         <v>5880</v>
       </c>
-      <c r="C580" s="5" t="s">
-        <v>555</v>
+      <c r="C580" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A580,"***")</f>
+        <v>REM SUBROUTINE ***GETSUNKCHAR***</v>
       </c>
       <c r="D580" s="18"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A581" s="18" t="s">
-        <v>716</v>
-      </c>
+      <c r="A581" s="18"/>
       <c r="B581">
         <v>5890</v>
       </c>
       <c r="C581" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A581,"***")</f>
-        <v>REM SUBROUTINE ***GETSHIPNAME***</v>
+        <f>IF(ISBLANK(E581),_xlfn.CONCAT("SUB ",A580),_xlfn.CONCAT("SUB ",A580,"(",E581,")"))</f>
+        <v>SUB GETSUNKCHAR(CHARVAL)</v>
       </c>
       <c r="D581" s="18"/>
+      <c r="E581" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" s="18"/>
       <c r="B582">
         <v>5900</v>
       </c>
-      <c r="C582" t="str">
-        <f>IF(ISBLANK(E582),_xlfn.CONCAT("SUB ",A581),_xlfn.CONCAT("SUB ",A581,"(",E582,")"))</f>
-        <v>SUB GETSHIPNAME(SHIPNAME$,INDEX)</v>
+      <c r="C582" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D582" s="18"/>
-      <c r="E582" t="s">
-        <v>719</v>
-      </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="18"/>
       <c r="B583">
         <v>5910</v>
       </c>
-      <c r="C583" t="s">
-        <v>615</v>
+      <c r="C583" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D583" s="18"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A584" s="18"/>
+      <c r="A584" s="18" t="s">
+        <v>705</v>
+      </c>
       <c r="B584">
         <v>5920</v>
       </c>
-      <c r="C584" t="s">
-        <v>720</v>
+      <c r="C584" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A584,"***")</f>
+        <v>REM SUBROUTINE ***GETNUMSHIPS***</v>
       </c>
       <c r="D584" s="18"/>
     </row>
@@ -11129,21 +11155,22 @@
       <c r="B585">
         <v>5930</v>
       </c>
-      <c r="C585" s="5" t="s">
-        <v>555</v>
+      <c r="C585" t="str">
+        <f>IF(ISBLANK(E585),_xlfn.CONCAT("SUB ",A584),_xlfn.CONCAT("SUB ",A584,"(",E585,")"))</f>
+        <v>SUB GETNUMSHIPS(NUMSHIPS)</v>
       </c>
       <c r="D585" s="18"/>
+      <c r="E585" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A586" s="18" t="s">
-        <v>707</v>
-      </c>
+      <c r="A586" s="18"/>
       <c r="B586">
         <v>5940</v>
       </c>
-      <c r="C586" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A586,"***")</f>
-        <v>REM SUBROUTINE ***GETBOARDORIG***</v>
+      <c r="C586" t="s">
+        <v>550</v>
       </c>
       <c r="D586" s="18"/>
     </row>
@@ -11152,22 +11179,21 @@
       <c r="B587">
         <v>5950</v>
       </c>
-      <c r="C587" t="str">
-        <f>IF(ISBLANK(E587),_xlfn.CONCAT("SUB ",A586),_xlfn.CONCAT("SUB ",A586,"(",E587,")"))</f>
-        <v>SUB GETBOARDORIG(ROW,COL)</v>
+      <c r="C587" t="s">
+        <v>555</v>
       </c>
       <c r="D587" s="18"/>
-      <c r="E587" t="s">
-        <v>689</v>
-      </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A588" s="18"/>
+      <c r="A588" s="18" t="s">
+        <v>717</v>
+      </c>
       <c r="B588">
         <v>5960</v>
       </c>
-      <c r="C588" t="s">
-        <v>708</v>
+      <c r="C588" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A588,"***")</f>
+        <v>REM SUBROUTINE ***GETSHIPLEN***</v>
       </c>
       <c r="D588" s="18"/>
     </row>
@@ -11176,21 +11202,22 @@
       <c r="B589">
         <v>5970</v>
       </c>
-      <c r="C589" s="5" t="s">
-        <v>555</v>
+      <c r="C589" t="str">
+        <f>IF(ISBLANK(E589),_xlfn.CONCAT("SUB ",A588),_xlfn.CONCAT("SUB ",A588,"(",E589,")"))</f>
+        <v>SUB GETSHIPLEN(SHIPLEN,INDEX)</v>
       </c>
       <c r="D589" s="18"/>
+      <c r="E589" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A590" s="18" t="s">
-        <v>711</v>
-      </c>
+      <c r="A590" s="18"/>
       <c r="B590">
         <v>5980</v>
       </c>
-      <c r="C590" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A590,"***")</f>
-        <v>REM SUBROUTINE ***GETAUXORIG***</v>
+      <c r="C590" t="s">
+        <v>614</v>
       </c>
       <c r="D590" s="18"/>
     </row>
@@ -11199,73 +11226,69 @@
       <c r="B591">
         <v>5990</v>
       </c>
-      <c r="C591" t="str">
-        <f>IF(ISBLANK(E591),_xlfn.CONCAT("SUB ",A590),_xlfn.CONCAT("SUB ",A590,"(",E591,")"))</f>
-        <v>SUB GETAUXORIG(ROW,COL)</v>
+      <c r="C591" t="s">
+        <v>721</v>
       </c>
       <c r="D591" s="18"/>
-      <c r="E591" t="s">
-        <v>689</v>
-      </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="18"/>
       <c r="B592">
         <v>6000</v>
       </c>
-      <c r="C592" t="s">
-        <v>709</v>
+      <c r="C592" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D592" s="18"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A593" s="18"/>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593" s="18" t="s">
+        <v>716</v>
+      </c>
       <c r="B593">
         <v>6010</v>
       </c>
-      <c r="C593" s="5" t="s">
-        <v>555</v>
+      <c r="C593" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A593,"***")</f>
+        <v>REM SUBROUTINE ***GETSHIPNAME***</v>
       </c>
       <c r="D593" s="18"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A594" s="18" t="s">
-        <v>710</v>
-      </c>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594" s="18"/>
       <c r="B594">
         <v>6020</v>
       </c>
       <c r="C594" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A594,"***")</f>
-        <v>REM SUBROUTINE ***GETMENUORIG***</v>
+        <f>IF(ISBLANK(E594),_xlfn.CONCAT("SUB ",A593),_xlfn.CONCAT("SUB ",A593,"(",E594,")"))</f>
+        <v>SUB GETSHIPNAME(SHIPNAME$,INDEX)</v>
       </c>
       <c r="D594" s="18"/>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E594" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="18"/>
       <c r="B595">
         <v>6030</v>
       </c>
-      <c r="C595" t="str">
-        <f>IF(ISBLANK(E595),_xlfn.CONCAT("SUB ",A594),_xlfn.CONCAT("SUB ",A594,"(",E595,")"))</f>
-        <v>SUB GETMENUORIG(ROW,COL)</v>
+      <c r="C595" t="s">
+        <v>615</v>
       </c>
       <c r="D595" s="18"/>
-      <c r="E595" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" s="18"/>
       <c r="B596">
         <v>6040</v>
       </c>
       <c r="C596" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="D596" s="18"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" s="18"/>
       <c r="B597">
         <v>6050</v>
@@ -11275,44 +11298,44 @@
       </c>
       <c r="D597" s="18"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" s="18" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="B598">
         <v>6060</v>
       </c>
       <c r="C598" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A598,"***")</f>
-        <v>REM SUBROUTINE ***GETDEBUGFLAG***</v>
+        <v>REM SUBROUTINE ***GETBOARDORIG***</v>
       </c>
       <c r="D598" s="18"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" s="18"/>
       <c r="B599">
         <v>6070</v>
       </c>
       <c r="C599" t="str">
         <f>IF(ISBLANK(E599),_xlfn.CONCAT("SUB ",A598),_xlfn.CONCAT("SUB ",A598,"(",E599,")"))</f>
-        <v>SUB GETDEBUGFLAG(DEBUG)</v>
+        <v>SUB GETBOARDORIG(ROW,COL)</v>
       </c>
       <c r="D599" s="18"/>
       <c r="E599" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" s="18"/>
       <c r="B600">
         <v>6080</v>
       </c>
-      <c r="C600" s="5" t="s">
-        <v>1022</v>
+      <c r="C600" t="s">
+        <v>708</v>
       </c>
       <c r="D600" s="18"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" s="18"/>
       <c r="B601">
         <v>6090</v>
@@ -11321,49 +11344,45 @@
         <v>555</v>
       </c>
       <c r="D601" s="18"/>
-      <c r="F601" t="str">
-        <f>_xlfn.IFNA(MATCH(D601,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" s="18" t="s">
-        <v>1013</v>
+        <v>711</v>
       </c>
       <c r="B602">
         <v>6100</v>
       </c>
       <c r="C602" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A602,"***")</f>
-        <v>REM SUBROUTINE ***GETAUTOPLAY***</v>
+        <v>REM SUBROUTINE ***GETAUXORIG***</v>
       </c>
       <c r="D602" s="18"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" s="18"/>
       <c r="B603">
         <v>6110</v>
       </c>
       <c r="C603" t="str">
         <f>IF(ISBLANK(E603),_xlfn.CONCAT("SUB ",A602),_xlfn.CONCAT("SUB ",A602,"(",E603,")"))</f>
-        <v>SUB GETAUTOPLAY(AUTOPLAY)</v>
+        <v>SUB GETAUXORIG(ROW,COL)</v>
       </c>
       <c r="D603" s="18"/>
       <c r="E603" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" s="18"/>
       <c r="B604">
         <v>6120</v>
       </c>
-      <c r="C604" s="5" t="s">
-        <v>1024</v>
+      <c r="C604" t="s">
+        <v>709</v>
       </c>
       <c r="D604" s="18"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" s="18"/>
       <c r="B605">
         <v>6130</v>
@@ -11372,134 +11391,255 @@
         <v>555</v>
       </c>
       <c r="D605" s="18"/>
-      <c r="F605" t="str">
-        <f>_xlfn.IFNA(MATCH(D605,A:A,0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C606" s="5"/>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C607" s="5"/>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C608" s="5"/>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C609" s="5"/>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610"/>
-      <c r="C610" s="5"/>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611"/>
-      <c r="C611" s="5"/>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612"/>
-      <c r="C612" s="5"/>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613"/>
-      <c r="C613" s="5"/>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614"/>
-      <c r="C614" s="5"/>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A615"/>
-      <c r="C615" s="5"/>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616"/>
-      <c r="C616" s="5"/>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617"/>
-      <c r="C617" s="5"/>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A638"/>
-      <c r="C638" s="5"/>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A639"/>
-      <c r="C639" s="5"/>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A643"/>
-      <c r="C643" s="5"/>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A646"/>
-      <c r="C646" s="5"/>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A652"/>
-      <c r="C652" s="5"/>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A656"/>
-      <c r="C656" s="5"/>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A660"/>
-      <c r="C660" s="5"/>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="B606">
+        <v>6140</v>
+      </c>
+      <c r="C606" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A606,"***")</f>
+        <v>REM SUBROUTINE ***GETMENUORIG***</v>
+      </c>
+      <c r="D606" s="18"/>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607" s="18"/>
+      <c r="B607">
+        <v>6150</v>
+      </c>
+      <c r="C607" t="str">
+        <f>IF(ISBLANK(E607),_xlfn.CONCAT("SUB ",A606),_xlfn.CONCAT("SUB ",A606,"(",E607,")"))</f>
+        <v>SUB GETMENUORIG(ROW,COL)</v>
+      </c>
+      <c r="D607" s="18"/>
+      <c r="E607" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608" s="18"/>
+      <c r="B608">
+        <v>6160</v>
+      </c>
+      <c r="C608" t="s">
+        <v>712</v>
+      </c>
+      <c r="D608" s="18"/>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609" s="18"/>
+      <c r="B609">
+        <v>6170</v>
+      </c>
+      <c r="C609" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D609" s="18"/>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="B610">
+        <v>6180</v>
+      </c>
+      <c r="C610" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A610,"***")</f>
+        <v>REM SUBROUTINE ***GETDEBUGFLAG***</v>
+      </c>
+      <c r="D610" s="18"/>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611" s="18"/>
+      <c r="B611">
+        <v>6190</v>
+      </c>
+      <c r="C611" t="str">
+        <f>IF(ISBLANK(E611),_xlfn.CONCAT("SUB ",A610),_xlfn.CONCAT("SUB ",A610,"(",E611,")"))</f>
+        <v>SUB GETDEBUGFLAG(DEBUG)</v>
+      </c>
+      <c r="D611" s="18"/>
+      <c r="E611" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612" s="18"/>
+      <c r="B612">
+        <v>6200</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D612" s="18"/>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613" s="18"/>
+      <c r="B613">
+        <v>6210</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D613" s="18"/>
+      <c r="F613" t="str">
+        <f>_xlfn.IFNA(MATCH(D613,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B614">
+        <v>6220</v>
+      </c>
+      <c r="C614" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A614,"***")</f>
+        <v>REM SUBROUTINE ***GETAUTOPLAY***</v>
+      </c>
+      <c r="D614" s="18"/>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615" s="18"/>
+      <c r="B615">
+        <v>6230</v>
+      </c>
+      <c r="C615" t="str">
+        <f>IF(ISBLANK(E615),_xlfn.CONCAT("SUB ",A614),_xlfn.CONCAT("SUB ",A614,"(",E615,")"))</f>
+        <v>SUB GETAUTOPLAY(AUTOPLAY)</v>
+      </c>
+      <c r="D615" s="18"/>
+      <c r="E615" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616" s="18"/>
+      <c r="B616">
+        <v>6240</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D616" s="18"/>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617" s="18"/>
+      <c r="B617">
+        <v>6250</v>
+      </c>
+      <c r="C617" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D617" s="18"/>
+      <c r="F617" t="str">
+        <f>_xlfn.IFNA(MATCH(D617,A:A,0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C618" s="5"/>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C619" s="5"/>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C620" s="5"/>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C621" s="5"/>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A622"/>
+      <c r="C622" s="5"/>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A623"/>
+      <c r="C623" s="5"/>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A624"/>
+      <c r="C624" s="5"/>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625"/>
+      <c r="C625" s="5"/>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626"/>
+      <c r="C626" s="5"/>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627"/>
+      <c r="C627" s="5"/>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628"/>
+      <c r="C628" s="5"/>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629"/>
+      <c r="C629" s="5"/>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A650"/>
+      <c r="C650" s="5"/>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A651"/>
+      <c r="C651" s="5"/>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A655"/>
+      <c r="C655" s="5"/>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A658"/>
+      <c r="C658" s="5"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664"/>
       <c r="C664" s="5"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A674"/>
-      <c r="C674" s="5"/>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A681"/>
-      <c r="C681" s="5"/>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A685"/>
-      <c r="C685" s="5"/>
-    </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C690" s="5"/>
-    </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C696" s="5"/>
-    </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668"/>
+      <c r="C668" s="5"/>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672"/>
+      <c r="C672" s="5"/>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676"/>
+      <c r="C676" s="5"/>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686"/>
+      <c r="C686" s="5"/>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693"/>
+      <c r="C693" s="5"/>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697"/>
+      <c r="C697" s="5"/>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C702" s="5"/>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C705" s="5"/>
-    </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C727" s="5"/>
-    </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C728" s="5"/>
-    </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C729" s="5"/>
-    </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C730" s="5"/>
-    </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C731" s="5"/>
-    </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C732" s="5"/>
-    </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C733" s="5"/>
-    </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C734" s="5"/>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C708" s="5"/>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C714" s="5"/>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C717" s="5"/>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C739" s="5"/>
@@ -11519,44 +11659,56 @@
     <row r="744" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C744" s="5"/>
     </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C745" s="5"/>
+    </row>
     <row r="746" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C746" s="5"/>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C747" s="5"/>
-    </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C760" s="1"/>
-    </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C761" s="1"/>
-    </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C762" s="1"/>
-    </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C763" s="1"/>
-    </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C764" s="1"/>
-    </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C766" s="1"/>
-    </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C768" s="1"/>
-    </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C769" s="1"/>
-    </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C771" s="1"/>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C751" s="5"/>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C752" s="5"/>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C753" s="5"/>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C754" s="5"/>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C755" s="5"/>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C756" s="5"/>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C758" s="5"/>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C759" s="5"/>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C772" s="1"/>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C773" s="1"/>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C777" s="1"/>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C774" s="1"/>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C775" s="1"/>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C776" s="1"/>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C778" s="1"/>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C780" s="1"/>
     </row>
     <row r="781" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C781" s="1"/>
@@ -11564,29 +11716,41 @@
     <row r="783" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C783" s="1"/>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C784" s="1"/>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C785" s="1"/>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C789" s="5"/>
-    </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C802" s="5"/>
-    </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C806" s="5"/>
-    </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C807" s="5"/>
-    </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C808" s="5"/>
-    </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C809" s="5"/>
-    </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C812" s="5"/>
+      <c r="C789" s="1"/>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C793" s="1"/>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C795" s="1"/>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C796" s="1"/>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C801" s="5"/>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C814" s="5"/>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C818" s="5"/>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C819" s="5"/>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C820" s="5"/>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C821" s="5"/>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C824" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
